--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB8F1F-AACF-4137-B893-3FD4825218A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B44CCA8-C5F6-4AAE-9DB7-EA54421CB024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -119,6 +119,150 @@
   </si>
   <si>
     <t>100BaseT, 100BaseTx, 100BaseFx, 100BaseCx</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>Binary Digit</t>
+  </si>
+  <si>
+    <t>U. Minima</t>
+  </si>
+  <si>
+    <t>ALMACENAMIENTO</t>
+  </si>
+  <si>
+    <t>ANCHO DE BANDA</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Equivalencia</t>
+  </si>
+  <si>
+    <t>Exponente</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>8 bits</t>
+  </si>
+  <si>
+    <t>10^0</t>
+  </si>
+  <si>
+    <t>KiloByte</t>
+  </si>
+  <si>
+    <t>10^3</t>
+  </si>
+  <si>
+    <t>10^6</t>
+  </si>
+  <si>
+    <t>10^9</t>
+  </si>
+  <si>
+    <t>10^12</t>
+  </si>
+  <si>
+    <t>10^15</t>
+  </si>
+  <si>
+    <t>10^18</t>
+  </si>
+  <si>
+    <t>10^21</t>
+  </si>
+  <si>
+    <t>10^24</t>
+  </si>
+  <si>
+    <t>10^27</t>
+  </si>
+  <si>
+    <t>10^30</t>
+  </si>
+  <si>
+    <t>10^33</t>
+  </si>
+  <si>
+    <t>MegaByte</t>
+  </si>
+  <si>
+    <t>1000B</t>
+  </si>
+  <si>
+    <t>1000KB</t>
+  </si>
+  <si>
+    <t>GigaByte</t>
+  </si>
+  <si>
+    <t>1000MB</t>
+  </si>
+  <si>
+    <t>TeraByte</t>
+  </si>
+  <si>
+    <t>1000GB</t>
+  </si>
+  <si>
+    <t>PetaByte</t>
+  </si>
+  <si>
+    <t>ExaByte</t>
+  </si>
+  <si>
+    <t>ZettaByte</t>
+  </si>
+  <si>
+    <t>YottaByte</t>
+  </si>
+  <si>
+    <t>BrontoByte</t>
+  </si>
+  <si>
+    <t>GeopByte</t>
+  </si>
+  <si>
+    <t>SaganByte</t>
+  </si>
+  <si>
+    <t>1000TB</t>
+  </si>
+  <si>
+    <t>1000PB</t>
+  </si>
+  <si>
+    <t>1000XB</t>
+  </si>
+  <si>
+    <t>1000ZB</t>
+  </si>
+  <si>
+    <t>1000YB</t>
+  </si>
+  <si>
+    <t>1000BB</t>
+  </si>
+  <si>
+    <t>1000GeB</t>
+  </si>
+  <si>
+    <t>KiB</t>
+  </si>
+  <si>
+    <t>GiB</t>
+  </si>
+  <si>
+    <t>MiB</t>
+  </si>
+  <si>
+    <t>TiB</t>
   </si>
 </sst>
 </file>
@@ -234,8 +378,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -292,6 +442,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -616,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B8B09C-E1B7-4EAF-8A56-2848F2F39911}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,113 +779,114 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -750,12 +904,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F5B955-0179-44D1-8995-F7853F4C3651}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B44CCA8-C5F6-4AAE-9DB7-EA54421CB024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBCE632-69B4-4497-8B49-EB77B1811309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
     <sheet name="unidades" sheetId="2" r:id="rId2"/>
+    <sheet name="fisica" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modelos!$C$1:$C$14</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="144">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -142,9 +143,6 @@
     <t>Equivalencia</t>
   </si>
   <si>
-    <t>Exponente</t>
-  </si>
-  <si>
     <t>Byte</t>
   </si>
   <si>
@@ -263,13 +261,227 @@
   </si>
   <si>
     <t>TiB</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>PiB</t>
+  </si>
+  <si>
+    <t>ZiB</t>
+  </si>
+  <si>
+    <t>YiB</t>
+  </si>
+  <si>
+    <t>BiB</t>
+  </si>
+  <si>
+    <t>XiB</t>
+  </si>
+  <si>
+    <t>GeiB</t>
+  </si>
+  <si>
+    <t>SiB</t>
+  </si>
+  <si>
+    <t>Kilobits/second</t>
+  </si>
+  <si>
+    <t>bits/second</t>
+  </si>
+  <si>
+    <t>Megabits/second</t>
+  </si>
+  <si>
+    <t>Gigabits/second</t>
+  </si>
+  <si>
+    <t>Terabit/second</t>
+  </si>
+  <si>
+    <t>1000bps</t>
+  </si>
+  <si>
+    <t>1000Gbps</t>
+  </si>
+  <si>
+    <t>1000Mbps</t>
+  </si>
+  <si>
+    <t>1000Kbps</t>
+  </si>
+  <si>
+    <t>Exp.</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Equiv</t>
+  </si>
+  <si>
+    <t>FRECUENCIA</t>
+  </si>
+  <si>
+    <t>Hertz</t>
+  </si>
+  <si>
+    <t>KiloHertz</t>
+  </si>
+  <si>
+    <t>MegaHertz</t>
+  </si>
+  <si>
+    <t>GigaHertz</t>
+  </si>
+  <si>
+    <t>TeraHertz</t>
+  </si>
+  <si>
+    <t>1 ciclo por seg</t>
+  </si>
+  <si>
+    <t>1 bit por seg</t>
+  </si>
+  <si>
+    <t>1000Hz</t>
+  </si>
+  <si>
+    <t>1000KHz</t>
+  </si>
+  <si>
+    <t>1000MHz</t>
+  </si>
+  <si>
+    <t>1000GHz</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Señal</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>Definicion</t>
+  </si>
+  <si>
+    <t>Amplitud Modulada</t>
+  </si>
+  <si>
+    <t>Frecuencia Modulada</t>
+  </si>
+  <si>
+    <t>Modulacion de Fase</t>
+  </si>
+  <si>
+    <t>Señal Portadora</t>
+  </si>
+  <si>
+    <t>TIA 568A</t>
+  </si>
+  <si>
+    <t>TIA568B</t>
+  </si>
+  <si>
+    <t>B.Verde</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>B.Naranja</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>B.Azul</t>
+  </si>
+  <si>
+    <t>Naranja</t>
+  </si>
+  <si>
+    <t>B.Marron</t>
+  </si>
+  <si>
+    <t>Marron</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Simplex</t>
+  </si>
+  <si>
+    <t>Uno Envia o Recibe</t>
+  </si>
+  <si>
+    <t>Uno Envia, no Recibe</t>
+  </si>
+  <si>
+    <t>Uno Envia y Recibe</t>
+  </si>
+  <si>
+    <t>Muchos a Muchos</t>
+  </si>
+  <si>
+    <t>Comunicación</t>
+  </si>
+  <si>
+    <t>Half Duplex</t>
+  </si>
+  <si>
+    <t>Full Duplex</t>
+  </si>
+  <si>
+    <t>Full Full Duplex</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Fibra</t>
+  </si>
+  <si>
+    <t>MMF</t>
+  </si>
+  <si>
+    <t>SMF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +510,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +566,62 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2906C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -374,18 +647,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -396,9 +687,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -426,35 +714,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD2906C"/>
       <color rgb="FFCC3300"/>
       <color rgb="FFA50021"/>
     </mruColors>
@@ -468,6 +842,245 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>877303</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45119</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5C6DE5-FA91-42B0-8CBD-2B847EBBF78B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="877303" y="270713"/>
+          <a:ext cx="581527" cy="426116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>907382</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25066</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155408</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5CF41A-E893-4BC5-9178-23D49FBE38EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="907382" y="461213"/>
+          <a:ext cx="531395" cy="837195"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>817145</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>40105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72189</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BDE5BB-F2F6-430D-9AC6-1CBA62A21E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="817145" y="230605"/>
+          <a:ext cx="668755" cy="448177"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>55144</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>130342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F281630-8200-43F2-8EED-0F49CDDE1B4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="481263"/>
+          <a:ext cx="516355" cy="792079"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -769,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B8B09C-E1B7-4EAF-8A56-2848F2F39911}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
@@ -783,110 +1396,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="22" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -904,211 +1517,661 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F5B955-0179-44D1-8995-F7853F4C3651}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D9"/>
+    <sheetView topLeftCell="G4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="17" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="F3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="H4" s="38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G11" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="H11" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="23" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="23" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="23" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB50611C-C95E-47CD-8ED7-7DBE740143C6}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="40" customWidth="1"/>
+    <col min="8" max="8" width="3" style="40" customWidth="1"/>
+    <col min="9" max="10" width="9.42578125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="52"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="52"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="52"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="52"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="52"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="52"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="52"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="52"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="52"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBCE632-69B4-4497-8B49-EB77B1811309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73144611-A555-4C54-BF09-6F8B1CB93B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
     <sheet name="unidades" sheetId="2" r:id="rId2"/>
     <sheet name="fisica" sheetId="3" r:id="rId3"/>
+    <sheet name="enlace" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modelos!$C$1:$C$14</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="191">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -471,6 +472,147 @@
   </si>
   <si>
     <t>SMF</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>Monomodo</t>
+  </si>
+  <si>
+    <t>Multimodo</t>
+  </si>
+  <si>
+    <t>luz</t>
+  </si>
+  <si>
+    <t>laser</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>rango</t>
+  </si>
+  <si>
+    <t>200km</t>
+  </si>
+  <si>
+    <t>2km</t>
+  </si>
+  <si>
+    <t>nucleo</t>
+  </si>
+  <si>
+    <t>9 micrones</t>
+  </si>
+  <si>
+    <t>60 micrones</t>
+  </si>
+  <si>
+    <t>capac</t>
+  </si>
+  <si>
+    <t>10Gbps</t>
+  </si>
+  <si>
+    <t>100Gbps</t>
+  </si>
+  <si>
+    <t>ventaja</t>
+  </si>
+  <si>
+    <t>contra</t>
+  </si>
+  <si>
+    <t>uso</t>
+  </si>
+  <si>
+    <t>Electronica</t>
+  </si>
+  <si>
+    <t>Economica</t>
+  </si>
+  <si>
+    <t>Hogares</t>
+  </si>
+  <si>
+    <t>Empresas</t>
+  </si>
+  <si>
+    <t>Conector</t>
+  </si>
+  <si>
+    <t>Terminacion</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Ferrule Connector</t>
+  </si>
+  <si>
+    <t>Straigth Tip</t>
+  </si>
+  <si>
+    <t>Suscriber Connector</t>
+  </si>
+  <si>
+    <t>Lucent Connector</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>UPC</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>Physical Connector</t>
+  </si>
+  <si>
+    <t>Ultra Physical Connector</t>
+  </si>
+  <si>
+    <t>Angled Physical Connector</t>
+  </si>
+  <si>
+    <t>Problemas</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>RFI</t>
+  </si>
+  <si>
+    <t>CrossTalk</t>
+  </si>
+  <si>
+    <t>Colision</t>
+  </si>
+  <si>
+    <t>Interf. Electromagnetica</t>
+  </si>
+  <si>
+    <t>Interf. Por Radiofrecuencia</t>
+  </si>
+  <si>
+    <t>Diafonia</t>
+  </si>
+  <si>
+    <t>Choque datos / Señales</t>
   </si>
 </sst>
 </file>
@@ -672,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,9 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -783,12 +922,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -816,15 +949,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -849,7 +1032,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>877303</xdr:colOff>
+      <xdr:colOff>917408</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>80213</xdr:rowOff>
     </xdr:from>
@@ -857,7 +1040,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>45119</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>125329</xdr:rowOff>
+      <xdr:rowOff>50132</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -872,8 +1055,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="877303" y="270713"/>
-          <a:ext cx="581527" cy="426116"/>
+          <a:off x="917408" y="270713"/>
+          <a:ext cx="1112922" cy="350919"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1025,9 +1208,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
+      <xdr:colOff>972553</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>100263</xdr:rowOff>
+      <xdr:rowOff>55145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -1048,8 +1231,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="481263"/>
-          <a:ext cx="516355" cy="792079"/>
+          <a:off x="972553" y="436145"/>
+          <a:ext cx="1067802" cy="837197"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1081,6 +1264,40 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}" name="Tabla3" displayName="Tabla3" ref="E1:G9" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="E1:G9" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8079FA69-59E6-4C3F-8414-22F5F08661F0}" name="Fibra" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{51C999F5-4709-4731-A8C0-5DF1FB13B02F}" name="SMF" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D64CF8DA-A5E3-4CD8-B0D7-1B8FF7A3D8F6}" name="MMF" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C78321D3-CCFD-43D7-8B50-0C45EEA5B1E7}" name="Tabla6" displayName="Tabla6" ref="I1:J5" totalsRowShown="0">
+  <autoFilter ref="I1:J5" xr:uid="{C78321D3-CCFD-43D7-8B50-0C45EEA5B1E7}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{08E9B9E5-F910-401F-93ED-C04AD37535EF}" name="Conector"/>
+    <tableColumn id="2" xr3:uid="{D5269F62-4479-4F3D-A5D4-C1ED26AF7B5B}" name="Definicion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{52135C1B-9F95-4015-B02C-B87CD34D509E}" name="Tabla8" displayName="Tabla8" ref="I6:J9" totalsRowShown="0">
+  <autoFilter ref="I6:J9" xr:uid="{52135C1B-9F95-4015-B02C-B87CD34D509E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{543EB15E-529C-425D-915D-1E4596E25696}" name="Terminacion"/>
+    <tableColumn id="2" xr3:uid="{BC2527C8-7181-4C90-8F5A-90CCE514EF2C}" name="Definicion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1519,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F5B955-0179-44D1-8995-F7853F4C3651}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -1550,10 +1767,10 @@
       <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
@@ -1568,160 +1785,160 @@
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>70</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>73</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="17"/>
@@ -1732,122 +1949,122 @@
       <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="35" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="30" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1865,13 +2082,13 @@
         <v>82</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1890,22 +2107,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB50611C-C95E-47CD-8ED7-7DBE740143C6}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="40" customWidth="1"/>
-    <col min="8" max="8" width="3" style="40" customWidth="1"/>
-    <col min="9" max="10" width="9.42578125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" style="39" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1918,254 +2136,420 @@
       <c r="C1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="40"/>
+      <c r="I1" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="E2" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="E3" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="E4" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="E5" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="E6" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="E7" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="50" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="E8" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="48" t="s">
         <v>127</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="E9" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="E11" t="s">
+      <c r="C11" s="61"/>
+      <c r="E11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="G11" s="61"/>
+      <c r="I11" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="E12" t="s">
+      <c r="C12" s="62"/>
+      <c r="E12" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="G12" s="62"/>
+      <c r="I12" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="E13" t="s">
+      <c r="C13" s="63"/>
+      <c r="E13" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="G13" s="63"/>
+      <c r="I13" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="E14" t="s">
+      <c r="C14" s="64"/>
+      <c r="E14" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="G14" s="64"/>
+      <c r="I14" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="E15" t="s">
+      <c r="C15" s="65"/>
+      <c r="E15" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="G15" s="65"/>
+      <c r="I15" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="C16" s="49"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
-      <c r="K17" s="40"/>
+      <c r="C17" s="49"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="52"/>
-      <c r="K18" s="40"/>
+      <c r="C18" s="49"/>
+      <c r="K18" s="39"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="52"/>
+      <c r="C19" s="49"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
+      <c r="C20" s="49"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="52"/>
+      <c r="C21" s="49"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="52"/>
+      <c r="C22" s="49"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="52"/>
+      <c r="C23" s="49"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="52"/>
+      <c r="C24" s="49"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="52"/>
+      <c r="C25" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
@@ -2173,5 +2557,22 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B7B516-DCFC-4AB6-BF06-408575EF620D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73144611-A555-4C54-BF09-6F8B1CB93B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEE594A-D9DE-432E-AE77-DF2B0AEEF982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
     <sheet name="unidades" sheetId="2" r:id="rId2"/>
     <sheet name="fisica" sheetId="3" r:id="rId3"/>
     <sheet name="enlace" sheetId="4" r:id="rId4"/>
+    <sheet name="sistemas" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modelos!$C$1:$C$14</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="290">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -613,6 +614,303 @@
   </si>
   <si>
     <t>Choque datos / Señales</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>01100100</t>
+  </si>
+  <si>
+    <t>01100011</t>
+  </si>
+  <si>
+    <t>00010000</t>
+  </si>
+  <si>
+    <t>00001111</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>00000100</t>
+  </si>
+  <si>
+    <t>00000101</t>
+  </si>
+  <si>
+    <t>00000110</t>
+  </si>
+  <si>
+    <t>00000111</t>
+  </si>
+  <si>
+    <t>00001000</t>
+  </si>
+  <si>
+    <t>00001001</t>
+  </si>
+  <si>
+    <t>00001010</t>
+  </si>
+  <si>
+    <t>00001011</t>
+  </si>
+  <si>
+    <t>00001100</t>
+  </si>
+  <si>
+    <t>00001101</t>
+  </si>
+  <si>
+    <t>00001110</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>0x63</t>
+  </si>
+  <si>
+    <t>0x64</t>
+  </si>
+  <si>
+    <t>0xFF</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>0x0B</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>0x0D</t>
+  </si>
+  <si>
+    <t>0x0E</t>
+  </si>
+  <si>
+    <t>0x0F</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>10^2</t>
+  </si>
+  <si>
+    <t>10^1</t>
+  </si>
+  <si>
+    <t>2^0</t>
+  </si>
+  <si>
+    <t>2^7</t>
+  </si>
+  <si>
+    <t>2^6</t>
+  </si>
+  <si>
+    <t>2^5</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>2^3</t>
+  </si>
+  <si>
+    <t>2^2</t>
+  </si>
+  <si>
+    <t>2^1</t>
+  </si>
+  <si>
+    <t>16^0</t>
+  </si>
+  <si>
+    <t>16^3</t>
+  </si>
+  <si>
+    <t>16^2</t>
+  </si>
+  <si>
+    <t>16^1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>0x7F</t>
+  </si>
+  <si>
+    <t>0xFE</t>
+  </si>
+  <si>
+    <t>0xC0</t>
+  </si>
+  <si>
+    <t>0xA8</t>
+  </si>
+  <si>
+    <t>0xDF</t>
+  </si>
+  <si>
+    <t>0x38</t>
+  </si>
+  <si>
+    <t>0x57</t>
+  </si>
+  <si>
+    <t>0x82</t>
+  </si>
+  <si>
+    <t>0xAC</t>
+  </si>
+  <si>
+    <t>0x90</t>
+  </si>
+  <si>
+    <t>0xED</t>
+  </si>
+  <si>
+    <t>0x73</t>
   </si>
 </sst>
 </file>
@@ -621,7 +919,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -660,7 +958,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,8 +1060,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -809,12 +1113,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -865,27 +1247,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -972,6 +1339,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -984,17 +1374,144 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1267,12 +1784,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}" name="Tabla3" displayName="Tabla3" ref="E1:G9" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}" name="Tabla3" displayName="Tabla3" ref="E1:G9" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="E1:G9" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8079FA69-59E6-4C3F-8414-22F5F08661F0}" name="Fibra" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{51C999F5-4709-4731-A8C0-5DF1FB13B02F}" name="SMF" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D64CF8DA-A5E3-4CD8-B0D7-1B8FF7A3D8F6}" name="MMF" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8079FA69-59E6-4C3F-8414-22F5F08661F0}" name="Fibra" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{51C999F5-4709-4731-A8C0-5DF1FB13B02F}" name="SMF" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D64CF8DA-A5E3-4CD8-B0D7-1B8FF7A3D8F6}" name="MMF" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1295,6 +1812,80 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{543EB15E-529C-425D-915D-1E4596E25696}" name="Terminacion"/>
     <tableColumn id="2" xr3:uid="{BC2527C8-7181-4C90-8F5A-90CCE514EF2C}" name="Definicion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{42F81D43-1DF1-4805-95B1-B96C8A4790AB}" name="Tabla1" displayName="Tabla1" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21" xr:uid="{42F81D43-1DF1-4805-95B1-B96C8A4790AB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6D77550C-69D5-44ED-A818-C47FF27E12F8}" name="DEC" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{888DFC0E-62A3-4FAD-9D8B-8B3422479316}" name="BIN" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{F2900852-B448-4DE9-8912-031513158585}" name="HEX" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C826FE9-9026-4910-9978-0DF01EB75377}" name="Tabla2" displayName="Tabla2" ref="E1:I3" totalsRowShown="0">
+  <autoFilter ref="E1:I3" xr:uid="{3C826FE9-9026-4910-9978-0DF01EB75377}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A5091F92-CAE8-4302-AA0F-5E7273C946F9}" name="EXP"/>
+    <tableColumn id="2" xr3:uid="{4A8F7FD7-5D90-457C-8CA9-B80B430ECE97}" name="10^3"/>
+    <tableColumn id="3" xr3:uid="{EDD63518-F780-432B-B881-7C12A9535248}" name="10^2"/>
+    <tableColumn id="4" xr3:uid="{6B870D8A-F83F-4117-B81E-102F285E3DE2}" name="10^1"/>
+    <tableColumn id="5" xr3:uid="{B06899E1-297D-46A1-98A2-B48F68FA87D3}" name="10^0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E6370397-E076-43E7-9698-49F6F959CE7A}" name="Tabla25" displayName="Tabla25" ref="K1:S3" totalsRowShown="0">
+  <autoFilter ref="K1:S3" xr:uid="{E6370397-E076-43E7-9698-49F6F959CE7A}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{D6A37B02-E9C4-49CB-8C2A-A865DDB05E2C}" name="EXP"/>
+    <tableColumn id="2" xr3:uid="{1349FDC6-3AA1-42B5-9F06-7FC58808E9C1}" name="2^7" dataDxfId="0">
+      <calculatedColumnFormula>2^7</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{33EADDB5-4757-4423-BE0A-AB9102000FFB}" name="2^6" dataDxfId="1">
+      <calculatedColumnFormula>2^6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{50E8A68B-6961-40D5-98D1-907DC09AFC45}" name="2^5" dataDxfId="2">
+      <calculatedColumnFormula>2^5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C3D88FBD-0E0B-4446-8615-4D2D84ECB388}" name="2^4" dataDxfId="3">
+      <calculatedColumnFormula>2^4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{34188D14-E91B-406C-A3AE-60F368E2A5FD}" name="2^3" dataDxfId="4">
+      <calculatedColumnFormula>2^3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{109343F3-772B-401D-B6E1-CB46978A4E8A}" name="2^2" dataDxfId="5">
+      <calculatedColumnFormula>2^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{4FEF6C42-FF4E-492F-9369-CB1247EAFFD2}" name="2^1" dataDxfId="6">
+      <calculatedColumnFormula>2^1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{8831B11E-9A44-40E1-A709-EAAB97E9E3BD}" name="2^0" dataDxfId="7">
+      <calculatedColumnFormula>2^0</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{136DDC96-ACB8-4F6A-B617-D837840061EF}" name="Tabla28" displayName="Tabla28" ref="E5:I7" totalsRowShown="0">
+  <autoFilter ref="E5:I7" xr:uid="{136DDC96-ACB8-4F6A-B617-D837840061EF}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3F3BD8A5-519F-4E8C-B72E-94AF8EF2F6B9}" name="EXP"/>
+    <tableColumn id="2" xr3:uid="{406BD4BA-C7B8-475D-8C4D-353BAB801487}" name="16^3"/>
+    <tableColumn id="3" xr3:uid="{EE19687B-2AEB-4AB2-9B89-3560CB630422}" name="16^2"/>
+    <tableColumn id="4" xr3:uid="{0BEC878F-E44D-409F-A72D-A213B56B32DF}" name="16^1"/>
+    <tableColumn id="5" xr3:uid="{999D1ED4-B6FE-4D79-9FA2-75642F84B982}" name="16^0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1630,13 +2221,13 @@
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="58" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1644,17 +2235,17 @@
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1694,7 +2285,7 @@
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="60" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1708,7 +2299,7 @@
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -1736,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F5B955-0179-44D1-8995-F7853F4C3651}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,304 +2358,304 @@
       <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
+      <c r="F1" s="22"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="28" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="32" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="29" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="30" t="s">
         <v>70</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="31" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="30" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="31" t="s">
         <v>73</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="30" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="31" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="30" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="31" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="30" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2082,13 +2673,13 @@
         <v>82</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="26" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2107,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB50611C-C95E-47CD-8ED7-7DBE740143C6}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -2116,14 +2707,14 @@
     <col min="1" max="1" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" style="39" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" style="34" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2136,411 +2727,411 @@
       <c r="C1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="39"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="36" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="37" t="s">
         <v>121</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>122</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="39" t="s">
         <v>123</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="40" t="s">
         <v>124</v>
       </c>
       <c r="B6" s="17"/>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="41" t="s">
         <v>125</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="42" t="s">
         <v>126</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="43" t="s">
         <v>127</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="65"/>
       <c r="E11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="61"/>
+      <c r="G11" s="65"/>
       <c r="I11" s="12" t="s">
         <v>182</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="E12" s="60" t="s">
+      <c r="C12" s="66"/>
+      <c r="E12" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="I12" s="60" t="s">
+      <c r="G12" s="66"/>
+      <c r="I12" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="E13" s="53" t="s">
+      <c r="C13" s="67"/>
+      <c r="E13" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="I13" s="66" t="s">
+      <c r="G13" s="67"/>
+      <c r="I13" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="J13" s="66" t="s">
+      <c r="J13" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="E14" s="52" t="s">
+      <c r="C14" s="68"/>
+      <c r="E14" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="I14" s="67" t="s">
+      <c r="G14" s="68"/>
+      <c r="I14" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="J14" s="67" t="s">
+      <c r="J14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="E15" s="54" t="s">
+      <c r="C15" s="64"/>
+      <c r="E15" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="I15" s="54" t="s">
+      <c r="G15" s="64"/>
+      <c r="I15" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="49"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="C16" s="44"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="49"/>
-      <c r="K17" s="39"/>
+      <c r="C17" s="44"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="49"/>
-      <c r="K18" s="39"/>
+      <c r="C18" s="44"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="49"/>
+      <c r="C19" s="44"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="49"/>
+      <c r="C20" s="44"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="49"/>
+      <c r="C21" s="44"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="49"/>
+      <c r="C22" s="44"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="49"/>
+      <c r="C23" s="44"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="49"/>
+      <c r="C24" s="44"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="49"/>
+      <c r="C25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2569,10 +3160,1219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B7B516-DCFC-4AB6-BF06-408575EF620D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54F4483-CBAC-4BEA-A628-30BC5CC8F957}">
+  <dimension ref="A1:AC24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" customWidth="1"/>
+    <col min="21" max="21" width="2.42578125" customWidth="1"/>
+    <col min="22" max="29" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>268</v>
+      </c>
+      <c r="R1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <f>10^2</f>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <f>10^1</f>
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <f>10^0</f>
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2" si="0">2^7</f>
+        <v>128</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2" si="1">2^6</f>
+        <v>64</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2" si="2">2^5</f>
+        <v>32</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2" si="3">2^4</f>
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2" si="4">2^3</f>
+        <v>8</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2" si="5">2^2</f>
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2" si="6">2^1</f>
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2" si="7">2^0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="P5" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="V5" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6">
+        <f>16^3</f>
+        <v>4096</v>
+      </c>
+      <c r="G6">
+        <f>16^2</f>
+        <v>256</v>
+      </c>
+      <c r="H6">
+        <f>16^1</f>
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <f>16^0</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="80">
+        <v>32</v>
+      </c>
+      <c r="L6" s="100">
+        <v>0</v>
+      </c>
+      <c r="M6" s="76">
+        <v>0</v>
+      </c>
+      <c r="N6" s="76">
+        <v>1</v>
+      </c>
+      <c r="O6" s="76">
+        <v>0</v>
+      </c>
+      <c r="P6" s="100">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="76">
+        <v>0</v>
+      </c>
+      <c r="R6" s="76">
+        <v>0</v>
+      </c>
+      <c r="S6" s="76">
+        <v>0</v>
+      </c>
+      <c r="T6" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="V6" s="18">
+        <v>32</v>
+      </c>
+      <c r="W6" s="84">
+        <v>2</v>
+      </c>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="91"/>
+      <c r="AC6" s="91"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="18">
+        <v>9</v>
+      </c>
+      <c r="K7" s="81">
+        <v>127</v>
+      </c>
+      <c r="L7" s="101">
+        <v>0</v>
+      </c>
+      <c r="M7" s="79">
+        <v>1</v>
+      </c>
+      <c r="N7" s="79">
+        <v>1</v>
+      </c>
+      <c r="O7" s="79">
+        <v>1</v>
+      </c>
+      <c r="P7" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="77">
+        <v>1</v>
+      </c>
+      <c r="R7" s="77">
+        <v>1</v>
+      </c>
+      <c r="S7" s="77">
+        <v>1</v>
+      </c>
+      <c r="T7" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="V7" s="87">
+        <v>0</v>
+      </c>
+      <c r="W7" s="18">
+        <v>16</v>
+      </c>
+      <c r="X7" s="84">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="82">
+        <v>254</v>
+      </c>
+      <c r="L8" s="102">
+        <v>1</v>
+      </c>
+      <c r="M8" s="99">
+        <v>1</v>
+      </c>
+      <c r="N8" s="99">
+        <v>1</v>
+      </c>
+      <c r="O8" s="99">
+        <v>1</v>
+      </c>
+      <c r="P8" s="102">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="78">
+        <v>1</v>
+      </c>
+      <c r="R8" s="78">
+        <v>1</v>
+      </c>
+      <c r="S8" s="78">
+        <v>0</v>
+      </c>
+      <c r="T8" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="U8" s="35"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="18">
+        <v>0</v>
+      </c>
+      <c r="X8" s="18">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="84">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="18">
+        <v>192</v>
+      </c>
+      <c r="F9" s="18">
+        <v>16</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="63"/>
+      <c r="K9" s="81">
+        <v>192</v>
+      </c>
+      <c r="L9" s="101">
+        <v>1</v>
+      </c>
+      <c r="M9" s="79">
+        <v>1</v>
+      </c>
+      <c r="N9" s="79">
+        <v>0</v>
+      </c>
+      <c r="O9" s="79">
+        <v>0</v>
+      </c>
+      <c r="P9" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="77">
+        <v>0</v>
+      </c>
+      <c r="R9" s="77">
+        <v>0</v>
+      </c>
+      <c r="S9" s="77">
+        <v>0</v>
+      </c>
+      <c r="T9" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="V9" s="90"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="84">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>12</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="82">
+        <v>168</v>
+      </c>
+      <c r="L10" s="102">
+        <v>1</v>
+      </c>
+      <c r="M10" s="99">
+        <v>0</v>
+      </c>
+      <c r="N10" s="99">
+        <v>1</v>
+      </c>
+      <c r="O10" s="99">
+        <v>0</v>
+      </c>
+      <c r="P10" s="102">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="78">
+        <v>0</v>
+      </c>
+      <c r="R10" s="78">
+        <v>0</v>
+      </c>
+      <c r="S10" s="78">
+        <v>0</v>
+      </c>
+      <c r="T10" s="99" t="s">
+        <v>281</v>
+      </c>
+      <c r="V10" s="18">
+        <v>168</v>
+      </c>
+      <c r="W10" s="92">
+        <v>2</v>
+      </c>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="84">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="K11" s="81">
+        <v>223</v>
+      </c>
+      <c r="L11" s="101">
+        <v>1</v>
+      </c>
+      <c r="M11" s="79">
+        <v>1</v>
+      </c>
+      <c r="N11" s="79">
+        <v>0</v>
+      </c>
+      <c r="O11" s="79">
+        <v>1</v>
+      </c>
+      <c r="P11" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="77">
+        <v>1</v>
+      </c>
+      <c r="R11" s="77">
+        <v>1</v>
+      </c>
+      <c r="S11" s="77">
+        <v>1</v>
+      </c>
+      <c r="T11" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="V11" s="87">
+        <v>0</v>
+      </c>
+      <c r="W11" s="18">
+        <v>84</v>
+      </c>
+      <c r="X11" s="92">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="18">
+        <v>56</v>
+      </c>
+      <c r="F12" s="18">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K12" s="82">
+        <v>56</v>
+      </c>
+      <c r="L12" s="102">
+        <v>0</v>
+      </c>
+      <c r="M12" s="99">
+        <v>0</v>
+      </c>
+      <c r="N12" s="99">
+        <v>1</v>
+      </c>
+      <c r="O12" s="99">
+        <v>1</v>
+      </c>
+      <c r="P12" s="102">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="78">
+        <v>0</v>
+      </c>
+      <c r="R12" s="78">
+        <v>0</v>
+      </c>
+      <c r="S12" s="78">
+        <v>0</v>
+      </c>
+      <c r="T12" s="99" t="s">
+        <v>283</v>
+      </c>
+      <c r="U12" s="35"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="18">
+        <v>0</v>
+      </c>
+      <c r="X12" s="18">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="93">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="91"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="18">
+        <v>8</v>
+      </c>
+      <c r="F13" s="18">
+        <v>3</v>
+      </c>
+      <c r="H13" s="18">
+        <v>3</v>
+      </c>
+      <c r="I13" s="18">
+        <v>8</v>
+      </c>
+      <c r="K13" s="81">
+        <v>87</v>
+      </c>
+      <c r="L13" s="101">
+        <v>0</v>
+      </c>
+      <c r="M13" s="79">
+        <v>1</v>
+      </c>
+      <c r="N13" s="79">
+        <v>0</v>
+      </c>
+      <c r="O13" s="79">
+        <v>1</v>
+      </c>
+      <c r="P13" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="77">
+        <v>1</v>
+      </c>
+      <c r="R13" s="77">
+        <v>1</v>
+      </c>
+      <c r="S13" s="77">
+        <v>1</v>
+      </c>
+      <c r="T13" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="W13" s="86"/>
+      <c r="X13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="88">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="94">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="K14" s="82">
+        <v>130</v>
+      </c>
+      <c r="L14" s="102">
+        <v>1</v>
+      </c>
+      <c r="M14" s="99">
+        <v>0</v>
+      </c>
+      <c r="N14" s="99">
+        <v>0</v>
+      </c>
+      <c r="O14" s="99">
+        <v>0</v>
+      </c>
+      <c r="P14" s="102">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="78">
+        <v>0</v>
+      </c>
+      <c r="R14" s="78">
+        <v>1</v>
+      </c>
+      <c r="S14" s="78">
+        <v>0</v>
+      </c>
+      <c r="T14" s="99" t="s">
+        <v>285</v>
+      </c>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="88">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="94">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15">
+        <v>172</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" s="63"/>
+      <c r="K15" s="83">
+        <v>172</v>
+      </c>
+      <c r="L15" s="101">
+        <v>1</v>
+      </c>
+      <c r="M15" s="79">
+        <v>0</v>
+      </c>
+      <c r="N15" s="79">
+        <v>1</v>
+      </c>
+      <c r="O15" s="79">
+        <v>0</v>
+      </c>
+      <c r="P15" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="79">
+        <v>1</v>
+      </c>
+      <c r="R15" s="79">
+        <v>0</v>
+      </c>
+      <c r="S15" s="79">
+        <v>0</v>
+      </c>
+      <c r="T15" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y15" s="86"/>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="94">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="91"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" s="82">
+        <v>144</v>
+      </c>
+      <c r="L16" s="102">
+        <v>1</v>
+      </c>
+      <c r="M16" s="99">
+        <v>0</v>
+      </c>
+      <c r="N16" s="99">
+        <v>0</v>
+      </c>
+      <c r="O16" s="99">
+        <v>1</v>
+      </c>
+      <c r="P16" s="102">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="78">
+        <v>0</v>
+      </c>
+      <c r="R16" s="78">
+        <v>0</v>
+      </c>
+      <c r="S16" s="78">
+        <v>0</v>
+      </c>
+      <c r="T16" s="99" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z16" s="86"/>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="K17" s="81">
+        <v>237</v>
+      </c>
+      <c r="L17" s="101">
+        <v>1</v>
+      </c>
+      <c r="M17" s="79">
+        <v>1</v>
+      </c>
+      <c r="N17" s="79">
+        <v>1</v>
+      </c>
+      <c r="O17" s="79">
+        <v>0</v>
+      </c>
+      <c r="P17" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="77">
+        <v>1</v>
+      </c>
+      <c r="R17" s="77">
+        <v>0</v>
+      </c>
+      <c r="S17" s="77">
+        <v>1</v>
+      </c>
+      <c r="T17" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA17" s="86"/>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" s="82">
+        <v>115</v>
+      </c>
+      <c r="L18" s="102">
+        <v>0</v>
+      </c>
+      <c r="M18" s="99">
+        <v>1</v>
+      </c>
+      <c r="N18" s="99">
+        <v>1</v>
+      </c>
+      <c r="O18" s="99">
+        <v>1</v>
+      </c>
+      <c r="P18" s="102">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="78">
+        <v>0</v>
+      </c>
+      <c r="R18" s="78">
+        <v>1</v>
+      </c>
+      <c r="S18" s="78">
+        <v>1</v>
+      </c>
+      <c r="T18" s="99" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="85"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="K19" s="81">
+        <v>216</v>
+      </c>
+      <c r="L19" s="101"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="82">
+        <v>81</v>
+      </c>
+      <c r="L20" s="102"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="K21" s="81">
+        <v>22</v>
+      </c>
+      <c r="L21" s="101"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K22" s="82">
+        <v>120</v>
+      </c>
+      <c r="L22" s="102"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K23" s="81">
+        <v>230</v>
+      </c>
+      <c r="L23" s="101"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="104">
+        <v>195</v>
+      </c>
+      <c r="L24" s="105"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="V5:AC5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H15:I15"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEE594A-D9DE-432E-AE77-DF2B0AEEF982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A0CA88-CC85-4C3D-AE72-E343C70130D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" activeTab="3" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="318">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -911,6 +911,90 @@
   </si>
   <si>
     <t>0x73</t>
+  </si>
+  <si>
+    <t>Tramas</t>
+  </si>
+  <si>
+    <t>RUNT</t>
+  </si>
+  <si>
+    <t>GIANT</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>THROTTLE</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Tramas menores a 64B (Tamaño Min.)</t>
+  </si>
+  <si>
+    <t>Tramas mayores a 1,5KB (Tamaños Max.)</t>
+  </si>
+  <si>
+    <t>Error de Redundancia Ciclica (FCS)</t>
+  </si>
+  <si>
+    <t>Desbordamiendo de Buffer de Memoria</t>
+  </si>
+  <si>
+    <t>Fragment Free</t>
+  </si>
+  <si>
+    <t>Store &amp; Forward</t>
+  </si>
+  <si>
+    <t>Cut Through</t>
+  </si>
+  <si>
+    <t>Metodo</t>
+  </si>
+  <si>
+    <t>Reenvia la trama apenas recibe la misma</t>
+  </si>
+  <si>
+    <t>Almacena la trama y la reenvia despues de verificarla</t>
+  </si>
+  <si>
+    <t>Verifica los primero 64B antes de hacer el reenvio</t>
+  </si>
+  <si>
+    <t>Configuracion</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>DUPLEX</t>
+  </si>
+  <si>
+    <t>MDIX</t>
+  </si>
+  <si>
+    <t>Establece en Ancho de Banda de la Interfaz</t>
+  </si>
+  <si>
+    <t>Define el tipo de comunicación del Enlace</t>
+  </si>
+  <si>
+    <t>Habilta la deteccion de Medios Cruzados</t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>speed 100</t>
+  </si>
+  <si>
+    <t>duplex half</t>
+  </si>
+  <si>
+    <t>mdix auto</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1191,12 +1275,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1341,39 +1436,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1468,6 +1530,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1795,6 +1894,20 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{136DDC96-ACB8-4F6A-B617-D837840061EF}" name="Tabla28" displayName="Tabla28" ref="E5:I7" totalsRowShown="0">
+  <autoFilter ref="E5:I7" xr:uid="{136DDC96-ACB8-4F6A-B617-D837840061EF}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3F3BD8A5-519F-4E8C-B72E-94AF8EF2F6B9}" name="EXP"/>
+    <tableColumn id="2" xr3:uid="{406BD4BA-C7B8-475D-8C4D-353BAB801487}" name="16^3"/>
+    <tableColumn id="3" xr3:uid="{EE19687B-2AEB-4AB2-9B89-3560CB630422}" name="16^2"/>
+    <tableColumn id="4" xr3:uid="{0BEC878F-E44D-409F-A72D-A213B56B32DF}" name="16^1"/>
+    <tableColumn id="5" xr3:uid="{999D1ED4-B6FE-4D79-9FA2-75642F84B982}" name="16^0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C78321D3-CCFD-43D7-8B50-0C45EEA5B1E7}" name="Tabla6" displayName="Tabla6" ref="I1:J5" totalsRowShown="0">
   <autoFilter ref="I1:J5" xr:uid="{C78321D3-CCFD-43D7-8B50-0C45EEA5B1E7}"/>
@@ -1818,6 +1931,40 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1777475B-955E-4B5C-B1E4-7945829E45C1}" name="Tabla5" displayName="Tabla5" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{1777475B-955E-4B5C-B1E4-7945829E45C1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EA119109-3829-457F-9F4F-E397DEF4F4D7}" name="Tramas"/>
+    <tableColumn id="2" xr3:uid="{A8174C4F-8010-47E5-909A-590CB995DD81}" name="Descripcion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D7D4BAD5-9F16-44F0-B80D-BE151AB89E25}" name="Tabla9" displayName="Tabla9" ref="A7:B10" totalsRowShown="0">
+  <autoFilter ref="A7:B10" xr:uid="{D7D4BAD5-9F16-44F0-B80D-BE151AB89E25}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{46B1B41C-4BCA-44FC-9E28-E4E2B58EE4E2}" name="Metodo"/>
+    <tableColumn id="2" xr3:uid="{67AB0127-13A5-4D3C-A82C-2E5645C4DAC6}" name="Descripcion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D6E6288B-7C0A-44D4-A18C-AA07A1BBA539}" name="Tabla10" displayName="Tabla10" ref="D1:F4" totalsRowShown="0">
+  <autoFilter ref="D1:F4" xr:uid="{D6E6288B-7C0A-44D4-A18C-AA07A1BBA539}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A315599C-C7E2-4B4E-BBA9-5E4AEA4F8A42}" name="Configuracion"/>
+    <tableColumn id="2" xr3:uid="{904F5868-24B9-4F90-AC10-9A94B67BACD8}" name="Descripcion"/>
+    <tableColumn id="3" xr3:uid="{29502F13-3442-4DE6-A562-AB650E8FCE95}" name="Ejemplo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{42F81D43-1DF1-4805-95B1-B96C8A4790AB}" name="Tabla1" displayName="Tabla1" ref="A1:C21" totalsRowShown="0">
   <autoFilter ref="A1:C21" xr:uid="{42F81D43-1DF1-4805-95B1-B96C8A4790AB}"/>
   <tableColumns count="3">
@@ -1829,7 +1976,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C826FE9-9026-4910-9978-0DF01EB75377}" name="Tabla2" displayName="Tabla2" ref="E1:I3" totalsRowShown="0">
   <autoFilter ref="E1:I3" xr:uid="{3C826FE9-9026-4910-9978-0DF01EB75377}"/>
   <tableColumns count="5">
@@ -1843,49 +1990,35 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E6370397-E076-43E7-9698-49F6F959CE7A}" name="Tabla25" displayName="Tabla25" ref="K1:S3" totalsRowShown="0">
   <autoFilter ref="K1:S3" xr:uid="{E6370397-E076-43E7-9698-49F6F959CE7A}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D6A37B02-E9C4-49CB-8C2A-A865DDB05E2C}" name="EXP"/>
-    <tableColumn id="2" xr3:uid="{1349FDC6-3AA1-42B5-9F06-7FC58808E9C1}" name="2^7" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{1349FDC6-3AA1-42B5-9F06-7FC58808E9C1}" name="2^7" dataDxfId="7">
       <calculatedColumnFormula>2^7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{33EADDB5-4757-4423-BE0A-AB9102000FFB}" name="2^6" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{33EADDB5-4757-4423-BE0A-AB9102000FFB}" name="2^6" dataDxfId="6">
       <calculatedColumnFormula>2^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{50E8A68B-6961-40D5-98D1-907DC09AFC45}" name="2^5" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{50E8A68B-6961-40D5-98D1-907DC09AFC45}" name="2^5" dataDxfId="5">
       <calculatedColumnFormula>2^5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C3D88FBD-0E0B-4446-8615-4D2D84ECB388}" name="2^4" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{C3D88FBD-0E0B-4446-8615-4D2D84ECB388}" name="2^4" dataDxfId="4">
       <calculatedColumnFormula>2^4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{34188D14-E91B-406C-A3AE-60F368E2A5FD}" name="2^3" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{34188D14-E91B-406C-A3AE-60F368E2A5FD}" name="2^3" dataDxfId="3">
       <calculatedColumnFormula>2^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{109343F3-772B-401D-B6E1-CB46978A4E8A}" name="2^2" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{109343F3-772B-401D-B6E1-CB46978A4E8A}" name="2^2" dataDxfId="2">
       <calculatedColumnFormula>2^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4FEF6C42-FF4E-492F-9369-CB1247EAFFD2}" name="2^1" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{4FEF6C42-FF4E-492F-9369-CB1247EAFFD2}" name="2^1" dataDxfId="1">
       <calculatedColumnFormula>2^1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8831B11E-9A44-40E1-A709-EAAB97E9E3BD}" name="2^0" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{8831B11E-9A44-40E1-A709-EAAB97E9E3BD}" name="2^0" dataDxfId="0">
       <calculatedColumnFormula>2^0</calculatedColumnFormula>
     </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{136DDC96-ACB8-4F6A-B617-D837840061EF}" name="Tabla28" displayName="Tabla28" ref="E5:I7" totalsRowShown="0">
-  <autoFilter ref="E5:I7" xr:uid="{136DDC96-ACB8-4F6A-B617-D837840061EF}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3F3BD8A5-519F-4E8C-B72E-94AF8EF2F6B9}" name="EXP"/>
-    <tableColumn id="2" xr3:uid="{406BD4BA-C7B8-475D-8C4D-353BAB801487}" name="16^3"/>
-    <tableColumn id="3" xr3:uid="{EE19687B-2AEB-4AB2-9B89-3560CB630422}" name="16^2"/>
-    <tableColumn id="4" xr3:uid="{0BEC878F-E44D-409F-A72D-A213B56B32DF}" name="16^1"/>
-    <tableColumn id="5" xr3:uid="{999D1ED4-B6FE-4D79-9FA2-75642F84B982}" name="16^0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2221,13 +2354,13 @@
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="96" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2235,17 +2368,17 @@
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="97"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="97"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2285,7 +2418,7 @@
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="98" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2299,7 +2432,7 @@
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="98"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2364,16 +2497,16 @@
       <c r="J1" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="F3" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
@@ -2533,11 +2666,11 @@
         <v>76</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -2977,17 +3110,17 @@
       <c r="A11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="103"/>
       <c r="E11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="103"/>
       <c r="I11" s="12" t="s">
         <v>182</v>
       </c>
@@ -3002,17 +3135,17 @@
       <c r="A12" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="104"/>
       <c r="E12" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="104"/>
       <c r="I12" s="55" t="s">
         <v>183</v>
       </c>
@@ -3027,17 +3160,17 @@
       <c r="A13" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="105"/>
       <c r="E13" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="67"/>
+      <c r="G13" s="105"/>
       <c r="I13" s="56" t="s">
         <v>184</v>
       </c>
@@ -3052,17 +3185,17 @@
       <c r="A14" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="106"/>
       <c r="E14" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="68"/>
+      <c r="G14" s="106"/>
       <c r="I14" s="57" t="s">
         <v>185</v>
       </c>
@@ -3077,17 +3210,17 @@
       <c r="A15" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="102"/>
       <c r="E15" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="64"/>
+      <c r="G15" s="102"/>
       <c r="I15" s="49" t="s">
         <v>186</v>
       </c>
@@ -3158,13 +3291,136 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B7B516-DCFC-4AB6-BF06-408575EF620D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3172,16 +3428,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54F4483-CBAC-4BEA-A628-30BC5CC8F957}">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="69" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="58" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.42578125" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="6.140625" customWidth="1"/>
@@ -3194,13 +3450,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="58" t="s">
         <v>193</v>
       </c>
       <c r="E1" t="s">
@@ -3247,13 +3503,13 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="58" t="s">
         <v>242</v>
       </c>
       <c r="E2" t="s">
@@ -3312,13 +3568,13 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="60" t="s">
         <v>243</v>
       </c>
       <c r="E3" t="s">
@@ -3365,24 +3621,24 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="58" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="60" t="s">
         <v>245</v>
       </c>
       <c r="E5" t="s">
@@ -3403,7 +3659,7 @@
       <c r="K5" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="L5" s="103" t="s">
+      <c r="L5" s="92" t="s">
         <v>195</v>
       </c>
       <c r="M5" s="28" t="s">
@@ -3415,7 +3671,7 @@
       <c r="O5" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="P5" s="103" t="s">
+      <c r="P5" s="92" t="s">
         <v>199</v>
       </c>
       <c r="Q5" s="28" t="s">
@@ -3430,25 +3686,25 @@
       <c r="T5" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="V5" s="63" t="s">
+      <c r="V5" s="101" t="s">
         <v>275</v>
       </c>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="58" t="s">
         <v>246</v>
       </c>
       <c r="E6" t="s">
@@ -3470,57 +3726,57 @@
         <f>16^0</f>
         <v>1</v>
       </c>
-      <c r="K6" s="80">
+      <c r="K6" s="69">
         <v>32</v>
       </c>
-      <c r="L6" s="100">
-        <v>0</v>
-      </c>
-      <c r="M6" s="76">
-        <v>0</v>
-      </c>
-      <c r="N6" s="76">
-        <v>1</v>
-      </c>
-      <c r="O6" s="76">
-        <v>0</v>
-      </c>
-      <c r="P6" s="100">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="76">
-        <v>0</v>
-      </c>
-      <c r="R6" s="76">
-        <v>0</v>
-      </c>
-      <c r="S6" s="76">
-        <v>0</v>
-      </c>
-      <c r="T6" s="76" t="s">
+      <c r="L6" s="89">
+        <v>0</v>
+      </c>
+      <c r="M6" s="65">
+        <v>0</v>
+      </c>
+      <c r="N6" s="65">
+        <v>1</v>
+      </c>
+      <c r="O6" s="65">
+        <v>0</v>
+      </c>
+      <c r="P6" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="65">
+        <v>0</v>
+      </c>
+      <c r="R6" s="65">
+        <v>0</v>
+      </c>
+      <c r="S6" s="65">
+        <v>0</v>
+      </c>
+      <c r="T6" s="65" t="s">
         <v>277</v>
       </c>
       <c r="V6" s="18">
         <v>32</v>
       </c>
-      <c r="W6" s="84">
+      <c r="W6" s="73">
         <v>2</v>
       </c>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="91"/>
-      <c r="AC6" s="91"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="58" t="s">
         <v>247</v>
       </c>
       <c r="E7" t="s">
@@ -3538,180 +3794,180 @@
       <c r="I7" s="18">
         <v>9</v>
       </c>
-      <c r="K7" s="81">
+      <c r="K7" s="70">
         <v>127</v>
       </c>
-      <c r="L7" s="101">
-        <v>0</v>
-      </c>
-      <c r="M7" s="79">
-        <v>1</v>
-      </c>
-      <c r="N7" s="79">
-        <v>1</v>
-      </c>
-      <c r="O7" s="79">
-        <v>1</v>
-      </c>
-      <c r="P7" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="77">
-        <v>1</v>
-      </c>
-      <c r="R7" s="77">
-        <v>1</v>
-      </c>
-      <c r="S7" s="77">
-        <v>1</v>
-      </c>
-      <c r="T7" s="79" t="s">
+      <c r="L7" s="90">
+        <v>0</v>
+      </c>
+      <c r="M7" s="68">
+        <v>1</v>
+      </c>
+      <c r="N7" s="68">
+        <v>1</v>
+      </c>
+      <c r="O7" s="68">
+        <v>1</v>
+      </c>
+      <c r="P7" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="66">
+        <v>1</v>
+      </c>
+      <c r="R7" s="66">
+        <v>1</v>
+      </c>
+      <c r="S7" s="66">
+        <v>1</v>
+      </c>
+      <c r="T7" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="V7" s="87">
+      <c r="V7" s="76">
         <v>0</v>
       </c>
       <c r="W7" s="18">
         <v>16</v>
       </c>
-      <c r="X7" s="84">
+      <c r="X7" s="73">
         <v>2</v>
       </c>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="82">
+      <c r="K8" s="71">
         <v>254</v>
       </c>
-      <c r="L8" s="102">
-        <v>1</v>
-      </c>
-      <c r="M8" s="99">
-        <v>1</v>
-      </c>
-      <c r="N8" s="99">
-        <v>1</v>
-      </c>
-      <c r="O8" s="99">
-        <v>1</v>
-      </c>
-      <c r="P8" s="102">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="78">
-        <v>1</v>
-      </c>
-      <c r="R8" s="78">
-        <v>1</v>
-      </c>
-      <c r="S8" s="78">
-        <v>0</v>
-      </c>
-      <c r="T8" s="99" t="s">
+      <c r="L8" s="91">
+        <v>1</v>
+      </c>
+      <c r="M8" s="88">
+        <v>1</v>
+      </c>
+      <c r="N8" s="88">
+        <v>1</v>
+      </c>
+      <c r="O8" s="88">
+        <v>1</v>
+      </c>
+      <c r="P8" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="67">
+        <v>1</v>
+      </c>
+      <c r="R8" s="67">
+        <v>1</v>
+      </c>
+      <c r="S8" s="67">
+        <v>0</v>
+      </c>
+      <c r="T8" s="88" t="s">
         <v>279</v>
       </c>
       <c r="U8" s="35"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="86"/>
       <c r="W8" s="18">
         <v>0</v>
       </c>
       <c r="X8" s="18">
         <v>8</v>
       </c>
-      <c r="Y8" s="84">
+      <c r="Y8" s="73">
         <v>2</v>
       </c>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="60" t="s">
         <v>249</v>
       </c>
       <c r="E9" s="18">
         <v>192</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="108">
         <v>16</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="101" t="s">
         <v>276</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="K9" s="81">
+      <c r="I9" s="101"/>
+      <c r="K9" s="70">
         <v>192</v>
       </c>
-      <c r="L9" s="101">
-        <v>1</v>
-      </c>
-      <c r="M9" s="79">
-        <v>1</v>
-      </c>
-      <c r="N9" s="79">
-        <v>0</v>
-      </c>
-      <c r="O9" s="79">
-        <v>0</v>
-      </c>
-      <c r="P9" s="101">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="77">
-        <v>0</v>
-      </c>
-      <c r="R9" s="77">
-        <v>0</v>
-      </c>
-      <c r="S9" s="77">
-        <v>0</v>
-      </c>
-      <c r="T9" s="79" t="s">
+      <c r="L9" s="90">
+        <v>1</v>
+      </c>
+      <c r="M9" s="68">
+        <v>1</v>
+      </c>
+      <c r="N9" s="68">
+        <v>0</v>
+      </c>
+      <c r="O9" s="68">
+        <v>0</v>
+      </c>
+      <c r="P9" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="66">
+        <v>0</v>
+      </c>
+      <c r="R9" s="66">
+        <v>0</v>
+      </c>
+      <c r="S9" s="66">
+        <v>0</v>
+      </c>
+      <c r="T9" s="68" t="s">
         <v>280</v>
       </c>
-      <c r="V9" s="90"/>
-      <c r="W9" s="96"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="85"/>
       <c r="X9" s="18">
         <v>0</v>
       </c>
       <c r="Y9" s="18">
         <v>4</v>
       </c>
-      <c r="Z9" s="84">
+      <c r="Z9" s="73">
         <v>2</v>
       </c>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="58" t="s">
         <v>250</v>
       </c>
       <c r="E10" s="18">
@@ -3726,189 +3982,189 @@
       <c r="I10" s="18">
         <v>0</v>
       </c>
-      <c r="K10" s="82">
+      <c r="K10" s="71">
         <v>168</v>
       </c>
-      <c r="L10" s="102">
-        <v>1</v>
-      </c>
-      <c r="M10" s="99">
-        <v>0</v>
-      </c>
-      <c r="N10" s="99">
-        <v>1</v>
-      </c>
-      <c r="O10" s="99">
-        <v>0</v>
-      </c>
-      <c r="P10" s="102">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="78">
-        <v>0</v>
-      </c>
-      <c r="R10" s="78">
-        <v>0</v>
-      </c>
-      <c r="S10" s="78">
-        <v>0</v>
-      </c>
-      <c r="T10" s="99" t="s">
+      <c r="L10" s="91">
+        <v>1</v>
+      </c>
+      <c r="M10" s="88">
+        <v>0</v>
+      </c>
+      <c r="N10" s="88">
+        <v>1</v>
+      </c>
+      <c r="O10" s="88">
+        <v>0</v>
+      </c>
+      <c r="P10" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="67">
+        <v>0</v>
+      </c>
+      <c r="R10" s="67">
+        <v>0</v>
+      </c>
+      <c r="S10" s="67">
+        <v>0</v>
+      </c>
+      <c r="T10" s="88" t="s">
         <v>281</v>
       </c>
       <c r="V10" s="18">
         <v>168</v>
       </c>
-      <c r="W10" s="92">
+      <c r="W10" s="81">
         <v>2</v>
       </c>
-      <c r="X10" s="96"/>
+      <c r="X10" s="85"/>
       <c r="Y10" s="18">
         <v>0</v>
       </c>
       <c r="Z10" s="18">
         <v>2</v>
       </c>
-      <c r="AA10" s="84">
+      <c r="AA10" s="73">
         <v>2</v>
       </c>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="80"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="58" t="s">
         <v>251</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="K11" s="81">
+      <c r="K11" s="70">
         <v>223</v>
       </c>
-      <c r="L11" s="101">
-        <v>1</v>
-      </c>
-      <c r="M11" s="79">
-        <v>1</v>
-      </c>
-      <c r="N11" s="79">
-        <v>0</v>
-      </c>
-      <c r="O11" s="79">
-        <v>1</v>
-      </c>
-      <c r="P11" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="77">
-        <v>1</v>
-      </c>
-      <c r="R11" s="77">
-        <v>1</v>
-      </c>
-      <c r="S11" s="77">
-        <v>1</v>
-      </c>
-      <c r="T11" s="79" t="s">
+      <c r="L11" s="90">
+        <v>1</v>
+      </c>
+      <c r="M11" s="68">
+        <v>1</v>
+      </c>
+      <c r="N11" s="68">
+        <v>0</v>
+      </c>
+      <c r="O11" s="68">
+        <v>1</v>
+      </c>
+      <c r="P11" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="66">
+        <v>1</v>
+      </c>
+      <c r="R11" s="66">
+        <v>1</v>
+      </c>
+      <c r="S11" s="66">
+        <v>1</v>
+      </c>
+      <c r="T11" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="V11" s="87">
+      <c r="V11" s="76">
         <v>0</v>
       </c>
       <c r="W11" s="18">
         <v>84</v>
       </c>
-      <c r="X11" s="92">
+      <c r="X11" s="81">
         <v>2</v>
       </c>
-      <c r="Y11" s="96"/>
+      <c r="Y11" s="85"/>
       <c r="Z11" s="18">
         <v>0</v>
       </c>
       <c r="AA11" s="18">
         <v>1</v>
       </c>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="91"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="58" t="s">
         <v>252</v>
       </c>
       <c r="E12" s="18">
         <v>56</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="108">
         <v>16</v>
       </c>
       <c r="H12" t="s">
         <v>276</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="71">
         <v>56</v>
       </c>
-      <c r="L12" s="102">
-        <v>0</v>
-      </c>
-      <c r="M12" s="99">
-        <v>0</v>
-      </c>
-      <c r="N12" s="99">
-        <v>1</v>
-      </c>
-      <c r="O12" s="99">
-        <v>1</v>
-      </c>
-      <c r="P12" s="102">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="78">
-        <v>0</v>
-      </c>
-      <c r="R12" s="78">
-        <v>0</v>
-      </c>
-      <c r="S12" s="78">
-        <v>0</v>
-      </c>
-      <c r="T12" s="99" t="s">
+      <c r="L12" s="91">
+        <v>0</v>
+      </c>
+      <c r="M12" s="88">
+        <v>0</v>
+      </c>
+      <c r="N12" s="88">
+        <v>1</v>
+      </c>
+      <c r="O12" s="88">
+        <v>1</v>
+      </c>
+      <c r="P12" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="67">
+        <v>0</v>
+      </c>
+      <c r="R12" s="67">
+        <v>0</v>
+      </c>
+      <c r="S12" s="67">
+        <v>0</v>
+      </c>
+      <c r="T12" s="88" t="s">
         <v>283</v>
       </c>
       <c r="U12" s="35"/>
-      <c r="V12" s="89"/>
+      <c r="V12" s="78"/>
       <c r="W12" s="18">
         <v>0</v>
       </c>
       <c r="X12" s="18">
         <v>42</v>
       </c>
-      <c r="Y12" s="93">
+      <c r="Y12" s="82">
         <v>2</v>
       </c>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="91"/>
-      <c r="AC12" s="91"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="58" t="s">
         <v>253</v>
       </c>
       <c r="E13" s="18">
@@ -3923,173 +4179,173 @@
       <c r="I13" s="18">
         <v>8</v>
       </c>
-      <c r="K13" s="81">
+      <c r="K13" s="70">
         <v>87</v>
       </c>
-      <c r="L13" s="101">
-        <v>0</v>
-      </c>
-      <c r="M13" s="79">
-        <v>1</v>
-      </c>
-      <c r="N13" s="79">
-        <v>0</v>
-      </c>
-      <c r="O13" s="79">
-        <v>1</v>
-      </c>
-      <c r="P13" s="101">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="77">
-        <v>1</v>
-      </c>
-      <c r="R13" s="77">
-        <v>1</v>
-      </c>
-      <c r="S13" s="77">
-        <v>1</v>
-      </c>
-      <c r="T13" s="79" t="s">
+      <c r="L13" s="90">
+        <v>0</v>
+      </c>
+      <c r="M13" s="68">
+        <v>1</v>
+      </c>
+      <c r="N13" s="68">
+        <v>0</v>
+      </c>
+      <c r="O13" s="68">
+        <v>1</v>
+      </c>
+      <c r="P13" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="66">
+        <v>1</v>
+      </c>
+      <c r="R13" s="66">
+        <v>1</v>
+      </c>
+      <c r="S13" s="66">
+        <v>1</v>
+      </c>
+      <c r="T13" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="W13" s="86"/>
+      <c r="W13" s="75"/>
       <c r="X13" s="18">
         <v>0</v>
       </c>
-      <c r="Y13" s="88">
+      <c r="Y13" s="77">
         <v>21</v>
       </c>
-      <c r="Z13" s="94">
+      <c r="Z13" s="83">
         <v>2</v>
       </c>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="91"/>
-      <c r="AC13" s="91"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="80"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="K14" s="82">
+      <c r="K14" s="71">
         <v>130</v>
       </c>
-      <c r="L14" s="102">
-        <v>1</v>
-      </c>
-      <c r="M14" s="99">
-        <v>0</v>
-      </c>
-      <c r="N14" s="99">
-        <v>0</v>
-      </c>
-      <c r="O14" s="99">
-        <v>0</v>
-      </c>
-      <c r="P14" s="102">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="78">
-        <v>0</v>
-      </c>
-      <c r="R14" s="78">
-        <v>1</v>
-      </c>
-      <c r="S14" s="78">
-        <v>0</v>
-      </c>
-      <c r="T14" s="99" t="s">
+      <c r="L14" s="91">
+        <v>1</v>
+      </c>
+      <c r="M14" s="88">
+        <v>0</v>
+      </c>
+      <c r="N14" s="88">
+        <v>0</v>
+      </c>
+      <c r="O14" s="88">
+        <v>0</v>
+      </c>
+      <c r="P14" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="67">
+        <v>0</v>
+      </c>
+      <c r="R14" s="67">
+        <v>1</v>
+      </c>
+      <c r="S14" s="67">
+        <v>0</v>
+      </c>
+      <c r="T14" s="88" t="s">
         <v>285</v>
       </c>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="88">
+      <c r="X14" s="75"/>
+      <c r="Y14" s="77">
         <v>1</v>
       </c>
       <c r="Z14">
         <v>10</v>
       </c>
-      <c r="AA14" s="94">
+      <c r="AA14" s="83">
         <v>2</v>
       </c>
-      <c r="AB14" s="91"/>
-      <c r="AC14" s="91"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="58" t="s">
         <v>255</v>
       </c>
       <c r="E15">
         <v>172</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="107">
         <v>16</v>
       </c>
-      <c r="H15" s="63" t="s">
+      <c r="H15" s="101" t="s">
         <v>276</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="K15" s="83">
+      <c r="I15" s="101"/>
+      <c r="K15" s="72">
         <v>172</v>
       </c>
-      <c r="L15" s="101">
-        <v>1</v>
-      </c>
-      <c r="M15" s="79">
-        <v>0</v>
-      </c>
-      <c r="N15" s="79">
-        <v>1</v>
-      </c>
-      <c r="O15" s="79">
-        <v>0</v>
-      </c>
-      <c r="P15" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="79">
-        <v>1</v>
-      </c>
-      <c r="R15" s="79">
-        <v>0</v>
-      </c>
-      <c r="S15" s="79">
-        <v>0</v>
-      </c>
-      <c r="T15" s="79" t="s">
+      <c r="L15" s="90">
+        <v>1</v>
+      </c>
+      <c r="M15" s="68">
+        <v>0</v>
+      </c>
+      <c r="N15" s="68">
+        <v>1</v>
+      </c>
+      <c r="O15" s="68">
+        <v>0</v>
+      </c>
+      <c r="P15" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="68">
+        <v>1</v>
+      </c>
+      <c r="R15" s="68">
+        <v>0</v>
+      </c>
+      <c r="S15" s="68">
+        <v>0</v>
+      </c>
+      <c r="T15" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="Y15" s="86"/>
+      <c r="Y15" s="75"/>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
         <v>5</v>
       </c>
-      <c r="AB15" s="94">
+      <c r="AB15" s="83">
         <v>2</v>
       </c>
-      <c r="AC15" s="91"/>
+      <c r="AC15" s="80"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="58" t="s">
         <v>256</v>
       </c>
       <c r="E16">
@@ -4104,88 +4360,88 @@
       <c r="I16" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="K16" s="82">
+      <c r="K16" s="71">
         <v>144</v>
       </c>
-      <c r="L16" s="102">
-        <v>1</v>
-      </c>
-      <c r="M16" s="99">
-        <v>0</v>
-      </c>
-      <c r="N16" s="99">
-        <v>0</v>
-      </c>
-      <c r="O16" s="99">
-        <v>1</v>
-      </c>
-      <c r="P16" s="102">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="78">
-        <v>0</v>
-      </c>
-      <c r="R16" s="78">
-        <v>0</v>
-      </c>
-      <c r="S16" s="78">
-        <v>0</v>
-      </c>
-      <c r="T16" s="99" t="s">
+      <c r="L16" s="91">
+        <v>1</v>
+      </c>
+      <c r="M16" s="88">
+        <v>0</v>
+      </c>
+      <c r="N16" s="88">
+        <v>0</v>
+      </c>
+      <c r="O16" s="88">
+        <v>1</v>
+      </c>
+      <c r="P16" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="67">
+        <v>0</v>
+      </c>
+      <c r="R16" s="67">
+        <v>0</v>
+      </c>
+      <c r="S16" s="67">
+        <v>0</v>
+      </c>
+      <c r="T16" s="88" t="s">
         <v>287</v>
       </c>
-      <c r="Z16" s="86"/>
+      <c r="Z16" s="75"/>
       <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16">
         <v>2</v>
       </c>
-      <c r="AC16" s="94">
+      <c r="AC16" s="83">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="K17" s="81">
+      <c r="K17" s="70">
         <v>237</v>
       </c>
-      <c r="L17" s="101">
-        <v>1</v>
-      </c>
-      <c r="M17" s="79">
-        <v>1</v>
-      </c>
-      <c r="N17" s="79">
-        <v>1</v>
-      </c>
-      <c r="O17" s="79">
-        <v>0</v>
-      </c>
-      <c r="P17" s="101">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="77">
-        <v>1</v>
-      </c>
-      <c r="R17" s="77">
-        <v>0</v>
-      </c>
-      <c r="S17" s="77">
-        <v>1</v>
-      </c>
-      <c r="T17" s="79" t="s">
+      <c r="L17" s="90">
+        <v>1</v>
+      </c>
+      <c r="M17" s="68">
+        <v>1</v>
+      </c>
+      <c r="N17" s="68">
+        <v>1</v>
+      </c>
+      <c r="O17" s="68">
+        <v>0</v>
+      </c>
+      <c r="P17" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="66">
+        <v>1</v>
+      </c>
+      <c r="R17" s="66">
+        <v>0</v>
+      </c>
+      <c r="S17" s="66">
+        <v>1</v>
+      </c>
+      <c r="T17" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="AA17" s="86"/>
+      <c r="AA17" s="75"/>
       <c r="AB17">
         <v>0</v>
       </c>
@@ -4194,168 +4450,174 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="82">
+      <c r="K18" s="71">
         <v>115</v>
       </c>
-      <c r="L18" s="102">
-        <v>0</v>
-      </c>
-      <c r="M18" s="99">
-        <v>1</v>
-      </c>
-      <c r="N18" s="99">
-        <v>1</v>
-      </c>
-      <c r="O18" s="99">
-        <v>1</v>
-      </c>
-      <c r="P18" s="102">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="78">
-        <v>0</v>
-      </c>
-      <c r="R18" s="78">
-        <v>1</v>
-      </c>
-      <c r="S18" s="78">
-        <v>1</v>
-      </c>
-      <c r="T18" s="99" t="s">
+      <c r="L18" s="91">
+        <v>0</v>
+      </c>
+      <c r="M18" s="88">
+        <v>1</v>
+      </c>
+      <c r="N18" s="88">
+        <v>1</v>
+      </c>
+      <c r="O18" s="88">
+        <v>1</v>
+      </c>
+      <c r="P18" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="67">
+        <v>0</v>
+      </c>
+      <c r="R18" s="67">
+        <v>1</v>
+      </c>
+      <c r="S18" s="67">
+        <v>1</v>
+      </c>
+      <c r="T18" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="85"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="74"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="K19" s="81">
+      <c r="K19" s="70">
         <v>216</v>
       </c>
-      <c r="L19" s="101"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="79" t="s">
+      <c r="L19" s="90">
+        <v>1</v>
+      </c>
+      <c r="M19" s="68">
+        <v>1</v>
+      </c>
+      <c r="N19" s="68">
+        <v>0</v>
+      </c>
+      <c r="O19" s="68"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="68" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="82">
+      <c r="K20" s="71">
         <v>81</v>
       </c>
-      <c r="L20" s="102"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="99" t="s">
+      <c r="L20" s="91"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="88" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="K21" s="81">
+      <c r="K21" s="70">
         <v>22</v>
       </c>
-      <c r="L21" s="101"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="79" t="s">
+      <c r="L21" s="90"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="68" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="K22" s="82">
+      <c r="K22" s="71">
         <v>120</v>
       </c>
-      <c r="L22" s="102"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="99" t="s">
+      <c r="L22" s="91"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="88" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="K23" s="81">
+      <c r="K23" s="70">
         <v>230</v>
       </c>
-      <c r="L23" s="101"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="79" t="s">
+      <c r="L23" s="90"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="68" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K24" s="104">
+      <c r="K24" s="93">
         <v>195</v>
       </c>
-      <c r="L24" s="105"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106" t="s">
+      <c r="L24" s="94"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95" t="s">
         <v>237</v>
       </c>
     </row>

--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A0CA88-CC85-4C3D-AE72-E343C70130D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05EB1BB-E83E-42C9-96A2-EA1D9F5C6D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" activeTab="3" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -1291,7 +1291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1569,6 +1569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -3293,7 +3294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B7B516-DCFC-4AB6-BF06-408575EF620D}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F4"/>
     </sheetView>
   </sheetViews>
@@ -3426,11 +3427,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54F4483-CBAC-4BEA-A628-30BC5CC8F957}">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF5" sqref="AF5:AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,9 +3448,10 @@
     <col min="20" max="20" width="6.42578125" customWidth="1"/>
     <col min="21" max="21" width="2.42578125" customWidth="1"/>
     <col min="22" max="29" width="4.7109375" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>191</v>
       </c>
@@ -3502,7 +3504,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>194</v>
       </c>
@@ -3567,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>195</v>
       </c>
@@ -3620,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>196</v>
       </c>
@@ -3631,7 +3633,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
         <v>197</v>
       </c>
@@ -3697,7 +3699,7 @@
       <c r="AB5" s="101"/>
       <c r="AC5" s="101"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>198</v>
       </c>
@@ -3768,8 +3770,12 @@
       <c r="AA6" s="64"/>
       <c r="AB6" s="80"/>
       <c r="AC6" s="80"/>
-    </row>
-    <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG6" s="109"/>
+      <c r="AH6" s="109"/>
+      <c r="AI6" s="109"/>
+      <c r="AJ6" s="109"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>199</v>
       </c>
@@ -3838,8 +3844,12 @@
       <c r="AA7" s="64"/>
       <c r="AB7" s="80"/>
       <c r="AC7" s="80"/>
-    </row>
-    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+    </row>
+    <row r="8" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
         <v>200</v>
       </c>
@@ -3895,7 +3905,7 @@
       <c r="AB8" s="80"/>
       <c r="AC8" s="80"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
         <v>201</v>
       </c>
@@ -3960,7 +3970,7 @@
       <c r="AB9" s="80"/>
       <c r="AC9" s="80"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>202</v>
       </c>
@@ -4031,7 +4041,7 @@
       <c r="AB10" s="80"/>
       <c r="AC10" s="80"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>203</v>
       </c>
@@ -4092,7 +4102,7 @@
       <c r="AB11" s="80"/>
       <c r="AC11" s="80"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>207</v>
       </c>
@@ -4157,7 +4167,7 @@
       <c r="AB12" s="80"/>
       <c r="AC12" s="80"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>208</v>
       </c>
@@ -4223,7 +4233,7 @@
       <c r="AB13" s="80"/>
       <c r="AC13" s="80"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>209</v>
       </c>
@@ -4276,7 +4286,7 @@
       <c r="AB14" s="80"/>
       <c r="AC14" s="80"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>210</v>
       </c>
@@ -4338,7 +4348,7 @@
       </c>
       <c r="AC15" s="80"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>211</v>
       </c>

--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05EB1BB-E83E-42C9-96A2-EA1D9F5C6D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E304A37-62AC-49DB-AF25-52CA33B7A586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" activeTab="5" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="fisica" sheetId="3" r:id="rId3"/>
     <sheet name="enlace" sheetId="4" r:id="rId4"/>
     <sheet name="sistemas" sheetId="5" r:id="rId5"/>
+    <sheet name="ipv4" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modelos!$C$1:$C$14</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="369">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -754,9 +755,6 @@
     <t>00001110</t>
   </si>
   <si>
-    <t>0x</t>
-  </si>
-  <si>
     <t>0x10</t>
   </si>
   <si>
@@ -995,6 +993,348 @@
   </si>
   <si>
     <t>mdix auto</t>
+  </si>
+  <si>
+    <t>0x51</t>
+  </si>
+  <si>
+    <t>0xD8</t>
+  </si>
+  <si>
+    <t>0x16</t>
+  </si>
+  <si>
+    <t>0x78</t>
+  </si>
+  <si>
+    <t>0xE6</t>
+  </si>
+  <si>
+    <t>0xC3</t>
+  </si>
+  <si>
+    <t>IPv4</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>Publico</t>
+  </si>
+  <si>
+    <t>Privado</t>
+  </si>
+  <si>
+    <t>INI DEC</t>
+  </si>
+  <si>
+    <t>INI BIN</t>
+  </si>
+  <si>
+    <t>FIN DEC</t>
+  </si>
+  <si>
+    <t>FIN BIN</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>128.0.0.0</t>
+  </si>
+  <si>
+    <t>192.0.0.0</t>
+  </si>
+  <si>
+    <t>224.0.0.0</t>
+  </si>
+  <si>
+    <t>240.0.0.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <t>10.0.0.0</t>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>172.31.255.255</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>Multicast</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>10101100.
+00010000</t>
+  </si>
+  <si>
+    <t>10101100.
+00011111</t>
+  </si>
+  <si>
+    <t>11000000.
+10101000.
+00000000</t>
+  </si>
+  <si>
+    <t>11000000.
+10101000.
+11111111</t>
+  </si>
+  <si>
+    <t>Subnetting</t>
+  </si>
+  <si>
+    <t>CIDR</t>
+  </si>
+  <si>
+    <t>Hosts</t>
+  </si>
+  <si>
+    <t>Subnets</t>
+  </si>
+  <si>
+    <t>/8</t>
+  </si>
+  <si>
+    <t>/16</t>
+  </si>
+  <si>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t>255.255.0.0</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>Mask</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1345,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,6 +1377,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1151,7 +1504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1286,12 +1639,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1532,44 +1938,213 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2355,13 +2930,13 @@
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="99" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2369,17 +2944,17 @@
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="97"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="100"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="97"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="100"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2419,7 +2994,7 @@
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="101" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2433,7 +3008,7 @@
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="98"/>
+      <c r="D8" s="101"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2498,16 +3073,16 @@
       <c r="J1" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="F3" s="101" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="F3" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
@@ -2667,11 +3242,11 @@
         <v>76</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -3111,17 +3686,17 @@
       <c r="A11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="103"/>
+      <c r="C11" s="106"/>
       <c r="E11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="103"/>
+      <c r="G11" s="106"/>
       <c r="I11" s="12" t="s">
         <v>182</v>
       </c>
@@ -3136,17 +3711,17 @@
       <c r="A12" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="104"/>
+      <c r="C12" s="107"/>
       <c r="E12" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="F12" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="104"/>
+      <c r="G12" s="107"/>
       <c r="I12" s="55" t="s">
         <v>183</v>
       </c>
@@ -3161,17 +3736,17 @@
       <c r="A13" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="105"/>
+      <c r="C13" s="108"/>
       <c r="E13" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="105"/>
+      <c r="G13" s="108"/>
       <c r="I13" s="56" t="s">
         <v>184</v>
       </c>
@@ -3186,17 +3761,17 @@
       <c r="A14" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="106"/>
+      <c r="C14" s="109"/>
       <c r="E14" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="106" t="s">
+      <c r="F14" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="106"/>
+      <c r="G14" s="109"/>
       <c r="I14" s="57" t="s">
         <v>185</v>
       </c>
@@ -3211,17 +3786,17 @@
       <c r="A15" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="102"/>
+      <c r="C15" s="105"/>
       <c r="E15" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="102" t="s">
+      <c r="F15" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="102"/>
+      <c r="G15" s="105"/>
       <c r="I15" s="49" t="s">
         <v>186</v>
       </c>
@@ -3309,110 +3884,110 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3429,9 +4004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54F4483-CBAC-4BEA-A628-30BC5CC8F957}">
   <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF5" sqref="AF5:AJ8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3462,46 +4037,46 @@
         <v>193</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1" t="s">
         <v>38</v>
       </c>
       <c r="G1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" t="s">
         <v>260</v>
-      </c>
-      <c r="H1" t="s">
-        <v>261</v>
       </c>
       <c r="I1" t="s">
         <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M1" t="s">
         <v>263</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>264</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>265</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>266</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>267</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>268</v>
       </c>
-      <c r="R1" t="s">
-        <v>269</v>
-      </c>
       <c r="S1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -3512,10 +4087,10 @@
         <v>222</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2">
         <f>10^3</f>
@@ -3534,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2" si="0">2^7</f>
@@ -3577,7 +4152,7 @@
         <v>223</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
         <v>191</v>
@@ -3630,7 +4205,7 @@
         <v>224</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3641,22 +4216,22 @@
         <v>225</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" t="s">
         <v>271</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>272</v>
       </c>
-      <c r="H5" t="s">
-        <v>273</v>
-      </c>
       <c r="I5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>191</v>
@@ -3688,16 +4263,16 @@
       <c r="T5" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="V5" s="101" t="s">
-        <v>275</v>
-      </c>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="101"/>
+      <c r="V5" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
@@ -3707,10 +4282,10 @@
         <v>226</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6">
         <f>16^3</f>
@@ -3756,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V6" s="18">
         <v>32</v>
@@ -3770,10 +4345,10 @@
       <c r="AA6" s="64"/>
       <c r="AB6" s="80"/>
       <c r="AC6" s="80"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="109"/>
-      <c r="AI6" s="109"/>
-      <c r="AJ6" s="109"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="98"/>
+      <c r="AI6" s="98"/>
+      <c r="AJ6" s="98"/>
     </row>
     <row r="7" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
@@ -3783,7 +4358,7 @@
         <v>227</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" t="s">
         <v>191</v>
@@ -3792,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>206</v>
@@ -3828,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="68" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V7" s="76">
         <v>0</v>
@@ -3857,7 +4432,7 @@
         <v>228</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K8" s="71">
         <v>254</v>
@@ -3887,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="88" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U8" s="35"/>
       <c r="V8" s="86"/>
@@ -3913,18 +4488,18 @@
         <v>229</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="18">
         <v>192</v>
       </c>
-      <c r="F9" s="108">
+      <c r="F9" s="97">
         <v>16</v>
       </c>
-      <c r="H9" s="101" t="s">
-        <v>276</v>
-      </c>
-      <c r="I9" s="101"/>
+      <c r="H9" s="104" t="s">
+        <v>275</v>
+      </c>
+      <c r="I9" s="104"/>
       <c r="K9" s="70">
         <v>192</v>
       </c>
@@ -3953,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V9" s="79"/>
       <c r="W9" s="85"/>
@@ -3978,7 +4553,7 @@
         <v>230</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
@@ -4020,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V10" s="18">
         <v>168</v>
@@ -4049,7 +4624,7 @@
         <v>231</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -4081,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V11" s="76">
         <v>0</v>
@@ -4110,16 +4685,16 @@
         <v>232</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E12" s="18">
         <v>56</v>
       </c>
-      <c r="F12" s="108">
+      <c r="F12" s="97">
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K12" s="71">
         <v>56</v>
@@ -4149,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="88" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U12" s="35"/>
       <c r="V12" s="78"/>
@@ -4175,7 +4750,7 @@
         <v>233</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E13" s="18">
         <v>8</v>
@@ -4217,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W13" s="75"/>
       <c r="X13" s="18">
@@ -4241,7 +4816,7 @@
         <v>234</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K14" s="71">
         <v>130</v>
@@ -4271,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="88" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X14" s="75"/>
       <c r="Y14" s="77">
@@ -4294,18 +4869,18 @@
         <v>235</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E15">
         <v>172</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="96">
         <v>16</v>
       </c>
-      <c r="H15" s="101" t="s">
-        <v>276</v>
-      </c>
-      <c r="I15" s="101"/>
+      <c r="H15" s="104" t="s">
+        <v>275</v>
+      </c>
+      <c r="I15" s="104"/>
       <c r="K15" s="72">
         <v>172</v>
       </c>
@@ -4334,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y15" s="75"/>
       <c r="Z15">
@@ -4356,7 +4931,7 @@
         <v>236</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16">
         <v>12</v>
@@ -4398,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z16" s="75"/>
       <c r="AA16">
@@ -4419,7 +4994,7 @@
         <v>221</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K17" s="70">
         <v>237</v>
@@ -4449,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA17" s="75"/>
       <c r="AB17">
@@ -4467,7 +5042,7 @@
         <v>220</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K18" s="71">
         <v>115</v>
@@ -4497,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AB18" s="75"/>
       <c r="AC18" s="74"/>
@@ -4510,7 +5085,7 @@
         <v>219</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K19" s="70">
         <v>216</v>
@@ -4524,13 +5099,23 @@
       <c r="N19" s="68">
         <v>0</v>
       </c>
-      <c r="O19" s="68"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
+      <c r="O19" s="68">
+        <v>1</v>
+      </c>
+      <c r="P19" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="66">
+        <v>0</v>
+      </c>
+      <c r="R19" s="66">
+        <v>0</v>
+      </c>
+      <c r="S19" s="66">
+        <v>0</v>
+      </c>
       <c r="T19" s="68" t="s">
-        <v>237</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -4541,21 +5126,37 @@
         <v>218</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K20" s="71">
         <v>81</v>
       </c>
-      <c r="L20" s="91"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
+      <c r="L20" s="91">
+        <v>0</v>
+      </c>
+      <c r="M20" s="88">
+        <v>1</v>
+      </c>
+      <c r="N20" s="88">
+        <v>0</v>
+      </c>
+      <c r="O20" s="88">
+        <v>1</v>
+      </c>
+      <c r="P20" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="67">
+        <v>0</v>
+      </c>
+      <c r="R20" s="67">
+        <v>0</v>
+      </c>
+      <c r="S20" s="67">
+        <v>1</v>
+      </c>
       <c r="T20" s="88" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -4566,69 +5167,133 @@
         <v>217</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K21" s="70">
         <v>22</v>
       </c>
-      <c r="L21" s="90"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
+      <c r="L21" s="90">
+        <v>0</v>
+      </c>
+      <c r="M21" s="68">
+        <v>0</v>
+      </c>
+      <c r="N21" s="68">
+        <v>0</v>
+      </c>
+      <c r="O21" s="68">
+        <v>1</v>
+      </c>
+      <c r="P21" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="66">
+        <v>1</v>
+      </c>
+      <c r="R21" s="66">
+        <v>1</v>
+      </c>
+      <c r="S21" s="66">
+        <v>0</v>
+      </c>
       <c r="T21" s="68" t="s">
-        <v>237</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="K22" s="71">
         <v>120</v>
       </c>
-      <c r="L22" s="91"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
+      <c r="L22" s="91">
+        <v>0</v>
+      </c>
+      <c r="M22" s="88">
+        <v>1</v>
+      </c>
+      <c r="N22" s="88">
+        <v>1</v>
+      </c>
+      <c r="O22" s="88">
+        <v>1</v>
+      </c>
+      <c r="P22" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="67">
+        <v>0</v>
+      </c>
+      <c r="R22" s="67">
+        <v>0</v>
+      </c>
+      <c r="S22" s="67">
+        <v>0</v>
+      </c>
       <c r="T22" s="88" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="K23" s="70">
         <v>230</v>
       </c>
-      <c r="L23" s="90"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="L23" s="90">
+        <v>1</v>
+      </c>
+      <c r="M23" s="68">
+        <v>1</v>
+      </c>
+      <c r="N23" s="68">
+        <v>1</v>
+      </c>
+      <c r="O23" s="68">
+        <v>0</v>
+      </c>
+      <c r="P23" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="66">
+        <v>1</v>
+      </c>
+      <c r="R23" s="66">
+        <v>1</v>
+      </c>
+      <c r="S23" s="66">
+        <v>0</v>
+      </c>
       <c r="T23" s="68" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K24" s="93">
         <v>195</v>
       </c>
-      <c r="L24" s="94"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
+      <c r="L24" s="94">
+        <v>1</v>
+      </c>
+      <c r="M24" s="95">
+        <v>1</v>
+      </c>
+      <c r="N24" s="95">
+        <v>0</v>
+      </c>
+      <c r="O24" s="95">
+        <v>0</v>
+      </c>
+      <c r="P24" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="95">
+        <v>0</v>
+      </c>
+      <c r="R24" s="95">
+        <v>1</v>
+      </c>
+      <c r="S24" s="95">
+        <v>1</v>
+      </c>
       <c r="T24" s="95" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4647,4 +5312,317 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFA7AEB-8644-4483-AADF-2BE5610CF495}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="111" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="111" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="113" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="113" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="114" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="113" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="114" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="110" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="110" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="110" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="129" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="148" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+    </row>
+    <row r="2" spans="1:13" s="115" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="134" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="151" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="116" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="134" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2" s="118" t="s">
+        <v>359</v>
+      </c>
+      <c r="K2" s="118" t="s">
+        <v>368</v>
+      </c>
+      <c r="L2" s="118" t="s">
+        <v>361</v>
+      </c>
+      <c r="M2" s="118" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="135" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="120">
+        <v>127255255255</v>
+      </c>
+      <c r="E3" s="136" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" s="152" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" s="120">
+        <v>10255255255</v>
+      </c>
+      <c r="I3" s="153" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="122" t="s">
+        <v>362</v>
+      </c>
+      <c r="K3" s="122" t="s">
+        <v>365</v>
+      </c>
+      <c r="L3" s="122">
+        <v>1</v>
+      </c>
+      <c r="M3" s="123">
+        <f>2^24-2</f>
+        <v>16777214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="138" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="139">
+        <v>191255255255</v>
+      </c>
+      <c r="E4" s="140" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="154" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="155" t="s">
+        <v>354</v>
+      </c>
+      <c r="H4" s="156" t="s">
+        <v>350</v>
+      </c>
+      <c r="I4" s="157" t="s">
+        <v>355</v>
+      </c>
+      <c r="J4" s="124" t="s">
+        <v>363</v>
+      </c>
+      <c r="K4" s="124" t="s">
+        <v>366</v>
+      </c>
+      <c r="L4" s="124">
+        <v>16</v>
+      </c>
+      <c r="M4" s="125">
+        <f>2^16-2</f>
+        <v>65534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="142" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="143">
+        <v>223255255255</v>
+      </c>
+      <c r="E5" s="144" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="158" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="159" t="s">
+        <v>356</v>
+      </c>
+      <c r="H5" s="143">
+        <v>192168255255</v>
+      </c>
+      <c r="I5" s="160" t="s">
+        <v>357</v>
+      </c>
+      <c r="J5" s="126" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="126" t="s">
+        <v>367</v>
+      </c>
+      <c r="L5" s="126">
+        <v>256</v>
+      </c>
+      <c r="M5" s="127">
+        <f>2^8-2</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="137" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="139">
+        <v>239255255255</v>
+      </c>
+      <c r="E6" s="140" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" s="161" t="s">
+        <v>352</v>
+      </c>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="141" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="142" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="143">
+        <v>255255255255</v>
+      </c>
+      <c r="E7" s="144" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="164" t="s">
+        <v>353</v>
+      </c>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="145">
+        <f>2^32</f>
+        <v>4294967296</v>
+      </c>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="145">
+        <f>2^32</f>
+        <v>4294967296</v>
+      </c>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="145">
+        <f>2^32</f>
+        <v>4294967296</v>
+      </c>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="147"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E304A37-62AC-49DB-AF25-52CA33B7A586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334B5F72-7FA3-4BD3-85AE-3D8FA1C5DFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" activeTab="5" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="404">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -1058,9 +1058,268 @@
     <t>240.0.0.0</t>
   </si>
   <si>
+    <t>11000000</t>
+  </si>
+  <si>
+    <t>10.0.0.0</t>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>172.31.255.255</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>Multicast</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>10101100</t>
+  </si>
+  <si>
+    <t>10101100.
+00010000</t>
+  </si>
+  <si>
+    <t>10101100.
+00011111</t>
+  </si>
+  <si>
+    <t>11000000.
+10101000.
+00000000</t>
+  </si>
+  <si>
+    <t>11000000.
+10101000.
+11111111</t>
+  </si>
+  <si>
+    <t>Subnetting</t>
+  </si>
+  <si>
+    <t>CIDR</t>
+  </si>
+  <si>
+    <t>Hosts</t>
+  </si>
+  <si>
+    <t>Subnets</t>
+  </si>
+  <si>
+    <t>/8</t>
+  </si>
+  <si>
+    <t>/16</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t>255.255.0.0</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>NET</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BYTE 1</t>
+  </si>
+  <si>
+    <t>BYTE 2</t>
+  </si>
+  <si>
+    <t>BYTE 3</t>
+  </si>
+  <si>
+    <t>BYTE 4</t>
+  </si>
+  <si>
+    <t>10.54.232.25</t>
+  </si>
+  <si>
+    <t>172.19.125.30</t>
+  </si>
+  <si>
+    <t>192.168.33.14</t>
+  </si>
+  <si>
+    <t>00110110</t>
+  </si>
+  <si>
+    <t>11101000</t>
+  </si>
+  <si>
+    <t>00011001</t>
+  </si>
+  <si>
+    <r>
+      <t>0000</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>00010011</t>
+  </si>
+  <si>
+    <t>01111101</t>
+  </si>
+  <si>
+    <t>00011110</t>
+  </si>
+  <si>
+    <t>172.19.0.0</t>
+  </si>
+  <si>
+    <t>172.19.255.255</t>
+  </si>
+  <si>
+    <t>10101000</t>
+  </si>
+  <si>
+    <t>00100001</t>
+  </si>
+  <si>
+    <t>192.168.33.0</t>
+  </si>
+  <si>
+    <t>192.168.33.255</t>
+  </si>
+  <si>
+    <t>172.21.47.0</t>
+  </si>
+  <si>
+    <t>00010101</t>
+  </si>
+  <si>
+    <t>00101111</t>
+  </si>
+  <si>
+    <t>172.21.0.0</t>
+  </si>
+  <si>
+    <t>172.21.255.255</t>
+  </si>
+  <si>
+    <t>192.168.255.31</t>
+  </si>
+  <si>
+    <t>192.168.255.0</t>
+  </si>
+  <si>
+    <t>00011111</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1070,7 +1329,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1081,7 +1341,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1091,7 +1352,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1102,7 +1364,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1112,7 +1375,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1123,7 +1387,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1133,7 +1398,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1144,7 +1410,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1154,7 +1421,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1165,7 +1433,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1175,7 +1444,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1186,7 +1456,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1196,7 +1467,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1207,7 +1479,31 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1110</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1217,7 +1513,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1228,28 +1525,8 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1111</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1259,82 +1536,14 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1111</t>
     </r>
-  </si>
-  <si>
-    <t>10.0.0.0</t>
-  </si>
-  <si>
-    <t>172.16.0.0</t>
-  </si>
-  <si>
-    <t>172.31.255.255</t>
-  </si>
-  <si>
-    <t>192.168.0.0</t>
-  </si>
-  <si>
-    <t>Multicast</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t>10101100.
-00010000</t>
-  </si>
-  <si>
-    <t>10101100.
-00011111</t>
-  </si>
-  <si>
-    <t>11000000.
-10101000.
-00000000</t>
-  </si>
-  <si>
-    <t>11000000.
-10101000.
-11111111</t>
-  </si>
-  <si>
-    <t>Subnetting</t>
-  </si>
-  <si>
-    <t>CIDR</t>
-  </si>
-  <si>
-    <t>Hosts</t>
-  </si>
-  <si>
-    <t>Subnets</t>
-  </si>
-  <si>
-    <t>/8</t>
-  </si>
-  <si>
-    <t>/16</t>
-  </si>
-  <si>
-    <t>/24</t>
-  </si>
-  <si>
-    <t>255.0.0.0</t>
-  </si>
-  <si>
-    <t>255.255.0.0</t>
-  </si>
-  <si>
-    <t>255.255.255.0</t>
-  </si>
-  <si>
-    <t>Mask</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1554,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1389,6 +1598,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1504,7 +1743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1682,12 +1921,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1697,7 +1958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2004,17 +2265,14 @@
     <xf numFmtId="49" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2022,14 +2280,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2049,45 +2313,6 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2100,50 +2325,227 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5316,60 +5718,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFA7AEB-8644-4483-AADF-2BE5610CF495}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="111" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="111" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="112" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="113" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="112" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="113" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="111" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="111" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="112" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="113" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="112" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="113" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="114" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="113" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="113" customWidth="1"/>
     <col min="9" max="9" width="10" style="114" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="110" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="110" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="110" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="110" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.140625" style="110" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="110" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="131" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="148" t="s">
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="136" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="128" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="198" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="200"/>
     </row>
     <row r="2" spans="1:13" s="115" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="134" t="s">
         <v>328</v>
       </c>
       <c r="C2" s="116" t="s">
@@ -5378,10 +5780,10 @@
       <c r="D2" s="117" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="135" t="s">
         <v>331</v>
       </c>
-      <c r="F2" s="151" t="s">
+      <c r="F2" s="139" t="s">
         <v>328</v>
       </c>
       <c r="G2" s="116" t="s">
@@ -5390,144 +5792,144 @@
       <c r="H2" s="117" t="s">
         <v>330</v>
       </c>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="135" t="s">
         <v>331</v>
       </c>
-      <c r="J2" s="118" t="s">
+      <c r="J2" s="201" t="s">
+        <v>351</v>
+      </c>
+      <c r="K2" s="118" t="s">
         <v>359</v>
       </c>
-      <c r="K2" s="118" t="s">
-        <v>368</v>
-      </c>
       <c r="L2" s="118" t="s">
-        <v>361</v>
-      </c>
-      <c r="M2" s="118" t="s">
-        <v>360</v>
+        <v>353</v>
+      </c>
+      <c r="M2" s="202" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="182" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="119" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" s="120">
+      <c r="C3" s="183" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="140">
         <v>127255255255</v>
       </c>
-      <c r="E3" s="136" t="s">
-        <v>339</v>
-      </c>
-      <c r="F3" s="152" t="s">
-        <v>348</v>
-      </c>
-      <c r="G3" s="121" t="s">
+      <c r="E3" s="184" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="172">
+        <v>1111111</v>
+      </c>
+      <c r="G3" s="173" t="s">
         <v>232</v>
       </c>
-      <c r="H3" s="120">
+      <c r="H3" s="140">
         <v>10255255255</v>
       </c>
-      <c r="I3" s="153" t="s">
+      <c r="I3" s="174" t="s">
         <v>232</v>
       </c>
-      <c r="J3" s="122" t="s">
-        <v>362</v>
-      </c>
-      <c r="K3" s="122" t="s">
-        <v>365</v>
-      </c>
-      <c r="L3" s="122">
-        <v>1</v>
-      </c>
-      <c r="M3" s="123">
+      <c r="J3" s="203" t="s">
+        <v>354</v>
+      </c>
+      <c r="K3" s="185" t="s">
+        <v>356</v>
+      </c>
+      <c r="L3" s="185">
+        <v>1</v>
+      </c>
+      <c r="M3" s="204">
         <f>2^24-2</f>
         <v>16777214</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="186" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="187" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="141">
+        <v>191255255255</v>
+      </c>
+      <c r="E4" s="188" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" s="175" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="139">
-        <v>191255255255</v>
-      </c>
-      <c r="E4" s="140" t="s">
+      <c r="G4" s="176" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" s="177" t="s">
         <v>341</v>
       </c>
-      <c r="F4" s="154" t="s">
-        <v>349</v>
-      </c>
-      <c r="G4" s="155" t="s">
-        <v>354</v>
-      </c>
-      <c r="H4" s="156" t="s">
-        <v>350</v>
-      </c>
-      <c r="I4" s="157" t="s">
+      <c r="I4" s="178" t="s">
+        <v>347</v>
+      </c>
+      <c r="J4" s="205" t="s">
         <v>355</v>
       </c>
-      <c r="J4" s="124" t="s">
-        <v>363</v>
-      </c>
-      <c r="K4" s="124" t="s">
-        <v>366</v>
-      </c>
-      <c r="L4" s="124">
+      <c r="K4" s="206" t="s">
+        <v>357</v>
+      </c>
+      <c r="L4" s="206">
         <v>16</v>
       </c>
-      <c r="M4" s="125">
+      <c r="M4" s="207">
         <f>2^16-2</f>
         <v>65534</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="189" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="190" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5" s="142">
+        <v>223255255255</v>
+      </c>
+      <c r="E5" s="191" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="179" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="143">
-        <v>223255255255</v>
-      </c>
-      <c r="E5" s="144" t="s">
-        <v>343</v>
-      </c>
-      <c r="F5" s="158" t="s">
-        <v>351</v>
-      </c>
-      <c r="G5" s="159" t="s">
-        <v>356</v>
-      </c>
-      <c r="H5" s="143">
+      <c r="G5" s="180" t="s">
+        <v>348</v>
+      </c>
+      <c r="H5" s="142">
         <v>192168255255</v>
       </c>
-      <c r="I5" s="160" t="s">
-        <v>357</v>
-      </c>
-      <c r="J5" s="126" t="s">
-        <v>364</v>
-      </c>
-      <c r="K5" s="126" t="s">
-        <v>367</v>
-      </c>
-      <c r="L5" s="126">
+      <c r="I5" s="181" t="s">
+        <v>349</v>
+      </c>
+      <c r="J5" s="208" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5" s="209" t="s">
+        <v>358</v>
+      </c>
+      <c r="L5" s="209">
         <v>256</v>
       </c>
-      <c r="M5" s="127">
+      <c r="M5" s="210">
         <f>2^8-2</f>
         <v>254</v>
       </c>
@@ -5536,84 +5938,616 @@
       <c r="A6" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="186" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="138" t="s">
-        <v>344</v>
-      </c>
-      <c r="D6" s="139">
+      <c r="C6" s="187" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" s="141">
         <v>239255255255</v>
       </c>
-      <c r="E6" s="140" t="s">
-        <v>346</v>
-      </c>
-      <c r="F6" s="161" t="s">
-        <v>352</v>
-      </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
+      <c r="E6" s="188" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" s="192" t="s">
+        <v>343</v>
+      </c>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="192" t="s">
+        <v>343</v>
+      </c>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="194"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="189" t="s">
         <v>337</v>
       </c>
-      <c r="C7" s="142" t="s">
-        <v>345</v>
-      </c>
-      <c r="D7" s="143">
+      <c r="C7" s="190" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" s="142">
         <v>255255255255</v>
       </c>
-      <c r="E7" s="144" t="s">
-        <v>347</v>
-      </c>
-      <c r="F7" s="164" t="s">
-        <v>353</v>
-      </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
+      <c r="E7" s="191" t="s">
+        <v>403</v>
+      </c>
+      <c r="F7" s="195" t="s">
+        <v>344</v>
+      </c>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="195" t="s">
+        <v>344</v>
+      </c>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="197"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="B8" s="145">
+      <c r="B8" s="211">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="145">
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="211">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="145">
+      <c r="G8" s="212"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="211">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="147"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="213"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="134" t="s">
+        <v>365</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="117" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="152" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="153" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" s="154" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="153" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="121" t="s">
+        <v>369</v>
+      </c>
+      <c r="G11" s="165" t="s">
+        <v>375</v>
+      </c>
+      <c r="H11" s="153" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="154" t="s">
+        <v>217</v>
+      </c>
+      <c r="J11" s="153" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="169">
+        <v>10100255255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="155" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="157" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="123" t="s">
+        <v>356</v>
+      </c>
+      <c r="G12" s="166" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="I12" s="157" t="s">
+        <v>222</v>
+      </c>
+      <c r="J12" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="124" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="158" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="160" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="126" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="167" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="160" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="127" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="162" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="162" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="164">
+        <v>10255255255</v>
+      </c>
+      <c r="G14" s="168" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="162" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="J14" s="162" t="s">
+        <v>217</v>
+      </c>
+      <c r="K14" s="170">
+        <v>10255255255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="134" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="K16" s="117" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" s="146" t="s">
+        <v>345</v>
+      </c>
+      <c r="C17" s="119" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" s="120" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="143" t="s">
+        <v>370</v>
+      </c>
+      <c r="G17" s="165" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" s="153" t="s">
+        <v>387</v>
+      </c>
+      <c r="I17" s="154" t="s">
+        <v>388</v>
+      </c>
+      <c r="J17" s="153" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="169" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" s="147" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="148" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="122" t="s">
+        <v>357</v>
+      </c>
+      <c r="G18" s="166" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" s="156" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="157" t="s">
+        <v>222</v>
+      </c>
+      <c r="J18" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="K18" s="124" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="C19" s="125" t="s">
+        <v>377</v>
+      </c>
+      <c r="D19" s="150" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="125" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="144" t="s">
+        <v>380</v>
+      </c>
+      <c r="G19" s="167" t="s">
+        <v>345</v>
+      </c>
+      <c r="H19" s="159" t="s">
+        <v>387</v>
+      </c>
+      <c r="I19" s="160" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="127" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="151" t="s">
+        <v>345</v>
+      </c>
+      <c r="C20" s="145" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="162" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="128" t="s">
+        <v>381</v>
+      </c>
+      <c r="G20" s="168" t="s">
+        <v>345</v>
+      </c>
+      <c r="H20" s="162" t="s">
+        <v>387</v>
+      </c>
+      <c r="I20" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="J20" s="162" t="s">
+        <v>217</v>
+      </c>
+      <c r="K20" s="170" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="K22" s="117" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="B23" s="146" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23" s="119" t="s">
+        <v>382</v>
+      </c>
+      <c r="D23" s="120" t="s">
+        <v>383</v>
+      </c>
+      <c r="E23" s="119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="143" t="s">
+        <v>371</v>
+      </c>
+      <c r="G23" s="146" t="s">
+        <v>338</v>
+      </c>
+      <c r="H23" s="119" t="s">
+        <v>382</v>
+      </c>
+      <c r="I23" s="120" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="K23" s="143" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" s="147" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="148" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="G24" s="147" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="I24" s="148" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" s="122" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="149" t="s">
+        <v>338</v>
+      </c>
+      <c r="C25" s="125" t="s">
+        <v>382</v>
+      </c>
+      <c r="D25" s="150" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25" s="125" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="144" t="s">
+        <v>384</v>
+      </c>
+      <c r="G25" s="149" t="s">
+        <v>338</v>
+      </c>
+      <c r="H25" s="125" t="s">
+        <v>382</v>
+      </c>
+      <c r="I25" s="150" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" s="125" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="144" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" s="151" t="s">
+        <v>338</v>
+      </c>
+      <c r="C26" s="145" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" s="129" t="s">
+        <v>383</v>
+      </c>
+      <c r="E26" s="145" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="128" t="s">
+        <v>385</v>
+      </c>
+      <c r="G26" s="151" t="s">
+        <v>338</v>
+      </c>
+      <c r="H26" s="145" t="s">
+        <v>382</v>
+      </c>
+      <c r="I26" s="129" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" s="145" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" s="171">
+        <v>192168255255</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B8:E8"/>
@@ -5622,7 +6556,10 @@
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334B5F72-7FA3-4BD3-85AE-3D8FA1C5DFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FB2624-7144-4D61-B227-BB7D977CF05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="enlace" sheetId="4" r:id="rId4"/>
     <sheet name="sistemas" sheetId="5" r:id="rId5"/>
     <sheet name="ipv4" sheetId="6" r:id="rId6"/>
+    <sheet name="classic" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modelos!$C$1:$C$14</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="547">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -1545,6 +1546,946 @@
       <t>1111</t>
     </r>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>Next Hop</t>
+  </si>
+  <si>
+    <t>Requerido</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>2^n &gt;= R</t>
+  </si>
+  <si>
+    <t>S = Subnets</t>
+  </si>
+  <si>
+    <t>256/S</t>
+  </si>
+  <si>
+    <t>cidr + n</t>
+  </si>
+  <si>
+    <t>A - 10.0.0.0</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Class - IP</t>
+  </si>
+  <si>
+    <t>2^H-2</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>32 - mask</t>
+  </si>
+  <si>
+    <t>Practica que consiste en segmentar una red, con el objetivo de optimizar el broadcast y desperdiciar menos direcciones, modificando la mascara con clase y quitando bits de la porcion de hosts.</t>
+  </si>
+  <si>
+    <t>BINARIO</t>
+  </si>
+  <si>
+    <t>IP INI</t>
+  </si>
+  <si>
+    <t>IP FIN</t>
+  </si>
+  <si>
+    <t>BROADCAST</t>
+  </si>
+  <si>
+    <t>MASK</t>
+  </si>
+  <si>
+    <t>10.0.0.1</t>
+  </si>
+  <si>
+    <t>10.32.0.1</t>
+  </si>
+  <si>
+    <t>10.31.255.255</t>
+  </si>
+  <si>
+    <t>10.31.255.254</t>
+  </si>
+  <si>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>HOSTS</t>
+  </si>
+  <si>
+    <t>10.64.0.1</t>
+  </si>
+  <si>
+    <t>10.96.0.1</t>
+  </si>
+  <si>
+    <t>10.128.0.1</t>
+  </si>
+  <si>
+    <t>10.160.0.1</t>
+  </si>
+  <si>
+    <t>10.192.0.1</t>
+  </si>
+  <si>
+    <t>10.224.0.1</t>
+  </si>
+  <si>
+    <t>10.63.255.255</t>
+  </si>
+  <si>
+    <t>10.96.255.255</t>
+  </si>
+  <si>
+    <t>10.63.255.254</t>
+  </si>
+  <si>
+    <t>10.96.255.254</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>IMPAR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+  </si>
+  <si>
+    <t>255.224.0.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.32.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.64.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.96.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.128.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.160.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.192.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.224.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <t>B - 172.20.0.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000</t>
+    </r>
+  </si>
+  <si>
+    <t>172.20.0.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>172.20.0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>172.20.64.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>172.20.128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>172.20.192.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.64.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.128.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>172.20.192.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>172.20.63.255</t>
+  </si>
+  <si>
+    <t>172.20.127.255</t>
+  </si>
+  <si>
+    <t>172.20.191.255</t>
+  </si>
+  <si>
+    <t>172.20.255.255</t>
+  </si>
+  <si>
+    <t>172.20.63.254</t>
+  </si>
+  <si>
+    <t>172.20.127.254</t>
+  </si>
+  <si>
+    <t>172.20.191.254</t>
+  </si>
+  <si>
+    <t>172.20.255.254</t>
+  </si>
+  <si>
+    <t>255.255.192.0</t>
+  </si>
+  <si>
+    <t>C - 192.168.0.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA50021"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <t>192.168.0.16</t>
+  </si>
+  <si>
+    <t>192.168.0.32</t>
+  </si>
+  <si>
+    <t>192.168.0.48</t>
+  </si>
+  <si>
+    <t>192.168.0.64</t>
+  </si>
+  <si>
+    <t>192.168.0.80</t>
+  </si>
+  <si>
+    <t>192.168.0.96</t>
+  </si>
+  <si>
+    <t>192.168.0.112</t>
+  </si>
+  <si>
+    <t>192.168.0.128</t>
+  </si>
+  <si>
+    <t>192.168.0.144</t>
+  </si>
+  <si>
+    <t>192.168.0.160</t>
+  </si>
+  <si>
+    <t>192.168.0.176</t>
+  </si>
+  <si>
+    <t>192.168.0.192</t>
+  </si>
+  <si>
+    <t>192.168.0.208</t>
+  </si>
+  <si>
+    <t>192.168.0.224</t>
+  </si>
+  <si>
+    <t>192.168.0.240</t>
+  </si>
+  <si>
+    <t>192.168.0.15</t>
+  </si>
+  <si>
+    <t>192.168.0.31</t>
+  </si>
+  <si>
+    <t>192.168.0.47</t>
+  </si>
+  <si>
+    <t>192.168.0.63</t>
+  </si>
+  <si>
+    <t>192.168.0.79</t>
+  </si>
+  <si>
+    <t>192.168.0.95</t>
+  </si>
+  <si>
+    <t>192.168.0.111</t>
+  </si>
+  <si>
+    <t>192.168.0.127</t>
+  </si>
+  <si>
+    <t>192.168.0.143</t>
+  </si>
+  <si>
+    <t>192.168.0.159</t>
+  </si>
+  <si>
+    <t>192.168.0.175</t>
+  </si>
+  <si>
+    <t>192.168.0.191</t>
+  </si>
+  <si>
+    <t>192.168.0.207</t>
+  </si>
+  <si>
+    <t>192.168.0.223</t>
+  </si>
+  <si>
+    <t>192.168.0.239</t>
+  </si>
+  <si>
+    <t>192.168.0.255</t>
+  </si>
+  <si>
+    <t>192.168.0.14</t>
+  </si>
+  <si>
+    <t>192.168.0.30</t>
+  </si>
+  <si>
+    <t>192.168.0.46</t>
+  </si>
+  <si>
+    <t>192.168.0.62</t>
+  </si>
+  <si>
+    <t>192.168.0.78</t>
+  </si>
+  <si>
+    <t>192.168.0.94</t>
+  </si>
+  <si>
+    <t>192.168.0.110</t>
+  </si>
+  <si>
+    <t>192.168.0.126</t>
+  </si>
+  <si>
+    <t>192.168.0.142</t>
+  </si>
+  <si>
+    <t>192.168.0.158</t>
+  </si>
+  <si>
+    <t>192.168.0.174</t>
+  </si>
+  <si>
+    <t>192.168.0.190</t>
+  </si>
+  <si>
+    <t>192.168.0.206</t>
+  </si>
+  <si>
+    <t>192.168.0.222</t>
+  </si>
+  <si>
+    <t>192.168.0.238</t>
+  </si>
+  <si>
+    <t>192.168.0.254</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>192.168.0.17</t>
+  </si>
+  <si>
+    <t>192.168.0.33</t>
+  </si>
+  <si>
+    <t>192.168.0.49</t>
+  </si>
+  <si>
+    <t>192.168.0.65</t>
+  </si>
+  <si>
+    <t>192.168.0.81</t>
+  </si>
+  <si>
+    <t>192.168.0.97</t>
+  </si>
+  <si>
+    <t>192.168.0.113</t>
+  </si>
+  <si>
+    <t>192.168.0.129</t>
+  </si>
+  <si>
+    <t>192.168.0.145</t>
+  </si>
+  <si>
+    <t>192.168.0.161</t>
+  </si>
+  <si>
+    <t>192.168.0.177</t>
+  </si>
+  <si>
+    <t>192.168.0.193</t>
+  </si>
+  <si>
+    <t>192.168.0.209</t>
+  </si>
+  <si>
+    <t>192.168.0.225</t>
+  </si>
+  <si>
+    <t>192.168.0.241</t>
+  </si>
 </sst>
 </file>
 
@@ -1554,7 +2495,14 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1629,6 +2577,13 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA50021"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1956,45 +2911,45 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2016,7 +2971,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2028,10 +2983,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2043,7 +2998,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2085,7 +3040,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2121,7 +3076,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2146,7 +3101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2160,13 +3115,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2187,7 +3142,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2204,28 +3159,287 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2237,322 +3451,246 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="47">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2605,9 +3743,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA50021"/>
       <color rgb="FFD2906C"/>
       <color rgb="FFCC3300"/>
-      <color rgb="FFA50021"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2861,12 +3999,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}" name="Tabla3" displayName="Tabla3" ref="E1:G9" totalsRowShown="0" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}" name="Tabla3" displayName="Tabla3" ref="E1:G9" totalsRowShown="0" dataDxfId="46">
   <autoFilter ref="E1:G9" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8079FA69-59E6-4C3F-8414-22F5F08661F0}" name="Fibra" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{51C999F5-4709-4731-A8C0-5DF1FB13B02F}" name="SMF" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{D64CF8DA-A5E3-4CD8-B0D7-1B8FF7A3D8F6}" name="MMF" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{8079FA69-59E6-4C3F-8414-22F5F08661F0}" name="Fibra" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{51C999F5-4709-4731-A8C0-5DF1FB13B02F}" name="SMF" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{D64CF8DA-A5E3-4CD8-B0D7-1B8FF7A3D8F6}" name="MMF" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2881,6 +4019,75 @@
     <tableColumn id="3" xr3:uid="{EE19687B-2AEB-4AB2-9B89-3560CB630422}" name="16^2"/>
     <tableColumn id="4" xr3:uid="{0BEC878F-E44D-409F-A72D-A213B56B32DF}" name="16^1"/>
     <tableColumn id="5" xr3:uid="{999D1ED4-B6FE-4D79-9FA2-75642F84B982}" name="16^0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B9321F3F-14AF-44F6-A6A4-5BE08D01D69C}" name="Tabla11" displayName="Tabla11" ref="A7:G15" totalsRowShown="0" dataDxfId="26">
+  <autoFilter ref="A7:G15" xr:uid="{B9321F3F-14AF-44F6-A6A4-5BE08D01D69C}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{146003D4-85AA-4A62-AF73-3F2F1E8E3FD0}" name="BINARIO" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{E652681A-4140-4DB5-8118-A4ACD72891BC}" name="NETWORK" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{5E246B79-5E36-4191-857B-C436006DCEEB}" name="IP INI" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{9E42FDDF-621C-49C1-AF02-A59932FC6B1F}" name="IP FIN" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{71CBE653-DD6F-4F5A-A51D-EECA47890D3E}" name="BROADCAST" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{E8280997-6488-4F04-B842-27A01165FA01}" name="MASK" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{08A09AB8-B0CF-4E94-8322-063107549B58}" name="HOSTS" dataDxfId="27" dataCellStyle="Millares">
+      <calculatedColumnFormula>2^21-2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4B0DE3A1-C344-4C6C-962C-35B3A41F3A12}" name="Tabla12" displayName="Tabla12" ref="A3:H4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+  <autoFilter ref="A3:H4" xr:uid="{4B0DE3A1-C344-4C6C-962C-35B3A41F3A12}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0C15C14F-4C79-4B76-9DAC-8C056682773D}" name="Requerido" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{4CF54F79-B1D0-4360-844D-43516C0FD04E}" name="Network" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{0C901189-CC72-4C25-8DD7-0817A15F5C5E}" name="S = Subnets" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{6B064FA6-0B40-4351-972C-6A2E7D897012}" name="bits" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{7FAC6786-C484-4F40-8550-E343AD586903}" name="Next Hop" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{449242AC-30D8-43B1-A018-F69CB2FB0F97}" name="Mask" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{85725509-C27D-40ED-B2EC-854B1ADD475E}" name="H" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{C1D19371-E071-4579-8114-FACA215759CE}" name="Hosts" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1A2A7BB2-01C2-49C7-BD9B-C800BA220CFA}" name="Tabla13" displayName="Tabla13" ref="A19:G23" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="A19:G23" xr:uid="{1A2A7BB2-01C2-49C7-BD9B-C800BA220CFA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3052B40A-B0FB-4063-9FBF-FC17CD83FFB0}" name="BINARIO"/>
+    <tableColumn id="2" xr3:uid="{C0CA8EB6-043B-4612-A2BF-DC96D3B3E729}" name="NETWORK"/>
+    <tableColumn id="3" xr3:uid="{51CDD003-D35B-4FEE-A1A5-2A1A1BBB77D8}" name="IP INI"/>
+    <tableColumn id="4" xr3:uid="{9D6477AF-FFE2-4997-AAF2-86A1AE4C3A1C}" name="IP FIN"/>
+    <tableColumn id="5" xr3:uid="{7DD62337-910D-47F7-8F07-8D59CC86A7A4}" name="BROADCAST" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{1C44F769-9EB2-4C0C-999D-DF37719B2C39}" name="MASK" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{FCF13681-ACD3-4175-BF97-F3BFA6C155DD}" name="HOSTS" dataDxfId="9">
+      <calculatedColumnFormula>2^14-2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0023DB7E-15AA-4018-8923-09DB67FB4525}" name="Tabla1115" displayName="Tabla1115" ref="A27:G43" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A27:G43" xr:uid="{0023DB7E-15AA-4018-8923-09DB67FB4525}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C48B5C8C-44DA-42C7-BA70-8FAB6C3336D5}" name="BINARIO" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9450B4FA-08DD-468A-B847-19CB9086572D}" name="NETWORK" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{EC1B7D8F-A813-4E30-80B5-D93E1761AB10}" name="IP INI" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{5549E95E-0534-459E-A9AF-EE2DD9801061}" name="IP FIN" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C9B9C6AB-E079-42BF-A1BC-2FAA7E8120BE}" name="BROADCAST" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{A3586D24-6F8A-452F-B291-564707273729}" name="MASK" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{880F75EA-99F8-4356-839D-DA853543AD5B}" name="HOSTS" dataDxfId="0" dataCellStyle="Millares"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2946,9 +4153,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{42F81D43-1DF1-4805-95B1-B96C8A4790AB}" name="Tabla1" displayName="Tabla1" ref="A1:C21" totalsRowShown="0">
   <autoFilter ref="A1:C21" xr:uid="{42F81D43-1DF1-4805-95B1-B96C8A4790AB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D77550C-69D5-44ED-A818-C47FF27E12F8}" name="DEC" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{888DFC0E-62A3-4FAD-9D8B-8B3422479316}" name="BIN" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{F2900852-B448-4DE9-8912-031513158585}" name="HEX" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{6D77550C-69D5-44ED-A818-C47FF27E12F8}" name="DEC" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{888DFC0E-62A3-4FAD-9D8B-8B3422479316}" name="BIN" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{F2900852-B448-4DE9-8912-031513158585}" name="HEX" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2973,28 +4180,28 @@
   <autoFilter ref="K1:S3" xr:uid="{E6370397-E076-43E7-9698-49F6F959CE7A}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D6A37B02-E9C4-49CB-8C2A-A865DDB05E2C}" name="EXP"/>
-    <tableColumn id="2" xr3:uid="{1349FDC6-3AA1-42B5-9F06-7FC58808E9C1}" name="2^7" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{1349FDC6-3AA1-42B5-9F06-7FC58808E9C1}" name="2^7" dataDxfId="39">
       <calculatedColumnFormula>2^7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{33EADDB5-4757-4423-BE0A-AB9102000FFB}" name="2^6" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{33EADDB5-4757-4423-BE0A-AB9102000FFB}" name="2^6" dataDxfId="38">
       <calculatedColumnFormula>2^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{50E8A68B-6961-40D5-98D1-907DC09AFC45}" name="2^5" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{50E8A68B-6961-40D5-98D1-907DC09AFC45}" name="2^5" dataDxfId="37">
       <calculatedColumnFormula>2^5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C3D88FBD-0E0B-4446-8615-4D2D84ECB388}" name="2^4" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{C3D88FBD-0E0B-4446-8615-4D2D84ECB388}" name="2^4" dataDxfId="36">
       <calculatedColumnFormula>2^4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{34188D14-E91B-406C-A3AE-60F368E2A5FD}" name="2^3" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{34188D14-E91B-406C-A3AE-60F368E2A5FD}" name="2^3" dataDxfId="35">
       <calculatedColumnFormula>2^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{109343F3-772B-401D-B6E1-CB46978A4E8A}" name="2^2" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{109343F3-772B-401D-B6E1-CB46978A4E8A}" name="2^2" dataDxfId="34">
       <calculatedColumnFormula>2^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4FEF6C42-FF4E-492F-9369-CB1247EAFFD2}" name="2^1" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{4FEF6C42-FF4E-492F-9369-CB1247EAFFD2}" name="2^1" dataDxfId="33">
       <calculatedColumnFormula>2^1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8831B11E-9A44-40E1-A709-EAAB97E9E3BD}" name="2^0" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{8831B11E-9A44-40E1-A709-EAAB97E9E3BD}" name="2^0" dataDxfId="32">
       <calculatedColumnFormula>2^0</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3332,13 +4539,13 @@
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="186" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3346,17 +4553,17 @@
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="100"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="187"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="100"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="187"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -3396,7 +4603,7 @@
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="188" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3410,7 +4617,7 @@
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="101"/>
+      <c r="D8" s="188"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -3429,7 +4636,7 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3475,16 +4682,16 @@
       <c r="J1" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="F3" s="104" t="s">
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="F3" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
@@ -3644,11 +4851,11 @@
         <v>76</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -3800,7 +5007,7 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F10:H10"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4088,17 +5295,17 @@
       <c r="A11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="193" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="106"/>
+      <c r="C11" s="193"/>
       <c r="E11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="193" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="106"/>
+      <c r="G11" s="193"/>
       <c r="I11" s="12" t="s">
         <v>182</v>
       </c>
@@ -4113,17 +5320,17 @@
       <c r="A12" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="194" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="107"/>
+      <c r="C12" s="194"/>
       <c r="E12" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="107" t="s">
+      <c r="F12" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="107"/>
+      <c r="G12" s="194"/>
       <c r="I12" s="55" t="s">
         <v>183</v>
       </c>
@@ -4138,17 +5345,17 @@
       <c r="A13" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="195" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="108"/>
+      <c r="C13" s="195"/>
       <c r="E13" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="195" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="108"/>
+      <c r="G13" s="195"/>
       <c r="I13" s="56" t="s">
         <v>184</v>
       </c>
@@ -4163,17 +5370,17 @@
       <c r="A14" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="196" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="109"/>
+      <c r="C14" s="196"/>
       <c r="E14" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="196" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="109"/>
+      <c r="G14" s="196"/>
       <c r="I14" s="57" t="s">
         <v>185</v>
       </c>
@@ -4188,17 +5395,17 @@
       <c r="A15" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="192" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="105"/>
+      <c r="C15" s="192"/>
       <c r="E15" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="105" t="s">
+      <c r="F15" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="105"/>
+      <c r="G15" s="192"/>
       <c r="I15" s="49" t="s">
         <v>186</v>
       </c>
@@ -4665,16 +5872,16 @@
       <c r="T5" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="V5" s="104" t="s">
+      <c r="V5" s="191" t="s">
         <v>274</v>
       </c>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
+      <c r="W5" s="191"/>
+      <c r="X5" s="191"/>
+      <c r="Y5" s="191"/>
+      <c r="Z5" s="191"/>
+      <c r="AA5" s="191"/>
+      <c r="AB5" s="191"/>
+      <c r="AC5" s="191"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
@@ -4898,10 +6105,10 @@
       <c r="F9" s="97">
         <v>16</v>
       </c>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="191" t="s">
         <v>275</v>
       </c>
-      <c r="I9" s="104"/>
+      <c r="I9" s="191"/>
       <c r="K9" s="70">
         <v>192</v>
       </c>
@@ -5279,10 +6486,10 @@
       <c r="F15" s="96">
         <v>16</v>
       </c>
-      <c r="H15" s="104" t="s">
+      <c r="H15" s="191" t="s">
         <v>275</v>
       </c>
-      <c r="I15" s="104"/>
+      <c r="I15" s="191"/>
       <c r="K15" s="72">
         <v>172</v>
       </c>
@@ -5704,7 +6911,7 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H15:I15"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
@@ -5720,8 +6927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFA7AEB-8644-4483-AADF-2BE5610CF495}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
@@ -5729,82 +6936,82 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="111" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="111" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="112" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="113" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="112" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="113" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="114" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="113" customWidth="1"/>
-    <col min="9" max="9" width="10" style="114" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="110" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="110" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="110" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="101" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="102" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="103" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="102" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="103" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="104" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="103" customWidth="1"/>
+    <col min="9" max="9" width="10" style="104" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="100" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="100" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="100" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="100" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="120" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="197" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="136" t="s">
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="200" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="198" t="s">
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="212" t="s">
         <v>350</v>
       </c>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="200"/>
-    </row>
-    <row r="2" spans="1:13" s="115" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="214"/>
+    </row>
+    <row r="2" spans="1:13" s="105" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="121" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="106" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="107" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="135" t="s">
+      <c r="E2" s="122" t="s">
         <v>331</v>
       </c>
-      <c r="F2" s="139" t="s">
+      <c r="F2" s="123" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="116" t="s">
+      <c r="G2" s="106" t="s">
         <v>329</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="107" t="s">
         <v>330</v>
       </c>
-      <c r="I2" s="135" t="s">
+      <c r="I2" s="122" t="s">
         <v>331</v>
       </c>
-      <c r="J2" s="201" t="s">
+      <c r="J2" s="176" t="s">
         <v>351</v>
       </c>
-      <c r="K2" s="118" t="s">
+      <c r="K2" s="108" t="s">
         <v>359</v>
       </c>
-      <c r="L2" s="118" t="s">
+      <c r="L2" s="108" t="s">
         <v>353</v>
       </c>
-      <c r="M2" s="202" t="s">
+      <c r="M2" s="177" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5812,40 +7019,40 @@
       <c r="A3" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="166" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="183" t="s">
+      <c r="C3" s="167" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="140">
+      <c r="D3" s="124">
         <v>127255255255</v>
       </c>
-      <c r="E3" s="184" t="s">
+      <c r="E3" s="168" t="s">
         <v>395</v>
       </c>
-      <c r="F3" s="172">
+      <c r="F3" s="156">
         <v>1111111</v>
       </c>
-      <c r="G3" s="173" t="s">
+      <c r="G3" s="157" t="s">
         <v>232</v>
       </c>
-      <c r="H3" s="140">
+      <c r="H3" s="124">
         <v>10255255255</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="J3" s="203" t="s">
+      <c r="J3" s="178" t="s">
         <v>354</v>
       </c>
-      <c r="K3" s="185" t="s">
+      <c r="K3" s="169" t="s">
         <v>356</v>
       </c>
-      <c r="L3" s="185">
-        <v>1</v>
-      </c>
-      <c r="M3" s="204">
+      <c r="L3" s="169">
+        <v>1</v>
+      </c>
+      <c r="M3" s="179">
         <f>2^24-2</f>
         <v>16777214</v>
       </c>
@@ -5854,40 +7061,40 @@
       <c r="A4" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="170" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="187" t="s">
+      <c r="C4" s="171" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="141">
+      <c r="D4" s="125">
         <v>191255255255</v>
       </c>
-      <c r="E4" s="188" t="s">
+      <c r="E4" s="172" t="s">
         <v>397</v>
       </c>
-      <c r="F4" s="175" t="s">
+      <c r="F4" s="159" t="s">
         <v>340</v>
       </c>
-      <c r="G4" s="176" t="s">
+      <c r="G4" s="160" t="s">
         <v>346</v>
       </c>
-      <c r="H4" s="177" t="s">
+      <c r="H4" s="161" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="178" t="s">
+      <c r="I4" s="162" t="s">
         <v>347</v>
       </c>
-      <c r="J4" s="205" t="s">
+      <c r="J4" s="180" t="s">
         <v>355</v>
       </c>
-      <c r="K4" s="206" t="s">
+      <c r="K4" s="181" t="s">
         <v>357</v>
       </c>
-      <c r="L4" s="206">
+      <c r="L4" s="181">
         <v>16</v>
       </c>
-      <c r="M4" s="207">
+      <c r="M4" s="182">
         <f>2^16-2</f>
         <v>65534</v>
       </c>
@@ -5896,40 +7103,40 @@
       <c r="A5" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="173" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="190" t="s">
+      <c r="C5" s="174" t="s">
         <v>398</v>
       </c>
-      <c r="D5" s="142">
+      <c r="D5" s="126">
         <v>223255255255</v>
       </c>
-      <c r="E5" s="191" t="s">
+      <c r="E5" s="175" t="s">
         <v>399</v>
       </c>
-      <c r="F5" s="179" t="s">
+      <c r="F5" s="163" t="s">
         <v>342</v>
       </c>
-      <c r="G5" s="180" t="s">
+      <c r="G5" s="164" t="s">
         <v>348</v>
       </c>
-      <c r="H5" s="142">
+      <c r="H5" s="126">
         <v>192168255255</v>
       </c>
-      <c r="I5" s="181" t="s">
+      <c r="I5" s="165" t="s">
         <v>349</v>
       </c>
-      <c r="J5" s="208" t="s">
+      <c r="J5" s="183" t="s">
         <v>349</v>
       </c>
-      <c r="K5" s="209" t="s">
+      <c r="K5" s="184" t="s">
         <v>358</v>
       </c>
-      <c r="L5" s="209">
+      <c r="L5" s="184">
         <v>256</v>
       </c>
-      <c r="M5" s="210">
+      <c r="M5" s="185">
         <f>2^8-2</f>
         <v>254</v>
       </c>
@@ -5938,85 +7145,85 @@
       <c r="A6" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="170" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="187" t="s">
+      <c r="C6" s="171" t="s">
         <v>400</v>
       </c>
-      <c r="D6" s="141">
+      <c r="D6" s="125">
         <v>239255255255</v>
       </c>
-      <c r="E6" s="188" t="s">
+      <c r="E6" s="172" t="s">
         <v>401</v>
       </c>
-      <c r="F6" s="192" t="s">
+      <c r="F6" s="206" t="s">
         <v>343</v>
       </c>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="192" t="s">
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="206" t="s">
         <v>343</v>
       </c>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="194"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="208"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="173" t="s">
         <v>337</v>
       </c>
-      <c r="C7" s="190" t="s">
+      <c r="C7" s="174" t="s">
         <v>402</v>
       </c>
-      <c r="D7" s="142">
+      <c r="D7" s="126">
         <v>255255255255</v>
       </c>
-      <c r="E7" s="191" t="s">
+      <c r="E7" s="175" t="s">
         <v>403</v>
       </c>
-      <c r="F7" s="195" t="s">
+      <c r="F7" s="209" t="s">
         <v>344</v>
       </c>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="195" t="s">
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="209" t="s">
         <v>344</v>
       </c>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="197"/>
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="211"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="B8" s="211">
+      <c r="B8" s="203">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="211">
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="203">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="211">
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="203">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="K8" s="212"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="213"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="205"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6035,10 +7242,10 @@
       <c r="E10" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="134" t="s">
+      <c r="G10" s="121" t="s">
         <v>365</v>
       </c>
       <c r="H10" s="50" t="s">
@@ -6050,7 +7257,7 @@
       <c r="J10" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="K10" s="117" t="s">
+      <c r="K10" s="107" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6058,34 +7265,34 @@
       <c r="A11" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="136" t="s">
         <v>375</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="137" t="s">
         <v>372</v>
       </c>
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="138" t="s">
         <v>373</v>
       </c>
-      <c r="E11" s="153" t="s">
+      <c r="E11" s="137" t="s">
         <v>374</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="111" t="s">
         <v>369</v>
       </c>
-      <c r="G11" s="165" t="s">
+      <c r="G11" s="149" t="s">
         <v>375</v>
       </c>
-      <c r="H11" s="153" t="s">
+      <c r="H11" s="137" t="s">
         <v>218</v>
       </c>
-      <c r="I11" s="154" t="s">
+      <c r="I11" s="138" t="s">
         <v>217</v>
       </c>
-      <c r="J11" s="153" t="s">
+      <c r="J11" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="K11" s="169">
+      <c r="K11" s="153">
         <v>10100255255</v>
       </c>
     </row>
@@ -6093,34 +7300,34 @@
       <c r="A12" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="139" t="s">
         <v>376</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="157" t="s">
+      <c r="D12" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="156" t="s">
+      <c r="E12" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="F12" s="113" t="s">
         <v>356</v>
       </c>
-      <c r="G12" s="166" t="s">
+      <c r="G12" s="150" t="s">
         <v>376</v>
       </c>
-      <c r="H12" s="156" t="s">
+      <c r="H12" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="157" t="s">
+      <c r="I12" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="J12" s="156" t="s">
+      <c r="J12" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="K12" s="124" t="s">
+      <c r="K12" s="114" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6128,34 +7335,34 @@
       <c r="A13" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="142" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="144" t="s">
         <v>222</v>
       </c>
-      <c r="E13" s="159" t="s">
+      <c r="E13" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="G13" s="167" t="s">
+      <c r="G13" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="159" t="s">
+      <c r="H13" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="I13" s="160" t="s">
+      <c r="I13" s="144" t="s">
         <v>222</v>
       </c>
-      <c r="J13" s="159" t="s">
+      <c r="J13" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="127" t="s">
+      <c r="K13" s="117" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6163,34 +7370,34 @@
       <c r="A14" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="145" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="162" t="s">
+      <c r="C14" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="163" t="s">
+      <c r="D14" s="147" t="s">
         <v>217</v>
       </c>
-      <c r="E14" s="162" t="s">
+      <c r="E14" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="164">
+      <c r="F14" s="148">
         <v>10255255255</v>
       </c>
-      <c r="G14" s="168" t="s">
+      <c r="G14" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="162" t="s">
+      <c r="H14" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="I14" s="163" t="s">
+      <c r="I14" s="147" t="s">
         <v>217</v>
       </c>
-      <c r="J14" s="162" t="s">
+      <c r="J14" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="K14" s="170">
+      <c r="K14" s="154">
         <v>10255255255</v>
       </c>
     </row>
@@ -6211,10 +7418,10 @@
       <c r="E16" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="F16" s="117" t="s">
+      <c r="F16" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="G16" s="134" t="s">
+      <c r="G16" s="121" t="s">
         <v>365</v>
       </c>
       <c r="H16" s="50" t="s">
@@ -6226,7 +7433,7 @@
       <c r="J16" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="K16" s="117" t="s">
+      <c r="K16" s="107" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6234,34 +7441,34 @@
       <c r="A17" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="130" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="109" t="s">
         <v>377</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="110" t="s">
         <v>378</v>
       </c>
-      <c r="E17" s="119" t="s">
+      <c r="E17" s="109" t="s">
         <v>379</v>
       </c>
-      <c r="F17" s="143" t="s">
+      <c r="F17" s="127" t="s">
         <v>370</v>
       </c>
-      <c r="G17" s="165" t="s">
+      <c r="G17" s="149" t="s">
         <v>345</v>
       </c>
-      <c r="H17" s="153" t="s">
+      <c r="H17" s="137" t="s">
         <v>387</v>
       </c>
-      <c r="I17" s="154" t="s">
+      <c r="I17" s="138" t="s">
         <v>388</v>
       </c>
-      <c r="J17" s="153" t="s">
+      <c r="J17" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="K17" s="169" t="s">
+      <c r="K17" s="153" t="s">
         <v>386</v>
       </c>
     </row>
@@ -6269,34 +7476,34 @@
       <c r="A18" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="E18" s="112" t="s">
+      <c r="E18" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="122" t="s">
+      <c r="F18" s="112" t="s">
         <v>357</v>
       </c>
-      <c r="G18" s="166" t="s">
+      <c r="G18" s="150" t="s">
         <v>217</v>
       </c>
-      <c r="H18" s="156" t="s">
+      <c r="H18" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="I18" s="157" t="s">
+      <c r="I18" s="141" t="s">
         <v>222</v>
       </c>
-      <c r="J18" s="156" t="s">
+      <c r="J18" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="K18" s="124" t="s">
+      <c r="K18" s="114" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6304,34 +7511,34 @@
       <c r="A19" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="133" t="s">
         <v>345</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="115" t="s">
         <v>377</v>
       </c>
-      <c r="D19" s="150" t="s">
+      <c r="D19" s="134" t="s">
         <v>222</v>
       </c>
-      <c r="E19" s="125" t="s">
+      <c r="E19" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="F19" s="144" t="s">
+      <c r="F19" s="128" t="s">
         <v>380</v>
       </c>
-      <c r="G19" s="167" t="s">
+      <c r="G19" s="151" t="s">
         <v>345</v>
       </c>
-      <c r="H19" s="159" t="s">
+      <c r="H19" s="143" t="s">
         <v>387</v>
       </c>
-      <c r="I19" s="160" t="s">
+      <c r="I19" s="144" t="s">
         <v>222</v>
       </c>
-      <c r="J19" s="159" t="s">
+      <c r="J19" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="K19" s="127" t="s">
+      <c r="K19" s="117" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6339,34 +7546,34 @@
       <c r="A20" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="B20" s="151" t="s">
+      <c r="B20" s="135" t="s">
         <v>345</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="129" t="s">
         <v>377</v>
       </c>
-      <c r="D20" s="163" t="s">
+      <c r="D20" s="147" t="s">
         <v>217</v>
       </c>
-      <c r="E20" s="162" t="s">
+      <c r="E20" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="F20" s="128" t="s">
+      <c r="F20" s="118" t="s">
         <v>381</v>
       </c>
-      <c r="G20" s="168" t="s">
+      <c r="G20" s="152" t="s">
         <v>345</v>
       </c>
-      <c r="H20" s="162" t="s">
+      <c r="H20" s="146" t="s">
         <v>387</v>
       </c>
-      <c r="I20" s="163" t="s">
+      <c r="I20" s="147" t="s">
         <v>217</v>
       </c>
-      <c r="J20" s="162" t="s">
+      <c r="J20" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="K20" s="170" t="s">
+      <c r="K20" s="154" t="s">
         <v>390</v>
       </c>
     </row>
@@ -6387,7 +7594,7 @@
       <c r="E22" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="F22" s="117" t="s">
+      <c r="F22" s="107" t="s">
         <v>191</v>
       </c>
       <c r="G22" s="50" t="s">
@@ -6402,7 +7609,7 @@
       <c r="J22" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="K22" s="117" t="s">
+      <c r="K22" s="107" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6410,34 +7617,34 @@
       <c r="A23" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="109" t="s">
         <v>382</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="110" t="s">
         <v>383</v>
       </c>
-      <c r="E23" s="119" t="s">
+      <c r="E23" s="109" t="s">
         <v>236</v>
       </c>
-      <c r="F23" s="143" t="s">
+      <c r="F23" s="127" t="s">
         <v>371</v>
       </c>
-      <c r="G23" s="146" t="s">
+      <c r="G23" s="130" t="s">
         <v>338</v>
       </c>
-      <c r="H23" s="119" t="s">
+      <c r="H23" s="109" t="s">
         <v>382</v>
       </c>
-      <c r="I23" s="120" t="s">
+      <c r="I23" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="J23" s="119" t="s">
+      <c r="J23" s="109" t="s">
         <v>393</v>
       </c>
-      <c r="K23" s="143" t="s">
+      <c r="K23" s="127" t="s">
         <v>391</v>
       </c>
     </row>
@@ -6445,34 +7652,34 @@
       <c r="A24" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="148" t="s">
+      <c r="D24" s="132" t="s">
         <v>217</v>
       </c>
-      <c r="E24" s="112" t="s">
+      <c r="E24" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="F24" s="122" t="s">
+      <c r="F24" s="112" t="s">
         <v>358</v>
       </c>
-      <c r="G24" s="147" t="s">
+      <c r="G24" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="H24" s="112" t="s">
+      <c r="H24" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="I24" s="148" t="s">
+      <c r="I24" s="132" t="s">
         <v>217</v>
       </c>
-      <c r="J24" s="112" t="s">
+      <c r="J24" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="K24" s="122" t="s">
+      <c r="K24" s="112" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6480,34 +7687,34 @@
       <c r="A25" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="133" t="s">
         <v>338</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="115" t="s">
         <v>382</v>
       </c>
-      <c r="D25" s="150" t="s">
+      <c r="D25" s="134" t="s">
         <v>383</v>
       </c>
-      <c r="E25" s="125" t="s">
+      <c r="E25" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="F25" s="144" t="s">
+      <c r="F25" s="128" t="s">
         <v>384</v>
       </c>
-      <c r="G25" s="149" t="s">
+      <c r="G25" s="133" t="s">
         <v>338</v>
       </c>
-      <c r="H25" s="125" t="s">
+      <c r="H25" s="115" t="s">
         <v>382</v>
       </c>
-      <c r="I25" s="150" t="s">
+      <c r="I25" s="134" t="s">
         <v>217</v>
       </c>
-      <c r="J25" s="125" t="s">
+      <c r="J25" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="K25" s="144" t="s">
+      <c r="K25" s="128" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6515,51 +7722,972 @@
       <c r="A26" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="135" t="s">
         <v>338</v>
       </c>
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="129" t="s">
         <v>382</v>
       </c>
-      <c r="D26" s="129" t="s">
+      <c r="D26" s="119" t="s">
         <v>383</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="129" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="128" t="s">
+      <c r="F26" s="118" t="s">
         <v>385</v>
       </c>
-      <c r="G26" s="151" t="s">
+      <c r="G26" s="135" t="s">
         <v>338</v>
       </c>
-      <c r="H26" s="145" t="s">
+      <c r="H26" s="129" t="s">
         <v>382</v>
       </c>
-      <c r="I26" s="129" t="s">
+      <c r="I26" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="J26" s="145" t="s">
+      <c r="J26" s="129" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="171">
+      <c r="K26" s="155">
         <v>192168255255</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47FA494-C759-4E4C-9A58-653A7EA3C992}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="220" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="216" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+    </row>
+    <row r="3" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" s="99" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>417</v>
+      </c>
+      <c r="H3" s="99" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>411</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>412</v>
+      </c>
+      <c r="G4" s="99" t="s">
+        <v>418</v>
+      </c>
+      <c r="H4" s="99" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <v>5</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="99">
+        <v>8</v>
+      </c>
+      <c r="D5" s="99">
+        <v>3</v>
+      </c>
+      <c r="E5" s="99">
+        <v>32</v>
+      </c>
+      <c r="F5" s="99">
+        <v>11</v>
+      </c>
+      <c r="G5" s="99">
+        <v>21</v>
+      </c>
+      <c r="H5" s="215">
+        <f>2^G5-2</f>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="99" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>443</v>
+      </c>
+      <c r="B8" s="217" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="217" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="217" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" s="217" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="217" t="s">
+        <v>451</v>
+      </c>
+      <c r="G8" s="218">
+        <f>2^21-2</f>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>444</v>
+      </c>
+      <c r="B9" s="217" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="217" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="217" t="s">
+        <v>439</v>
+      </c>
+      <c r="E9" s="217" t="s">
+        <v>437</v>
+      </c>
+      <c r="F9" s="217" t="s">
+        <v>451</v>
+      </c>
+      <c r="G9" s="218">
+        <f t="shared" ref="G9:G15" si="0">2^21-2</f>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" s="217" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="217" t="s">
+        <v>431</v>
+      </c>
+      <c r="D10" s="217" t="s">
+        <v>440</v>
+      </c>
+      <c r="E10" s="217" t="s">
+        <v>438</v>
+      </c>
+      <c r="F10" s="217" t="s">
+        <v>451</v>
+      </c>
+      <c r="G10" s="218">
+        <f t="shared" si="0"/>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="217" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" s="217" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" s="219">
+        <v>10127255254</v>
+      </c>
+      <c r="E11" s="219">
+        <v>10127255255</v>
+      </c>
+      <c r="F11" s="217" t="s">
+        <v>451</v>
+      </c>
+      <c r="G11" s="218">
+        <f t="shared" si="0"/>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12" s="217" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12" s="217" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" s="219">
+        <v>10159255254</v>
+      </c>
+      <c r="E12" s="219">
+        <v>10159255255</v>
+      </c>
+      <c r="F12" s="217" t="s">
+        <v>451</v>
+      </c>
+      <c r="G12" s="218">
+        <f t="shared" si="0"/>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="B13" s="217" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" s="217" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="219">
+        <v>10191255254</v>
+      </c>
+      <c r="E13" s="219">
+        <v>10191255255</v>
+      </c>
+      <c r="F13" s="217" t="s">
+        <v>451</v>
+      </c>
+      <c r="G13" s="218">
+        <f t="shared" si="0"/>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14" s="217" t="s">
+        <v>458</v>
+      </c>
+      <c r="C14" s="217" t="s">
+        <v>435</v>
+      </c>
+      <c r="D14" s="219">
+        <v>10223255254</v>
+      </c>
+      <c r="E14" s="219">
+        <v>10223255255</v>
+      </c>
+      <c r="F14" s="217" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" s="218">
+        <f t="shared" si="0"/>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15" s="217" t="s">
+        <v>459</v>
+      </c>
+      <c r="C15" s="217" t="s">
+        <v>436</v>
+      </c>
+      <c r="D15" s="219">
+        <v>102552552554</v>
+      </c>
+      <c r="E15" s="219">
+        <v>10255255255</v>
+      </c>
+      <c r="F15" s="217" t="s">
+        <v>451</v>
+      </c>
+      <c r="G15" s="218">
+        <f t="shared" si="0"/>
+        <v>2097150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17" s="20">
+        <f>2^14-2</f>
+        <v>16382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="222" t="s">
+        <v>420</v>
+      </c>
+      <c r="B19" s="223" t="s">
+        <v>429</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="G19" s="73" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="142" t="s">
+        <v>461</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>466</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>465</v>
+      </c>
+      <c r="D20" s="226" t="s">
+        <v>477</v>
+      </c>
+      <c r="E20" s="226" t="s">
+        <v>473</v>
+      </c>
+      <c r="F20" s="226" t="s">
+        <v>481</v>
+      </c>
+      <c r="G20" s="221">
+        <f t="shared" ref="G20:G23" si="1">2^14-2</f>
+        <v>16382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="139" t="s">
+        <v>462</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="224" t="s">
+        <v>470</v>
+      </c>
+      <c r="D21" s="226" t="s">
+        <v>478</v>
+      </c>
+      <c r="E21" s="226" t="s">
+        <v>474</v>
+      </c>
+      <c r="F21" s="226" t="s">
+        <v>481</v>
+      </c>
+      <c r="G21" s="218">
+        <f t="shared" si="1"/>
+        <v>16382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="142" t="s">
+        <v>463</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>468</v>
+      </c>
+      <c r="C22" s="225" t="s">
+        <v>471</v>
+      </c>
+      <c r="D22" s="226" t="s">
+        <v>479</v>
+      </c>
+      <c r="E22" s="226" t="s">
+        <v>475</v>
+      </c>
+      <c r="F22" s="226" t="s">
+        <v>481</v>
+      </c>
+      <c r="G22" s="221">
+        <f t="shared" si="1"/>
+        <v>16382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="139" t="s">
+        <v>464</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>469</v>
+      </c>
+      <c r="C23" s="224" t="s">
+        <v>472</v>
+      </c>
+      <c r="D23" s="226" t="s">
+        <v>480</v>
+      </c>
+      <c r="E23" s="226" t="s">
+        <v>476</v>
+      </c>
+      <c r="F23" s="226" t="s">
+        <v>481</v>
+      </c>
+      <c r="G23" s="218">
+        <f t="shared" si="1"/>
+        <v>16382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" t="s">
+        <v>482</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>28</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="C27" t="s">
+        <v>421</v>
+      </c>
+      <c r="D27" t="s">
+        <v>422</v>
+      </c>
+      <c r="E27" t="s">
+        <v>423</v>
+      </c>
+      <c r="F27" t="s">
+        <v>424</v>
+      </c>
+      <c r="G27" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B28" s="217" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" s="217" t="s">
+        <v>531</v>
+      </c>
+      <c r="D28" s="217" t="s">
+        <v>515</v>
+      </c>
+      <c r="E28" s="217" t="s">
+        <v>499</v>
+      </c>
+      <c r="F28" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G28" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B29" s="217" t="s">
+        <v>484</v>
+      </c>
+      <c r="C29" s="217" t="s">
+        <v>532</v>
+      </c>
+      <c r="D29" s="217" t="s">
+        <v>516</v>
+      </c>
+      <c r="E29" s="217" t="s">
+        <v>500</v>
+      </c>
+      <c r="F29" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G29" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B30" s="217" t="s">
+        <v>485</v>
+      </c>
+      <c r="C30" s="217" t="s">
+        <v>533</v>
+      </c>
+      <c r="D30" s="217" t="s">
+        <v>517</v>
+      </c>
+      <c r="E30" s="217" t="s">
+        <v>501</v>
+      </c>
+      <c r="F30" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G30" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B31" s="217" t="s">
+        <v>486</v>
+      </c>
+      <c r="C31" s="217" t="s">
+        <v>534</v>
+      </c>
+      <c r="D31" s="217" t="s">
+        <v>518</v>
+      </c>
+      <c r="E31" s="217" t="s">
+        <v>502</v>
+      </c>
+      <c r="F31" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G31" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B32" s="217" t="s">
+        <v>487</v>
+      </c>
+      <c r="C32" s="217" t="s">
+        <v>535</v>
+      </c>
+      <c r="D32" s="217" t="s">
+        <v>519</v>
+      </c>
+      <c r="E32" s="217" t="s">
+        <v>503</v>
+      </c>
+      <c r="F32" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G32" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B33" s="217" t="s">
+        <v>488</v>
+      </c>
+      <c r="C33" s="217" t="s">
+        <v>536</v>
+      </c>
+      <c r="D33" s="217" t="s">
+        <v>520</v>
+      </c>
+      <c r="E33" s="217" t="s">
+        <v>504</v>
+      </c>
+      <c r="F33" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G33" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B34" s="217" t="s">
+        <v>489</v>
+      </c>
+      <c r="C34" s="217" t="s">
+        <v>537</v>
+      </c>
+      <c r="D34" s="217" t="s">
+        <v>521</v>
+      </c>
+      <c r="E34" s="217" t="s">
+        <v>505</v>
+      </c>
+      <c r="F34" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G34" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B35" s="217" t="s">
+        <v>490</v>
+      </c>
+      <c r="C35" s="217" t="s">
+        <v>538</v>
+      </c>
+      <c r="D35" s="217" t="s">
+        <v>522</v>
+      </c>
+      <c r="E35" s="217" t="s">
+        <v>506</v>
+      </c>
+      <c r="F35" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G35" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B36" s="217" t="s">
+        <v>491</v>
+      </c>
+      <c r="C36" s="217" t="s">
+        <v>539</v>
+      </c>
+      <c r="D36" s="217" t="s">
+        <v>523</v>
+      </c>
+      <c r="E36" s="217" t="s">
+        <v>507</v>
+      </c>
+      <c r="F36" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G36" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B37" s="217" t="s">
+        <v>492</v>
+      </c>
+      <c r="C37" s="217" t="s">
+        <v>540</v>
+      </c>
+      <c r="D37" s="217" t="s">
+        <v>524</v>
+      </c>
+      <c r="E37" s="217" t="s">
+        <v>508</v>
+      </c>
+      <c r="F37" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G37" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B38" s="217" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" s="217" t="s">
+        <v>541</v>
+      </c>
+      <c r="D38" s="217" t="s">
+        <v>525</v>
+      </c>
+      <c r="E38" s="217" t="s">
+        <v>509</v>
+      </c>
+      <c r="F38" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G38" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B39" s="217" t="s">
+        <v>494</v>
+      </c>
+      <c r="C39" s="217" t="s">
+        <v>542</v>
+      </c>
+      <c r="D39" s="217" t="s">
+        <v>526</v>
+      </c>
+      <c r="E39" s="217" t="s">
+        <v>510</v>
+      </c>
+      <c r="F39" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G39" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B40" s="217" t="s">
+        <v>495</v>
+      </c>
+      <c r="C40" s="217" t="s">
+        <v>543</v>
+      </c>
+      <c r="D40" s="217" t="s">
+        <v>527</v>
+      </c>
+      <c r="E40" s="217" t="s">
+        <v>511</v>
+      </c>
+      <c r="F40" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G40" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B41" s="217" t="s">
+        <v>496</v>
+      </c>
+      <c r="C41" s="217" t="s">
+        <v>544</v>
+      </c>
+      <c r="D41" s="217" t="s">
+        <v>528</v>
+      </c>
+      <c r="E41" s="217" t="s">
+        <v>512</v>
+      </c>
+      <c r="F41" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G41" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B42" s="217" t="s">
+        <v>497</v>
+      </c>
+      <c r="C42" s="217" t="s">
+        <v>545</v>
+      </c>
+      <c r="D42" s="217" t="s">
+        <v>529</v>
+      </c>
+      <c r="E42" s="217" t="s">
+        <v>513</v>
+      </c>
+      <c r="F42" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G42" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B43" s="217" t="s">
+        <v>498</v>
+      </c>
+      <c r="C43" s="217" t="s">
+        <v>546</v>
+      </c>
+      <c r="D43" s="217" t="s">
+        <v>530</v>
+      </c>
+      <c r="E43" s="217" t="s">
+        <v>514</v>
+      </c>
+      <c r="F43" s="219">
+        <v>255255255240</v>
+      </c>
+      <c r="G43" s="218">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FB2624-7144-4D61-B227-BB7D977CF05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2EF02C-846F-41AA-85D8-12BDDB87997B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="sistemas" sheetId="5" r:id="rId5"/>
     <sheet name="ipv4" sheetId="6" r:id="rId6"/>
     <sheet name="classic" sheetId="7" r:id="rId7"/>
+    <sheet name="vlsm" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modelos!$C$1:$C$14</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="622">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -1547,6 +1548,9 @@
     </r>
   </si>
   <si>
+    <t>RED</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
@@ -2486,6 +2490,228 @@
   <si>
     <t>192.168.0.241</t>
   </si>
+  <si>
+    <t>VLSM</t>
+  </si>
+  <si>
+    <t>Variable Length Subnet Mask es un metodo de subnetting que consiste en ajustar la mascara de subred priorizando la porcion de hosts, ordenando las redes de mayor a menor</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>2^H-2 &gt;= h</t>
+  </si>
+  <si>
+    <t>32 - H</t>
+  </si>
+  <si>
+    <t>Max Hosts.</t>
+  </si>
+  <si>
+    <t>Ultimo bit 1</t>
+  </si>
+  <si>
+    <t>DEPTO.</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>10.0.1.0</t>
+  </si>
+  <si>
+    <t>10.0.0.255</t>
+  </si>
+  <si>
+    <t>10.0.0.254</t>
+  </si>
+  <si>
+    <t>/25</t>
+  </si>
+  <si>
+    <t>/26</t>
+  </si>
+  <si>
+    <t>10.0.1.128</t>
+  </si>
+  <si>
+    <t>10.0.1.127</t>
+  </si>
+  <si>
+    <t>10.0.1.126</t>
+  </si>
+  <si>
+    <t>10.0.1.1</t>
+  </si>
+  <si>
+    <t>10.0.2.0</t>
+  </si>
+  <si>
+    <t>10.0.1.255</t>
+  </si>
+  <si>
+    <t>10.0.1.254</t>
+  </si>
+  <si>
+    <t>10.0.1.129</t>
+  </si>
+  <si>
+    <t>/27</t>
+  </si>
+  <si>
+    <t>10.0.2.64</t>
+  </si>
+  <si>
+    <t>10.0.2.63</t>
+  </si>
+  <si>
+    <t>10.0.2.62</t>
+  </si>
+  <si>
+    <t>10.0.2.1</t>
+  </si>
+  <si>
+    <t>10.0.2.96</t>
+  </si>
+  <si>
+    <t>10.0.2.65</t>
+  </si>
+  <si>
+    <t>10.0.2.95</t>
+  </si>
+  <si>
+    <t>10.0.2.94</t>
+  </si>
+  <si>
+    <t>ROUTER</t>
+  </si>
+  <si>
+    <t>/30</t>
+  </si>
+  <si>
+    <t>10.0.2.97</t>
+  </si>
+  <si>
+    <t>10.0.2.98</t>
+  </si>
+  <si>
+    <t>10.0.2.99</t>
+  </si>
+  <si>
+    <t>10.0.0.30</t>
+  </si>
+  <si>
+    <t>10.0.0.31</t>
+  </si>
+  <si>
+    <t>10.0.0.32</t>
+  </si>
+  <si>
+    <t>10.0.0.33</t>
+  </si>
+  <si>
+    <t>10.0.0.160</t>
+  </si>
+  <si>
+    <t>10.0.0.158</t>
+  </si>
+  <si>
+    <t>10.0.0.159</t>
+  </si>
+  <si>
+    <t>10.0.0.224</t>
+  </si>
+  <si>
+    <t>10.0.0.223</t>
+  </si>
+  <si>
+    <t>10.0.0.222</t>
+  </si>
+  <si>
+    <t>10.0.0.161</t>
+  </si>
+  <si>
+    <t>10.0.1.224</t>
+  </si>
+  <si>
+    <t>10.0.0.225</t>
+  </si>
+  <si>
+    <t>10.0.1.223</t>
+  </si>
+  <si>
+    <t>10.0.1.222</t>
+  </si>
+  <si>
+    <t>10.0.1.225</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>10.0.0.127</t>
+  </si>
+  <si>
+    <t>10.0.0.128</t>
+  </si>
+  <si>
+    <t>10.0.0.191</t>
+  </si>
+  <si>
+    <t>11100000</t>
+  </si>
+  <si>
+    <t>10.0.0.129</t>
+  </si>
+  <si>
+    <t>10.0.1.63</t>
+  </si>
+  <si>
+    <t>10.0.1.62</t>
+  </si>
+  <si>
+    <t>10.0.2.255</t>
+  </si>
+  <si>
+    <t>10.0.2.254</t>
+  </si>
+  <si>
+    <t>10.0.3.0</t>
+  </si>
+  <si>
+    <t>10.0.3.1</t>
+  </si>
+  <si>
+    <t>10.0.3.128</t>
+  </si>
+  <si>
+    <t>10.0.3.127</t>
+  </si>
+  <si>
+    <t>10.0.3.126</t>
+  </si>
+  <si>
+    <t>10.0.3.129</t>
+  </si>
+  <si>
+    <t>10.0.3.130</t>
+  </si>
+  <si>
+    <t>10.0.3.131</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>La direcciones de las red son incorrectas y se superponen.</t>
+  </si>
 </sst>
 </file>
 
@@ -2495,7 +2721,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2582,6 +2808,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFA50021"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFA50021"/>
       <name val="Calibri"/>
@@ -2698,7 +2932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2908,12 +3142,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3514,6 +3768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3540,13 +3795,76 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="55">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3999,12 +4317,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}" name="Tabla3" displayName="Tabla3" ref="E1:G9" totalsRowShown="0" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}" name="Tabla3" displayName="Tabla3" ref="E1:G9" totalsRowShown="0" dataDxfId="54">
   <autoFilter ref="E1:G9" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8079FA69-59E6-4C3F-8414-22F5F08661F0}" name="Fibra" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{51C999F5-4709-4731-A8C0-5DF1FB13B02F}" name="SMF" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{D64CF8DA-A5E3-4CD8-B0D7-1B8FF7A3D8F6}" name="MMF" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{8079FA69-59E6-4C3F-8414-22F5F08661F0}" name="Fibra" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{51C999F5-4709-4731-A8C0-5DF1FB13B02F}" name="SMF" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{D64CF8DA-A5E3-4CD8-B0D7-1B8FF7A3D8F6}" name="MMF" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4025,16 +4343,16 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B9321F3F-14AF-44F6-A6A4-5BE08D01D69C}" name="Tabla11" displayName="Tabla11" ref="A7:G15" totalsRowShown="0" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B9321F3F-14AF-44F6-A6A4-5BE08D01D69C}" name="Tabla11" displayName="Tabla11" ref="A7:G15" totalsRowShown="0" dataDxfId="34">
   <autoFilter ref="A7:G15" xr:uid="{B9321F3F-14AF-44F6-A6A4-5BE08D01D69C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{146003D4-85AA-4A62-AF73-3F2F1E8E3FD0}" name="BINARIO" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{E652681A-4140-4DB5-8118-A4ACD72891BC}" name="NETWORK" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{5E246B79-5E36-4191-857B-C436006DCEEB}" name="IP INI" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{9E42FDDF-621C-49C1-AF02-A59932FC6B1F}" name="IP FIN" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{71CBE653-DD6F-4F5A-A51D-EECA47890D3E}" name="BROADCAST" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{E8280997-6488-4F04-B842-27A01165FA01}" name="MASK" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{08A09AB8-B0CF-4E94-8322-063107549B58}" name="HOSTS" dataDxfId="27" dataCellStyle="Millares">
+    <tableColumn id="1" xr3:uid="{146003D4-85AA-4A62-AF73-3F2F1E8E3FD0}" name="BINARIO" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{E652681A-4140-4DB5-8118-A4ACD72891BC}" name="NETWORK" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{5E246B79-5E36-4191-857B-C436006DCEEB}" name="IP INI" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{9E42FDDF-621C-49C1-AF02-A59932FC6B1F}" name="IP FIN" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{71CBE653-DD6F-4F5A-A51D-EECA47890D3E}" name="BROADCAST" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{E8280997-6488-4F04-B842-27A01165FA01}" name="MASK" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{08A09AB8-B0CF-4E94-8322-063107549B58}" name="HOSTS" dataDxfId="35" dataCellStyle="Millares">
       <calculatedColumnFormula>2^21-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4043,33 +4361,33 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4B0DE3A1-C344-4C6C-962C-35B3A41F3A12}" name="Tabla12" displayName="Tabla12" ref="A3:H4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4B0DE3A1-C344-4C6C-962C-35B3A41F3A12}" name="Tabla12" displayName="Tabla12" ref="A3:H4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="24">
   <autoFilter ref="A3:H4" xr:uid="{4B0DE3A1-C344-4C6C-962C-35B3A41F3A12}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0C15C14F-4C79-4B76-9DAC-8C056682773D}" name="Requerido" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{4CF54F79-B1D0-4360-844D-43516C0FD04E}" name="Network" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{0C901189-CC72-4C25-8DD7-0817A15F5C5E}" name="S = Subnets" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{6B064FA6-0B40-4351-972C-6A2E7D897012}" name="bits" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{7FAC6786-C484-4F40-8550-E343AD586903}" name="Next Hop" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{449242AC-30D8-43B1-A018-F69CB2FB0F97}" name="Mask" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{85725509-C27D-40ED-B2EC-854B1ADD475E}" name="H" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{C1D19371-E071-4579-8114-FACA215759CE}" name="Hosts" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{0C15C14F-4C79-4B76-9DAC-8C056682773D}" name="Requerido" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{4CF54F79-B1D0-4360-844D-43516C0FD04E}" name="Network" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{0C901189-CC72-4C25-8DD7-0817A15F5C5E}" name="S = Subnets" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{6B064FA6-0B40-4351-972C-6A2E7D897012}" name="bits" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{7FAC6786-C484-4F40-8550-E343AD586903}" name="Next Hop" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{449242AC-30D8-43B1-A018-F69CB2FB0F97}" name="Mask" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{85725509-C27D-40ED-B2EC-854B1ADD475E}" name="H" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{C1D19371-E071-4579-8114-FACA215759CE}" name="Hosts" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1A2A7BB2-01C2-49C7-BD9B-C800BA220CFA}" name="Tabla13" displayName="Tabla13" ref="A19:G23" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1A2A7BB2-01C2-49C7-BD9B-C800BA220CFA}" name="Tabla13" displayName="Tabla13" ref="A19:G23" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="22">
   <autoFilter ref="A19:G23" xr:uid="{1A2A7BB2-01C2-49C7-BD9B-C800BA220CFA}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3052B40A-B0FB-4063-9FBF-FC17CD83FFB0}" name="BINARIO"/>
     <tableColumn id="2" xr3:uid="{C0CA8EB6-043B-4612-A2BF-DC96D3B3E729}" name="NETWORK"/>
     <tableColumn id="3" xr3:uid="{51CDD003-D35B-4FEE-A1A5-2A1A1BBB77D8}" name="IP INI"/>
     <tableColumn id="4" xr3:uid="{9D6477AF-FFE2-4997-AAF2-86A1AE4C3A1C}" name="IP FIN"/>
-    <tableColumn id="5" xr3:uid="{7DD62337-910D-47F7-8F07-8D59CC86A7A4}" name="BROADCAST" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{1C44F769-9EB2-4C0C-999D-DF37719B2C39}" name="MASK" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{FCF13681-ACD3-4175-BF97-F3BFA6C155DD}" name="HOSTS" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{7DD62337-910D-47F7-8F07-8D59CC86A7A4}" name="BROADCAST" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{1C44F769-9EB2-4C0C-999D-DF37719B2C39}" name="MASK" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{FCF13681-ACD3-4175-BF97-F3BFA6C155DD}" name="HOSTS" dataDxfId="17">
       <calculatedColumnFormula>2^14-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4078,18 +4396,78 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0023DB7E-15AA-4018-8923-09DB67FB4525}" name="Tabla1115" displayName="Tabla1115" ref="A27:G43" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0023DB7E-15AA-4018-8923-09DB67FB4525}" name="Tabla1115" displayName="Tabla1115" ref="A27:G43" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="A27:G43" xr:uid="{0023DB7E-15AA-4018-8923-09DB67FB4525}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C48B5C8C-44DA-42C7-BA70-8FAB6C3336D5}" name="BINARIO" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9450B4FA-08DD-468A-B847-19CB9086572D}" name="NETWORK" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{EC1B7D8F-A813-4E30-80B5-D93E1761AB10}" name="IP INI" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{5549E95E-0534-459E-A9AF-EE2DD9801061}" name="IP FIN" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C9B9C6AB-E079-42BF-A1BC-2FAA7E8120BE}" name="BROADCAST" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{A3586D24-6F8A-452F-B291-564707273729}" name="MASK" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{880F75EA-99F8-4356-839D-DA853543AD5B}" name="HOSTS" dataDxfId="0" dataCellStyle="Millares"/>
+    <tableColumn id="1" xr3:uid="{C48B5C8C-44DA-42C7-BA70-8FAB6C3336D5}" name="BINARIO" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{9450B4FA-08DD-468A-B847-19CB9086572D}" name="NETWORK" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{EC1B7D8F-A813-4E30-80B5-D93E1761AB10}" name="IP INI" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{5549E95E-0534-459E-A9AF-EE2DD9801061}" name="IP FIN" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{C9B9C6AB-E079-42BF-A1BC-2FAA7E8120BE}" name="BROADCAST" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{A3586D24-6F8A-452F-B291-564707273729}" name="MASK" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{880F75EA-99F8-4356-839D-DA853543AD5B}" name="HOSTS" dataDxfId="8" dataCellStyle="Millares"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{29D882FF-C061-432F-91D3-36283DEF7BDA}" name="Tabla16" displayName="Tabla16" ref="A6:I12" totalsRowShown="0">
+  <autoFilter ref="A6:I12" xr:uid="{29D882FF-C061-432F-91D3-36283DEF7BDA}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{54797E99-8F9C-4D8B-9034-FB8CC23061A7}" name="DEPTO."/>
+    <tableColumn id="2" xr3:uid="{92302894-15A0-45BD-8DBD-3D3353BE9E78}" name="Hosts"/>
+    <tableColumn id="4" xr3:uid="{222173D5-448F-49EB-9025-1E4EDE82B38F}" name="MAX"/>
+    <tableColumn id="5" xr3:uid="{CD3AFF76-FBB8-44D1-ADAC-B8BFCEDD1342}" name="Network"/>
+    <tableColumn id="6" xr3:uid="{41A03725-E1FE-48D7-B414-4BFF4EEF8BF7}" name="IP INI"/>
+    <tableColumn id="7" xr3:uid="{1C0A632C-ABFD-4F1C-B78A-4721D2B235BA}" name="IP FIN"/>
+    <tableColumn id="8" xr3:uid="{11A72542-778D-48D7-A014-18BC3A97C5BD}" name="BROADCAST"/>
+    <tableColumn id="9" xr3:uid="{E39E4615-FC9D-4AD2-936B-9C20F6E1B3EC}" name="CIDR"/>
+    <tableColumn id="10" xr3:uid="{FAD1D535-C5C2-4FAB-B553-934C05210AC4}" name="MASK"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{427B8E00-9D26-4D25-AD09-2F4D52050179}" name="Tabla1618" displayName="Tabla1618" ref="A14:I20" totalsRowShown="0">
+  <autoFilter ref="A14:I20" xr:uid="{427B8E00-9D26-4D25-AD09-2F4D52050179}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:I20">
+    <sortCondition ref="A14:A20"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7A191D63-7D31-4503-BF21-BF6140E2A159}" name="DEPTO."/>
+    <tableColumn id="2" xr3:uid="{1F43B36A-0A31-4808-8922-DA24A10207F7}" name="Hosts"/>
+    <tableColumn id="4" xr3:uid="{CB21AF30-24E2-4E12-BCF2-0B100F07EB08}" name="MAX"/>
+    <tableColumn id="5" xr3:uid="{1952C969-1034-47B6-BBD6-D5C113B1D8BF}" name="Network" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{0F516B3D-8201-4B12-9C70-E05E7A3ADFEE}" name="IP INI" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{AB60D57E-4B41-4209-8449-FBCFAEDE7F53}" name="IP FIN" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{AB2C5DAE-6E6D-4699-A21A-07090C462992}" name="BROADCAST" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{7EC0DB4D-E7BF-4A82-9141-2A091D63BBF8}" name="CIDR"/>
+    <tableColumn id="10" xr3:uid="{E7DDED61-54AD-4BA7-96C4-EADA5B31F53B}" name="MASK"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E5CFB9AB-A7DB-4E51-9F35-C2D14D62BEB7}" name="Tabla1619" displayName="Tabla1619" ref="A22:I28" totalsRowShown="0">
+  <autoFilter ref="A22:I28" xr:uid="{E5CFB9AB-A7DB-4E51-9F35-C2D14D62BEB7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:I28">
+    <sortCondition ref="A22:A28"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{28DB5CA5-67C5-4DD1-8E40-70E37E7ED867}" name="DEPTO."/>
+    <tableColumn id="2" xr3:uid="{2C3C72D6-7BDD-41D6-A0B6-834E806B956C}" name="Hosts"/>
+    <tableColumn id="4" xr3:uid="{393CA5E2-250E-432A-BC96-ECF391D58B94}" name="MAX"/>
+    <tableColumn id="5" xr3:uid="{33EC1B45-E51F-4E13-A1EC-8E14A70D4842}" name="Network" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{01028ED0-DB9C-474C-B2F7-F2F1AF2A7FBA}" name="IP INI" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0F34AEAE-E617-4D53-BC27-D2397F671359}" name="IP FIN" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{6214A5DB-D042-444B-A413-BED554D77CF8}" name="BROADCAST" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{5C000C30-2B46-43A9-BA45-1075FCDBD01D}" name="CIDR"/>
+    <tableColumn id="10" xr3:uid="{FD9732AD-F870-42F1-946E-3C65294B0473}" name="MASK"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4153,9 +4531,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{42F81D43-1DF1-4805-95B1-B96C8A4790AB}" name="Tabla1" displayName="Tabla1" ref="A1:C21" totalsRowShown="0">
   <autoFilter ref="A1:C21" xr:uid="{42F81D43-1DF1-4805-95B1-B96C8A4790AB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D77550C-69D5-44ED-A818-C47FF27E12F8}" name="DEC" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{888DFC0E-62A3-4FAD-9D8B-8B3422479316}" name="BIN" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{F2900852-B448-4DE9-8912-031513158585}" name="HEX" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{6D77550C-69D5-44ED-A818-C47FF27E12F8}" name="DEC" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{888DFC0E-62A3-4FAD-9D8B-8B3422479316}" name="BIN" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{F2900852-B448-4DE9-8912-031513158585}" name="HEX" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4180,28 +4558,28 @@
   <autoFilter ref="K1:S3" xr:uid="{E6370397-E076-43E7-9698-49F6F959CE7A}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D6A37B02-E9C4-49CB-8C2A-A865DDB05E2C}" name="EXP"/>
-    <tableColumn id="2" xr3:uid="{1349FDC6-3AA1-42B5-9F06-7FC58808E9C1}" name="2^7" dataDxfId="39">
+    <tableColumn id="2" xr3:uid="{1349FDC6-3AA1-42B5-9F06-7FC58808E9C1}" name="2^7" dataDxfId="47">
       <calculatedColumnFormula>2^7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{33EADDB5-4757-4423-BE0A-AB9102000FFB}" name="2^6" dataDxfId="38">
+    <tableColumn id="3" xr3:uid="{33EADDB5-4757-4423-BE0A-AB9102000FFB}" name="2^6" dataDxfId="46">
       <calculatedColumnFormula>2^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{50E8A68B-6961-40D5-98D1-907DC09AFC45}" name="2^5" dataDxfId="37">
+    <tableColumn id="4" xr3:uid="{50E8A68B-6961-40D5-98D1-907DC09AFC45}" name="2^5" dataDxfId="45">
       <calculatedColumnFormula>2^5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C3D88FBD-0E0B-4446-8615-4D2D84ECB388}" name="2^4" dataDxfId="36">
+    <tableColumn id="5" xr3:uid="{C3D88FBD-0E0B-4446-8615-4D2D84ECB388}" name="2^4" dataDxfId="44">
       <calculatedColumnFormula>2^4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{34188D14-E91B-406C-A3AE-60F368E2A5FD}" name="2^3" dataDxfId="35">
+    <tableColumn id="6" xr3:uid="{34188D14-E91B-406C-A3AE-60F368E2A5FD}" name="2^3" dataDxfId="43">
       <calculatedColumnFormula>2^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{109343F3-772B-401D-B6E1-CB46978A4E8A}" name="2^2" dataDxfId="34">
+    <tableColumn id="7" xr3:uid="{109343F3-772B-401D-B6E1-CB46978A4E8A}" name="2^2" dataDxfId="42">
       <calculatedColumnFormula>2^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4FEF6C42-FF4E-492F-9369-CB1247EAFFD2}" name="2^1" dataDxfId="33">
+    <tableColumn id="8" xr3:uid="{4FEF6C42-FF4E-492F-9369-CB1247EAFFD2}" name="2^1" dataDxfId="41">
       <calculatedColumnFormula>2^1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8831B11E-9A44-40E1-A709-EAAB97E9E3BD}" name="2^0" dataDxfId="32">
+    <tableColumn id="9" xr3:uid="{8831B11E-9A44-40E1-A709-EAAB97E9E3BD}" name="2^0" dataDxfId="40">
       <calculatedColumnFormula>2^0</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7775,8 +8153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47FA494-C759-4E4C-9A58-653A7EA3C992}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
@@ -7793,11 +8171,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="221" t="s">
         <v>350</v>
       </c>
       <c r="B1" s="216" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C1" s="216"/>
       <c r="D1" s="216"/>
@@ -7807,25 +8185,25 @@
     </row>
     <row r="3" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>411</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>406</v>
+      </c>
+      <c r="E3" s="99" t="s">
         <v>407</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>414</v>
-      </c>
-      <c r="C3" s="99" t="s">
-        <v>410</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>405</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>406</v>
       </c>
       <c r="F3" s="99" t="s">
         <v>359</v>
       </c>
       <c r="G3" s="99" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H3" s="99" t="s">
         <v>352</v>
@@ -7833,28 +8211,28 @@
     </row>
     <row r="4" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D4" s="99" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F4" s="99" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G4" s="99" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H4" s="99" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
@@ -7862,7 +8240,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C5" s="99">
         <v>8</v>
@@ -7886,229 +8264,229 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="99" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" t="s">
         <v>442</v>
       </c>
-      <c r="D6" t="s">
-        <v>441</v>
-      </c>
       <c r="E6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B8" s="217" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="217" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" s="217" t="s">
+        <v>429</v>
+      </c>
+      <c r="E8" s="217" t="s">
+        <v>428</v>
+      </c>
+      <c r="F8" s="217" t="s">
         <v>452</v>
       </c>
-      <c r="C8" s="217" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" s="217" t="s">
-        <v>428</v>
-      </c>
-      <c r="E8" s="217" t="s">
-        <v>427</v>
-      </c>
-      <c r="F8" s="217" t="s">
-        <v>451</v>
-      </c>
-      <c r="G8" s="218">
+      <c r="G8" s="219">
         <f>2^21-2</f>
         <v>2097150</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B9" s="217" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C9" s="217" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D9" s="217" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E9" s="217" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F9" s="217" t="s">
-        <v>451</v>
-      </c>
-      <c r="G9" s="218">
+        <v>452</v>
+      </c>
+      <c r="G9" s="219">
         <f t="shared" ref="G9:G15" si="0">2^21-2</f>
         <v>2097150</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B10" s="217" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C10" s="217" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D10" s="217" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E10" s="217" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F10" s="217" t="s">
-        <v>451</v>
-      </c>
-      <c r="G10" s="218">
+        <v>452</v>
+      </c>
+      <c r="G10" s="219">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B11" s="217" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C11" s="217" t="s">
-        <v>432</v>
-      </c>
-      <c r="D11" s="219">
+        <v>433</v>
+      </c>
+      <c r="D11" s="220">
         <v>10127255254</v>
       </c>
-      <c r="E11" s="219">
+      <c r="E11" s="220">
         <v>10127255255</v>
       </c>
       <c r="F11" s="217" t="s">
-        <v>451</v>
-      </c>
-      <c r="G11" s="218">
+        <v>452</v>
+      </c>
+      <c r="G11" s="219">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B12" s="217" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C12" s="217" t="s">
-        <v>433</v>
-      </c>
-      <c r="D12" s="219">
+        <v>434</v>
+      </c>
+      <c r="D12" s="220">
         <v>10159255254</v>
       </c>
-      <c r="E12" s="219">
+      <c r="E12" s="220">
         <v>10159255255</v>
       </c>
       <c r="F12" s="217" t="s">
-        <v>451</v>
-      </c>
-      <c r="G12" s="218">
+        <v>452</v>
+      </c>
+      <c r="G12" s="219">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B13" s="217" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C13" s="217" t="s">
-        <v>434</v>
-      </c>
-      <c r="D13" s="219">
+        <v>435</v>
+      </c>
+      <c r="D13" s="220">
         <v>10191255254</v>
       </c>
-      <c r="E13" s="219">
+      <c r="E13" s="220">
         <v>10191255255</v>
       </c>
       <c r="F13" s="217" t="s">
-        <v>451</v>
-      </c>
-      <c r="G13" s="218">
+        <v>452</v>
+      </c>
+      <c r="G13" s="219">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B14" s="217" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C14" s="217" t="s">
-        <v>435</v>
-      </c>
-      <c r="D14" s="219">
+        <v>436</v>
+      </c>
+      <c r="D14" s="220">
         <v>10223255254</v>
       </c>
-      <c r="E14" s="219">
+      <c r="E14" s="220">
         <v>10223255255</v>
       </c>
       <c r="F14" s="217" t="s">
-        <v>451</v>
-      </c>
-      <c r="G14" s="218">
+        <v>452</v>
+      </c>
+      <c r="G14" s="219">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B15" s="217" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C15" s="217" t="s">
-        <v>436</v>
-      </c>
-      <c r="D15" s="219">
+        <v>437</v>
+      </c>
+      <c r="D15" s="220">
         <v>102552552554</v>
       </c>
-      <c r="E15" s="219">
+      <c r="E15" s="220">
         <v>10255255255</v>
       </c>
       <c r="F15" s="217" t="s">
-        <v>451</v>
-      </c>
-      <c r="G15" s="218">
+        <v>452</v>
+      </c>
+      <c r="G15" s="219">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
@@ -8118,7 +8496,7 @@
         <v>197</v>
       </c>
       <c r="B17" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -8141,120 +8519,120 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="222" t="s">
-        <v>420</v>
-      </c>
-      <c r="B19" s="223" t="s">
-        <v>429</v>
+      <c r="A19" s="223" t="s">
+        <v>421</v>
+      </c>
+      <c r="B19" s="224" t="s">
+        <v>430</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D19" s="73" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E19" s="73" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F19" s="73" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G19" s="73" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="142" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B20" s="71" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="71" t="s">
         <v>466</v>
       </c>
-      <c r="C20" s="71" t="s">
-        <v>465</v>
-      </c>
-      <c r="D20" s="226" t="s">
-        <v>477</v>
-      </c>
-      <c r="E20" s="226" t="s">
-        <v>473</v>
-      </c>
-      <c r="F20" s="226" t="s">
-        <v>481</v>
-      </c>
-      <c r="G20" s="221">
+      <c r="D20" s="227" t="s">
+        <v>478</v>
+      </c>
+      <c r="E20" s="227" t="s">
+        <v>474</v>
+      </c>
+      <c r="F20" s="227" t="s">
+        <v>482</v>
+      </c>
+      <c r="G20" s="222">
         <f t="shared" ref="G20:G23" si="1">2^14-2</f>
         <v>16382</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="139" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>467</v>
-      </c>
-      <c r="C21" s="224" t="s">
-        <v>470</v>
-      </c>
-      <c r="D21" s="226" t="s">
-        <v>478</v>
-      </c>
-      <c r="E21" s="226" t="s">
-        <v>474</v>
-      </c>
-      <c r="F21" s="226" t="s">
-        <v>481</v>
-      </c>
-      <c r="G21" s="218">
+        <v>468</v>
+      </c>
+      <c r="C21" s="225" t="s">
+        <v>471</v>
+      </c>
+      <c r="D21" s="227" t="s">
+        <v>479</v>
+      </c>
+      <c r="E21" s="227" t="s">
+        <v>475</v>
+      </c>
+      <c r="F21" s="227" t="s">
+        <v>482</v>
+      </c>
+      <c r="G21" s="219">
         <f t="shared" si="1"/>
         <v>16382</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="142" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>468</v>
-      </c>
-      <c r="C22" s="225" t="s">
-        <v>471</v>
-      </c>
-      <c r="D22" s="226" t="s">
-        <v>479</v>
-      </c>
-      <c r="E22" s="226" t="s">
-        <v>475</v>
-      </c>
-      <c r="F22" s="226" t="s">
-        <v>481</v>
-      </c>
-      <c r="G22" s="221">
+        <v>469</v>
+      </c>
+      <c r="C22" s="226" t="s">
+        <v>472</v>
+      </c>
+      <c r="D22" s="227" t="s">
+        <v>480</v>
+      </c>
+      <c r="E22" s="227" t="s">
+        <v>476</v>
+      </c>
+      <c r="F22" s="227" t="s">
+        <v>482</v>
+      </c>
+      <c r="G22" s="222">
         <f t="shared" si="1"/>
         <v>16382</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="139" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>469</v>
-      </c>
-      <c r="C23" s="224" t="s">
-        <v>472</v>
-      </c>
-      <c r="D23" s="226" t="s">
-        <v>480</v>
-      </c>
-      <c r="E23" s="226" t="s">
-        <v>476</v>
-      </c>
-      <c r="F23" s="226" t="s">
+        <v>470</v>
+      </c>
+      <c r="C23" s="225" t="s">
+        <v>473</v>
+      </c>
+      <c r="D23" s="227" t="s">
         <v>481</v>
       </c>
-      <c r="G23" s="218">
+      <c r="E23" s="227" t="s">
+        <v>477</v>
+      </c>
+      <c r="F23" s="227" t="s">
+        <v>482</v>
+      </c>
+      <c r="G23" s="219">
         <f t="shared" si="1"/>
         <v>16382</v>
       </c>
@@ -8264,7 +8642,7 @@
         <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C25">
         <v>16</v>
@@ -8287,392 +8665,392 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B27" s="99" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D27" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B28" s="217" t="s">
         <v>342</v>
       </c>
       <c r="C28" s="217" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D28" s="217" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E28" s="217" t="s">
-        <v>499</v>
-      </c>
-      <c r="F28" s="219">
+        <v>500</v>
+      </c>
+      <c r="F28" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G28" s="218">
+      <c r="G28" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B29" s="217" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C29" s="217" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D29" s="217" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E29" s="217" t="s">
-        <v>500</v>
-      </c>
-      <c r="F29" s="219">
+        <v>501</v>
+      </c>
+      <c r="F29" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G29" s="218">
+      <c r="G29" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B30" s="217" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C30" s="217" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D30" s="217" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E30" s="217" t="s">
-        <v>501</v>
-      </c>
-      <c r="F30" s="219">
+        <v>502</v>
+      </c>
+      <c r="F30" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G30" s="218">
+      <c r="G30" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B31" s="217" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C31" s="217" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D31" s="217" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E31" s="217" t="s">
-        <v>502</v>
-      </c>
-      <c r="F31" s="219">
+        <v>503</v>
+      </c>
+      <c r="F31" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G31" s="218">
+      <c r="G31" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B32" s="217" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C32" s="217" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D32" s="217" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E32" s="217" t="s">
-        <v>503</v>
-      </c>
-      <c r="F32" s="219">
+        <v>504</v>
+      </c>
+      <c r="F32" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G32" s="218">
+      <c r="G32" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B33" s="217" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C33" s="217" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D33" s="217" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E33" s="217" t="s">
-        <v>504</v>
-      </c>
-      <c r="F33" s="219">
+        <v>505</v>
+      </c>
+      <c r="F33" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G33" s="218">
+      <c r="G33" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B34" s="217" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C34" s="217" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D34" s="217" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E34" s="217" t="s">
-        <v>505</v>
-      </c>
-      <c r="F34" s="219">
+        <v>506</v>
+      </c>
+      <c r="F34" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G34" s="218">
+      <c r="G34" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B35" s="217" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C35" s="217" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D35" s="217" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E35" s="217" t="s">
-        <v>506</v>
-      </c>
-      <c r="F35" s="219">
+        <v>507</v>
+      </c>
+      <c r="F35" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G35" s="218">
+      <c r="G35" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B36" s="217" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C36" s="217" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D36" s="217" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E36" s="217" t="s">
-        <v>507</v>
-      </c>
-      <c r="F36" s="219">
+        <v>508</v>
+      </c>
+      <c r="F36" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G36" s="218">
+      <c r="G36" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B37" s="217" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C37" s="217" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D37" s="217" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E37" s="217" t="s">
-        <v>508</v>
-      </c>
-      <c r="F37" s="219">
+        <v>509</v>
+      </c>
+      <c r="F37" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G37" s="218">
+      <c r="G37" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B38" s="217" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C38" s="217" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D38" s="217" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E38" s="217" t="s">
-        <v>509</v>
-      </c>
-      <c r="F38" s="219">
+        <v>510</v>
+      </c>
+      <c r="F38" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G38" s="218">
+      <c r="G38" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B39" s="217" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C39" s="217" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D39" s="217" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E39" s="217" t="s">
-        <v>510</v>
-      </c>
-      <c r="F39" s="219">
+        <v>511</v>
+      </c>
+      <c r="F39" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G39" s="218">
+      <c r="G39" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B40" s="217" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C40" s="217" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D40" s="217" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E40" s="217" t="s">
-        <v>511</v>
-      </c>
-      <c r="F40" s="219">
+        <v>512</v>
+      </c>
+      <c r="F40" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G40" s="218">
+      <c r="G40" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B41" s="217" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C41" s="217" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D41" s="217" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E41" s="217" t="s">
-        <v>512</v>
-      </c>
-      <c r="F41" s="219">
+        <v>513</v>
+      </c>
+      <c r="F41" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G41" s="218">
+      <c r="G41" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B42" s="217" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C42" s="217" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D42" s="217" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E42" s="217" t="s">
-        <v>513</v>
-      </c>
-      <c r="F42" s="219">
+        <v>514</v>
+      </c>
+      <c r="F42" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G42" s="218">
+      <c r="G42" s="219">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B43" s="217" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C43" s="217" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D43" s="217" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E43" s="217" t="s">
-        <v>514</v>
-      </c>
-      <c r="F43" s="219">
+        <v>515</v>
+      </c>
+      <c r="F43" s="220">
         <v>255255255240</v>
       </c>
-      <c r="G43" s="218">
+      <c r="G43" s="219">
         <v>14</v>
       </c>
     </row>
@@ -8690,4 +9068,860 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394024B9-C240-4F6F-9528-95BF11141B0B}">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="247" customWidth="1"/>
+    <col min="11" max="11" width="10" style="247" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="233" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="233"/>
+    <col min="15" max="15" width="15.28515625" style="233" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="233"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" s="228" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="229"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>406</v>
+      </c>
+      <c r="E3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>418</v>
+      </c>
+      <c r="E4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F6" t="s">
+        <v>423</v>
+      </c>
+      <c r="G6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H6" t="s">
+        <v>351</v>
+      </c>
+      <c r="I6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>254</v>
+      </c>
+      <c r="D7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H7" t="s">
+        <v>557</v>
+      </c>
+      <c r="I7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E8" t="s">
+        <v>566</v>
+      </c>
+      <c r="F8" t="s">
+        <v>565</v>
+      </c>
+      <c r="G8" t="s">
+        <v>564</v>
+      </c>
+      <c r="H8" t="s">
+        <v>561</v>
+      </c>
+      <c r="I8" s="218">
+        <v>255255255128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>563</v>
+      </c>
+      <c r="E9" t="s">
+        <v>570</v>
+      </c>
+      <c r="F9" t="s">
+        <v>569</v>
+      </c>
+      <c r="G9" t="s">
+        <v>568</v>
+      </c>
+      <c r="H9" t="s">
+        <v>561</v>
+      </c>
+      <c r="I9" s="218">
+        <v>255255255128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>567</v>
+      </c>
+      <c r="E10" t="s">
+        <v>575</v>
+      </c>
+      <c r="F10" t="s">
+        <v>574</v>
+      </c>
+      <c r="G10" t="s">
+        <v>573</v>
+      </c>
+      <c r="H10" t="s">
+        <v>562</v>
+      </c>
+      <c r="I10" s="218">
+        <v>255255255192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>572</v>
+      </c>
+      <c r="E11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F11" t="s">
+        <v>579</v>
+      </c>
+      <c r="G11" t="s">
+        <v>578</v>
+      </c>
+      <c r="H11" t="s">
+        <v>571</v>
+      </c>
+      <c r="I11" s="218">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>580</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>576</v>
+      </c>
+      <c r="E12" t="s">
+        <v>582</v>
+      </c>
+      <c r="F12" t="s">
+        <v>583</v>
+      </c>
+      <c r="G12" t="s">
+        <v>584</v>
+      </c>
+      <c r="H12" t="s">
+        <v>581</v>
+      </c>
+      <c r="I12" s="218">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>555</v>
+      </c>
+      <c r="B14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" t="s">
+        <v>556</v>
+      </c>
+      <c r="D14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E14" t="s">
+        <v>422</v>
+      </c>
+      <c r="F14" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14" t="s">
+        <v>424</v>
+      </c>
+      <c r="H14" t="s">
+        <v>351</v>
+      </c>
+      <c r="I14" t="s">
+        <v>425</v>
+      </c>
+      <c r="J14" s="233" t="s">
+        <v>619</v>
+      </c>
+      <c r="K14" s="247" t="s">
+        <v>404</v>
+      </c>
+      <c r="L14" s="247" t="s">
+        <v>364</v>
+      </c>
+      <c r="N14" s="233" t="s">
+        <v>360</v>
+      </c>
+      <c r="O14" s="233" t="s">
+        <v>601</v>
+      </c>
+      <c r="P14" s="233" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q14" s="233" t="s">
+        <v>366</v>
+      </c>
+      <c r="R14" s="233" t="s">
+        <v>367</v>
+      </c>
+      <c r="S14" s="233" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" s="217" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="217" t="s">
+        <v>426</v>
+      </c>
+      <c r="F15" s="217" t="s">
+        <v>585</v>
+      </c>
+      <c r="G15" s="217" t="s">
+        <v>586</v>
+      </c>
+      <c r="H15" t="s">
+        <v>571</v>
+      </c>
+      <c r="I15" s="218">
+        <v>255255255224</v>
+      </c>
+      <c r="J15" s="233" t="s">
+        <v>620</v>
+      </c>
+      <c r="K15" s="247" t="s">
+        <v>620</v>
+      </c>
+      <c r="L15" s="247" t="s">
+        <v>620</v>
+      </c>
+      <c r="N15" s="233" t="s">
+        <v>361</v>
+      </c>
+      <c r="O15" s="233" t="s">
+        <v>339</v>
+      </c>
+      <c r="P15" s="235" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q15" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="R15" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="S15" s="235" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="230" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="230">
+        <v>100</v>
+      </c>
+      <c r="C16" s="230">
+        <v>126</v>
+      </c>
+      <c r="D16" s="231" t="s">
+        <v>587</v>
+      </c>
+      <c r="E16" s="231" t="s">
+        <v>588</v>
+      </c>
+      <c r="F16" s="231" t="s">
+        <v>590</v>
+      </c>
+      <c r="G16" s="231" t="s">
+        <v>591</v>
+      </c>
+      <c r="H16" s="230" t="s">
+        <v>561</v>
+      </c>
+      <c r="I16" s="232">
+        <v>255255255128</v>
+      </c>
+      <c r="J16" s="248" t="s">
+        <v>621</v>
+      </c>
+      <c r="K16" s="225" t="s">
+        <v>339</v>
+      </c>
+      <c r="L16" s="247" t="s">
+        <v>602</v>
+      </c>
+      <c r="N16" s="233" t="s">
+        <v>425</v>
+      </c>
+      <c r="O16" s="234">
+        <v>255255255224</v>
+      </c>
+      <c r="P16" s="235" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q16" s="235" t="s">
+        <v>217</v>
+      </c>
+      <c r="R16" s="235" t="s">
+        <v>217</v>
+      </c>
+      <c r="S16" s="235" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="230" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="230" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="230">
+        <v>50</v>
+      </c>
+      <c r="C17" s="230">
+        <v>62</v>
+      </c>
+      <c r="D17" s="231" t="s">
+        <v>589</v>
+      </c>
+      <c r="E17" s="231" t="s">
+        <v>595</v>
+      </c>
+      <c r="F17" s="231" t="s">
+        <v>594</v>
+      </c>
+      <c r="G17" s="231" t="s">
+        <v>593</v>
+      </c>
+      <c r="H17" s="230" t="s">
+        <v>562</v>
+      </c>
+      <c r="I17" s="232">
+        <v>255255255192</v>
+      </c>
+      <c r="J17" s="248"/>
+      <c r="K17" s="225" t="s">
+        <v>603</v>
+      </c>
+      <c r="L17" s="247" t="s">
+        <v>604</v>
+      </c>
+      <c r="N17" s="233" t="s">
+        <v>430</v>
+      </c>
+      <c r="O17" s="233" t="s">
+        <v>339</v>
+      </c>
+      <c r="P17" s="235" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="R17" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="S17" s="235" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="230" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="237" t="s">
+        <v>324</v>
+      </c>
+      <c r="B18" s="237">
+        <v>200</v>
+      </c>
+      <c r="C18" s="237">
+        <v>254</v>
+      </c>
+      <c r="D18" s="236" t="s">
+        <v>592</v>
+      </c>
+      <c r="E18" s="236" t="s">
+        <v>597</v>
+      </c>
+      <c r="F18" s="236" t="s">
+        <v>599</v>
+      </c>
+      <c r="G18" s="236" t="s">
+        <v>598</v>
+      </c>
+      <c r="H18" s="237" t="s">
+        <v>557</v>
+      </c>
+      <c r="I18" s="237" t="s">
+        <v>358</v>
+      </c>
+      <c r="J18" s="248"/>
+      <c r="K18" s="225" t="s">
+        <v>339</v>
+      </c>
+      <c r="L18" s="247" t="s">
+        <v>559</v>
+      </c>
+      <c r="N18" s="233" t="s">
+        <v>424</v>
+      </c>
+      <c r="O18" s="233" t="s">
+        <v>586</v>
+      </c>
+      <c r="P18" s="235" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="R18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="S18" s="235" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="230" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="237" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="237">
+        <v>80</v>
+      </c>
+      <c r="C19" s="237">
+        <v>126</v>
+      </c>
+      <c r="D19" s="236" t="s">
+        <v>596</v>
+      </c>
+      <c r="E19" s="236" t="s">
+        <v>600</v>
+      </c>
+      <c r="F19" s="236" t="s">
+        <v>579</v>
+      </c>
+      <c r="G19" s="236" t="s">
+        <v>578</v>
+      </c>
+      <c r="H19" s="237" t="s">
+        <v>561</v>
+      </c>
+      <c r="I19" s="238">
+        <v>255255255128</v>
+      </c>
+      <c r="J19" s="248"/>
+      <c r="K19" s="225" t="s">
+        <v>563</v>
+      </c>
+      <c r="L19" s="247" t="s">
+        <v>568</v>
+      </c>
+      <c r="N19" s="233"/>
+      <c r="O19" s="233"/>
+      <c r="P19" s="233"/>
+      <c r="Q19" s="233"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="217" t="s">
+        <v>576</v>
+      </c>
+      <c r="E20" s="217" t="s">
+        <v>582</v>
+      </c>
+      <c r="F20" s="217" t="s">
+        <v>583</v>
+      </c>
+      <c r="G20" s="217" t="s">
+        <v>584</v>
+      </c>
+      <c r="H20" t="s">
+        <v>581</v>
+      </c>
+      <c r="I20" s="218">
+        <v>255255255252</v>
+      </c>
+      <c r="J20" s="233" t="s">
+        <v>620</v>
+      </c>
+      <c r="K20" s="247" t="s">
+        <v>620</v>
+      </c>
+      <c r="L20" s="247" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>555</v>
+      </c>
+      <c r="B22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" t="s">
+        <v>556</v>
+      </c>
+      <c r="D22" t="s">
+        <v>415</v>
+      </c>
+      <c r="E22" t="s">
+        <v>422</v>
+      </c>
+      <c r="F22" t="s">
+        <v>423</v>
+      </c>
+      <c r="G22" t="s">
+        <v>424</v>
+      </c>
+      <c r="H22" t="s">
+        <v>351</v>
+      </c>
+      <c r="I22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="241" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="241">
+        <v>30</v>
+      </c>
+      <c r="C23" s="241">
+        <v>30</v>
+      </c>
+      <c r="D23" s="242" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23" s="242" t="s">
+        <v>426</v>
+      </c>
+      <c r="F23" s="242" t="s">
+        <v>585</v>
+      </c>
+      <c r="G23" s="242" t="s">
+        <v>586</v>
+      </c>
+      <c r="H23" s="241" t="s">
+        <v>571</v>
+      </c>
+      <c r="I23" s="243">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="34">
+        <v>100</v>
+      </c>
+      <c r="C24" s="34">
+        <v>126</v>
+      </c>
+      <c r="D24" s="239" t="s">
+        <v>603</v>
+      </c>
+      <c r="E24" s="239" t="s">
+        <v>606</v>
+      </c>
+      <c r="F24" s="239" t="s">
+        <v>560</v>
+      </c>
+      <c r="G24" s="239" t="s">
+        <v>559</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="I24" s="240">
+        <v>255255255128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="244" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="244">
+        <v>50</v>
+      </c>
+      <c r="C25" s="244">
+        <v>62</v>
+      </c>
+      <c r="D25" s="245" t="s">
+        <v>558</v>
+      </c>
+      <c r="E25" s="245" t="s">
+        <v>566</v>
+      </c>
+      <c r="F25" s="245" t="s">
+        <v>608</v>
+      </c>
+      <c r="G25" s="245" t="s">
+        <v>607</v>
+      </c>
+      <c r="H25" s="244" t="s">
+        <v>562</v>
+      </c>
+      <c r="I25" s="246">
+        <v>255255255192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+      <c r="C26">
+        <v>254</v>
+      </c>
+      <c r="D26" s="217" t="s">
+        <v>567</v>
+      </c>
+      <c r="E26" s="217" t="s">
+        <v>575</v>
+      </c>
+      <c r="F26" s="217" t="s">
+        <v>610</v>
+      </c>
+      <c r="G26" s="217" t="s">
+        <v>609</v>
+      </c>
+      <c r="H26" t="s">
+        <v>557</v>
+      </c>
+      <c r="I26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>126</v>
+      </c>
+      <c r="D27" s="217" t="s">
+        <v>611</v>
+      </c>
+      <c r="E27" s="217" t="s">
+        <v>612</v>
+      </c>
+      <c r="F27" s="217" t="s">
+        <v>615</v>
+      </c>
+      <c r="G27" s="217" t="s">
+        <v>614</v>
+      </c>
+      <c r="H27" t="s">
+        <v>561</v>
+      </c>
+      <c r="I27" s="218">
+        <v>255255255128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>580</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="217" t="s">
+        <v>613</v>
+      </c>
+      <c r="E28" s="217" t="s">
+        <v>616</v>
+      </c>
+      <c r="F28" s="217" t="s">
+        <v>617</v>
+      </c>
+      <c r="G28" s="217" t="s">
+        <v>618</v>
+      </c>
+      <c r="H28" t="s">
+        <v>581</v>
+      </c>
+      <c r="I28" s="218">
+        <v>255255255252</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:B11">
+    <sortCondition descending="1" ref="B6:B11"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="J16:J19"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2EF02C-846F-41AA-85D8-12BDDB87997B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547FEE06-337B-44BD-A824-E9C49C770827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="8" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ipv4" sheetId="6" r:id="rId6"/>
     <sheet name="classic" sheetId="7" r:id="rId7"/>
     <sheet name="vlsm" sheetId="8" r:id="rId8"/>
+    <sheet name="ipv6" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modelos!$C$1:$C$14</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="642">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -2712,6 +2713,96 @@
   <si>
     <t>La direcciones de las red son incorrectas y se superponen.</t>
   </si>
+  <si>
+    <t>10.0.1.226</t>
+  </si>
+  <si>
+    <t>0001010</t>
+  </si>
+  <si>
+    <t>11100010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.0.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Subred</t>
+  </si>
+  <si>
+    <t>SuperRed</t>
+  </si>
+  <si>
+    <t>Sumarizada</t>
+  </si>
+  <si>
+    <t>Cuya mascara es menor al de las redes de destino (coincidencia de bits)</t>
+  </si>
+  <si>
+    <t>Cuya mascara es menor a la mascara con clase</t>
+  </si>
+  <si>
+    <t>Cuya mascara es mayor a la mascara con clase</t>
+  </si>
+  <si>
+    <t>192.168.0.0/24</t>
+  </si>
+  <si>
+    <t>192.168.1.0/24</t>
+  </si>
+  <si>
+    <t>192.168.2.0/24</t>
+  </si>
+  <si>
+    <t>10.0.0.2/30</t>
+  </si>
+  <si>
+    <t>10.0.0.1/30</t>
+  </si>
+  <si>
+    <t>ip route 192.168.0.0 255.255.255.0 10.0.0.2</t>
+  </si>
+  <si>
+    <t>ip route 192.168.2.0 255.255.255.0 10.0.0.2</t>
+  </si>
+  <si>
+    <t>ip route 192.168.1.0 255.255.255.0 10.0.0.2</t>
+  </si>
+  <si>
+    <t>ip route 192.168.0.0 255.255.252.0 10.0.0.2</t>
+  </si>
 </sst>
 </file>
 
@@ -2722,13 +2813,6 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2818,6 +2902,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFA50021"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3165,45 +3256,45 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3225,7 +3316,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3237,10 +3328,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3252,7 +3343,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3294,7 +3385,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3330,7 +3421,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3355,7 +3446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3369,13 +3460,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3396,7 +3487,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3422,7 +3513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3431,17 +3522,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3459,7 +3550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3474,25 +3565,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3501,7 +3592,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3525,7 +3616,7 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3534,7 +3625,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3543,7 +3634,7 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3552,7 +3643,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3582,8 +3673,38 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3591,179 +3712,62 @@
     <xf numFmtId="49" fontId="9" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3781,40 +3785,37 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3829,12 +3830,107 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -3894,9 +3990,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -3914,6 +4007,20 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3938,23 +4045,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3982,14 +4072,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -4005,6 +4091,16 @@
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4343,16 +4439,16 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B9321F3F-14AF-44F6-A6A4-5BE08D01D69C}" name="Tabla11" displayName="Tabla11" ref="A7:G15" totalsRowShown="0" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B9321F3F-14AF-44F6-A6A4-5BE08D01D69C}" name="Tabla11" displayName="Tabla11" ref="A7:G15" totalsRowShown="0" dataDxfId="39">
   <autoFilter ref="A7:G15" xr:uid="{B9321F3F-14AF-44F6-A6A4-5BE08D01D69C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{146003D4-85AA-4A62-AF73-3F2F1E8E3FD0}" name="BINARIO" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{E652681A-4140-4DB5-8118-A4ACD72891BC}" name="NETWORK" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{5E246B79-5E36-4191-857B-C436006DCEEB}" name="IP INI" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{9E42FDDF-621C-49C1-AF02-A59932FC6B1F}" name="IP FIN" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{71CBE653-DD6F-4F5A-A51D-EECA47890D3E}" name="BROADCAST" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{E8280997-6488-4F04-B842-27A01165FA01}" name="MASK" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{08A09AB8-B0CF-4E94-8322-063107549B58}" name="HOSTS" dataDxfId="35" dataCellStyle="Millares">
+    <tableColumn id="1" xr3:uid="{146003D4-85AA-4A62-AF73-3F2F1E8E3FD0}" name="BINARIO" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{E652681A-4140-4DB5-8118-A4ACD72891BC}" name="NETWORK" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{5E246B79-5E36-4191-857B-C436006DCEEB}" name="IP INI" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{9E42FDDF-621C-49C1-AF02-A59932FC6B1F}" name="IP FIN" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{71CBE653-DD6F-4F5A-A51D-EECA47890D3E}" name="BROADCAST" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{E8280997-6488-4F04-B842-27A01165FA01}" name="MASK" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{08A09AB8-B0CF-4E94-8322-063107549B58}" name="HOSTS" dataDxfId="32" dataCellStyle="Millares">
       <calculatedColumnFormula>2^21-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4361,33 +4457,33 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4B0DE3A1-C344-4C6C-962C-35B3A41F3A12}" name="Tabla12" displayName="Tabla12" ref="A3:H4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4B0DE3A1-C344-4C6C-962C-35B3A41F3A12}" name="Tabla12" displayName="Tabla12" ref="A3:H4" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A3:H4" xr:uid="{4B0DE3A1-C344-4C6C-962C-35B3A41F3A12}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0C15C14F-4C79-4B76-9DAC-8C056682773D}" name="Requerido" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{4CF54F79-B1D0-4360-844D-43516C0FD04E}" name="Network" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{0C901189-CC72-4C25-8DD7-0817A15F5C5E}" name="S = Subnets" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{6B064FA6-0B40-4351-972C-6A2E7D897012}" name="bits" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{7FAC6786-C484-4F40-8550-E343AD586903}" name="Next Hop" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{449242AC-30D8-43B1-A018-F69CB2FB0F97}" name="Mask" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{85725509-C27D-40ED-B2EC-854B1ADD475E}" name="H" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{C1D19371-E071-4579-8114-FACA215759CE}" name="Hosts" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{0C15C14F-4C79-4B76-9DAC-8C056682773D}" name="Requerido" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{4CF54F79-B1D0-4360-844D-43516C0FD04E}" name="Network" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{0C901189-CC72-4C25-8DD7-0817A15F5C5E}" name="S = Subnets" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{6B064FA6-0B40-4351-972C-6A2E7D897012}" name="bits" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{7FAC6786-C484-4F40-8550-E343AD586903}" name="Next Hop" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{449242AC-30D8-43B1-A018-F69CB2FB0F97}" name="Mask" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{85725509-C27D-40ED-B2EC-854B1ADD475E}" name="H" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{C1D19371-E071-4579-8114-FACA215759CE}" name="Hosts" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1A2A7BB2-01C2-49C7-BD9B-C800BA220CFA}" name="Tabla13" displayName="Tabla13" ref="A19:G23" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1A2A7BB2-01C2-49C7-BD9B-C800BA220CFA}" name="Tabla13" displayName="Tabla13" ref="A19:G23" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A19:G23" xr:uid="{1A2A7BB2-01C2-49C7-BD9B-C800BA220CFA}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3052B40A-B0FB-4063-9FBF-FC17CD83FFB0}" name="BINARIO"/>
     <tableColumn id="2" xr3:uid="{C0CA8EB6-043B-4612-A2BF-DC96D3B3E729}" name="NETWORK"/>
     <tableColumn id="3" xr3:uid="{51CDD003-D35B-4FEE-A1A5-2A1A1BBB77D8}" name="IP INI"/>
     <tableColumn id="4" xr3:uid="{9D6477AF-FFE2-4997-AAF2-86A1AE4C3A1C}" name="IP FIN"/>
-    <tableColumn id="5" xr3:uid="{7DD62337-910D-47F7-8F07-8D59CC86A7A4}" name="BROADCAST" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{1C44F769-9EB2-4C0C-999D-DF37719B2C39}" name="MASK" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{FCF13681-ACD3-4175-BF97-F3BFA6C155DD}" name="HOSTS" dataDxfId="17">
+    <tableColumn id="5" xr3:uid="{7DD62337-910D-47F7-8F07-8D59CC86A7A4}" name="BROADCAST" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{1C44F769-9EB2-4C0C-999D-DF37719B2C39}" name="MASK" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{FCF13681-ACD3-4175-BF97-F3BFA6C155DD}" name="HOSTS" dataDxfId="16">
       <calculatedColumnFormula>2^14-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4917,13 +5013,13 @@
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="186" t="s">
+      <c r="D2" s="218" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4931,17 +5027,17 @@
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="190"/>
-      <c r="D3" s="187"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="219"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="187"/>
+      <c r="B4" s="219"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="219"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -4981,7 +5077,7 @@
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="188" t="s">
+      <c r="D7" s="220" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4995,7 +5091,7 @@
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="188"/>
+      <c r="D8" s="220"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -5014,7 +5110,7 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5060,16 +5156,16 @@
       <c r="J1" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="223" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="F3" s="191" t="s">
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="F3" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
@@ -5229,11 +5325,11 @@
         <v>76</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="191" t="s">
+      <c r="F10" s="223" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -5385,7 +5481,7 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F10:H10"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5673,17 +5769,17 @@
       <c r="A11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="225" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="193"/>
+      <c r="C11" s="225"/>
       <c r="E11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="193" t="s">
+      <c r="F11" s="225" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="193"/>
+      <c r="G11" s="225"/>
       <c r="I11" s="12" t="s">
         <v>182</v>
       </c>
@@ -5698,17 +5794,17 @@
       <c r="A12" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="226" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="194"/>
+      <c r="C12" s="226"/>
       <c r="E12" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="194" t="s">
+      <c r="F12" s="226" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="194"/>
+      <c r="G12" s="226"/>
       <c r="I12" s="55" t="s">
         <v>183</v>
       </c>
@@ -5723,17 +5819,17 @@
       <c r="A13" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="227" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="195"/>
+      <c r="C13" s="227"/>
       <c r="E13" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="195" t="s">
+      <c r="F13" s="227" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="195"/>
+      <c r="G13" s="227"/>
       <c r="I13" s="56" t="s">
         <v>184</v>
       </c>
@@ -5748,17 +5844,17 @@
       <c r="A14" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="196" t="s">
+      <c r="B14" s="228" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="196"/>
+      <c r="C14" s="228"/>
       <c r="E14" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="196" t="s">
+      <c r="F14" s="228" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="196"/>
+      <c r="G14" s="228"/>
       <c r="I14" s="57" t="s">
         <v>185</v>
       </c>
@@ -5773,17 +5869,17 @@
       <c r="A15" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="224" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="224"/>
       <c r="E15" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="192" t="s">
+      <c r="F15" s="224" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="192"/>
+      <c r="G15" s="224"/>
       <c r="I15" s="49" t="s">
         <v>186</v>
       </c>
@@ -6250,16 +6346,16 @@
       <c r="T5" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="V5" s="191" t="s">
+      <c r="V5" s="223" t="s">
         <v>274</v>
       </c>
-      <c r="W5" s="191"/>
-      <c r="X5" s="191"/>
-      <c r="Y5" s="191"/>
-      <c r="Z5" s="191"/>
-      <c r="AA5" s="191"/>
-      <c r="AB5" s="191"/>
-      <c r="AC5" s="191"/>
+      <c r="W5" s="223"/>
+      <c r="X5" s="223"/>
+      <c r="Y5" s="223"/>
+      <c r="Z5" s="223"/>
+      <c r="AA5" s="223"/>
+      <c r="AB5" s="223"/>
+      <c r="AC5" s="223"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
@@ -6483,10 +6579,10 @@
       <c r="F9" s="97">
         <v>16</v>
       </c>
-      <c r="H9" s="191" t="s">
+      <c r="H9" s="223" t="s">
         <v>275</v>
       </c>
-      <c r="I9" s="191"/>
+      <c r="I9" s="223"/>
       <c r="K9" s="70">
         <v>192</v>
       </c>
@@ -6864,10 +6960,10 @@
       <c r="F15" s="96">
         <v>16</v>
       </c>
-      <c r="H15" s="191" t="s">
+      <c r="H15" s="223" t="s">
         <v>275</v>
       </c>
-      <c r="I15" s="191"/>
+      <c r="I15" s="223"/>
       <c r="K15" s="72">
         <v>172</v>
       </c>
@@ -7289,7 +7385,7 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H15:I15"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
@@ -7333,24 +7429,24 @@
       <c r="A1" s="120" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="241" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="200" t="s">
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="244" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="212" t="s">
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="229" t="s">
         <v>350</v>
       </c>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="214"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
+      <c r="M1" s="231"/>
     </row>
     <row r="2" spans="1:13" s="105" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
@@ -7535,18 +7631,18 @@
       <c r="E6" s="172" t="s">
         <v>401</v>
       </c>
-      <c r="F6" s="206" t="s">
+      <c r="F6" s="235" t="s">
         <v>343</v>
       </c>
-      <c r="G6" s="207"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="206" t="s">
+      <c r="G6" s="236"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="237"/>
+      <c r="J6" s="235" t="s">
         <v>343</v>
       </c>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="208"/>
+      <c r="K6" s="236"/>
+      <c r="L6" s="236"/>
+      <c r="M6" s="237"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
@@ -7564,44 +7660,44 @@
       <c r="E7" s="175" t="s">
         <v>403</v>
       </c>
-      <c r="F7" s="209" t="s">
+      <c r="F7" s="238" t="s">
         <v>344</v>
       </c>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="209" t="s">
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="238" t="s">
         <v>344</v>
       </c>
-      <c r="K7" s="210"/>
-      <c r="L7" s="210"/>
-      <c r="M7" s="211"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="239"/>
+      <c r="M7" s="240"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="B8" s="203">
+      <c r="B8" s="232">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="203">
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="232">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="203">
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="232">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="K8" s="204"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="205"/>
+      <c r="K8" s="233"/>
+      <c r="L8" s="233"/>
+      <c r="M8" s="234"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8133,18 +8229,18 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8154,7 +8250,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
@@ -8171,17 +8267,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="192" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="247" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
     </row>
     <row r="3" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
@@ -8257,7 +8353,7 @@
       <c r="G5" s="99">
         <v>21</v>
       </c>
-      <c r="H5" s="215">
+      <c r="H5" s="187">
         <f>2^G5-2</f>
         <v>2097150</v>
       </c>
@@ -8303,22 +8399,22 @@
       <c r="A8" s="58" t="s">
         <v>444</v>
       </c>
-      <c r="B8" s="217" t="s">
+      <c r="B8" s="188" t="s">
         <v>453</v>
       </c>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="188" t="s">
         <v>426</v>
       </c>
-      <c r="D8" s="217" t="s">
+      <c r="D8" s="188" t="s">
         <v>429</v>
       </c>
-      <c r="E8" s="217" t="s">
+      <c r="E8" s="188" t="s">
         <v>428</v>
       </c>
-      <c r="F8" s="217" t="s">
+      <c r="F8" s="188" t="s">
         <v>452</v>
       </c>
-      <c r="G8" s="219">
+      <c r="G8" s="190">
         <f>2^21-2</f>
         <v>2097150</v>
       </c>
@@ -8327,22 +8423,22 @@
       <c r="A9" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="B9" s="217" t="s">
+      <c r="B9" s="188" t="s">
         <v>454</v>
       </c>
-      <c r="C9" s="217" t="s">
+      <c r="C9" s="188" t="s">
         <v>427</v>
       </c>
-      <c r="D9" s="217" t="s">
+      <c r="D9" s="188" t="s">
         <v>440</v>
       </c>
-      <c r="E9" s="217" t="s">
+      <c r="E9" s="188" t="s">
         <v>438</v>
       </c>
-      <c r="F9" s="217" t="s">
+      <c r="F9" s="188" t="s">
         <v>452</v>
       </c>
-      <c r="G9" s="219">
+      <c r="G9" s="190">
         <f t="shared" ref="G9:G15" si="0">2^21-2</f>
         <v>2097150</v>
       </c>
@@ -8351,22 +8447,22 @@
       <c r="A10" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="B10" s="217" t="s">
+      <c r="B10" s="188" t="s">
         <v>455</v>
       </c>
-      <c r="C10" s="217" t="s">
+      <c r="C10" s="188" t="s">
         <v>432</v>
       </c>
-      <c r="D10" s="217" t="s">
+      <c r="D10" s="188" t="s">
         <v>441</v>
       </c>
-      <c r="E10" s="217" t="s">
+      <c r="E10" s="188" t="s">
         <v>439</v>
       </c>
-      <c r="F10" s="217" t="s">
+      <c r="F10" s="188" t="s">
         <v>452</v>
       </c>
-      <c r="G10" s="219">
+      <c r="G10" s="190">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
@@ -8375,22 +8471,22 @@
       <c r="A11" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="B11" s="217" t="s">
+      <c r="B11" s="188" t="s">
         <v>456</v>
       </c>
-      <c r="C11" s="217" t="s">
+      <c r="C11" s="188" t="s">
         <v>433</v>
       </c>
-      <c r="D11" s="220">
+      <c r="D11" s="191">
         <v>10127255254</v>
       </c>
-      <c r="E11" s="220">
+      <c r="E11" s="191">
         <v>10127255255</v>
       </c>
-      <c r="F11" s="217" t="s">
+      <c r="F11" s="188" t="s">
         <v>452</v>
       </c>
-      <c r="G11" s="219">
+      <c r="G11" s="190">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
@@ -8399,22 +8495,22 @@
       <c r="A12" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="188" t="s">
         <v>457</v>
       </c>
-      <c r="C12" s="217" t="s">
+      <c r="C12" s="188" t="s">
         <v>434</v>
       </c>
-      <c r="D12" s="220">
+      <c r="D12" s="191">
         <v>10159255254</v>
       </c>
-      <c r="E12" s="220">
+      <c r="E12" s="191">
         <v>10159255255</v>
       </c>
-      <c r="F12" s="217" t="s">
+      <c r="F12" s="188" t="s">
         <v>452</v>
       </c>
-      <c r="G12" s="219">
+      <c r="G12" s="190">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
@@ -8423,22 +8519,22 @@
       <c r="A13" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="B13" s="217" t="s">
+      <c r="B13" s="188" t="s">
         <v>458</v>
       </c>
-      <c r="C13" s="217" t="s">
+      <c r="C13" s="188" t="s">
         <v>435</v>
       </c>
-      <c r="D13" s="220">
+      <c r="D13" s="191">
         <v>10191255254</v>
       </c>
-      <c r="E13" s="220">
+      <c r="E13" s="191">
         <v>10191255255</v>
       </c>
-      <c r="F13" s="217" t="s">
+      <c r="F13" s="188" t="s">
         <v>452</v>
       </c>
-      <c r="G13" s="219">
+      <c r="G13" s="190">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
@@ -8447,22 +8543,22 @@
       <c r="A14" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="B14" s="217" t="s">
+      <c r="B14" s="188" t="s">
         <v>459</v>
       </c>
-      <c r="C14" s="217" t="s">
+      <c r="C14" s="188" t="s">
         <v>436</v>
       </c>
-      <c r="D14" s="220">
+      <c r="D14" s="191">
         <v>10223255254</v>
       </c>
-      <c r="E14" s="220">
+      <c r="E14" s="191">
         <v>10223255255</v>
       </c>
-      <c r="F14" s="217" t="s">
+      <c r="F14" s="188" t="s">
         <v>452</v>
       </c>
-      <c r="G14" s="219">
+      <c r="G14" s="190">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
@@ -8471,22 +8567,22 @@
       <c r="A15" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="B15" s="217" t="s">
+      <c r="B15" s="188" t="s">
         <v>460</v>
       </c>
-      <c r="C15" s="217" t="s">
+      <c r="C15" s="188" t="s">
         <v>437</v>
       </c>
-      <c r="D15" s="220">
+      <c r="D15" s="191">
         <v>102552552554</v>
       </c>
-      <c r="E15" s="220">
+      <c r="E15" s="191">
         <v>10255255255</v>
       </c>
-      <c r="F15" s="217" t="s">
+      <c r="F15" s="188" t="s">
         <v>452</v>
       </c>
-      <c r="G15" s="219">
+      <c r="G15" s="190">
         <f t="shared" si="0"/>
         <v>2097150</v>
       </c>
@@ -8519,10 +8615,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="223" t="s">
+      <c r="A19" s="194" t="s">
         <v>421</v>
       </c>
-      <c r="B19" s="224" t="s">
+      <c r="B19" s="195" t="s">
         <v>430</v>
       </c>
       <c r="C19" s="73" t="s">
@@ -8551,16 +8647,16 @@
       <c r="C20" s="71" t="s">
         <v>466</v>
       </c>
-      <c r="D20" s="227" t="s">
+      <c r="D20" s="198" t="s">
         <v>478</v>
       </c>
-      <c r="E20" s="227" t="s">
+      <c r="E20" s="198" t="s">
         <v>474</v>
       </c>
-      <c r="F20" s="227" t="s">
+      <c r="F20" s="198" t="s">
         <v>482</v>
       </c>
-      <c r="G20" s="222">
+      <c r="G20" s="193">
         <f t="shared" ref="G20:G23" si="1">2^14-2</f>
         <v>16382</v>
       </c>
@@ -8572,19 +8668,19 @@
       <c r="B21" s="70" t="s">
         <v>468</v>
       </c>
-      <c r="C21" s="225" t="s">
+      <c r="C21" s="196" t="s">
         <v>471</v>
       </c>
-      <c r="D21" s="227" t="s">
+      <c r="D21" s="198" t="s">
         <v>479</v>
       </c>
-      <c r="E21" s="227" t="s">
+      <c r="E21" s="198" t="s">
         <v>475</v>
       </c>
-      <c r="F21" s="227" t="s">
+      <c r="F21" s="198" t="s">
         <v>482</v>
       </c>
-      <c r="G21" s="219">
+      <c r="G21" s="190">
         <f t="shared" si="1"/>
         <v>16382</v>
       </c>
@@ -8596,19 +8692,19 @@
       <c r="B22" s="71" t="s">
         <v>469</v>
       </c>
-      <c r="C22" s="226" t="s">
+      <c r="C22" s="197" t="s">
         <v>472</v>
       </c>
-      <c r="D22" s="227" t="s">
+      <c r="D22" s="198" t="s">
         <v>480</v>
       </c>
-      <c r="E22" s="227" t="s">
+      <c r="E22" s="198" t="s">
         <v>476</v>
       </c>
-      <c r="F22" s="227" t="s">
+      <c r="F22" s="198" t="s">
         <v>482</v>
       </c>
-      <c r="G22" s="222">
+      <c r="G22" s="193">
         <f t="shared" si="1"/>
         <v>16382</v>
       </c>
@@ -8620,19 +8716,19 @@
       <c r="B23" s="70" t="s">
         <v>470</v>
       </c>
-      <c r="C23" s="225" t="s">
+      <c r="C23" s="196" t="s">
         <v>473</v>
       </c>
-      <c r="D23" s="227" t="s">
+      <c r="D23" s="198" t="s">
         <v>481</v>
       </c>
-      <c r="E23" s="227" t="s">
+      <c r="E23" s="198" t="s">
         <v>477</v>
       </c>
-      <c r="F23" s="227" t="s">
+      <c r="F23" s="198" t="s">
         <v>482</v>
       </c>
-      <c r="G23" s="219">
+      <c r="G23" s="190">
         <f t="shared" si="1"/>
         <v>16382</v>
       </c>
@@ -8690,22 +8786,22 @@
       <c r="A28" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B28" s="217" t="s">
+      <c r="B28" s="188" t="s">
         <v>342</v>
       </c>
-      <c r="C28" s="217" t="s">
+      <c r="C28" s="188" t="s">
         <v>532</v>
       </c>
-      <c r="D28" s="217" t="s">
+      <c r="D28" s="188" t="s">
         <v>516</v>
       </c>
-      <c r="E28" s="217" t="s">
+      <c r="E28" s="188" t="s">
         <v>500</v>
       </c>
-      <c r="F28" s="220">
+      <c r="F28" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G28" s="219">
+      <c r="G28" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8713,22 +8809,22 @@
       <c r="A29" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B29" s="217" t="s">
+      <c r="B29" s="188" t="s">
         <v>485</v>
       </c>
-      <c r="C29" s="217" t="s">
+      <c r="C29" s="188" t="s">
         <v>533</v>
       </c>
-      <c r="D29" s="217" t="s">
+      <c r="D29" s="188" t="s">
         <v>517</v>
       </c>
-      <c r="E29" s="217" t="s">
+      <c r="E29" s="188" t="s">
         <v>501</v>
       </c>
-      <c r="F29" s="220">
+      <c r="F29" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G29" s="219">
+      <c r="G29" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8736,22 +8832,22 @@
       <c r="A30" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B30" s="217" t="s">
+      <c r="B30" s="188" t="s">
         <v>486</v>
       </c>
-      <c r="C30" s="217" t="s">
+      <c r="C30" s="188" t="s">
         <v>534</v>
       </c>
-      <c r="D30" s="217" t="s">
+      <c r="D30" s="188" t="s">
         <v>518</v>
       </c>
-      <c r="E30" s="217" t="s">
+      <c r="E30" s="188" t="s">
         <v>502</v>
       </c>
-      <c r="F30" s="220">
+      <c r="F30" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G30" s="219">
+      <c r="G30" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8759,22 +8855,22 @@
       <c r="A31" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B31" s="217" t="s">
+      <c r="B31" s="188" t="s">
         <v>487</v>
       </c>
-      <c r="C31" s="217" t="s">
+      <c r="C31" s="188" t="s">
         <v>535</v>
       </c>
-      <c r="D31" s="217" t="s">
+      <c r="D31" s="188" t="s">
         <v>519</v>
       </c>
-      <c r="E31" s="217" t="s">
+      <c r="E31" s="188" t="s">
         <v>503</v>
       </c>
-      <c r="F31" s="220">
+      <c r="F31" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G31" s="219">
+      <c r="G31" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8782,22 +8878,22 @@
       <c r="A32" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B32" s="217" t="s">
+      <c r="B32" s="188" t="s">
         <v>488</v>
       </c>
-      <c r="C32" s="217" t="s">
+      <c r="C32" s="188" t="s">
         <v>536</v>
       </c>
-      <c r="D32" s="217" t="s">
+      <c r="D32" s="188" t="s">
         <v>520</v>
       </c>
-      <c r="E32" s="217" t="s">
+      <c r="E32" s="188" t="s">
         <v>504</v>
       </c>
-      <c r="F32" s="220">
+      <c r="F32" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G32" s="219">
+      <c r="G32" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8805,22 +8901,22 @@
       <c r="A33" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B33" s="217" t="s">
+      <c r="B33" s="188" t="s">
         <v>489</v>
       </c>
-      <c r="C33" s="217" t="s">
+      <c r="C33" s="188" t="s">
         <v>537</v>
       </c>
-      <c r="D33" s="217" t="s">
+      <c r="D33" s="188" t="s">
         <v>521</v>
       </c>
-      <c r="E33" s="217" t="s">
+      <c r="E33" s="188" t="s">
         <v>505</v>
       </c>
-      <c r="F33" s="220">
+      <c r="F33" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G33" s="219">
+      <c r="G33" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8828,22 +8924,22 @@
       <c r="A34" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B34" s="217" t="s">
+      <c r="B34" s="188" t="s">
         <v>490</v>
       </c>
-      <c r="C34" s="217" t="s">
+      <c r="C34" s="188" t="s">
         <v>538</v>
       </c>
-      <c r="D34" s="217" t="s">
+      <c r="D34" s="188" t="s">
         <v>522</v>
       </c>
-      <c r="E34" s="217" t="s">
+      <c r="E34" s="188" t="s">
         <v>506</v>
       </c>
-      <c r="F34" s="220">
+      <c r="F34" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G34" s="219">
+      <c r="G34" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8851,22 +8947,22 @@
       <c r="A35" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B35" s="217" t="s">
+      <c r="B35" s="188" t="s">
         <v>491</v>
       </c>
-      <c r="C35" s="217" t="s">
+      <c r="C35" s="188" t="s">
         <v>539</v>
       </c>
-      <c r="D35" s="217" t="s">
+      <c r="D35" s="188" t="s">
         <v>523</v>
       </c>
-      <c r="E35" s="217" t="s">
+      <c r="E35" s="188" t="s">
         <v>507</v>
       </c>
-      <c r="F35" s="220">
+      <c r="F35" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G35" s="219">
+      <c r="G35" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8874,22 +8970,22 @@
       <c r="A36" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B36" s="217" t="s">
+      <c r="B36" s="188" t="s">
         <v>492</v>
       </c>
-      <c r="C36" s="217" t="s">
+      <c r="C36" s="188" t="s">
         <v>540</v>
       </c>
-      <c r="D36" s="217" t="s">
+      <c r="D36" s="188" t="s">
         <v>524</v>
       </c>
-      <c r="E36" s="217" t="s">
+      <c r="E36" s="188" t="s">
         <v>508</v>
       </c>
-      <c r="F36" s="220">
+      <c r="F36" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G36" s="219">
+      <c r="G36" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8897,22 +8993,22 @@
       <c r="A37" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B37" s="217" t="s">
+      <c r="B37" s="188" t="s">
         <v>493</v>
       </c>
-      <c r="C37" s="217" t="s">
+      <c r="C37" s="188" t="s">
         <v>541</v>
       </c>
-      <c r="D37" s="217" t="s">
+      <c r="D37" s="188" t="s">
         <v>525</v>
       </c>
-      <c r="E37" s="217" t="s">
+      <c r="E37" s="188" t="s">
         <v>509</v>
       </c>
-      <c r="F37" s="220">
+      <c r="F37" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G37" s="219">
+      <c r="G37" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8920,22 +9016,22 @@
       <c r="A38" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B38" s="217" t="s">
+      <c r="B38" s="188" t="s">
         <v>494</v>
       </c>
-      <c r="C38" s="217" t="s">
+      <c r="C38" s="188" t="s">
         <v>542</v>
       </c>
-      <c r="D38" s="217" t="s">
+      <c r="D38" s="188" t="s">
         <v>526</v>
       </c>
-      <c r="E38" s="217" t="s">
+      <c r="E38" s="188" t="s">
         <v>510</v>
       </c>
-      <c r="F38" s="220">
+      <c r="F38" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G38" s="219">
+      <c r="G38" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8943,22 +9039,22 @@
       <c r="A39" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B39" s="217" t="s">
+      <c r="B39" s="188" t="s">
         <v>495</v>
       </c>
-      <c r="C39" s="217" t="s">
+      <c r="C39" s="188" t="s">
         <v>543</v>
       </c>
-      <c r="D39" s="217" t="s">
+      <c r="D39" s="188" t="s">
         <v>527</v>
       </c>
-      <c r="E39" s="217" t="s">
+      <c r="E39" s="188" t="s">
         <v>511</v>
       </c>
-      <c r="F39" s="220">
+      <c r="F39" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G39" s="219">
+      <c r="G39" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8966,22 +9062,22 @@
       <c r="A40" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B40" s="217" t="s">
+      <c r="B40" s="188" t="s">
         <v>496</v>
       </c>
-      <c r="C40" s="217" t="s">
+      <c r="C40" s="188" t="s">
         <v>544</v>
       </c>
-      <c r="D40" s="217" t="s">
+      <c r="D40" s="188" t="s">
         <v>528</v>
       </c>
-      <c r="E40" s="217" t="s">
+      <c r="E40" s="188" t="s">
         <v>512</v>
       </c>
-      <c r="F40" s="220">
+      <c r="F40" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G40" s="219">
+      <c r="G40" s="190">
         <v>14</v>
       </c>
     </row>
@@ -8989,22 +9085,22 @@
       <c r="A41" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B41" s="217" t="s">
+      <c r="B41" s="188" t="s">
         <v>497</v>
       </c>
-      <c r="C41" s="217" t="s">
+      <c r="C41" s="188" t="s">
         <v>545</v>
       </c>
-      <c r="D41" s="217" t="s">
+      <c r="D41" s="188" t="s">
         <v>529</v>
       </c>
-      <c r="E41" s="217" t="s">
+      <c r="E41" s="188" t="s">
         <v>513</v>
       </c>
-      <c r="F41" s="220">
+      <c r="F41" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G41" s="219">
+      <c r="G41" s="190">
         <v>14</v>
       </c>
     </row>
@@ -9012,22 +9108,22 @@
       <c r="A42" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B42" s="217" t="s">
+      <c r="B42" s="188" t="s">
         <v>498</v>
       </c>
-      <c r="C42" s="217" t="s">
+      <c r="C42" s="188" t="s">
         <v>546</v>
       </c>
-      <c r="D42" s="217" t="s">
+      <c r="D42" s="188" t="s">
         <v>530</v>
       </c>
-      <c r="E42" s="217" t="s">
+      <c r="E42" s="188" t="s">
         <v>514</v>
       </c>
-      <c r="F42" s="220">
+      <c r="F42" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G42" s="219">
+      <c r="G42" s="190">
         <v>14</v>
       </c>
     </row>
@@ -9035,22 +9131,22 @@
       <c r="A43" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="B43" s="217" t="s">
+      <c r="B43" s="188" t="s">
         <v>499</v>
       </c>
-      <c r="C43" s="217" t="s">
+      <c r="C43" s="188" t="s">
         <v>547</v>
       </c>
-      <c r="D43" s="217" t="s">
+      <c r="D43" s="188" t="s">
         <v>531</v>
       </c>
-      <c r="E43" s="217" t="s">
+      <c r="E43" s="188" t="s">
         <v>515</v>
       </c>
-      <c r="F43" s="220">
+      <c r="F43" s="191">
         <v>255255255240</v>
       </c>
-      <c r="G43" s="219">
+      <c r="G43" s="190">
         <v>14</v>
       </c>
     </row>
@@ -9058,7 +9154,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
@@ -9074,10 +9170,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394024B9-C240-4F6F-9528-95BF11141B0B}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16:J19"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9091,28 +9187,28 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="247" customWidth="1"/>
-    <col min="11" max="11" width="10" style="247" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="233" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="217" customWidth="1"/>
+    <col min="11" max="11" width="10" style="217" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="203" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="233"/>
-    <col min="15" max="15" width="15.28515625" style="233" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.42578125" style="233"/>
+    <col min="14" max="14" width="11.42578125" style="203"/>
+    <col min="15" max="15" width="15.28515625" style="203" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="203"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="100" t="s">
         <v>548</v>
       </c>
-      <c r="B1" s="228" t="s">
+      <c r="B1" s="248" t="s">
         <v>549</v>
       </c>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="229"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="199"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -9231,7 +9327,7 @@
       <c r="H8" t="s">
         <v>561</v>
       </c>
-      <c r="I8" s="218">
+      <c r="I8" s="189">
         <v>255255255128</v>
       </c>
     </row>
@@ -9260,7 +9356,7 @@
       <c r="H9" t="s">
         <v>561</v>
       </c>
-      <c r="I9" s="218">
+      <c r="I9" s="189">
         <v>255255255128</v>
       </c>
     </row>
@@ -9289,7 +9385,7 @@
       <c r="H10" t="s">
         <v>562</v>
       </c>
-      <c r="I10" s="218">
+      <c r="I10" s="189">
         <v>255255255192</v>
       </c>
     </row>
@@ -9318,7 +9414,7 @@
       <c r="H11" t="s">
         <v>571</v>
       </c>
-      <c r="I11" s="218">
+      <c r="I11" s="189">
         <v>255255255224</v>
       </c>
     </row>
@@ -9347,7 +9443,7 @@
       <c r="H12" t="s">
         <v>581</v>
       </c>
-      <c r="I12" s="218">
+      <c r="I12" s="189">
         <v>255255255252</v>
       </c>
     </row>
@@ -9379,31 +9475,31 @@
       <c r="I14" t="s">
         <v>425</v>
       </c>
-      <c r="J14" s="233" t="s">
+      <c r="J14" s="203" t="s">
         <v>619</v>
       </c>
-      <c r="K14" s="247" t="s">
+      <c r="K14" s="217" t="s">
         <v>404</v>
       </c>
-      <c r="L14" s="247" t="s">
+      <c r="L14" s="217" t="s">
         <v>364</v>
       </c>
-      <c r="N14" s="233" t="s">
+      <c r="N14" s="203" t="s">
         <v>360</v>
       </c>
-      <c r="O14" s="233" t="s">
+      <c r="O14" s="203" t="s">
         <v>601</v>
       </c>
-      <c r="P14" s="233" t="s">
+      <c r="P14" s="203" t="s">
         <v>365</v>
       </c>
-      <c r="Q14" s="233" t="s">
+      <c r="Q14" s="203" t="s">
         <v>366</v>
       </c>
-      <c r="R14" s="233" t="s">
+      <c r="R14" s="203" t="s">
         <v>367</v>
       </c>
-      <c r="S14" s="233" t="s">
+      <c r="S14" s="203" t="s">
         <v>368</v>
       </c>
     </row>
@@ -9417,255 +9513,255 @@
       <c r="C15">
         <v>30</v>
       </c>
-      <c r="D15" s="217" t="s">
+      <c r="D15" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="E15" s="217" t="s">
+      <c r="E15" s="188" t="s">
         <v>426</v>
       </c>
-      <c r="F15" s="217" t="s">
+      <c r="F15" s="188" t="s">
         <v>585</v>
       </c>
-      <c r="G15" s="217" t="s">
+      <c r="G15" s="188" t="s">
         <v>586</v>
       </c>
       <c r="H15" t="s">
         <v>571</v>
       </c>
-      <c r="I15" s="218">
+      <c r="I15" s="189">
         <v>255255255224</v>
       </c>
-      <c r="J15" s="233" t="s">
+      <c r="J15" s="203" t="s">
         <v>620</v>
       </c>
-      <c r="K15" s="247" t="s">
+      <c r="K15" s="217" t="s">
         <v>620</v>
       </c>
-      <c r="L15" s="247" t="s">
+      <c r="L15" s="217" t="s">
         <v>620</v>
       </c>
-      <c r="N15" s="233" t="s">
+      <c r="N15" s="203" t="s">
         <v>361</v>
       </c>
-      <c r="O15" s="233" t="s">
+      <c r="O15" s="203" t="s">
         <v>339</v>
       </c>
-      <c r="P15" s="235" t="s">
+      <c r="P15" s="205" t="s">
         <v>232</v>
       </c>
-      <c r="Q15" s="235" t="s">
+      <c r="Q15" s="205" t="s">
         <v>222</v>
       </c>
-      <c r="R15" s="235" t="s">
+      <c r="R15" s="205" t="s">
         <v>222</v>
       </c>
-      <c r="S15" s="235" t="s">
+      <c r="S15" s="205" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="230" t="s">
+      <c r="A16" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="230">
+      <c r="B16" s="200">
         <v>100</v>
       </c>
-      <c r="C16" s="230">
+      <c r="C16" s="200">
         <v>126</v>
       </c>
-      <c r="D16" s="231" t="s">
+      <c r="D16" s="201" t="s">
         <v>587</v>
       </c>
-      <c r="E16" s="231" t="s">
+      <c r="E16" s="201" t="s">
         <v>588</v>
       </c>
-      <c r="F16" s="231" t="s">
+      <c r="F16" s="201" t="s">
         <v>590</v>
       </c>
-      <c r="G16" s="231" t="s">
+      <c r="G16" s="201" t="s">
         <v>591</v>
       </c>
-      <c r="H16" s="230" t="s">
+      <c r="H16" s="200" t="s">
         <v>561</v>
       </c>
-      <c r="I16" s="232">
+      <c r="I16" s="202">
         <v>255255255128</v>
       </c>
-      <c r="J16" s="248" t="s">
+      <c r="J16" s="249" t="s">
         <v>621</v>
       </c>
-      <c r="K16" s="225" t="s">
+      <c r="K16" s="196" t="s">
         <v>339</v>
       </c>
-      <c r="L16" s="247" t="s">
+      <c r="L16" s="217" t="s">
         <v>602</v>
       </c>
-      <c r="N16" s="233" t="s">
+      <c r="N16" s="203" t="s">
         <v>425</v>
       </c>
-      <c r="O16" s="234">
+      <c r="O16" s="204">
         <v>255255255224</v>
       </c>
-      <c r="P16" s="235" t="s">
+      <c r="P16" s="205" t="s">
         <v>217</v>
       </c>
-      <c r="Q16" s="235" t="s">
+      <c r="Q16" s="205" t="s">
         <v>217</v>
       </c>
-      <c r="R16" s="235" t="s">
+      <c r="R16" s="205" t="s">
         <v>217</v>
       </c>
-      <c r="S16" s="235" t="s">
+      <c r="S16" s="205" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="230" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="230" t="s">
+    <row r="17" spans="1:19" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="230">
+      <c r="B17" s="200">
         <v>50</v>
       </c>
-      <c r="C17" s="230">
+      <c r="C17" s="200">
         <v>62</v>
       </c>
-      <c r="D17" s="231" t="s">
+      <c r="D17" s="201" t="s">
         <v>589</v>
       </c>
-      <c r="E17" s="231" t="s">
+      <c r="E17" s="201" t="s">
         <v>595</v>
       </c>
-      <c r="F17" s="231" t="s">
+      <c r="F17" s="201" t="s">
         <v>594</v>
       </c>
-      <c r="G17" s="231" t="s">
+      <c r="G17" s="201" t="s">
         <v>593</v>
       </c>
-      <c r="H17" s="230" t="s">
+      <c r="H17" s="200" t="s">
         <v>562</v>
       </c>
-      <c r="I17" s="232">
+      <c r="I17" s="202">
         <v>255255255192</v>
       </c>
-      <c r="J17" s="248"/>
-      <c r="K17" s="225" t="s">
+      <c r="J17" s="249"/>
+      <c r="K17" s="196" t="s">
         <v>603</v>
       </c>
-      <c r="L17" s="247" t="s">
+      <c r="L17" s="217" t="s">
         <v>604</v>
       </c>
-      <c r="N17" s="233" t="s">
+      <c r="N17" s="203" t="s">
         <v>430</v>
       </c>
-      <c r="O17" s="233" t="s">
+      <c r="O17" s="203" t="s">
         <v>339</v>
       </c>
-      <c r="P17" s="235" t="s">
+      <c r="P17" s="205" t="s">
         <v>232</v>
       </c>
-      <c r="Q17" s="235" t="s">
+      <c r="Q17" s="205" t="s">
         <v>222</v>
       </c>
-      <c r="R17" s="235" t="s">
+      <c r="R17" s="205" t="s">
         <v>222</v>
       </c>
-      <c r="S17" s="235" t="s">
+      <c r="S17" s="205" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="230" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="237" t="s">
+    <row r="18" spans="1:19" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="207" t="s">
         <v>324</v>
       </c>
-      <c r="B18" s="237">
+      <c r="B18" s="207">
         <v>200</v>
       </c>
-      <c r="C18" s="237">
+      <c r="C18" s="207">
         <v>254</v>
       </c>
-      <c r="D18" s="236" t="s">
+      <c r="D18" s="206" t="s">
         <v>592</v>
       </c>
-      <c r="E18" s="236" t="s">
+      <c r="E18" s="206" t="s">
         <v>597</v>
       </c>
-      <c r="F18" s="236" t="s">
+      <c r="F18" s="206" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="236" t="s">
+      <c r="G18" s="206" t="s">
         <v>598</v>
       </c>
-      <c r="H18" s="237" t="s">
+      <c r="H18" s="207" t="s">
         <v>557</v>
       </c>
-      <c r="I18" s="237" t="s">
+      <c r="I18" s="207" t="s">
         <v>358</v>
       </c>
-      <c r="J18" s="248"/>
-      <c r="K18" s="225" t="s">
+      <c r="J18" s="249"/>
+      <c r="K18" s="196" t="s">
         <v>339</v>
       </c>
-      <c r="L18" s="247" t="s">
+      <c r="L18" s="217" t="s">
         <v>559</v>
       </c>
-      <c r="N18" s="233" t="s">
+      <c r="N18" s="203" t="s">
         <v>424</v>
       </c>
-      <c r="O18" s="233" t="s">
+      <c r="O18" s="203" t="s">
         <v>586</v>
       </c>
-      <c r="P18" s="235" t="s">
+      <c r="P18" s="205" t="s">
         <v>232</v>
       </c>
-      <c r="Q18" s="235" t="s">
+      <c r="Q18" s="205" t="s">
         <v>222</v>
       </c>
-      <c r="R18" s="235" t="s">
+      <c r="R18" s="205" t="s">
         <v>222</v>
       </c>
-      <c r="S18" s="235" t="s">
+      <c r="S18" s="205" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="230" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="237" t="s">
+    <row r="19" spans="1:19" s="200" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="207" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="237">
+      <c r="B19" s="207">
         <v>80</v>
       </c>
-      <c r="C19" s="237">
+      <c r="C19" s="207">
         <v>126</v>
       </c>
-      <c r="D19" s="236" t="s">
+      <c r="D19" s="206" t="s">
         <v>596</v>
       </c>
-      <c r="E19" s="236" t="s">
+      <c r="E19" s="206" t="s">
         <v>600</v>
       </c>
-      <c r="F19" s="236" t="s">
+      <c r="F19" s="206" t="s">
         <v>579</v>
       </c>
-      <c r="G19" s="236" t="s">
+      <c r="G19" s="206" t="s">
         <v>578</v>
       </c>
-      <c r="H19" s="237" t="s">
+      <c r="H19" s="207" t="s">
         <v>561</v>
       </c>
-      <c r="I19" s="238">
+      <c r="I19" s="208">
         <v>255255255128</v>
       </c>
-      <c r="J19" s="248"/>
-      <c r="K19" s="225" t="s">
+      <c r="J19" s="249"/>
+      <c r="K19" s="196" t="s">
         <v>563</v>
       </c>
-      <c r="L19" s="247" t="s">
+      <c r="L19" s="217" t="s">
         <v>568</v>
       </c>
-      <c r="N19" s="233"/>
-      <c r="O19" s="233"/>
-      <c r="P19" s="233"/>
-      <c r="Q19" s="233"/>
+      <c r="N19" s="203"/>
+      <c r="O19" s="203"/>
+      <c r="P19" s="203"/>
+      <c r="Q19" s="203"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -9677,31 +9773,31 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="217" t="s">
+      <c r="D20" s="188" t="s">
         <v>576</v>
       </c>
-      <c r="E20" s="217" t="s">
+      <c r="E20" s="188" t="s">
         <v>582</v>
       </c>
-      <c r="F20" s="217" t="s">
+      <c r="F20" s="188" t="s">
         <v>583</v>
       </c>
-      <c r="G20" s="217" t="s">
+      <c r="G20" s="188" t="s">
         <v>584</v>
       </c>
       <c r="H20" t="s">
         <v>581</v>
       </c>
-      <c r="I20" s="218">
+      <c r="I20" s="189">
         <v>255255255252</v>
       </c>
-      <c r="J20" s="233" t="s">
+      <c r="J20" s="203" t="s">
         <v>620</v>
       </c>
-      <c r="K20" s="247" t="s">
+      <c r="K20" s="217" t="s">
         <v>620</v>
       </c>
-      <c r="L20" s="247" t="s">
+      <c r="L20" s="217" t="s">
         <v>620</v>
       </c>
     </row>
@@ -9735,31 +9831,31 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="241" t="s">
+      <c r="A23" s="211" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="241">
+      <c r="B23" s="211">
         <v>30</v>
       </c>
-      <c r="C23" s="241">
+      <c r="C23" s="211">
         <v>30</v>
       </c>
-      <c r="D23" s="242" t="s">
+      <c r="D23" s="212" t="s">
         <v>339</v>
       </c>
-      <c r="E23" s="242" t="s">
+      <c r="E23" s="212" t="s">
         <v>426</v>
       </c>
-      <c r="F23" s="242" t="s">
+      <c r="F23" s="212" t="s">
         <v>585</v>
       </c>
-      <c r="G23" s="242" t="s">
+      <c r="G23" s="212" t="s">
         <v>586</v>
       </c>
-      <c r="H23" s="241" t="s">
+      <c r="H23" s="211" t="s">
         <v>571</v>
       </c>
-      <c r="I23" s="243">
+      <c r="I23" s="213">
         <v>255255255224</v>
       </c>
     </row>
@@ -9773,51 +9869,51 @@
       <c r="C24" s="34">
         <v>126</v>
       </c>
-      <c r="D24" s="239" t="s">
+      <c r="D24" s="209" t="s">
         <v>603</v>
       </c>
-      <c r="E24" s="239" t="s">
+      <c r="E24" s="209" t="s">
         <v>606</v>
       </c>
-      <c r="F24" s="239" t="s">
+      <c r="F24" s="209" t="s">
         <v>560</v>
       </c>
-      <c r="G24" s="239" t="s">
+      <c r="G24" s="209" t="s">
         <v>559</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>561</v>
       </c>
-      <c r="I24" s="240">
+      <c r="I24" s="210">
         <v>255255255128</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="244" t="s">
+      <c r="A25" s="214" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="244">
+      <c r="B25" s="214">
         <v>50</v>
       </c>
-      <c r="C25" s="244">
+      <c r="C25" s="214">
         <v>62</v>
       </c>
-      <c r="D25" s="245" t="s">
+      <c r="D25" s="215" t="s">
         <v>558</v>
       </c>
-      <c r="E25" s="245" t="s">
+      <c r="E25" s="215" t="s">
         <v>566</v>
       </c>
-      <c r="F25" s="245" t="s">
+      <c r="F25" s="215" t="s">
         <v>608</v>
       </c>
-      <c r="G25" s="245" t="s">
+      <c r="G25" s="215" t="s">
         <v>607</v>
       </c>
-      <c r="H25" s="244" t="s">
+      <c r="H25" s="214" t="s">
         <v>562</v>
       </c>
-      <c r="I25" s="246">
+      <c r="I25" s="216">
         <v>255255255192</v>
       </c>
     </row>
@@ -9831,16 +9927,16 @@
       <c r="C26">
         <v>254</v>
       </c>
-      <c r="D26" s="217" t="s">
+      <c r="D26" s="188" t="s">
         <v>567</v>
       </c>
-      <c r="E26" s="217" t="s">
+      <c r="E26" s="188" t="s">
         <v>575</v>
       </c>
-      <c r="F26" s="217" t="s">
+      <c r="F26" s="188" t="s">
         <v>610</v>
       </c>
-      <c r="G26" s="217" t="s">
+      <c r="G26" s="188" t="s">
         <v>609</v>
       </c>
       <c r="H26" t="s">
@@ -9860,22 +9956,22 @@
       <c r="C27">
         <v>126</v>
       </c>
-      <c r="D27" s="217" t="s">
+      <c r="D27" s="188" t="s">
         <v>611</v>
       </c>
-      <c r="E27" s="217" t="s">
+      <c r="E27" s="188" t="s">
         <v>612</v>
       </c>
-      <c r="F27" s="217" t="s">
+      <c r="F27" s="188" t="s">
         <v>615</v>
       </c>
-      <c r="G27" s="217" t="s">
+      <c r="G27" s="188" t="s">
         <v>614</v>
       </c>
       <c r="H27" t="s">
         <v>561</v>
       </c>
-      <c r="I27" s="218">
+      <c r="I27" s="189">
         <v>255255255128</v>
       </c>
     </row>
@@ -9889,22 +9985,22 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="217" t="s">
+      <c r="D28" s="188" t="s">
         <v>613</v>
       </c>
-      <c r="E28" s="217" t="s">
+      <c r="E28" s="188" t="s">
         <v>616</v>
       </c>
-      <c r="F28" s="217" t="s">
+      <c r="F28" s="188" t="s">
         <v>617</v>
       </c>
-      <c r="G28" s="217" t="s">
+      <c r="G28" s="188" t="s">
         <v>618</v>
       </c>
       <c r="H28" t="s">
         <v>581</v>
       </c>
-      <c r="I28" s="218">
+      <c r="I28" s="189">
         <v>255255255252</v>
       </c>
     </row>
@@ -9916,7 +10012,7 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="J16:J19"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
@@ -9924,4 +10020,148 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B524246-8F8C-4BD5-B50E-82E92E0102AE}">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E3" sqref="B2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="O2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B3" s="250" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" s="250" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="250" t="s">
+        <v>626</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" t="s">
+        <v>632</v>
+      </c>
+      <c r="I6" t="s">
+        <v>637</v>
+      </c>
+      <c r="L6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B8" t="s">
+        <v>630</v>
+      </c>
+      <c r="J8" s="186">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I11" s="251" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I12" s="251" t="s">
+        <v>640</v>
+      </c>
+      <c r="O12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I13" s="251" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I14" s="251"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="13164" divId="protocols_suite_13164" sourceType="range" sourceRef="A2:B7" destinationFile="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\deptos.htm"/>
+  </webPublishItems>
+</worksheet>
 </file>
--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547FEE06-337B-44BD-A824-E9C49C770827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2F5761-DC55-482C-A8E5-13E4694C70A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="8" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" firstSheet="1" activeTab="8" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="ipv4" sheetId="6" r:id="rId6"/>
     <sheet name="classic" sheetId="7" r:id="rId7"/>
     <sheet name="vlsm" sheetId="8" r:id="rId8"/>
-    <sheet name="ipv6" sheetId="9" r:id="rId9"/>
+    <sheet name="routing" sheetId="9" r:id="rId9"/>
+    <sheet name="ipv6" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modelos!$C$1:$C$14</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="679">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -2714,13 +2715,40 @@
     <t>La direcciones de las red son incorrectas y se superponen.</t>
   </si>
   <si>
-    <t>10.0.1.226</t>
-  </si>
-  <si>
-    <t>0001010</t>
-  </si>
-  <si>
-    <t>11100010</t>
+    <t>192.168.0.0/24</t>
+  </si>
+  <si>
+    <t>192.168.1.0/24</t>
+  </si>
+  <si>
+    <t>192.168.2.0/24</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>192.168.100.0</t>
+  </si>
+  <si>
+    <t>CLASSFUL: Se identifica con este nombre a la redes que utilizan la mascara con clase.</t>
+  </si>
+  <si>
+    <t>10.54.32.0</t>
+  </si>
+  <si>
+    <t>172.16.80.192</t>
+  </si>
+  <si>
+    <t>SUPERNET: Se identica asi a las redes que utilizan una mascara menor a la de la clase.</t>
+  </si>
+  <si>
+    <t>SUBNET: Se reconoce asi, a las redes que utilizan una mascara mayor a la de la clase</t>
+  </si>
+  <si>
+    <t>8.0.0.0</t>
+  </si>
+  <si>
+    <t>192.168.96.0</t>
   </si>
   <si>
     <r>
@@ -2731,7 +2759,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10.0.0</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -2741,67 +2769,292 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.0</t>
+      <t>.54.32.101</t>
     </r>
   </si>
   <si>
     <r>
-      <t>0000000</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>172.16</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.80.220</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192.168.100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.254</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.54.32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>172.16.80.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192.168.100.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-  </si>
-  <si>
-    <t>Subred</t>
-  </si>
-  <si>
-    <t>SuperRed</t>
-  </si>
-  <si>
-    <t>Sumarizada</t>
-  </si>
-  <si>
-    <t>Cuya mascara es menor al de las redes de destino (coincidencia de bits)</t>
-  </si>
-  <si>
-    <t>Cuya mascara es menor a la mascara con clase</t>
-  </si>
-  <si>
-    <t>Cuya mascara es mayor a la mascara con clase</t>
-  </si>
-  <si>
-    <t>192.168.0.0/24</t>
-  </si>
-  <si>
-    <t>192.168.1.0/24</t>
-  </si>
-  <si>
-    <t>192.168.2.0/24</t>
-  </si>
-  <si>
-    <t>10.0.0.2/30</t>
-  </si>
-  <si>
-    <t>10.0.0.1/30</t>
-  </si>
-  <si>
-    <t>ip route 192.168.0.0 255.255.255.0 10.0.0.2</t>
-  </si>
-  <si>
-    <t>ip route 192.168.2.0 255.255.255.0 10.0.0.2</t>
-  </si>
-  <si>
-    <t>ip route 192.168.1.0 255.255.255.0 10.0.0.2</t>
-  </si>
-  <si>
-    <t>ip route 192.168.0.0 255.255.252.0 10.0.0.2</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.54.32.101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>172.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.80.220</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192.168.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00.254</t>
+    </r>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>192.168.100.255</t>
+  </si>
+  <si>
+    <t>10.255.255.255</t>
+  </si>
+  <si>
+    <t>10.54.32.255</t>
+  </si>
+  <si>
+    <t>172.16.80.255</t>
+  </si>
+  <si>
+    <t>11.255.255.255</t>
+  </si>
+  <si>
+    <t>192.168.111.255</t>
+  </si>
+  <si>
+    <t>NETWORKS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Gi0/0</t>
+  </si>
+  <si>
+    <t>Gi0/1</t>
+  </si>
+  <si>
+    <t>Gi0/2</t>
+  </si>
+  <si>
+    <t>S0/0/0</t>
+  </si>
+  <si>
+    <t>192.168.3.0/24</t>
+  </si>
+  <si>
+    <t>Gi1/1/1</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>192.168.0.1/32</t>
+  </si>
+  <si>
+    <t>192.168.1.1/32</t>
+  </si>
+  <si>
+    <t>192.168.2.1/32</t>
+  </si>
+  <si>
+    <t>192.168.3.1/32</t>
+  </si>
+  <si>
+    <t>10.0.0.0/30</t>
+  </si>
+  <si>
+    <t>10.0.0.2/32</t>
+  </si>
+  <si>
+    <t>ROUTER B</t>
+  </si>
+  <si>
+    <t>0.0.0.0/0</t>
+  </si>
+  <si>
+    <t>VIA</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>10.0.0.1/32</t>
+  </si>
+  <si>
+    <t>S0/0/1</t>
+  </si>
+  <si>
+    <t>10.0.0.2</t>
+  </si>
+  <si>
+    <t>192.168.0.0/20</t>
+  </si>
+  <si>
+    <t>186.25.54.28/30</t>
+  </si>
+  <si>
+    <t>186.25.54.30/32</t>
+  </si>
+  <si>
+    <t>186.25.54.29</t>
+  </si>
+  <si>
+    <t>ROUTER A</t>
+  </si>
+  <si>
+    <t>RUTA SUMARIZADA: Se conoce con este nombre a aquella que consiste en una simplificacion de las redes a las que podemos acceder mediante una interfaz</t>
   </si>
 </sst>
 </file>
@@ -3258,7 +3511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3833,6 +4086,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3866,6 +4120,51 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3875,51 +4174,6 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3929,14 +4183,89 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="57">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4171,6 +4500,4730 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{AFD978CB-C6A7-44C9-8CE5-8DD1BB4A23BA}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1F0F1C92-D9C1-418D-AD85-90BC580CF161}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR"/>
+            <a:t>R-A</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6F70C711-1B1E-4C08-8FC3-79A67B95C705}" type="parTrans" cxnId="{F4D993B1-CF66-4765-A746-70A814FB913A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{11A3130D-C4D8-44CC-ADEB-B496B30CF421}" type="sibTrans" cxnId="{F4D993B1-CF66-4765-A746-70A814FB913A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7B95058A-0D80-4630-AFF7-48D3C26B96CE}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR"/>
+            <a:t>10.0.0.0/30</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DCF4F675-5D7F-4D3A-A002-73C44B620E38}" type="parTrans" cxnId="{0EA59A7E-B0DD-45D6-B821-B858DC9C0B01}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A92EE153-F5A8-4F25-A85C-A3635AFF538C}" type="sibTrans" cxnId="{0EA59A7E-B0DD-45D6-B821-B858DC9C0B01}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{810377E8-E327-424F-B829-9847447407E7}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR"/>
+            <a:t>186.25.54.28/30</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4B58353F-1CA5-4380-8D25-9F4436808F88}" type="parTrans" cxnId="{BE4CE6EE-3C50-462D-BF4A-7A428AEB55C4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4DBDC765-0FAD-4B42-903C-7E2BD637C1B0}" type="sibTrans" cxnId="{BE4CE6EE-3C50-462D-BF4A-7A428AEB55C4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR"/>
+            <a:t>R-B</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C79405EA-0C5E-48AF-9969-A2158035EC24}" type="parTrans" cxnId="{3EA8C510-6961-4A98-AC10-649C6EB9CB90}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{455A4725-FA85-441D-8AF0-AA3561BD9277}" type="sibTrans" cxnId="{3EA8C510-6961-4A98-AC10-649C6EB9CB90}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DD3095FC-7FC5-410F-AD0D-ECC6246AFD95}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR"/>
+            <a:t>192.168.0.0/24</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3F0BB93B-89AB-4754-B350-5D827B9C0B13}" type="parTrans" cxnId="{451B125F-C1D6-4966-87E0-2CC4B4B4015B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{17664249-DA9A-491D-881A-42D21A8BE5A4}" type="sibTrans" cxnId="{451B125F-C1D6-4966-87E0-2CC4B4B4015B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6CDC1D6E-EEDC-4B6C-B466-22B8FE3B86D5}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR"/>
+            <a:t>192.168.1.0/24</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{612B4D8C-8BFF-4802-A29F-F8FC366FCB5B}" type="parTrans" cxnId="{87E5980B-3396-4B82-972F-1DFE89BFB47D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6EE4950F-A93E-4578-857E-BB51120FC218}" type="sibTrans" cxnId="{87E5980B-3396-4B82-972F-1DFE89BFB47D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7C12C6AD-121A-40F0-B061-6586933E810A}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR"/>
+            <a:t>192.168.2.0/24</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E70D65B1-B7D5-4F2E-B641-53B0460518F0}" type="parTrans" cxnId="{6B2F2DAA-8758-4E16-9A51-33A4097D92D7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FF7D9F95-4220-4513-BD9B-22DA002F2835}" type="sibTrans" cxnId="{6B2F2DAA-8758-4E16-9A51-33A4097D92D7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EFBFADEE-18CA-473C-B6F3-D8F90709332E}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR"/>
+            <a:t>192.168.3.0/24</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1F8FCB18-4A8A-49E2-BCC1-853B052CF05D}" type="parTrans" cxnId="{A5B9DA02-01CD-4B36-B074-F7AF42245853}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DCE093C8-C4ED-4D40-AC35-03BA82BB081C}" type="sibTrans" cxnId="{A5B9DA02-01CD-4B36-B074-F7AF42245853}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{435E53A2-CC59-4919-81E6-9C8E884A829E}" type="pres">
+      <dgm:prSet presAssocID="{AFD978CB-C6A7-44C9-8CE5-8DD1BB4A23BA}" presName="hierChild1" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:orgChart val="1"/>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EAF8117F-D94A-4160-A20F-A45643372A84}" type="pres">
+      <dgm:prSet presAssocID="{810377E8-E327-424F-B829-9847447407E7}" presName="hierRoot1" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C3D7705F-2133-4130-86B8-7DE4633A82BE}" type="pres">
+      <dgm:prSet presAssocID="{810377E8-E327-424F-B829-9847447407E7}" presName="rootComposite1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7CEF3228-CA00-4ADD-8FC3-FA1B10400F1B}" type="pres">
+      <dgm:prSet presAssocID="{810377E8-E327-424F-B829-9847447407E7}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6C6E4CB4-59AE-49B7-8D3D-DD357B2086DD}" type="pres">
+      <dgm:prSet presAssocID="{810377E8-E327-424F-B829-9847447407E7}" presName="rootConnector1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{85BAB6AC-885A-4B17-ACD3-6225CCA9F3E8}" type="pres">
+      <dgm:prSet presAssocID="{810377E8-E327-424F-B829-9847447407E7}" presName="hierChild2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F64FC35B-6EC6-4410-B56B-261CD6D10EA5}" type="pres">
+      <dgm:prSet presAssocID="{6F70C711-1B1E-4C08-8FC3-79A67B95C705}" presName="Name64" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{47CF68D2-74CA-4399-B581-78200F244FDF}" type="pres">
+      <dgm:prSet presAssocID="{1F0F1C92-D9C1-418D-AD85-90BC580CF161}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C43E5FF1-E5B8-4A04-9998-EA0E16933D49}" type="pres">
+      <dgm:prSet presAssocID="{1F0F1C92-D9C1-418D-AD85-90BC580CF161}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F0031F58-C3EF-4FE5-9CA2-259F62269C2D}" type="pres">
+      <dgm:prSet presAssocID="{1F0F1C92-D9C1-418D-AD85-90BC580CF161}" presName="rootText" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="1" custScaleX="64070" custScaleY="210064" custLinFactNeighborX="-831">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{71B1AA40-F20A-4085-AA96-EDEE0F06F155}" type="pres">
+      <dgm:prSet presAssocID="{1F0F1C92-D9C1-418D-AD85-90BC580CF161}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C221D721-8352-4A1E-9AD5-2CB1B9C34232}" type="pres">
+      <dgm:prSet presAssocID="{1F0F1C92-D9C1-418D-AD85-90BC580CF161}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{509697E0-CBAA-4D50-A08D-4C0323FAD021}" type="pres">
+      <dgm:prSet presAssocID="{DCF4F675-5D7F-4D3A-A002-73C44B620E38}" presName="Name64" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{39332E32-C7D5-45F9-AC8F-D5D8D826AB3E}" type="pres">
+      <dgm:prSet presAssocID="{7B95058A-0D80-4630-AFF7-48D3C26B96CE}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A6A5C72A-69CD-43CD-A2AD-91C53108E3EC}" type="pres">
+      <dgm:prSet presAssocID="{7B95058A-0D80-4630-AFF7-48D3C26B96CE}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0A4D0610-D733-4901-9EDE-3CFD8851320E}" type="pres">
+      <dgm:prSet presAssocID="{7B95058A-0D80-4630-AFF7-48D3C26B96CE}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="1" custLinFactNeighborX="-4986">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AC4D0C46-8CF7-419A-BB07-18269B6825D5}" type="pres">
+      <dgm:prSet presAssocID="{7B95058A-0D80-4630-AFF7-48D3C26B96CE}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9E3363F4-DF16-4D9B-BA6F-C19DC9E34933}" type="pres">
+      <dgm:prSet presAssocID="{7B95058A-0D80-4630-AFF7-48D3C26B96CE}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B78C851D-D9D1-4E0C-A135-A8E45658115C}" type="pres">
+      <dgm:prSet presAssocID="{C79405EA-0C5E-48AF-9969-A2158035EC24}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B55EDBD4-74DA-42B1-9BC7-4ABD3CA74E59}" type="pres">
+      <dgm:prSet presAssocID="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6FD39500-73F8-44E7-8936-B6B2543B8AD6}" type="pres">
+      <dgm:prSet presAssocID="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{14A42A52-0C40-47A4-928E-3C72C1AA182E}" type="pres">
+      <dgm:prSet presAssocID="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="5" custScaleX="63909" custScaleY="209536" custLinFactNeighborX="-11213">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{E84CB02D-5F6C-419B-8E5B-3268D0D7314F}" type="pres">
+      <dgm:prSet presAssocID="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5E2D1A5D-C690-4FA9-98BE-81C54F7B4452}" type="pres">
+      <dgm:prSet presAssocID="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E9AE05DD-DB5A-40A2-BD60-DA8DCFB8AF87}" type="pres">
+      <dgm:prSet presAssocID="{3F0BB93B-89AB-4754-B350-5D827B9C0B13}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D6276502-74DF-407D-AA49-4783D5E26D69}" type="pres">
+      <dgm:prSet presAssocID="{DD3095FC-7FC5-410F-AD0D-ECC6246AFD95}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7E7DF654-42C7-4797-B3BE-4BB1646C9082}" type="pres">
+      <dgm:prSet presAssocID="{DD3095FC-7FC5-410F-AD0D-ECC6246AFD95}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ED39B4D4-C882-4F96-8813-186B1B392815}" type="pres">
+      <dgm:prSet presAssocID="{DD3095FC-7FC5-410F-AD0D-ECC6246AFD95}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="5" custLinFactNeighborX="17885">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{43C15C4C-DC27-42FC-A6DA-5BA30B917DFA}" type="pres">
+      <dgm:prSet presAssocID="{DD3095FC-7FC5-410F-AD0D-ECC6246AFD95}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6FD59EB4-061B-4466-A942-3288138C08AD}" type="pres">
+      <dgm:prSet presAssocID="{DD3095FC-7FC5-410F-AD0D-ECC6246AFD95}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F7446145-70AF-4676-9F6B-2620DC7D6D78}" type="pres">
+      <dgm:prSet presAssocID="{DD3095FC-7FC5-410F-AD0D-ECC6246AFD95}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{76160F9D-ED3E-4F7F-93AD-E0A3BD129D18}" type="pres">
+      <dgm:prSet presAssocID="{612B4D8C-8BFF-4802-A29F-F8FC366FCB5B}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5F3FE194-BCDD-4DD2-8255-8012DF30847E}" type="pres">
+      <dgm:prSet presAssocID="{6CDC1D6E-EEDC-4B6C-B466-22B8FE3B86D5}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{20604D4B-88A5-4112-87D2-F9F09FFAEAAD}" type="pres">
+      <dgm:prSet presAssocID="{6CDC1D6E-EEDC-4B6C-B466-22B8FE3B86D5}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{13D2BC7E-B9A8-430E-8574-A57A85597C80}" type="pres">
+      <dgm:prSet presAssocID="{6CDC1D6E-EEDC-4B6C-B466-22B8FE3B86D5}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="5" custLinFactNeighborX="17885">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ED2B01B0-D251-4D16-836F-0E62E2187B84}" type="pres">
+      <dgm:prSet presAssocID="{6CDC1D6E-EEDC-4B6C-B466-22B8FE3B86D5}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6E0D7F63-2BBF-4C3E-90B2-1DBDE1D6F595}" type="pres">
+      <dgm:prSet presAssocID="{6CDC1D6E-EEDC-4B6C-B466-22B8FE3B86D5}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7B64A1D1-B198-4277-9FA1-52DC29B3FD86}" type="pres">
+      <dgm:prSet presAssocID="{6CDC1D6E-EEDC-4B6C-B466-22B8FE3B86D5}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{762380C1-4BA6-445C-8295-D620CFFD5353}" type="pres">
+      <dgm:prSet presAssocID="{E70D65B1-B7D5-4F2E-B641-53B0460518F0}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4B69BF6C-0D9E-4826-B31B-F224C666C2F7}" type="pres">
+      <dgm:prSet presAssocID="{7C12C6AD-121A-40F0-B061-6586933E810A}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{77E60A9C-B854-4FF7-9B8D-7CADB6A7A267}" type="pres">
+      <dgm:prSet presAssocID="{7C12C6AD-121A-40F0-B061-6586933E810A}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B57558C7-CC91-4E8E-ADA7-69F72314096E}" type="pres">
+      <dgm:prSet presAssocID="{7C12C6AD-121A-40F0-B061-6586933E810A}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="5" custLinFactNeighborX="17885">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CEE31390-6844-4DA3-AA8F-8A80191E0C23}" type="pres">
+      <dgm:prSet presAssocID="{7C12C6AD-121A-40F0-B061-6586933E810A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{90DEBC43-D15D-43DC-9E14-5B57BBBF9ED2}" type="pres">
+      <dgm:prSet presAssocID="{7C12C6AD-121A-40F0-B061-6586933E810A}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{556EC806-22BF-49D6-8006-C4CD07E6591D}" type="pres">
+      <dgm:prSet presAssocID="{7C12C6AD-121A-40F0-B061-6586933E810A}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{81441E73-0226-4D02-A2DB-67BD9BD052CA}" type="pres">
+      <dgm:prSet presAssocID="{1F8FCB18-4A8A-49E2-BCC1-853B052CF05D}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{974A910D-BF82-48DA-9A72-DD1AD52D1448}" type="pres">
+      <dgm:prSet presAssocID="{EFBFADEE-18CA-473C-B6F3-D8F90709332E}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{98352235-5E44-45FB-8366-6E280A541367}" type="pres">
+      <dgm:prSet presAssocID="{EFBFADEE-18CA-473C-B6F3-D8F90709332E}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ED5BC5F9-93FD-4F76-B2B3-B0975F037838}" type="pres">
+      <dgm:prSet presAssocID="{EFBFADEE-18CA-473C-B6F3-D8F90709332E}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="5" custLinFactNeighborX="17885">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8B577E82-3931-4B4E-AFCF-316BE33C9624}" type="pres">
+      <dgm:prSet presAssocID="{EFBFADEE-18CA-473C-B6F3-D8F90709332E}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A2B2309A-8538-4384-A0ED-573A639104B9}" type="pres">
+      <dgm:prSet presAssocID="{EFBFADEE-18CA-473C-B6F3-D8F90709332E}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{33AD0DCF-209A-4806-B41E-4EFC117A658D}" type="pres">
+      <dgm:prSet presAssocID="{EFBFADEE-18CA-473C-B6F3-D8F90709332E}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{814E55F2-C9D0-4E19-8BD1-FB5B6DD87639}" type="pres">
+      <dgm:prSet presAssocID="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{68C27815-0DA4-4D45-933E-C2C85D6B8008}" type="pres">
+      <dgm:prSet presAssocID="{7B95058A-0D80-4630-AFF7-48D3C26B96CE}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4432B4B8-19AA-489B-B11C-E20D975EEAC3}" type="pres">
+      <dgm:prSet presAssocID="{1F0F1C92-D9C1-418D-AD85-90BC580CF161}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1BBA9C3C-D800-4ACF-AB6F-BE66532C519D}" type="pres">
+      <dgm:prSet presAssocID="{810377E8-E327-424F-B829-9847447407E7}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{A5B9DA02-01CD-4B36-B074-F7AF42245853}" srcId="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" destId="{EFBFADEE-18CA-473C-B6F3-D8F90709332E}" srcOrd="3" destOrd="0" parTransId="{1F8FCB18-4A8A-49E2-BCC1-853B052CF05D}" sibTransId="{DCE093C8-C4ED-4D40-AC35-03BA82BB081C}"/>
+    <dgm:cxn modelId="{5EC4C703-A92A-4442-BC49-E9D6B0764B6D}" type="presOf" srcId="{7B95058A-0D80-4630-AFF7-48D3C26B96CE}" destId="{AC4D0C46-8CF7-419A-BB07-18269B6825D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{87E5980B-3396-4B82-972F-1DFE89BFB47D}" srcId="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" destId="{6CDC1D6E-EEDC-4B6C-B466-22B8FE3B86D5}" srcOrd="1" destOrd="0" parTransId="{612B4D8C-8BFF-4802-A29F-F8FC366FCB5B}" sibTransId="{6EE4950F-A93E-4578-857E-BB51120FC218}"/>
+    <dgm:cxn modelId="{3EA8C510-6961-4A98-AC10-649C6EB9CB90}" srcId="{7B95058A-0D80-4630-AFF7-48D3C26B96CE}" destId="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" srcOrd="0" destOrd="0" parTransId="{C79405EA-0C5E-48AF-9969-A2158035EC24}" sibTransId="{455A4725-FA85-441D-8AF0-AA3561BD9277}"/>
+    <dgm:cxn modelId="{E5EB1511-A87B-4017-BD7E-4A46B3754C70}" type="presOf" srcId="{C79405EA-0C5E-48AF-9969-A2158035EC24}" destId="{B78C851D-D9D1-4E0C-A135-A8E45658115C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{A7483038-0447-4F56-9F7E-DDCC89F45DCF}" type="presOf" srcId="{DD3095FC-7FC5-410F-AD0D-ECC6246AFD95}" destId="{ED39B4D4-C882-4F96-8813-186B1B392815}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{451B125F-C1D6-4966-87E0-2CC4B4B4015B}" srcId="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" destId="{DD3095FC-7FC5-410F-AD0D-ECC6246AFD95}" srcOrd="0" destOrd="0" parTransId="{3F0BB93B-89AB-4754-B350-5D827B9C0B13}" sibTransId="{17664249-DA9A-491D-881A-42D21A8BE5A4}"/>
+    <dgm:cxn modelId="{DAB91742-8769-46A2-962D-25AF202646D0}" type="presOf" srcId="{6F70C711-1B1E-4C08-8FC3-79A67B95C705}" destId="{F64FC35B-6EC6-4410-B56B-261CD6D10EA5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{51CBA465-9D13-450E-B642-E201BA4CDE5D}" type="presOf" srcId="{612B4D8C-8BFF-4802-A29F-F8FC366FCB5B}" destId="{76160F9D-ED3E-4F7F-93AD-E0A3BD129D18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{E6456D6B-4CB4-46EA-98C3-3C1C508994E7}" type="presOf" srcId="{7C12C6AD-121A-40F0-B061-6586933E810A}" destId="{B57558C7-CC91-4E8E-ADA7-69F72314096E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{C17DCE53-614D-44CC-BBB3-4AF5C3FA2D17}" type="presOf" srcId="{6CDC1D6E-EEDC-4B6C-B466-22B8FE3B86D5}" destId="{13D2BC7E-B9A8-430E-8574-A57A85597C80}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{94713C55-3F6B-481B-BD94-9F3596C84938}" type="presOf" srcId="{3F0BB93B-89AB-4754-B350-5D827B9C0B13}" destId="{E9AE05DD-DB5A-40A2-BD60-DA8DCFB8AF87}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{EC639975-0B06-4389-818C-53C3480FF6DD}" type="presOf" srcId="{1F8FCB18-4A8A-49E2-BCC1-853B052CF05D}" destId="{81441E73-0226-4D02-A2DB-67BD9BD052CA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{861B9B75-D797-448A-8FE3-6B7678FB057E}" type="presOf" srcId="{7C12C6AD-121A-40F0-B061-6586933E810A}" destId="{CEE31390-6844-4DA3-AA8F-8A80191E0C23}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{DC085E79-81FF-4DBB-84EE-B19B5EFC2138}" type="presOf" srcId="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" destId="{14A42A52-0C40-47A4-928E-3C72C1AA182E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{323F4359-628F-4BC7-A90E-991CFC8FE219}" type="presOf" srcId="{DD3095FC-7FC5-410F-AD0D-ECC6246AFD95}" destId="{43C15C4C-DC27-42FC-A6DA-5BA30B917DFA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{57729779-E840-4DCA-8B02-E68EEF2D44F0}" type="presOf" srcId="{EFBFADEE-18CA-473C-B6F3-D8F90709332E}" destId="{ED5BC5F9-93FD-4F76-B2B3-B0975F037838}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{0EA59A7E-B0DD-45D6-B821-B858DC9C0B01}" srcId="{1F0F1C92-D9C1-418D-AD85-90BC580CF161}" destId="{7B95058A-0D80-4630-AFF7-48D3C26B96CE}" srcOrd="0" destOrd="0" parTransId="{DCF4F675-5D7F-4D3A-A002-73C44B620E38}" sibTransId="{A92EE153-F5A8-4F25-A85C-A3635AFF538C}"/>
+    <dgm:cxn modelId="{35434683-C3F7-4CEB-82AB-96891192275A}" type="presOf" srcId="{DCF4F675-5D7F-4D3A-A002-73C44B620E38}" destId="{509697E0-CBAA-4D50-A08D-4C0323FAD021}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{8485DD92-4CC5-4F68-B8FD-94BFA9A96E96}" type="presOf" srcId="{1F0F1C92-D9C1-418D-AD85-90BC580CF161}" destId="{71B1AA40-F20A-4085-AA96-EDEE0F06F155}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F39EE4A5-358E-4FDD-976E-64A90461CAE6}" type="presOf" srcId="{810377E8-E327-424F-B829-9847447407E7}" destId="{6C6E4CB4-59AE-49B7-8D3D-DD357B2086DD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{1D8A48A6-16B2-49E7-8D31-0CBA8DC759E7}" type="presOf" srcId="{6CDC1D6E-EEDC-4B6C-B466-22B8FE3B86D5}" destId="{ED2B01B0-D251-4D16-836F-0E62E2187B84}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{6B2F2DAA-8758-4E16-9A51-33A4097D92D7}" srcId="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" destId="{7C12C6AD-121A-40F0-B061-6586933E810A}" srcOrd="2" destOrd="0" parTransId="{E70D65B1-B7D5-4F2E-B641-53B0460518F0}" sibTransId="{FF7D9F95-4220-4513-BD9B-22DA002F2835}"/>
+    <dgm:cxn modelId="{F4D993B1-CF66-4765-A746-70A814FB913A}" srcId="{810377E8-E327-424F-B829-9847447407E7}" destId="{1F0F1C92-D9C1-418D-AD85-90BC580CF161}" srcOrd="0" destOrd="0" parTransId="{6F70C711-1B1E-4C08-8FC3-79A67B95C705}" sibTransId="{11A3130D-C4D8-44CC-ADEB-B496B30CF421}"/>
+    <dgm:cxn modelId="{3BC695B1-0697-4048-AAEC-5ABBCD964026}" type="presOf" srcId="{810377E8-E327-424F-B829-9847447407E7}" destId="{7CEF3228-CA00-4ADD-8FC3-FA1B10400F1B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{3AD109B8-BA31-4DA7-AB82-BB8A2A055A5C}" type="presOf" srcId="{EFBFADEE-18CA-473C-B6F3-D8F90709332E}" destId="{8B577E82-3931-4B4E-AFCF-316BE33C9624}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5C008FB8-1A24-4F93-B424-9C8CB7C01037}" type="presOf" srcId="{E70D65B1-B7D5-4F2E-B641-53B0460518F0}" destId="{762380C1-4BA6-445C-8295-D620CFFD5353}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{CC8AF4BE-AC77-46BC-93D7-656DCBBA386B}" type="presOf" srcId="{7B95058A-0D80-4630-AFF7-48D3C26B96CE}" destId="{0A4D0610-D733-4901-9EDE-3CFD8851320E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{FBED74D6-A0D6-417A-8205-B4740EC55ADF}" type="presOf" srcId="{F2800FFE-4555-4CE3-AAC4-3BBD00D70150}" destId="{E84CB02D-5F6C-419B-8E5B-3268D0D7314F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{308062E4-42F4-461B-842B-CF87B1CA203E}" type="presOf" srcId="{AFD978CB-C6A7-44C9-8CE5-8DD1BB4A23BA}" destId="{435E53A2-CC59-4919-81E6-9C8E884A829E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{3DB437EB-E976-44C5-AACB-FE6B1F70F465}" type="presOf" srcId="{1F0F1C92-D9C1-418D-AD85-90BC580CF161}" destId="{F0031F58-C3EF-4FE5-9CA2-259F62269C2D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{BE4CE6EE-3C50-462D-BF4A-7A428AEB55C4}" srcId="{AFD978CB-C6A7-44C9-8CE5-8DD1BB4A23BA}" destId="{810377E8-E327-424F-B829-9847447407E7}" srcOrd="0" destOrd="0" parTransId="{4B58353F-1CA5-4380-8D25-9F4436808F88}" sibTransId="{4DBDC765-0FAD-4B42-903C-7E2BD637C1B0}"/>
+    <dgm:cxn modelId="{A0A78487-6A94-4F99-A14F-80C430254F97}" type="presParOf" srcId="{435E53A2-CC59-4919-81E6-9C8E884A829E}" destId="{EAF8117F-D94A-4160-A20F-A45643372A84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2A62CFC0-641B-42EC-8CC7-3A1198CEBF0B}" type="presParOf" srcId="{EAF8117F-D94A-4160-A20F-A45643372A84}" destId="{C3D7705F-2133-4130-86B8-7DE4633A82BE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{A91E4F7F-73EF-44B8-8F9C-5044FA40E7D1}" type="presParOf" srcId="{C3D7705F-2133-4130-86B8-7DE4633A82BE}" destId="{7CEF3228-CA00-4ADD-8FC3-FA1B10400F1B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{078D5B6E-32F3-4C1C-82ED-056155902333}" type="presParOf" srcId="{C3D7705F-2133-4130-86B8-7DE4633A82BE}" destId="{6C6E4CB4-59AE-49B7-8D3D-DD357B2086DD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{0EC5530A-E0A1-496C-B6EB-65DA97484585}" type="presParOf" srcId="{EAF8117F-D94A-4160-A20F-A45643372A84}" destId="{85BAB6AC-885A-4B17-ACD3-6225CCA9F3E8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{4AFB3C04-B88E-4815-AFB9-4F16BD1046EF}" type="presParOf" srcId="{85BAB6AC-885A-4B17-ACD3-6225CCA9F3E8}" destId="{F64FC35B-6EC6-4410-B56B-261CD6D10EA5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5C1F2060-D625-44B5-A4D6-A1A2DFEC524B}" type="presParOf" srcId="{85BAB6AC-885A-4B17-ACD3-6225CCA9F3E8}" destId="{47CF68D2-74CA-4399-B581-78200F244FDF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{868065B1-7260-4707-B1C0-ACFD49C72C15}" type="presParOf" srcId="{47CF68D2-74CA-4399-B581-78200F244FDF}" destId="{C43E5FF1-E5B8-4A04-9998-EA0E16933D49}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{65F01235-7FCD-4D9D-AC4E-3DF4EA906B0A}" type="presParOf" srcId="{C43E5FF1-E5B8-4A04-9998-EA0E16933D49}" destId="{F0031F58-C3EF-4FE5-9CA2-259F62269C2D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{09FB7C5F-9915-4F3E-A951-593888CC932C}" type="presParOf" srcId="{C43E5FF1-E5B8-4A04-9998-EA0E16933D49}" destId="{71B1AA40-F20A-4085-AA96-EDEE0F06F155}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5FCC405F-C6E9-4996-9E99-949B911E89BD}" type="presParOf" srcId="{47CF68D2-74CA-4399-B581-78200F244FDF}" destId="{C221D721-8352-4A1E-9AD5-2CB1B9C34232}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F7DDC54A-C7CF-453D-ADBE-03B8D3AF97E8}" type="presParOf" srcId="{C221D721-8352-4A1E-9AD5-2CB1B9C34232}" destId="{509697E0-CBAA-4D50-A08D-4C0323FAD021}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{C3B95036-F62B-4A25-B37A-979D6BC2826F}" type="presParOf" srcId="{C221D721-8352-4A1E-9AD5-2CB1B9C34232}" destId="{39332E32-C7D5-45F9-AC8F-D5D8D826AB3E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{9C2728F3-DCA9-476B-925A-2D9442830BC3}" type="presParOf" srcId="{39332E32-C7D5-45F9-AC8F-D5D8D826AB3E}" destId="{A6A5C72A-69CD-43CD-A2AD-91C53108E3EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{CC584E46-9D76-4329-9163-D69DCD9CEC89}" type="presParOf" srcId="{A6A5C72A-69CD-43CD-A2AD-91C53108E3EC}" destId="{0A4D0610-D733-4901-9EDE-3CFD8851320E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{EC09ACDB-425A-4349-8C3B-D5762FABF412}" type="presParOf" srcId="{A6A5C72A-69CD-43CD-A2AD-91C53108E3EC}" destId="{AC4D0C46-8CF7-419A-BB07-18269B6825D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{11F341BF-4CCC-404B-BA9B-26E136382BFB}" type="presParOf" srcId="{39332E32-C7D5-45F9-AC8F-D5D8D826AB3E}" destId="{9E3363F4-DF16-4D9B-BA6F-C19DC9E34933}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{644222D5-4CF8-4A61-B33B-4F652205ABAF}" type="presParOf" srcId="{9E3363F4-DF16-4D9B-BA6F-C19DC9E34933}" destId="{B78C851D-D9D1-4E0C-A135-A8E45658115C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{3BE3BEB2-FCCC-48DF-BC08-2EAE44484C28}" type="presParOf" srcId="{9E3363F4-DF16-4D9B-BA6F-C19DC9E34933}" destId="{B55EDBD4-74DA-42B1-9BC7-4ABD3CA74E59}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{64BDA539-1712-4C0E-81D3-F4605B678039}" type="presParOf" srcId="{B55EDBD4-74DA-42B1-9BC7-4ABD3CA74E59}" destId="{6FD39500-73F8-44E7-8936-B6B2543B8AD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{1E9020A5-DF7F-406D-852E-22AF1F1C029D}" type="presParOf" srcId="{6FD39500-73F8-44E7-8936-B6B2543B8AD6}" destId="{14A42A52-0C40-47A4-928E-3C72C1AA182E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{6DCD6E1C-F9CC-4A59-9C44-AB2207C05F2B}" type="presParOf" srcId="{6FD39500-73F8-44E7-8936-B6B2543B8AD6}" destId="{E84CB02D-5F6C-419B-8E5B-3268D0D7314F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F23F6776-567E-4FC2-B1E8-436A7E3E4124}" type="presParOf" srcId="{B55EDBD4-74DA-42B1-9BC7-4ABD3CA74E59}" destId="{5E2D1A5D-C690-4FA9-98BE-81C54F7B4452}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{CC9B33B2-32D6-4BFF-AF3F-731E3BC07ECC}" type="presParOf" srcId="{5E2D1A5D-C690-4FA9-98BE-81C54F7B4452}" destId="{E9AE05DD-DB5A-40A2-BD60-DA8DCFB8AF87}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{4D6F760A-DB47-413C-8346-66CB0DC9A983}" type="presParOf" srcId="{5E2D1A5D-C690-4FA9-98BE-81C54F7B4452}" destId="{D6276502-74DF-407D-AA49-4783D5E26D69}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{E69CF08B-A862-4045-8FCA-0DC981B99CF5}" type="presParOf" srcId="{D6276502-74DF-407D-AA49-4783D5E26D69}" destId="{7E7DF654-42C7-4797-B3BE-4BB1646C9082}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{8D0E9E6E-E603-4759-B36C-054FCB12E06F}" type="presParOf" srcId="{7E7DF654-42C7-4797-B3BE-4BB1646C9082}" destId="{ED39B4D4-C882-4F96-8813-186B1B392815}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{39DDE733-5171-4130-95B5-0FF5B03889A7}" type="presParOf" srcId="{7E7DF654-42C7-4797-B3BE-4BB1646C9082}" destId="{43C15C4C-DC27-42FC-A6DA-5BA30B917DFA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{53F5C586-F04A-4888-907A-A174833FC10A}" type="presParOf" srcId="{D6276502-74DF-407D-AA49-4783D5E26D69}" destId="{6FD59EB4-061B-4466-A942-3288138C08AD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{078DD519-41FD-4807-A399-B2579D4EBEE5}" type="presParOf" srcId="{D6276502-74DF-407D-AA49-4783D5E26D69}" destId="{F7446145-70AF-4676-9F6B-2620DC7D6D78}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{597092CD-8A2A-4431-8316-48687B52CC1B}" type="presParOf" srcId="{5E2D1A5D-C690-4FA9-98BE-81C54F7B4452}" destId="{76160F9D-ED3E-4F7F-93AD-E0A3BD129D18}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{BD92C09C-FC49-46AB-AD21-05DA75F08779}" type="presParOf" srcId="{5E2D1A5D-C690-4FA9-98BE-81C54F7B4452}" destId="{5F3FE194-BCDD-4DD2-8255-8012DF30847E}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{0C48840B-B554-47E2-AE7C-4C7337109BEF}" type="presParOf" srcId="{5F3FE194-BCDD-4DD2-8255-8012DF30847E}" destId="{20604D4B-88A5-4112-87D2-F9F09FFAEAAD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{AB75CBC5-E7BF-4263-A465-C90361963FDD}" type="presParOf" srcId="{20604D4B-88A5-4112-87D2-F9F09FFAEAAD}" destId="{13D2BC7E-B9A8-430E-8574-A57A85597C80}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{92167A5A-80EE-4BD0-863E-DBC7D873F0C8}" type="presParOf" srcId="{20604D4B-88A5-4112-87D2-F9F09FFAEAAD}" destId="{ED2B01B0-D251-4D16-836F-0E62E2187B84}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F6FF1444-F891-4D50-8CCC-4D5812DC8FB9}" type="presParOf" srcId="{5F3FE194-BCDD-4DD2-8255-8012DF30847E}" destId="{6E0D7F63-2BBF-4C3E-90B2-1DBDE1D6F595}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{9CA4D548-2AFB-449B-B652-47365B8F708C}" type="presParOf" srcId="{5F3FE194-BCDD-4DD2-8255-8012DF30847E}" destId="{7B64A1D1-B198-4277-9FA1-52DC29B3FD86}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{7B87303D-89AF-4EC1-B489-079A035B28D0}" type="presParOf" srcId="{5E2D1A5D-C690-4FA9-98BE-81C54F7B4452}" destId="{762380C1-4BA6-445C-8295-D620CFFD5353}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5B0E7166-46C3-42C0-9E01-C67D4EAA5AD3}" type="presParOf" srcId="{5E2D1A5D-C690-4FA9-98BE-81C54F7B4452}" destId="{4B69BF6C-0D9E-4826-B31B-F224C666C2F7}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2EA22F79-B331-41BB-A856-852132BB7FE0}" type="presParOf" srcId="{4B69BF6C-0D9E-4826-B31B-F224C666C2F7}" destId="{77E60A9C-B854-4FF7-9B8D-7CADB6A7A267}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2CFE61C5-06A4-4694-9AD4-8891DB655B0C}" type="presParOf" srcId="{77E60A9C-B854-4FF7-9B8D-7CADB6A7A267}" destId="{B57558C7-CC91-4E8E-ADA7-69F72314096E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{680832D9-C752-4691-B07F-EF7FEB1631D6}" type="presParOf" srcId="{77E60A9C-B854-4FF7-9B8D-7CADB6A7A267}" destId="{CEE31390-6844-4DA3-AA8F-8A80191E0C23}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5593BBCB-29C7-4F3D-B283-B3D32B13F05D}" type="presParOf" srcId="{4B69BF6C-0D9E-4826-B31B-F224C666C2F7}" destId="{90DEBC43-D15D-43DC-9E14-5B57BBBF9ED2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{9695A323-00C8-4566-BCF9-39D3FE76990D}" type="presParOf" srcId="{4B69BF6C-0D9E-4826-B31B-F224C666C2F7}" destId="{556EC806-22BF-49D6-8006-C4CD07E6591D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{28291CD8-747A-4772-A8B4-3BD90280788B}" type="presParOf" srcId="{5E2D1A5D-C690-4FA9-98BE-81C54F7B4452}" destId="{81441E73-0226-4D02-A2DB-67BD9BD052CA}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D29F6AFD-AB0B-4662-A353-BEB14E87008A}" type="presParOf" srcId="{5E2D1A5D-C690-4FA9-98BE-81C54F7B4452}" destId="{974A910D-BF82-48DA-9A72-DD1AD52D1448}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{97B85BC0-C12C-459F-9CB5-1D18E97A97ED}" type="presParOf" srcId="{974A910D-BF82-48DA-9A72-DD1AD52D1448}" destId="{98352235-5E44-45FB-8366-6E280A541367}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{581ADD02-D46F-4749-A60A-C0B2ED03E6E7}" type="presParOf" srcId="{98352235-5E44-45FB-8366-6E280A541367}" destId="{ED5BC5F9-93FD-4F76-B2B3-B0975F037838}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{86632F3E-826D-4754-ADC4-5095EF3B1E99}" type="presParOf" srcId="{98352235-5E44-45FB-8366-6E280A541367}" destId="{8B577E82-3931-4B4E-AFCF-316BE33C9624}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{C173E439-FFE5-45BE-8FA5-0A33FBB8AE76}" type="presParOf" srcId="{974A910D-BF82-48DA-9A72-DD1AD52D1448}" destId="{A2B2309A-8538-4384-A0ED-573A639104B9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{12AF1238-06D7-4904-9D58-88EA5DA13CE4}" type="presParOf" srcId="{974A910D-BF82-48DA-9A72-DD1AD52D1448}" destId="{33AD0DCF-209A-4806-B41E-4EFC117A658D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{24D775A6-8259-4FD5-82F5-8E782EBE7500}" type="presParOf" srcId="{B55EDBD4-74DA-42B1-9BC7-4ABD3CA74E59}" destId="{814E55F2-C9D0-4E19-8BD1-FB5B6DD87639}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{93AB9B1E-1270-4938-A4AB-79D55989A150}" type="presParOf" srcId="{39332E32-C7D5-45F9-AC8F-D5D8D826AB3E}" destId="{68C27815-0DA4-4D45-933E-C2C85D6B8008}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{13A557DC-EA37-4046-84B9-77D5FD5C4A8A}" type="presParOf" srcId="{47CF68D2-74CA-4399-B581-78200F244FDF}" destId="{4432B4B8-19AA-489B-B11C-E20D975EEAC3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{142151F6-A579-4960-B3C1-347F53EBE2E8}" type="presParOf" srcId="{EAF8117F-D94A-4160-A20F-A45643372A84}" destId="{1BBA9C3C-D800-4ACF-AB6F-BE66532C519D}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{81441E73-0226-4D02-A2DB-67BD9BD052CA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4254953" y="963490"/>
+          <a:ext cx="352768" cy="728371"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="239843" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="239843" y="728371"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="352768" y="728371"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{762380C1-4BA6-445C-8295-D620CFFD5353}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4254953" y="963490"/>
+          <a:ext cx="352768" cy="242790"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="239843" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="239843" y="242790"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="352768" y="242790"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{76160F9D-ED3E-4F7F-93AD-E0A3BD129D18}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4254953" y="720699"/>
+          <a:ext cx="352768" cy="242790"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="242790"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="239843" y="242790"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="239843" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="352768" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E9AE05DD-DB5A-40A2-BD60-DA8DCFB8AF87}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4254953" y="235118"/>
+          <a:ext cx="352768" cy="728371"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="728371"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="239843" y="728371"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="239843" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="352768" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B78C851D-D9D1-4E0C-A135-A8E45658115C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3377723" y="917769"/>
+          <a:ext cx="155532" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="155532" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{509697E0-CBAA-4D50-A08D-4C0323FAD021}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2069534" y="917769"/>
+          <a:ext cx="178930" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="178930" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{F64FC35B-6EC6-4410-B56B-261CD6D10EA5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1129551" y="917769"/>
+          <a:ext cx="216467" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="216467" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{7CEF3228-CA00-4ADD-8FC3-FA1B10400F1B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="293" y="791278"/>
+          <a:ext cx="1129258" cy="344423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1300" kern="1200"/>
+            <a:t>186.25.54.28/30</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="293" y="791278"/>
+        <a:ext cx="1129258" cy="344423"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F0031F58-C3EF-4FE5-9CA2-259F62269C2D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1346019" y="601734"/>
+          <a:ext cx="723515" cy="723510"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1300" kern="1200"/>
+            <a:t>R-A</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1451975" y="707690"/>
+        <a:ext cx="511603" cy="511598"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0A4D0610-D733-4901-9EDE-3CFD8851320E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2248465" y="791278"/>
+          <a:ext cx="1129258" cy="344423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1300" kern="1200"/>
+            <a:t>10.0.0.0/30</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2248465" y="791278"/>
+        <a:ext cx="1129258" cy="344423"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{14A42A52-0C40-47A4-928E-3C72C1AA182E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3533256" y="602644"/>
+          <a:ext cx="721697" cy="721691"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1300" kern="1200"/>
+            <a:t>R-B</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3638946" y="708333"/>
+        <a:ext cx="510317" cy="510313"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{ED39B4D4-C882-4F96-8813-186B1B392815}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4607722" y="62906"/>
+          <a:ext cx="1129258" cy="344423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1300" kern="1200"/>
+            <a:t>192.168.0.0/24</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4607722" y="62906"/>
+        <a:ext cx="1129258" cy="344423"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{13D2BC7E-B9A8-430E-8574-A57A85597C80}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4607722" y="548487"/>
+          <a:ext cx="1129258" cy="344423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1300" kern="1200"/>
+            <a:t>192.168.1.0/24</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4607722" y="548487"/>
+        <a:ext cx="1129258" cy="344423"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B57558C7-CC91-4E8E-ADA7-69F72314096E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4607722" y="1034068"/>
+          <a:ext cx="1129258" cy="344423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1300" kern="1200"/>
+            <a:t>192.168.2.0/24</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4607722" y="1034068"/>
+        <a:ext cx="1129258" cy="344423"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{ED5BC5F9-93FD-4F76-B2B3-B0975F037838}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4607722" y="1519649"/>
+          <a:ext cx="1129258" cy="344423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1300" kern="1200"/>
+            <a:t>192.168.3.0/24</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4607722" y="1519649"/>
+        <a:ext cx="1129258" cy="344423"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="4300"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2" type="asst">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="5">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="1" destId="4" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="1" destId="5" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="13"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="16" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="17" srcId="1" destId="13" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11" type="asst"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="13"/>
+        <dgm:pt modelId="14"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="15" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="16" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="17" srcId="1" destId="13" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="18" srcId="1" destId="14" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="hierChild1">
+    <dgm:varLst>
+      <dgm:orgChart val="1"/>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="l"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="r"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="des" forName="rootComposite1" refType="w" fact="10"/>
+      <dgm:constr type="h" for="des" forName="rootComposite1" refType="w" refFor="des" refForName="rootComposite1" fact="0.305"/>
+      <dgm:constr type="w" for="des" forName="rootComposite" refType="w" fact="10"/>
+      <dgm:constr type="h" for="des" forName="rootComposite" refType="w" refFor="des" refForName="rootComposite1" fact="0.305"/>
+      <dgm:constr type="w" for="des" forName="rootComposite3" refType="w" fact="10"/>
+      <dgm:constr type="h" for="des" forName="rootComposite3" refType="w" refFor="des" refForName="rootComposite1" fact="0.305"/>
+      <dgm:constr type="primFontSz" for="des" ptType="node" op="equ"/>
+      <dgm:constr type="sp" for="des" op="equ"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot1" refType="w" refFor="des" refForName="rootComposite1" fact="0.2"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot2" refType="sp" refFor="des" refForName="hierRoot1"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot3" refType="sp" refFor="des" refForName="hierRoot1"/>
+      <dgm:constr type="sibSp" refType="w" refFor="des" refForName="rootComposite1" fact="0.125"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild4" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild5" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild6" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild7" refType="sibSp"/>
+      <dgm:constr type="secSibSp" refType="w" refFor="des" refForName="rootComposite1" fact="0.125"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild2" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild3" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild4" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild5" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild6" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild7" refType="secSibSp"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node">
+        <dgm:layoutNode name="hierRoot1">
+          <dgm:varLst>
+            <dgm:hierBranch val="init"/>
+          </dgm:varLst>
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="hierBranch" op="equ" val="l">
+              <dgm:choose name="Name7">
+                <dgm:if name="Name8" func="var" arg="dir" op="equ" val="norm">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="lT"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.75"/>
+                  </dgm:constrLst>
+                </dgm:if>
+                <dgm:else name="Name9">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="rT"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.75"/>
+                  </dgm:constrLst>
+                </dgm:else>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:if name="Name10" func="var" arg="hierBranch" op="equ" val="r">
+              <dgm:choose name="Name11">
+                <dgm:if name="Name12" func="var" arg="dir" op="equ" val="norm">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="lB"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.75"/>
+                  </dgm:constrLst>
+                </dgm:if>
+                <dgm:else name="Name13">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="rB"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.75"/>
+                  </dgm:constrLst>
+                </dgm:else>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:if name="Name14" func="var" arg="hierBranch" op="equ" val="hang">
+              <dgm:choose name="Name15">
+                <dgm:if name="Name16" func="var" arg="dir" op="equ" val="norm">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="lCtrCh"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.65"/>
+                  </dgm:constrLst>
+                </dgm:if>
+                <dgm:else name="Name17">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="rCtrCh"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.65"/>
+                  </dgm:constrLst>
+                </dgm:else>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:else name="Name18">
+              <dgm:choose name="Name19">
+                <dgm:if name="Name20" func="var" arg="dir" op="equ" val="norm">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="lCtrCh"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff"/>
+                    <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                  </dgm:constrLst>
+                </dgm:if>
+                <dgm:else name="Name21">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="rCtrCh"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff"/>
+                    <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                  </dgm:constrLst>
+                </dgm:else>
+              </dgm:choose>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="rootComposite1">
+            <dgm:alg type="composite"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node" cnt="1"/>
+            <dgm:choose name="Name22">
+              <dgm:if name="Name23" func="var" arg="hierBranch" op="equ" val="init">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText1"/>
+                  <dgm:constr type="t" for="ch" forName="rootText1"/>
+                  <dgm:constr type="w" for="ch" forName="rootText1" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText1" refType="h"/>
+                  <dgm:constr type="l" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector1" refType="w" refFor="ch" refForName="rootText1" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector1" refType="h" refFor="ch" refForName="rootText1"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:if name="Name24" func="var" arg="hierBranch" op="equ" val="l">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText1"/>
+                  <dgm:constr type="t" for="ch" forName="rootText1"/>
+                  <dgm:constr type="w" for="ch" forName="rootText1" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText1" refType="h"/>
+                  <dgm:constr type="r" for="ch" forName="rootConnector1" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector1" refType="w" refFor="ch" refForName="rootText1" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector1" refType="h" refFor="ch" refForName="rootText1"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:if name="Name25" func="var" arg="hierBranch" op="equ" val="r">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText1"/>
+                  <dgm:constr type="t" for="ch" forName="rootText1"/>
+                  <dgm:constr type="w" for="ch" forName="rootText1" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText1" refType="h"/>
+                  <dgm:constr type="l" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector1" refType="w" refFor="ch" refForName="rootText1" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector1" refType="h" refFor="ch" refForName="rootText1"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name26">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText1"/>
+                  <dgm:constr type="t" for="ch" forName="rootText1"/>
+                  <dgm:constr type="w" for="ch" forName="rootText1" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText1" refType="h"/>
+                  <dgm:constr type="r" for="ch" forName="rootConnector1" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector1" refType="w" refFor="ch" refForName="rootText1" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector1" refType="h" refFor="ch" refForName="rootText1"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst/>
+            <dgm:layoutNode name="rootText1" styleLbl="node0">
+              <dgm:varLst>
+                <dgm:chPref val="3"/>
+              </dgm:varLst>
+              <dgm:alg type="tx"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst>
+                <dgm:constr type="primFontSz" val="65"/>
+                <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="rootConnector1" moveWith="rootText1">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="hierChild2">
+            <dgm:choose name="Name27">
+              <dgm:if name="Name28" func="var" arg="hierBranch" op="equ" val="l">
+                <dgm:choose name="Name29">
+                  <dgm:if name="Name30" func="var" arg="dir" op="equ" val="norm">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="chAlign" val="t"/>
+                      <dgm:param type="linDir" val="fromL"/>
+                    </dgm:alg>
+                  </dgm:if>
+                  <dgm:else name="Name31">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="chAlign" val="t"/>
+                      <dgm:param type="linDir" val="fromR"/>
+                    </dgm:alg>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:if>
+              <dgm:if name="Name32" func="var" arg="hierBranch" op="equ" val="r">
+                <dgm:choose name="Name33">
+                  <dgm:if name="Name34" func="var" arg="dir" op="equ" val="norm">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="chAlign" val="b"/>
+                      <dgm:param type="linDir" val="fromL"/>
+                    </dgm:alg>
+                  </dgm:if>
+                  <dgm:else name="Name35">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="chAlign" val="b"/>
+                      <dgm:param type="linDir" val="fromR"/>
+                    </dgm:alg>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:if>
+              <dgm:if name="Name36" func="var" arg="hierBranch" op="equ" val="hang">
+                <dgm:choose name="Name37">
+                  <dgm:if name="Name38" func="var" arg="dir" op="equ" val="norm">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="chAlign" val="l"/>
+                      <dgm:param type="linDir" val="fromT"/>
+                      <dgm:param type="secChAlign" val="t"/>
+                      <dgm:param type="secLinDir" val="fromL"/>
+                    </dgm:alg>
+                  </dgm:if>
+                  <dgm:else name="Name39">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="chAlign" val="r"/>
+                      <dgm:param type="linDir" val="fromT"/>
+                      <dgm:param type="secChAlign" val="t"/>
+                      <dgm:param type="secLinDir" val="fromR"/>
+                    </dgm:alg>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:if>
+              <dgm:else name="Name40">
+                <dgm:choose name="Name41">
+                  <dgm:if name="Name42" func="var" arg="dir" op="equ" val="norm">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="linDir" val="fromT"/>
+                      <dgm:param type="chAlign" val="l"/>
+                    </dgm:alg>
+                  </dgm:if>
+                  <dgm:else name="Name43">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="linDir" val="fromT"/>
+                      <dgm:param type="chAlign" val="r"/>
+                    </dgm:alg>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="rep2a" axis="ch" ptType="nonAsst">
+              <dgm:forEach name="Name44" axis="precedSib" ptType="parTrans" st="-1" cnt="1">
+                <dgm:choose name="Name45">
+                  <dgm:if name="Name46" func="var" arg="hierBranch" op="equ" val="hang">
+                    <dgm:layoutNode name="Name47">
+                      <dgm:choose name="Name48">
+                        <dgm:if name="Name49" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="conn">
+                            <dgm:param type="connRout" val="bend"/>
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="begPts" val="midR"/>
+                            <dgm:param type="endPts" val="bCtr tCtr"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name50">
+                          <dgm:alg type="conn">
+                            <dgm:param type="connRout" val="bend"/>
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="begPts" val="midL"/>
+                            <dgm:param type="endPts" val="bCtr tCtr"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:if>
+                  <dgm:if name="Name51" func="var" arg="hierBranch" op="equ" val="l">
+                    <dgm:layoutNode name="Name52">
+                      <dgm:choose name="Name53">
+                        <dgm:if name="Name54" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="conn">
+                            <dgm:param type="connRout" val="bend"/>
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="begPts" val="midR"/>
+                            <dgm:param type="endPts" val="tCtr"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name55">
+                          <dgm:alg type="conn">
+                            <dgm:param type="connRout" val="bend"/>
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="begPts" val="midL"/>
+                            <dgm:param type="endPts" val="tCtr"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:if>
+                  <dgm:if name="Name56" func="var" arg="hierBranch" op="equ" val="r">
+                    <dgm:layoutNode name="Name57">
+                      <dgm:choose name="Name58">
+                        <dgm:if name="Name59" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="conn">
+                            <dgm:param type="connRout" val="bend"/>
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="begPts" val="midR"/>
+                            <dgm:param type="endPts" val="bCtr"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name60">
+                          <dgm:alg type="conn">
+                            <dgm:param type="connRout" val="bend"/>
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="begPts" val="midL"/>
+                            <dgm:param type="endPts" val="bCtr"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:if>
+                  <dgm:else name="Name61">
+                    <dgm:choose name="Name62">
+                      <dgm:if name="Name63" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:layoutNode name="Name64">
+                          <dgm:alg type="conn">
+                            <dgm:param type="connRout" val="bend"/>
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="begPts" val="midR"/>
+                            <dgm:param type="endPts" val="midL"/>
+                            <dgm:param type="bendPt" val="end"/>
+                          </dgm:alg>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:presOf axis="self"/>
+                          <dgm:constrLst>
+                            <dgm:constr type="begPad"/>
+                            <dgm:constr type="endPad"/>
+                          </dgm:constrLst>
+                          <dgm:ruleLst/>
+                        </dgm:layoutNode>
+                      </dgm:if>
+                      <dgm:else name="Name65">
+                        <dgm:layoutNode name="Name66">
+                          <dgm:alg type="conn">
+                            <dgm:param type="connRout" val="bend"/>
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="begPts" val="midL"/>
+                            <dgm:param type="endPts" val="midR"/>
+                            <dgm:param type="bendPt" val="end"/>
+                          </dgm:alg>
+                          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                            <dgm:adjLst/>
+                          </dgm:shape>
+                          <dgm:presOf axis="self"/>
+                          <dgm:constrLst>
+                            <dgm:constr type="begPad"/>
+                            <dgm:constr type="endPad"/>
+                          </dgm:constrLst>
+                          <dgm:ruleLst/>
+                        </dgm:layoutNode>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:forEach>
+              <dgm:layoutNode name="hierRoot2">
+                <dgm:varLst>
+                  <dgm:hierBranch val="init"/>
+                </dgm:varLst>
+                <dgm:choose name="Name67">
+                  <dgm:if name="Name68" func="var" arg="hierBranch" op="equ" val="l">
+                    <dgm:choose name="Name69">
+                      <dgm:if name="Name70" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="lT"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.75"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name71">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="rT"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.75"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:if name="Name72" func="var" arg="hierBranch" op="equ" val="r">
+                    <dgm:choose name="Name73">
+                      <dgm:if name="Name74" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="lB"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.75"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name75">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="rB"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.75"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:if name="Name76" func="var" arg="hierBranch" op="equ" val="hang">
+                    <dgm:choose name="Name77">
+                      <dgm:if name="Name78" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="lCtrCh"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.65"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name79">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="rCtrCh"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.65"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:else name="Name80">
+                    <dgm:choose name="Name81">
+                      <dgm:if name="Name82" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="lCtrCh"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff"/>
+                          <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name83">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="rCtrCh"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff"/>
+                          <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:else>
+                </dgm:choose>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:ruleLst/>
+                <dgm:layoutNode name="rootComposite">
+                  <dgm:alg type="composite"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                  <dgm:choose name="Name84">
+                    <dgm:if name="Name85" func="var" arg="hierBranch" op="equ" val="init">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText"/>
+                        <dgm:constr type="t" for="ch" forName="rootText"/>
+                        <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                        <dgm:constr type="l" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:if name="Name86" func="var" arg="hierBranch" op="equ" val="l">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText"/>
+                        <dgm:constr type="t" for="ch" forName="rootText"/>
+                        <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                        <dgm:constr type="r" for="ch" forName="rootConnector" refType="w"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:if name="Name87" func="var" arg="hierBranch" op="equ" val="r">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText"/>
+                        <dgm:constr type="t" for="ch" forName="rootText"/>
+                        <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                        <dgm:constr type="l" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:else name="Name88">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText"/>
+                        <dgm:constr type="t" for="ch" forName="rootText"/>
+                        <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                        <dgm:constr type="r" for="ch" forName="rootConnector" refType="w"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                      </dgm:constrLst>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="rootText">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="primFontSz" val="65"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="rootConnector" moveWith="rootText">
+                    <dgm:alg type="sp"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="hierChild4">
+                  <dgm:choose name="Name89">
+                    <dgm:if name="Name90" func="var" arg="hierBranch" op="equ" val="l">
+                      <dgm:choose name="Name91">
+                        <dgm:if name="Name92" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="t"/>
+                            <dgm:param type="linDir" val="fromL"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name93">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="t"/>
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:if name="Name94" func="var" arg="hierBranch" op="equ" val="r">
+                      <dgm:choose name="Name95">
+                        <dgm:if name="Name96" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="b"/>
+                            <dgm:param type="linDir" val="fromL"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name97">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="b"/>
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:if name="Name98" func="var" arg="hierBranch" op="equ" val="hang">
+                      <dgm:choose name="Name99">
+                        <dgm:if name="Name100" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromT"/>
+                            <dgm:param type="secChAlign" val="t"/>
+                            <dgm:param type="secLinDir" val="fromL"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name101">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="r"/>
+                            <dgm:param type="linDir" val="fromT"/>
+                            <dgm:param type="secChAlign" val="t"/>
+                            <dgm:param type="secLinDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:else name="Name102">
+                      <dgm:choose name="Name103">
+                        <dgm:if name="Name104" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="linDir" val="fromT"/>
+                            <dgm:param type="chAlign" val="l"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name105">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="linDir" val="fromT"/>
+                            <dgm:param type="chAlign" val="r"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:forEach name="Name106" ref="rep2a"/>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="hierChild5">
+                  <dgm:choose name="Name107">
+                    <dgm:if name="Name108" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromT"/>
+                        <dgm:param type="secChAlign" val="t"/>
+                        <dgm:param type="secLinDir" val="fromL"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name109">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="r"/>
+                        <dgm:param type="linDir" val="fromT"/>
+                        <dgm:param type="secChAlign" val="t"/>
+                        <dgm:param type="secLinDir" val="fromR"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:forEach name="Name110" ref="rep2b"/>
+                </dgm:layoutNode>
+              </dgm:layoutNode>
+            </dgm:forEach>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="hierChild3">
+            <dgm:choose name="Name111">
+              <dgm:if name="Name112" func="var" arg="dir" op="equ" val="norm">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="chAlign" val="l"/>
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="secChAlign" val="t"/>
+                  <dgm:param type="secLinDir" val="fromL"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:else name="Name113">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="chAlign" val="r"/>
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="secChAlign" val="t"/>
+                  <dgm:param type="secLinDir" val="fromR"/>
+                </dgm:alg>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="rep2b" axis="ch" ptType="asst">
+              <dgm:forEach name="Name114" axis="precedSib" ptType="parTrans" st="-1" cnt="1">
+                <dgm:layoutNode name="Name115">
+                  <dgm:choose name="Name116">
+                    <dgm:if name="Name117" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="begPts" val="midR"/>
+                        <dgm:param type="endPts" val="bCtr tCtr"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name118">
+                      <dgm:alg type="conn">
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="begPts" val="midL"/>
+                        <dgm:param type="endPts" val="bCtr tCtr"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:layoutNode name="hierRoot3">
+                <dgm:varLst>
+                  <dgm:hierBranch val="init"/>
+                </dgm:varLst>
+                <dgm:choose name="Name119">
+                  <dgm:if name="Name120" func="var" arg="hierBranch" op="equ" val="l">
+                    <dgm:choose name="Name121">
+                      <dgm:if name="Name122" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="lT"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.75"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name123">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="rT"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.75"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:if name="Name124" func="var" arg="hierBranch" op="equ" val="r">
+                    <dgm:choose name="Name125">
+                      <dgm:if name="Name126" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="lB"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.75"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name127">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="rB"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.75"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:if name="Name128" func="var" arg="hierBranch" op="equ" val="hang">
+                    <dgm:choose name="Name129">
+                      <dgm:if name="Name130" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="lCtrCh"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.65"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name131">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="rCtrCh"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.65"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:else name="Name132">
+                    <dgm:choose name="Name133">
+                      <dgm:if name="Name134" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="lCtrCh"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff"/>
+                          <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name135">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="rCtrCh"/>
+                        </dgm:alg>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff"/>
+                          <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:else>
+                </dgm:choose>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:ruleLst/>
+                <dgm:layoutNode name="rootComposite3">
+                  <dgm:alg type="composite"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                  <dgm:choose name="Name136">
+                    <dgm:if name="Name137" func="var" arg="hierBranch" op="equ" val="init">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText3"/>
+                        <dgm:constr type="t" for="ch" forName="rootText3"/>
+                        <dgm:constr type="w" for="ch" forName="rootText3" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText3" refType="h"/>
+                        <dgm:constr type="l" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector3" refType="w" refFor="ch" refForName="rootText3" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector3" refType="h" refFor="ch" refForName="rootText3"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:if name="Name138" func="var" arg="hierBranch" op="equ" val="l">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText3"/>
+                        <dgm:constr type="t" for="ch" forName="rootText3"/>
+                        <dgm:constr type="w" for="ch" forName="rootText3" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText3" refType="h"/>
+                        <dgm:constr type="r" for="ch" forName="rootConnector3" refType="w"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector3" refType="w" refFor="ch" refForName="rootText3" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector3" refType="h" refFor="ch" refForName="rootText3"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:if name="Name139" func="var" arg="hierBranch" op="equ" val="r">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText3"/>
+                        <dgm:constr type="t" for="ch" forName="rootText3"/>
+                        <dgm:constr type="w" for="ch" forName="rootText3" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText3" refType="h"/>
+                        <dgm:constr type="l" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector3" refType="w" refFor="ch" refForName="rootText3" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector3" refType="h" refFor="ch" refForName="rootText3"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:else name="Name140">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText3"/>
+                        <dgm:constr type="t" for="ch" forName="rootText3"/>
+                        <dgm:constr type="w" for="ch" forName="rootText3" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText3" refType="h"/>
+                        <dgm:constr type="r" for="ch" forName="rootConnector3" refType="w"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector3" refType="w" refFor="ch" refForName="rootText3" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector3" refType="h" refFor="ch" refForName="rootText3"/>
+                      </dgm:constrLst>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="rootText3">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="primFontSz" val="65"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="rootConnector3" moveWith="rootText1">
+                    <dgm:alg type="sp"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="hierChild6">
+                  <dgm:choose name="Name141">
+                    <dgm:if name="Name142" func="var" arg="hierBranch" op="equ" val="l">
+                      <dgm:choose name="Name143">
+                        <dgm:if name="Name144" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="t"/>
+                            <dgm:param type="linDir" val="fromL"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name145">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="t"/>
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:if name="Name146" func="var" arg="hierBranch" op="equ" val="r">
+                      <dgm:choose name="Name147">
+                        <dgm:if name="Name148" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="b"/>
+                            <dgm:param type="linDir" val="fromL"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name149">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="b"/>
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:if name="Name150" func="var" arg="hierBranch" op="equ" val="hang">
+                      <dgm:choose name="Name151">
+                        <dgm:if name="Name152" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromT"/>
+                            <dgm:param type="secChAlign" val="t"/>
+                            <dgm:param type="secLinDir" val="fromL"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name153">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="r"/>
+                            <dgm:param type="linDir" val="fromT"/>
+                            <dgm:param type="secChAlign" val="t"/>
+                            <dgm:param type="secLinDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:else name="Name154">
+                      <dgm:choose name="Name155">
+                        <dgm:if name="Name156" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="linDir" val="fromT"/>
+                            <dgm:param type="chAlign" val="l"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name157">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="linDir" val="fromT"/>
+                            <dgm:param type="chAlign" val="r"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:forEach name="Name158" ref="rep2a"/>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="hierChild7">
+                  <dgm:choose name="Name159">
+                    <dgm:if name="Name160" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromT"/>
+                        <dgm:param type="secChAlign" val="t"/>
+                        <dgm:param type="secLinDir" val="fromL"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name161">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="r"/>
+                        <dgm:param type="linDir" val="fromT"/>
+                        <dgm:param type="secChAlign" val="t"/>
+                        <dgm:param type="secLinDir" val="fromR"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:forEach name="Name162" ref="rep2b"/>
+                </dgm:layoutNode>
+              </dgm:layoutNode>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4412,13 +9465,54 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7328</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>36636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14655</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagrama 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2EB0CC-59A8-4721-8ABE-6F0E7E5BE6F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}" name="Tabla3" displayName="Tabla3" ref="E1:G9" totalsRowShown="0" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}" name="Tabla3" displayName="Tabla3" ref="E1:G9" totalsRowShown="0" dataDxfId="56">
   <autoFilter ref="E1:G9" xr:uid="{C2C01944-185D-43BF-8A62-D61C3ABD55B5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8079FA69-59E6-4C3F-8414-22F5F08661F0}" name="Fibra" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{51C999F5-4709-4731-A8C0-5DF1FB13B02F}" name="SMF" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{D64CF8DA-A5E3-4CD8-B0D7-1B8FF7A3D8F6}" name="MMF" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{8079FA69-59E6-4C3F-8414-22F5F08661F0}" name="Fibra" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{51C999F5-4709-4731-A8C0-5DF1FB13B02F}" name="SMF" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{D64CF8DA-A5E3-4CD8-B0D7-1B8FF7A3D8F6}" name="MMF" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4439,16 +9533,16 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B9321F3F-14AF-44F6-A6A4-5BE08D01D69C}" name="Tabla11" displayName="Tabla11" ref="A7:G15" totalsRowShown="0" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B9321F3F-14AF-44F6-A6A4-5BE08D01D69C}" name="Tabla11" displayName="Tabla11" ref="A7:G15" totalsRowShown="0" dataDxfId="41">
   <autoFilter ref="A7:G15" xr:uid="{B9321F3F-14AF-44F6-A6A4-5BE08D01D69C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{146003D4-85AA-4A62-AF73-3F2F1E8E3FD0}" name="BINARIO" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{E652681A-4140-4DB5-8118-A4ACD72891BC}" name="NETWORK" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{5E246B79-5E36-4191-857B-C436006DCEEB}" name="IP INI" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{9E42FDDF-621C-49C1-AF02-A59932FC6B1F}" name="IP FIN" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{71CBE653-DD6F-4F5A-A51D-EECA47890D3E}" name="BROADCAST" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{E8280997-6488-4F04-B842-27A01165FA01}" name="MASK" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{08A09AB8-B0CF-4E94-8322-063107549B58}" name="HOSTS" dataDxfId="32" dataCellStyle="Millares">
+    <tableColumn id="1" xr3:uid="{146003D4-85AA-4A62-AF73-3F2F1E8E3FD0}" name="BINARIO" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{E652681A-4140-4DB5-8118-A4ACD72891BC}" name="NETWORK" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{5E246B79-5E36-4191-857B-C436006DCEEB}" name="IP INI" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{9E42FDDF-621C-49C1-AF02-A59932FC6B1F}" name="IP FIN" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{71CBE653-DD6F-4F5A-A51D-EECA47890D3E}" name="BROADCAST" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{E8280997-6488-4F04-B842-27A01165FA01}" name="MASK" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{08A09AB8-B0CF-4E94-8322-063107549B58}" name="HOSTS" dataDxfId="34" dataCellStyle="Millares">
       <calculatedColumnFormula>2^21-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4457,33 +9551,33 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4B0DE3A1-C344-4C6C-962C-35B3A41F3A12}" name="Tabla12" displayName="Tabla12" ref="A3:H4" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4B0DE3A1-C344-4C6C-962C-35B3A41F3A12}" name="Tabla12" displayName="Tabla12" ref="A3:H4" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A3:H4" xr:uid="{4B0DE3A1-C344-4C6C-962C-35B3A41F3A12}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0C15C14F-4C79-4B76-9DAC-8C056682773D}" name="Requerido" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{4CF54F79-B1D0-4360-844D-43516C0FD04E}" name="Network" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{0C901189-CC72-4C25-8DD7-0817A15F5C5E}" name="S = Subnets" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{6B064FA6-0B40-4351-972C-6A2E7D897012}" name="bits" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{7FAC6786-C484-4F40-8550-E343AD586903}" name="Next Hop" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{449242AC-30D8-43B1-A018-F69CB2FB0F97}" name="Mask" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{85725509-C27D-40ED-B2EC-854B1ADD475E}" name="H" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{C1D19371-E071-4579-8114-FACA215759CE}" name="Hosts" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{0C15C14F-4C79-4B76-9DAC-8C056682773D}" name="Requerido" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{4CF54F79-B1D0-4360-844D-43516C0FD04E}" name="Network" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{0C901189-CC72-4C25-8DD7-0817A15F5C5E}" name="S = Subnets" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{6B064FA6-0B40-4351-972C-6A2E7D897012}" name="bits" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{7FAC6786-C484-4F40-8550-E343AD586903}" name="Next Hop" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{449242AC-30D8-43B1-A018-F69CB2FB0F97}" name="Mask" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{85725509-C27D-40ED-B2EC-854B1ADD475E}" name="H" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{C1D19371-E071-4579-8114-FACA215759CE}" name="Hosts" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1A2A7BB2-01C2-49C7-BD9B-C800BA220CFA}" name="Tabla13" displayName="Tabla13" ref="A19:G23" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1A2A7BB2-01C2-49C7-BD9B-C800BA220CFA}" name="Tabla13" displayName="Tabla13" ref="A19:G23" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A19:G23" xr:uid="{1A2A7BB2-01C2-49C7-BD9B-C800BA220CFA}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3052B40A-B0FB-4063-9FBF-FC17CD83FFB0}" name="BINARIO"/>
     <tableColumn id="2" xr3:uid="{C0CA8EB6-043B-4612-A2BF-DC96D3B3E729}" name="NETWORK"/>
     <tableColumn id="3" xr3:uid="{51CDD003-D35B-4FEE-A1A5-2A1A1BBB77D8}" name="IP INI"/>
     <tableColumn id="4" xr3:uid="{9D6477AF-FFE2-4997-AAF2-86A1AE4C3A1C}" name="IP FIN"/>
-    <tableColumn id="5" xr3:uid="{7DD62337-910D-47F7-8F07-8D59CC86A7A4}" name="BROADCAST" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{1C44F769-9EB2-4C0C-999D-DF37719B2C39}" name="MASK" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{FCF13681-ACD3-4175-BF97-F3BFA6C155DD}" name="HOSTS" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{7DD62337-910D-47F7-8F07-8D59CC86A7A4}" name="BROADCAST" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{1C44F769-9EB2-4C0C-999D-DF37719B2C39}" name="MASK" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{FCF13681-ACD3-4175-BF97-F3BFA6C155DD}" name="HOSTS" dataDxfId="18">
       <calculatedColumnFormula>2^14-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4492,16 +9586,16 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0023DB7E-15AA-4018-8923-09DB67FB4525}" name="Tabla1115" displayName="Tabla1115" ref="A27:G43" totalsRowShown="0" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0023DB7E-15AA-4018-8923-09DB67FB4525}" name="Tabla1115" displayName="Tabla1115" ref="A27:G43" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="A27:G43" xr:uid="{0023DB7E-15AA-4018-8923-09DB67FB4525}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C48B5C8C-44DA-42C7-BA70-8FAB6C3336D5}" name="BINARIO" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{9450B4FA-08DD-468A-B847-19CB9086572D}" name="NETWORK" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{EC1B7D8F-A813-4E30-80B5-D93E1761AB10}" name="IP INI" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{5549E95E-0534-459E-A9AF-EE2DD9801061}" name="IP FIN" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{C9B9C6AB-E079-42BF-A1BC-2FAA7E8120BE}" name="BROADCAST" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{A3586D24-6F8A-452F-B291-564707273729}" name="MASK" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{880F75EA-99F8-4356-839D-DA853543AD5B}" name="HOSTS" dataDxfId="8" dataCellStyle="Millares"/>
+    <tableColumn id="1" xr3:uid="{C48B5C8C-44DA-42C7-BA70-8FAB6C3336D5}" name="BINARIO" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{9450B4FA-08DD-468A-B847-19CB9086572D}" name="NETWORK" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{EC1B7D8F-A813-4E30-80B5-D93E1761AB10}" name="IP INI" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{5549E95E-0534-459E-A9AF-EE2DD9801061}" name="IP FIN" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{C9B9C6AB-E079-42BF-A1BC-2FAA7E8120BE}" name="BROADCAST" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{A3586D24-6F8A-452F-B291-564707273729}" name="MASK" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{880F75EA-99F8-4356-839D-DA853543AD5B}" name="HOSTS" dataDxfId="10" dataCellStyle="Millares"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4535,10 +9629,10 @@
     <tableColumn id="1" xr3:uid="{7A191D63-7D31-4503-BF21-BF6140E2A159}" name="DEPTO."/>
     <tableColumn id="2" xr3:uid="{1F43B36A-0A31-4808-8922-DA24A10207F7}" name="Hosts"/>
     <tableColumn id="4" xr3:uid="{CB21AF30-24E2-4E12-BCF2-0B100F07EB08}" name="MAX"/>
-    <tableColumn id="5" xr3:uid="{1952C969-1034-47B6-BBD6-D5C113B1D8BF}" name="Network" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{0F516B3D-8201-4B12-9C70-E05E7A3ADFEE}" name="IP INI" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{AB60D57E-4B41-4209-8449-FBCFAEDE7F53}" name="IP FIN" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{AB2C5DAE-6E6D-4699-A21A-07090C462992}" name="BROADCAST" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1952C969-1034-47B6-BBD6-D5C113B1D8BF}" name="Network" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{0F516B3D-8201-4B12-9C70-E05E7A3ADFEE}" name="IP INI" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{AB60D57E-4B41-4209-8449-FBCFAEDE7F53}" name="IP FIN" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{AB2C5DAE-6E6D-4699-A21A-07090C462992}" name="BROADCAST" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{7EC0DB4D-E7BF-4A82-9141-2A091D63BBF8}" name="CIDR"/>
     <tableColumn id="10" xr3:uid="{E7DDED61-54AD-4BA7-96C4-EADA5B31F53B}" name="MASK"/>
   </tableColumns>
@@ -4556,14 +9650,41 @@
     <tableColumn id="1" xr3:uid="{28DB5CA5-67C5-4DD1-8E40-70E37E7ED867}" name="DEPTO."/>
     <tableColumn id="2" xr3:uid="{2C3C72D6-7BDD-41D6-A0B6-834E806B956C}" name="Hosts"/>
     <tableColumn id="4" xr3:uid="{393CA5E2-250E-432A-BC96-ECF391D58B94}" name="MAX"/>
-    <tableColumn id="5" xr3:uid="{33EC1B45-E51F-4E13-A1EC-8E14A70D4842}" name="Network" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{01028ED0-DB9C-474C-B2F7-F2F1AF2A7FBA}" name="IP INI" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{0F34AEAE-E617-4D53-BC27-D2397F671359}" name="IP FIN" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{6214A5DB-D042-444B-A413-BED554D77CF8}" name="BROADCAST" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{33EC1B45-E51F-4E13-A1EC-8E14A70D4842}" name="Network" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{01028ED0-DB9C-474C-B2F7-F2F1AF2A7FBA}" name="IP INI" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{0F34AEAE-E617-4D53-BC27-D2397F671359}" name="IP FIN" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{6214A5DB-D042-444B-A413-BED554D77CF8}" name="BROADCAST" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{5C000C30-2B46-43A9-BA45-1075FCDBD01D}" name="CIDR"/>
     <tableColumn id="10" xr3:uid="{FD9732AD-F870-42F1-946E-3C65294B0473}" name="MASK"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{FF9AA9F6-7051-4F59-9650-4A7DF7E1A61B}" name="Tabla1921" displayName="Tabla1921" ref="E2:G13" totalsRowShown="0">
+  <autoFilter ref="E2:G13" xr:uid="{FF9AA9F6-7051-4F59-9650-4A7DF7E1A61B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B5A30DBB-1EE7-4099-8782-0FBC0A3CBEB3}" name="CODE"/>
+    <tableColumn id="2" xr3:uid="{8B3BBF3B-59E2-4408-9917-A55EF4C51BF2}" name="NETWORKS"/>
+    <tableColumn id="3" xr3:uid="{F5CA0EC9-7D23-4753-8FF4-F82FBDA1ECF6}" name="VIA" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{0244285C-CA14-42B0-A512-17F672680701}" name="Tabla19" displayName="Tabla19" ref="A2:C8" totalsRowShown="0">
+  <autoFilter ref="A2:C8" xr:uid="{0244285C-CA14-42B0-A512-17F672680701}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C3">
+    <sortCondition ref="B2:B3"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{94CF5556-F372-4E08-A1B6-419333C1414B}" name="CODE"/>
+    <tableColumn id="2" xr3:uid="{9DD7D3C8-CA7C-4C8F-8D0D-9D3411992770}" name="NETWORKS"/>
+    <tableColumn id="3" xr3:uid="{39A866B9-13C5-4AAE-AD57-4DD3841BC6F2}" name="VIA" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4627,9 +9748,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{42F81D43-1DF1-4805-95B1-B96C8A4790AB}" name="Tabla1" displayName="Tabla1" ref="A1:C21" totalsRowShown="0">
   <autoFilter ref="A1:C21" xr:uid="{42F81D43-1DF1-4805-95B1-B96C8A4790AB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D77550C-69D5-44ED-A818-C47FF27E12F8}" name="DEC" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{888DFC0E-62A3-4FAD-9D8B-8B3422479316}" name="BIN" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{F2900852-B448-4DE9-8912-031513158585}" name="HEX" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{6D77550C-69D5-44ED-A818-C47FF27E12F8}" name="DEC" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{888DFC0E-62A3-4FAD-9D8B-8B3422479316}" name="BIN" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{F2900852-B448-4DE9-8912-031513158585}" name="HEX" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4654,28 +9775,28 @@
   <autoFilter ref="K1:S3" xr:uid="{E6370397-E076-43E7-9698-49F6F959CE7A}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D6A37B02-E9C4-49CB-8C2A-A865DDB05E2C}" name="EXP"/>
-    <tableColumn id="2" xr3:uid="{1349FDC6-3AA1-42B5-9F06-7FC58808E9C1}" name="2^7" dataDxfId="47">
+    <tableColumn id="2" xr3:uid="{1349FDC6-3AA1-42B5-9F06-7FC58808E9C1}" name="2^7" dataDxfId="49">
       <calculatedColumnFormula>2^7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{33EADDB5-4757-4423-BE0A-AB9102000FFB}" name="2^6" dataDxfId="46">
+    <tableColumn id="3" xr3:uid="{33EADDB5-4757-4423-BE0A-AB9102000FFB}" name="2^6" dataDxfId="48">
       <calculatedColumnFormula>2^6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{50E8A68B-6961-40D5-98D1-907DC09AFC45}" name="2^5" dataDxfId="45">
+    <tableColumn id="4" xr3:uid="{50E8A68B-6961-40D5-98D1-907DC09AFC45}" name="2^5" dataDxfId="47">
       <calculatedColumnFormula>2^5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C3D88FBD-0E0B-4446-8615-4D2D84ECB388}" name="2^4" dataDxfId="44">
+    <tableColumn id="5" xr3:uid="{C3D88FBD-0E0B-4446-8615-4D2D84ECB388}" name="2^4" dataDxfId="46">
       <calculatedColumnFormula>2^4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{34188D14-E91B-406C-A3AE-60F368E2A5FD}" name="2^3" dataDxfId="43">
+    <tableColumn id="6" xr3:uid="{34188D14-E91B-406C-A3AE-60F368E2A5FD}" name="2^3" dataDxfId="45">
       <calculatedColumnFormula>2^3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{109343F3-772B-401D-B6E1-CB46978A4E8A}" name="2^2" dataDxfId="42">
+    <tableColumn id="7" xr3:uid="{109343F3-772B-401D-B6E1-CB46978A4E8A}" name="2^2" dataDxfId="44">
       <calculatedColumnFormula>2^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{4FEF6C42-FF4E-492F-9369-CB1247EAFFD2}" name="2^1" dataDxfId="41">
+    <tableColumn id="8" xr3:uid="{4FEF6C42-FF4E-492F-9369-CB1247EAFFD2}" name="2^1" dataDxfId="43">
       <calculatedColumnFormula>2^1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8831B11E-9A44-40E1-A709-EAAB97E9E3BD}" name="2^0" dataDxfId="40">
+    <tableColumn id="9" xr3:uid="{8831B11E-9A44-40E1-A709-EAAB97E9E3BD}" name="2^0" dataDxfId="42">
       <calculatedColumnFormula>2^0</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5013,13 +10134,13 @@
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="218" t="s">
+      <c r="D2" s="219" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5027,17 +10148,17 @@
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="219"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="219"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="220"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="219"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="219"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="220"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -5077,7 +10198,7 @@
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="221" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5091,7 +10212,7 @@
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="220"/>
+      <c r="D8" s="221"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -5112,6 +10233,32 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C472EF-3BB2-44C9-8C98-743821E0C5E8}">
+  <dimension ref="E5"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="98" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5156,16 +10303,16 @@
       <c r="J1" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="223" t="s">
+      <c r="A3" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="F3" s="223" t="s">
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="F3" s="224" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
@@ -5325,11 +10472,11 @@
         <v>76</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="223" t="s">
+      <c r="F10" s="224" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -5769,17 +10916,17 @@
       <c r="A11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="225" t="s">
+      <c r="B11" s="226" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="225"/>
+      <c r="C11" s="226"/>
       <c r="E11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="225" t="s">
+      <c r="F11" s="226" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="225"/>
+      <c r="G11" s="226"/>
       <c r="I11" s="12" t="s">
         <v>182</v>
       </c>
@@ -5794,17 +10941,17 @@
       <c r="A12" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="226" t="s">
+      <c r="B12" s="227" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="226"/>
+      <c r="C12" s="227"/>
       <c r="E12" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="226" t="s">
+      <c r="F12" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="226"/>
+      <c r="G12" s="227"/>
       <c r="I12" s="55" t="s">
         <v>183</v>
       </c>
@@ -5819,17 +10966,17 @@
       <c r="A13" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="227" t="s">
+      <c r="B13" s="228" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="227"/>
+      <c r="C13" s="228"/>
       <c r="E13" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="227" t="s">
+      <c r="F13" s="228" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="227"/>
+      <c r="G13" s="228"/>
       <c r="I13" s="56" t="s">
         <v>184</v>
       </c>
@@ -5844,17 +10991,17 @@
       <c r="A14" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="229" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="228"/>
+      <c r="C14" s="229"/>
       <c r="E14" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="228" t="s">
+      <c r="F14" s="229" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="228"/>
+      <c r="G14" s="229"/>
       <c r="I14" s="57" t="s">
         <v>185</v>
       </c>
@@ -5869,17 +11016,17 @@
       <c r="A15" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="224" t="s">
+      <c r="B15" s="225" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="224"/>
+      <c r="C15" s="225"/>
       <c r="E15" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="224" t="s">
+      <c r="F15" s="225" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="224"/>
+      <c r="G15" s="225"/>
       <c r="I15" s="49" t="s">
         <v>186</v>
       </c>
@@ -6346,16 +11493,16 @@
       <c r="T5" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="V5" s="223" t="s">
+      <c r="V5" s="224" t="s">
         <v>274</v>
       </c>
-      <c r="W5" s="223"/>
-      <c r="X5" s="223"/>
-      <c r="Y5" s="223"/>
-      <c r="Z5" s="223"/>
-      <c r="AA5" s="223"/>
-      <c r="AB5" s="223"/>
-      <c r="AC5" s="223"/>
+      <c r="W5" s="224"/>
+      <c r="X5" s="224"/>
+      <c r="Y5" s="224"/>
+      <c r="Z5" s="224"/>
+      <c r="AA5" s="224"/>
+      <c r="AB5" s="224"/>
+      <c r="AC5" s="224"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
@@ -6579,10 +11726,10 @@
       <c r="F9" s="97">
         <v>16</v>
       </c>
-      <c r="H9" s="223" t="s">
+      <c r="H9" s="224" t="s">
         <v>275</v>
       </c>
-      <c r="I9" s="223"/>
+      <c r="I9" s="224"/>
       <c r="K9" s="70">
         <v>192</v>
       </c>
@@ -6960,10 +12107,10 @@
       <c r="F15" s="96">
         <v>16</v>
       </c>
-      <c r="H15" s="223" t="s">
+      <c r="H15" s="224" t="s">
         <v>275</v>
       </c>
-      <c r="I15" s="223"/>
+      <c r="I15" s="224"/>
       <c r="K15" s="72">
         <v>172</v>
       </c>
@@ -7429,24 +12576,24 @@
       <c r="A1" s="120" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="241" t="s">
+      <c r="B1" s="230" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="244" t="s">
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="233" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="229" t="s">
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="245" t="s">
         <v>350</v>
       </c>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="231"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="247"/>
     </row>
     <row r="2" spans="1:13" s="105" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
@@ -7631,18 +12778,18 @@
       <c r="E6" s="172" t="s">
         <v>401</v>
       </c>
-      <c r="F6" s="235" t="s">
+      <c r="F6" s="239" t="s">
         <v>343</v>
       </c>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
-      <c r="I6" s="237"/>
-      <c r="J6" s="235" t="s">
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="239" t="s">
         <v>343</v>
       </c>
-      <c r="K6" s="236"/>
-      <c r="L6" s="236"/>
-      <c r="M6" s="237"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="240"/>
+      <c r="M6" s="241"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
@@ -7660,44 +12807,44 @@
       <c r="E7" s="175" t="s">
         <v>403</v>
       </c>
-      <c r="F7" s="238" t="s">
+      <c r="F7" s="242" t="s">
         <v>344</v>
       </c>
-      <c r="G7" s="239"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="238" t="s">
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="242" t="s">
         <v>344</v>
       </c>
-      <c r="K7" s="239"/>
-      <c r="L7" s="239"/>
-      <c r="M7" s="240"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="243"/>
+      <c r="M7" s="244"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="B8" s="232">
+      <c r="B8" s="236">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="232">
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="236">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="G8" s="233"/>
-      <c r="H8" s="233"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="232">
+      <c r="G8" s="237"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="236">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="K8" s="233"/>
-      <c r="L8" s="233"/>
-      <c r="M8" s="234"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="238"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8229,16 +13376,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8270,14 +13417,14 @@
       <c r="A1" s="192" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="247" t="s">
+      <c r="B1" s="248" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
     </row>
     <row r="3" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
@@ -9200,14 +14347,14 @@
       <c r="A1" s="100" t="s">
         <v>548</v>
       </c>
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="249" t="s">
         <v>549</v>
       </c>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
       <c r="H1" s="199"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -9587,7 +14734,7 @@
       <c r="I16" s="202">
         <v>255255255128</v>
       </c>
-      <c r="J16" s="249" t="s">
+      <c r="J16" s="250" t="s">
         <v>621</v>
       </c>
       <c r="K16" s="196" t="s">
@@ -9643,7 +14790,7 @@
       <c r="I17" s="202">
         <v>255255255192</v>
       </c>
-      <c r="J17" s="249"/>
+      <c r="J17" s="250"/>
       <c r="K17" s="196" t="s">
         <v>603</v>
       </c>
@@ -9697,7 +14844,7 @@
       <c r="I18" s="207" t="s">
         <v>358</v>
       </c>
-      <c r="J18" s="249"/>
+      <c r="J18" s="250"/>
       <c r="K18" s="196" t="s">
         <v>339</v>
       </c>
@@ -9751,7 +14898,7 @@
       <c r="I19" s="208">
         <v>255255255128</v>
       </c>
-      <c r="J19" s="249"/>
+      <c r="J19" s="250"/>
       <c r="K19" s="196" t="s">
         <v>563</v>
       </c>
@@ -10024,144 +15171,438 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B524246-8F8C-4BD5-B50E-82E92E0102AE}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="B2:E3"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="257" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="E1" s="257" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="I1" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="M1" s="261" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" s="251" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F2" t="s">
+        <v>651</v>
+      </c>
+      <c r="G2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" s="262" t="s">
+        <v>634</v>
+      </c>
+      <c r="K2" s="55">
+        <v>8</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="M2" s="263" t="s">
+        <v>646</v>
+      </c>
+      <c r="N2" s="252" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C3" s="188" t="s">
+        <v>672</v>
+      </c>
+      <c r="E3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G3" s="188" t="s">
+        <v>653</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="264" t="s">
+        <v>635</v>
+      </c>
+      <c r="K3" s="56">
+        <v>16</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>340</v>
+      </c>
+      <c r="M3" s="265" t="s">
+        <v>341</v>
+      </c>
+      <c r="N3" s="252"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C4" s="188" t="s">
+        <v>671</v>
+      </c>
+      <c r="E4" t="s">
+        <v>659</v>
+      </c>
+      <c r="F4" t="s">
+        <v>660</v>
+      </c>
+      <c r="G4" s="188" t="s">
+        <v>653</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="266" t="s">
+        <v>636</v>
+      </c>
+      <c r="K4" s="57">
+        <v>24</v>
+      </c>
+      <c r="L4" s="267" t="s">
+        <v>626</v>
+      </c>
+      <c r="M4" s="268" t="s">
+        <v>645</v>
+      </c>
+      <c r="N4" s="253"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>671</v>
+      </c>
+      <c r="E5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G5" s="188" t="s">
+        <v>654</v>
+      </c>
+      <c r="I5" s="269" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" s="270" t="s">
+        <v>637</v>
+      </c>
+      <c r="K5" s="269">
+        <v>24</v>
+      </c>
+      <c r="L5" s="271" t="s">
+        <v>628</v>
+      </c>
+      <c r="M5" s="272" t="s">
+        <v>647</v>
+      </c>
+      <c r="N5" s="258" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>674</v>
+      </c>
+      <c r="C6" s="188" t="s">
+        <v>656</v>
+      </c>
+      <c r="E6" t="s">
+        <v>659</v>
+      </c>
+      <c r="F6" t="s">
+        <v>661</v>
+      </c>
+      <c r="G6" s="188" t="s">
+        <v>654</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="266" t="s">
+        <v>638</v>
+      </c>
+      <c r="K6" s="57">
+        <v>26</v>
+      </c>
+      <c r="L6" s="267" t="s">
+        <v>629</v>
+      </c>
+      <c r="M6" s="268" t="s">
+        <v>648</v>
+      </c>
+      <c r="N6" s="259"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B7" t="s">
+        <v>675</v>
+      </c>
+      <c r="C7" s="188" t="s">
+        <v>656</v>
+      </c>
+      <c r="E7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" t="s">
+        <v>624</v>
+      </c>
+      <c r="G7" s="188" t="s">
+        <v>655</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="264" t="s">
+        <v>639</v>
+      </c>
+      <c r="K7" s="56">
+        <v>27</v>
+      </c>
+      <c r="L7" s="273">
+        <v>192168100224</v>
+      </c>
+      <c r="M7" s="265" t="s">
+        <v>645</v>
+      </c>
+      <c r="N7" s="260"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C8" s="188" t="s">
+        <v>676</v>
+      </c>
+      <c r="D8" s="186"/>
+      <c r="E8" t="s">
+        <v>659</v>
+      </c>
+      <c r="F8" t="s">
+        <v>662</v>
+      </c>
+      <c r="G8" s="188" t="s">
+        <v>655</v>
+      </c>
+      <c r="I8" s="274" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="275" t="s">
+        <v>640</v>
+      </c>
+      <c r="K8" s="274">
+        <v>6</v>
+      </c>
+      <c r="L8" s="276" t="s">
+        <v>632</v>
+      </c>
+      <c r="M8" s="277" t="s">
+        <v>649</v>
+      </c>
+      <c r="N8" s="254" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" t="s">
+        <v>657</v>
+      </c>
+      <c r="G9" s="188" t="s">
+        <v>658</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="264" t="s">
+        <v>641</v>
+      </c>
+      <c r="K9" s="56">
+        <v>12</v>
+      </c>
+      <c r="L9" s="72" t="s">
+        <v>340</v>
+      </c>
+      <c r="M9" s="265" t="s">
+        <v>341</v>
+      </c>
+      <c r="N9" s="255"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="248" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" s="248"/>
+      <c r="C10" s="248"/>
+      <c r="E10" t="s">
+        <v>659</v>
+      </c>
+      <c r="F10" t="s">
+        <v>663</v>
+      </c>
+      <c r="G10" s="188" t="s">
+        <v>658</v>
+      </c>
+      <c r="I10" s="279" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="278" t="s">
+        <v>642</v>
+      </c>
+      <c r="K10" s="279">
+        <v>20</v>
+      </c>
+      <c r="L10" s="280" t="s">
+        <v>633</v>
+      </c>
+      <c r="M10" s="281" t="s">
+        <v>650</v>
+      </c>
+      <c r="N10" s="256"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="248"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="E11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" t="s">
+        <v>664</v>
+      </c>
+      <c r="G11" s="188" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="248"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="248"/>
+      <c r="E12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F12" t="s">
+        <v>665</v>
+      </c>
+      <c r="G12" s="188" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="248"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="248"/>
+      <c r="E13" t="s">
+        <v>652</v>
+      </c>
+      <c r="F13" t="s">
+        <v>667</v>
+      </c>
+      <c r="G13" s="188" t="s">
         <v>426</v>
       </c>
-      <c r="B2" s="98" t="s">
-        <v>623</v>
-      </c>
-      <c r="C2" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="O2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>622</v>
-      </c>
-      <c r="B3" s="250" t="s">
-        <v>623</v>
-      </c>
-      <c r="C3" s="250" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="250" t="s">
-        <v>626</v>
-      </c>
-      <c r="E3" s="98" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>627</v>
-      </c>
-      <c r="B6" t="s">
-        <v>632</v>
-      </c>
-      <c r="I6" t="s">
-        <v>637</v>
-      </c>
-      <c r="L6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>628</v>
-      </c>
-      <c r="B7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>629</v>
-      </c>
-      <c r="B8" t="s">
-        <v>630</v>
-      </c>
-      <c r="J8" s="186">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="O8" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I11" s="251" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I12" s="251" t="s">
-        <v>640</v>
-      </c>
-      <c r="O12" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I13" s="251" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I14" s="251"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="218"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A10:C13"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N8:N10"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <webPublishItems count="1">
-    <webPublishItem id="13164" divId="protocols_suite_13164" sourceType="range" sourceRef="A2:B7" destinationFile="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\deptos.htm"/>
-  </webPublishItems>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2F5761-DC55-482C-A8E5-13E4694C70A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94F498B-4AB1-48F3-A6FA-4BB4759D6C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" firstSheet="1" activeTab="8" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" firstSheet="1" activeTab="9" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="756">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -3056,6 +3056,477 @@
   <si>
     <t>RUTA SUMARIZADA: Se conoce con este nombre a aquella que consiste en una simplificacion de las redes a las que podemos acceder mediante una interfaz</t>
   </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0DB6</t>
+  </si>
+  <si>
+    <t>ACAD</t>
+  </si>
+  <si>
+    <t>Interface ID</t>
+  </si>
+  <si>
+    <t>SN ID</t>
+  </si>
+  <si>
+    <t>Global Address</t>
+  </si>
+  <si>
+    <t>0 izq</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>DB6</t>
+  </si>
+  <si>
+    <t>conjunto 0</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>Reglas</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>2001:DB6:ACAD:1::1/64</t>
+  </si>
+  <si>
+    <t>/64</t>
+  </si>
+  <si>
+    <t>INI</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>GUA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0000.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>IPv4 Publico</t>
+  </si>
+  <si>
+    <t>ULA</t>
+  </si>
+  <si>
+    <t>LLA</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111.110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FFF:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FF:</t>
+    </r>
+  </si>
+  <si>
+    <t>IPv4 Privado</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FF:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111.1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111.1110.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>APIPA</t>
+  </si>
+  <si>
+    <t>EUI-64</t>
+  </si>
+  <si>
+    <t>Extended Unique Id 64 (Autoconfiguracion)</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>16 bits</t>
+  </si>
+  <si>
+    <t>!bit 7</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>000B.BE17.6283</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>FE80::20B:BEFF:FE17:6283/64</t>
+  </si>
+  <si>
+    <t>0010.114b.d001</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>link-local</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>FE80::210:11FF:FE4B:D001/64</t>
+  </si>
+  <si>
+    <t>0030.F26D.9542</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>FE80::230:F2FF:FE6D:9542/64</t>
+  </si>
+  <si>
+    <t>00e0.b0ba.3bd7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 </t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>FE80::2E0:B0FF:F3BA:3BD7/64</t>
+  </si>
 </sst>
 </file>
 
@@ -3065,7 +3536,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3162,6 +3633,20 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3511,7 +3996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4087,130 +4572,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4253,6 +4615,182 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5971,8 +6509,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4254953" y="963490"/>
-          <a:ext cx="352768" cy="728371"/>
+          <a:off x="4258214" y="963490"/>
+          <a:ext cx="353039" cy="728929"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5986,13 +6524,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="239843" y="0"/>
+                <a:pt x="240026" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="239843" y="728371"/>
+                <a:pt x="240026" y="728929"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="352768" y="728371"/>
+                <a:pt x="353039" y="728929"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6033,8 +6571,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4254953" y="963490"/>
-          <a:ext cx="352768" cy="242790"/>
+          <a:off x="4258214" y="963490"/>
+          <a:ext cx="353039" cy="242976"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6048,13 +6586,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="239843" y="0"/>
+                <a:pt x="240026" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="239843" y="242790"/>
+                <a:pt x="240026" y="242976"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="352768" y="242790"/>
+                <a:pt x="353039" y="242976"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6095,8 +6633,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4254953" y="720699"/>
-          <a:ext cx="352768" cy="242790"/>
+          <a:off x="4258214" y="720513"/>
+          <a:ext cx="353039" cy="242976"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6107,16 +6645,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="242790"/>
+                <a:pt x="0" y="242976"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="239843" y="242790"/>
+                <a:pt x="240026" y="242976"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="239843" y="0"/>
+                <a:pt x="240026" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="352768" y="0"/>
+                <a:pt x="353039" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6157,8 +6695,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4254953" y="235118"/>
-          <a:ext cx="352768" cy="728371"/>
+          <a:off x="4258214" y="234560"/>
+          <a:ext cx="353039" cy="728929"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6169,16 +6707,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="728371"/>
+                <a:pt x="0" y="728929"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="239843" y="728371"/>
+                <a:pt x="240026" y="728929"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="239843" y="0"/>
+                <a:pt x="240026" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="352768" y="0"/>
+                <a:pt x="353039" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6219,8 +6757,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3377723" y="917769"/>
-          <a:ext cx="155532" cy="91440"/>
+          <a:off x="3380311" y="917770"/>
+          <a:ext cx="155651" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6234,7 +6772,7 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="155532" y="45720"/>
+                <a:pt x="155651" y="45720"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6275,8 +6813,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2069534" y="917769"/>
-          <a:ext cx="178930" cy="91440"/>
+          <a:off x="2071120" y="917770"/>
+          <a:ext cx="179068" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6290,7 +6828,7 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="178930" y="45720"/>
+                <a:pt x="179068" y="45720"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6331,8 +6869,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1129551" y="917769"/>
-          <a:ext cx="216467" cy="91440"/>
+          <a:off x="1130417" y="917770"/>
+          <a:ext cx="216633" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6346,7 +6884,7 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="216467" y="45720"/>
+                <a:pt x="216633" y="45720"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6387,8 +6925,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="293" y="791278"/>
-          <a:ext cx="1129258" cy="344423"/>
+          <a:off x="293" y="791146"/>
+          <a:ext cx="1130123" cy="344687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6454,8 +6992,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="293" y="791278"/>
-        <a:ext cx="1129258" cy="344423"/>
+        <a:off x="293" y="791146"/>
+        <a:ext cx="1130123" cy="344687"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F0031F58-C3EF-4FE5-9CA2-259F62269C2D}">
@@ -6465,8 +7003,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1346019" y="601734"/>
-          <a:ext cx="723515" cy="723510"/>
+          <a:off x="1347050" y="601457"/>
+          <a:ext cx="724070" cy="724064"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6532,8 +7070,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1451975" y="707690"/>
-        <a:ext cx="511603" cy="511598"/>
+        <a:off x="1453088" y="707494"/>
+        <a:ext cx="511994" cy="511990"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0A4D0610-D733-4901-9EDE-3CFD8851320E}">
@@ -6543,8 +7081,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2248465" y="791278"/>
-          <a:ext cx="1129258" cy="344423"/>
+          <a:off x="2250188" y="791146"/>
+          <a:ext cx="1130123" cy="344687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6610,8 +7148,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2248465" y="791278"/>
-        <a:ext cx="1129258" cy="344423"/>
+        <a:off x="2250188" y="791146"/>
+        <a:ext cx="1130123" cy="344687"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{14A42A52-0C40-47A4-928E-3C72C1AA182E}">
@@ -6621,8 +7159,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3533256" y="602644"/>
-          <a:ext cx="721697" cy="721691"/>
+          <a:off x="3535963" y="602367"/>
+          <a:ext cx="722250" cy="722244"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -6688,8 +7226,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3638946" y="708333"/>
-        <a:ext cx="510317" cy="510313"/>
+        <a:off x="3641734" y="708137"/>
+        <a:ext cx="510708" cy="510704"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ED39B4D4-C882-4F96-8813-186B1B392815}">
@@ -6699,8 +7237,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4607722" y="62906"/>
-          <a:ext cx="1129258" cy="344423"/>
+          <a:off x="4611253" y="62216"/>
+          <a:ext cx="1130123" cy="344687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6766,8 +7304,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4607722" y="62906"/>
-        <a:ext cx="1129258" cy="344423"/>
+        <a:off x="4611253" y="62216"/>
+        <a:ext cx="1130123" cy="344687"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{13D2BC7E-B9A8-430E-8574-A57A85597C80}">
@@ -6777,8 +7315,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4607722" y="548487"/>
-          <a:ext cx="1129258" cy="344423"/>
+          <a:off x="4611253" y="548169"/>
+          <a:ext cx="1130123" cy="344687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6844,8 +7382,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4607722" y="548487"/>
-        <a:ext cx="1129258" cy="344423"/>
+        <a:off x="4611253" y="548169"/>
+        <a:ext cx="1130123" cy="344687"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B57558C7-CC91-4E8E-ADA7-69F72314096E}">
@@ -6855,8 +7393,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4607722" y="1034068"/>
-          <a:ext cx="1129258" cy="344423"/>
+          <a:off x="4611253" y="1034122"/>
+          <a:ext cx="1130123" cy="344687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6922,8 +7460,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4607722" y="1034068"/>
-        <a:ext cx="1129258" cy="344423"/>
+        <a:off x="4611253" y="1034122"/>
+        <a:ext cx="1130123" cy="344687"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ED5BC5F9-93FD-4F76-B2B3-B0975F037838}">
@@ -6933,8 +7471,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4607722" y="1519649"/>
-          <a:ext cx="1129258" cy="344423"/>
+          <a:off x="4611253" y="1520075"/>
+          <a:ext cx="1130123" cy="344687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7000,8 +7538,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4607722" y="1519649"/>
-        <a:ext cx="1129258" cy="344423"/>
+        <a:off x="4611253" y="1520075"/>
+        <a:ext cx="1130123" cy="344687"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9667,7 +10205,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B5A30DBB-1EE7-4099-8782-0FBC0A3CBEB3}" name="CODE"/>
     <tableColumn id="2" xr3:uid="{8B3BBF3B-59E2-4408-9917-A55EF4C51BF2}" name="NETWORKS"/>
-    <tableColumn id="3" xr3:uid="{F5CA0EC9-7D23-4753-8FF4-F82FBDA1ECF6}" name="VIA" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F5CA0EC9-7D23-4753-8FF4-F82FBDA1ECF6}" name="VIA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9682,7 +10220,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{94CF5556-F372-4E08-A1B6-419333C1414B}" name="CODE"/>
     <tableColumn id="2" xr3:uid="{9DD7D3C8-CA7C-4C8F-8D0D-9D3411992770}" name="NETWORKS"/>
-    <tableColumn id="3" xr3:uid="{39A866B9-13C5-4AAE-AD57-4DD3841BC6F2}" name="VIA" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{39A866B9-13C5-4AAE-AD57-4DD3841BC6F2}" name="VIA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10134,13 +10672,13 @@
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="260" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="222" t="s">
+      <c r="C2" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="219" t="s">
+      <c r="D2" s="260" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10148,17 +10686,17 @@
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="220"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="261"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="220"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="261"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -10198,7 +10736,7 @@
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="221" t="s">
+      <c r="D7" s="262" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10212,7 +10750,7 @@
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="221"/>
+      <c r="D8" s="262"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -10238,24 +10776,708 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C472EF-3BB2-44C9-8C98-743821E0C5E8}">
-  <dimension ref="E5"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="98" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="98" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="5.28515625" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="220" t="s">
+        <v>693</v>
+      </c>
+      <c r="B1" s="303" t="s">
+        <v>686</v>
+      </c>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="220" t="s">
+        <v>685</v>
+      </c>
+      <c r="F1" s="303" t="s">
+        <v>684</v>
+      </c>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="220" t="s">
+        <v>694</v>
+      </c>
+      <c r="L1" s="245" t="s">
+        <v>692</v>
+      </c>
+      <c r="M1" s="245" t="s">
+        <v>697</v>
+      </c>
+      <c r="N1" s="245" t="s">
+        <v>698</v>
+      </c>
+      <c r="O1" s="245" t="s">
+        <v>406</v>
+      </c>
+      <c r="P1" s="245" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q1" s="245" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="221" t="s">
+        <v>692</v>
+      </c>
+      <c r="B2" s="246">
+        <v>2001</v>
+      </c>
+      <c r="C2" s="246" t="s">
+        <v>682</v>
+      </c>
+      <c r="D2" s="246" t="s">
+        <v>683</v>
+      </c>
+      <c r="E2" s="247" t="s">
+        <v>680</v>
+      </c>
+      <c r="F2" s="248" t="s">
+        <v>681</v>
+      </c>
+      <c r="G2" s="248" t="s">
+        <v>681</v>
+      </c>
+      <c r="H2" s="248" t="s">
+        <v>681</v>
+      </c>
+      <c r="I2" s="248" t="s">
+        <v>680</v>
+      </c>
+      <c r="J2" s="136" t="s">
+        <v>696</v>
+      </c>
+      <c r="K2" s="241"/>
+      <c r="L2" s="248" t="s">
+        <v>699</v>
+      </c>
+      <c r="M2" s="136" t="s">
+        <v>706</v>
+      </c>
+      <c r="N2" s="136" t="s">
+        <v>707</v>
+      </c>
+      <c r="O2" s="136" t="s">
+        <v>197</v>
+      </c>
+      <c r="P2" s="255" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q2" s="136" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="249" t="s">
+        <v>687</v>
+      </c>
+      <c r="B3" s="242" t="s">
+        <v>688</v>
+      </c>
+      <c r="C3" s="242" t="s">
+        <v>689</v>
+      </c>
+      <c r="D3" s="242" t="s">
+        <v>683</v>
+      </c>
+      <c r="E3" s="243" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="244" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="244" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="244" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="244" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="139" t="s">
+        <v>696</v>
+      </c>
+      <c r="L3" s="139" t="s">
+        <v>702</v>
+      </c>
+      <c r="M3" s="139" t="s">
+        <v>708</v>
+      </c>
+      <c r="N3" s="139" t="s">
+        <v>709</v>
+      </c>
+      <c r="O3" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="P3" s="256" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q3" s="139" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="250" t="s">
+        <v>690</v>
+      </c>
+      <c r="B4" s="251" t="s">
+        <v>688</v>
+      </c>
+      <c r="C4" s="251" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4" s="251" t="s">
+        <v>683</v>
+      </c>
+      <c r="E4" s="252" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="253" t="s">
+        <v>691</v>
+      </c>
+      <c r="G4" s="253"/>
+      <c r="H4" s="253"/>
+      <c r="I4" s="253" t="s">
+        <v>195</v>
+      </c>
+      <c r="J4" s="142" t="s">
+        <v>696</v>
+      </c>
+      <c r="L4" s="142" t="s">
+        <v>703</v>
+      </c>
+      <c r="M4" s="142" t="s">
+        <v>711</v>
+      </c>
+      <c r="N4" s="142" t="s">
+        <v>712</v>
+      </c>
+      <c r="O4" s="142" t="s">
+        <v>207</v>
+      </c>
+      <c r="P4" s="257" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q4" s="142" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="254" t="s">
+        <v>679</v>
+      </c>
+      <c r="B5" s="302" t="s">
+        <v>695</v>
+      </c>
+      <c r="C5" s="302"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="302"/>
+      <c r="G5" s="302"/>
+      <c r="H5" s="302"/>
+      <c r="I5" s="302"/>
+      <c r="J5" s="302"/>
+      <c r="L5" s="145" t="s">
+        <v>704</v>
+      </c>
+      <c r="M5" s="145" t="s">
+        <v>713</v>
+      </c>
+      <c r="N5" s="145" t="s">
+        <v>714</v>
+      </c>
+      <c r="O5" s="145" t="s">
+        <v>202</v>
+      </c>
+      <c r="P5" s="258" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q5" s="145" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="98"/>
+      <c r="J6" s="98"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="220" t="s">
+        <v>718</v>
+      </c>
+      <c r="B7" s="303" t="s">
+        <v>719</v>
+      </c>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="221" t="s">
+        <v>736</v>
+      </c>
+      <c r="B8" s="304" t="s">
+        <v>732</v>
+      </c>
+      <c r="C8" s="304"/>
+      <c r="D8" s="304"/>
+      <c r="E8" s="304"/>
+      <c r="F8" s="304"/>
+      <c r="G8" s="304"/>
+      <c r="H8" s="304"/>
+      <c r="I8" s="304"/>
+      <c r="J8" s="301"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="249" t="s">
+        <v>728</v>
+      </c>
+      <c r="B9" s="139" t="s">
+        <v>720</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>721</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>722</v>
+      </c>
+      <c r="E9" s="243" t="s">
+        <v>726</v>
+      </c>
+      <c r="F9" s="243" t="s">
+        <v>727</v>
+      </c>
+      <c r="G9" s="139" t="s">
+        <v>723</v>
+      </c>
+      <c r="H9" s="139" t="s">
+        <v>724</v>
+      </c>
+      <c r="I9" s="139" t="s">
+        <v>725</v>
+      </c>
+      <c r="J9" s="301"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="250" t="s">
+        <v>729</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>733</v>
+      </c>
+      <c r="C10" s="142" t="s">
+        <v>721</v>
+      </c>
+      <c r="D10" s="142" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="259" t="s">
+        <v>726</v>
+      </c>
+      <c r="F10" s="259" t="s">
+        <v>727</v>
+      </c>
+      <c r="G10" s="142" t="s">
+        <v>723</v>
+      </c>
+      <c r="H10" s="142" t="s">
+        <v>724</v>
+      </c>
+      <c r="I10" s="142" t="s">
+        <v>725</v>
+      </c>
+      <c r="J10" s="301"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="254" t="s">
+        <v>737</v>
+      </c>
+      <c r="B11" s="302" t="s">
+        <v>734</v>
+      </c>
+      <c r="C11" s="302"/>
+      <c r="D11" s="302"/>
+      <c r="E11" s="302"/>
+      <c r="F11" s="302"/>
+      <c r="G11" s="302"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="301"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="220" t="s">
+        <v>718</v>
+      </c>
+      <c r="B12" s="303" t="s">
+        <v>719</v>
+      </c>
+      <c r="C12" s="303"/>
+      <c r="D12" s="303"/>
+      <c r="E12" s="303"/>
+      <c r="F12" s="303"/>
+      <c r="G12" s="303"/>
+      <c r="H12" s="303"/>
+      <c r="I12" s="303"/>
+      <c r="J12" s="265"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="221" t="s">
+        <v>736</v>
+      </c>
+      <c r="B13" s="304" t="s">
+        <v>735</v>
+      </c>
+      <c r="C13" s="304"/>
+      <c r="D13" s="304"/>
+      <c r="E13" s="304"/>
+      <c r="F13" s="304"/>
+      <c r="G13" s="304"/>
+      <c r="H13" s="304"/>
+      <c r="I13" s="304"/>
+      <c r="J13" s="265"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="249" t="s">
+        <v>728</v>
+      </c>
+      <c r="B14" s="139" t="s">
+        <v>720</v>
+      </c>
+      <c r="C14" s="139" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="243" t="s">
+        <v>726</v>
+      </c>
+      <c r="F14" s="243" t="s">
+        <v>727</v>
+      </c>
+      <c r="G14" s="139" t="s">
+        <v>738</v>
+      </c>
+      <c r="H14" s="139" t="s">
+        <v>739</v>
+      </c>
+      <c r="I14" s="139" t="s">
+        <v>730</v>
+      </c>
+      <c r="J14" s="265"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="250" t="s">
+        <v>729</v>
+      </c>
+      <c r="B15" s="142" t="s">
+        <v>733</v>
+      </c>
+      <c r="C15" s="142" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="142" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="259" t="s">
+        <v>726</v>
+      </c>
+      <c r="F15" s="259" t="s">
+        <v>727</v>
+      </c>
+      <c r="G15" s="142" t="s">
+        <v>738</v>
+      </c>
+      <c r="H15" s="142" t="s">
+        <v>739</v>
+      </c>
+      <c r="I15" s="142" t="s">
+        <v>730</v>
+      </c>
+      <c r="J15" s="265"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="254" t="s">
+        <v>737</v>
+      </c>
+      <c r="B16" s="302" t="s">
+        <v>740</v>
+      </c>
+      <c r="C16" s="302"/>
+      <c r="D16" s="302"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="302"/>
+      <c r="J16" s="265"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="220" t="s">
+        <v>718</v>
+      </c>
+      <c r="B17" s="303" t="s">
+        <v>719</v>
+      </c>
+      <c r="C17" s="303"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="303"/>
+      <c r="I17" s="303"/>
+      <c r="J17" s="265"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="221" t="s">
+        <v>736</v>
+      </c>
+      <c r="B18" s="304" t="s">
+        <v>741</v>
+      </c>
+      <c r="C18" s="304"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="304"/>
+      <c r="H18" s="304"/>
+      <c r="I18" s="304"/>
+      <c r="J18" s="265"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="249" t="s">
+        <v>728</v>
+      </c>
+      <c r="B19" s="139" t="s">
+        <v>720</v>
+      </c>
+      <c r="C19" s="139" t="s">
+        <v>742</v>
+      </c>
+      <c r="D19" s="139" t="s">
+        <v>743</v>
+      </c>
+      <c r="E19" s="243" t="s">
+        <v>726</v>
+      </c>
+      <c r="F19" s="243" t="s">
+        <v>727</v>
+      </c>
+      <c r="G19" s="139" t="s">
+        <v>744</v>
+      </c>
+      <c r="H19" s="139" t="s">
+        <v>745</v>
+      </c>
+      <c r="I19" s="139" t="s">
+        <v>746</v>
+      </c>
+      <c r="J19" s="265"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="250" t="s">
+        <v>729</v>
+      </c>
+      <c r="B20" s="142" t="s">
+        <v>731</v>
+      </c>
+      <c r="C20" s="142" t="s">
+        <v>742</v>
+      </c>
+      <c r="D20" s="142" t="s">
+        <v>743</v>
+      </c>
+      <c r="E20" s="259" t="s">
+        <v>726</v>
+      </c>
+      <c r="F20" s="259" t="s">
+        <v>727</v>
+      </c>
+      <c r="G20" s="142" t="s">
+        <v>744</v>
+      </c>
+      <c r="H20" s="142" t="s">
+        <v>745</v>
+      </c>
+      <c r="I20" s="142" t="s">
+        <v>746</v>
+      </c>
+      <c r="J20" s="265"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="254" t="s">
+        <v>737</v>
+      </c>
+      <c r="B21" s="302" t="s">
+        <v>747</v>
+      </c>
+      <c r="C21" s="302"/>
+      <c r="D21" s="302"/>
+      <c r="E21" s="302"/>
+      <c r="F21" s="302"/>
+      <c r="G21" s="302"/>
+      <c r="H21" s="302"/>
+      <c r="I21" s="302"/>
+      <c r="J21" s="265"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="220" t="s">
+        <v>718</v>
+      </c>
+      <c r="B22" s="303" t="s">
+        <v>719</v>
+      </c>
+      <c r="C22" s="303"/>
+      <c r="D22" s="303"/>
+      <c r="E22" s="303"/>
+      <c r="F22" s="303"/>
+      <c r="G22" s="303"/>
+      <c r="H22" s="303"/>
+      <c r="I22" s="303"/>
+      <c r="J22" s="265"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="221" t="s">
+        <v>736</v>
+      </c>
+      <c r="B23" s="304" t="s">
+        <v>748</v>
+      </c>
+      <c r="C23" s="304"/>
+      <c r="D23" s="304"/>
+      <c r="E23" s="304"/>
+      <c r="F23" s="304"/>
+      <c r="G23" s="304"/>
+      <c r="H23" s="304"/>
+      <c r="I23" s="304"/>
+      <c r="J23" s="265"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="249" t="s">
+        <v>728</v>
+      </c>
+      <c r="B24" s="139" t="s">
+        <v>749</v>
+      </c>
+      <c r="C24" s="139" t="s">
+        <v>750</v>
+      </c>
+      <c r="D24" s="139" t="s">
+        <v>751</v>
+      </c>
+      <c r="E24" s="243" t="s">
+        <v>726</v>
+      </c>
+      <c r="F24" s="243" t="s">
+        <v>727</v>
+      </c>
+      <c r="G24" s="139" t="s">
+        <v>752</v>
+      </c>
+      <c r="H24" s="139" t="s">
+        <v>753</v>
+      </c>
+      <c r="I24" s="139" t="s">
+        <v>754</v>
+      </c>
+      <c r="J24" s="265"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="250" t="s">
+        <v>729</v>
+      </c>
+      <c r="B25" s="142" t="s">
+        <v>731</v>
+      </c>
+      <c r="C25" s="142" t="s">
+        <v>750</v>
+      </c>
+      <c r="D25" s="142" t="s">
+        <v>751</v>
+      </c>
+      <c r="E25" s="259" t="s">
+        <v>726</v>
+      </c>
+      <c r="F25" s="259" t="s">
+        <v>727</v>
+      </c>
+      <c r="G25" s="142" t="s">
+        <v>752</v>
+      </c>
+      <c r="H25" s="142" t="s">
+        <v>753</v>
+      </c>
+      <c r="I25" s="142" t="s">
+        <v>754</v>
+      </c>
+      <c r="J25" s="265"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="254" t="s">
+        <v>737</v>
+      </c>
+      <c r="B26" s="302" t="s">
+        <v>755</v>
+      </c>
+      <c r="C26" s="302"/>
+      <c r="D26" s="302"/>
+      <c r="E26" s="302"/>
+      <c r="F26" s="302"/>
+      <c r="G26" s="302"/>
+      <c r="H26" s="302"/>
+      <c r="I26" s="302"/>
+      <c r="J26" s="265"/>
+    </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B21:I21"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10303,16 +11525,16 @@
       <c r="J1" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="F3" s="224" t="s">
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="F3" s="265" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
@@ -10472,11 +11694,11 @@
         <v>76</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="224" t="s">
+      <c r="F10" s="265" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="224"/>
-      <c r="H10" s="224"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="265"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -10916,17 +12138,17 @@
       <c r="A11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="226" t="s">
+      <c r="B11" s="267" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="226"/>
+      <c r="C11" s="267"/>
       <c r="E11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="226" t="s">
+      <c r="F11" s="267" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="226"/>
+      <c r="G11" s="267"/>
       <c r="I11" s="12" t="s">
         <v>182</v>
       </c>
@@ -10941,17 +12163,17 @@
       <c r="A12" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="227" t="s">
+      <c r="B12" s="268" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="227"/>
+      <c r="C12" s="268"/>
       <c r="E12" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="227" t="s">
+      <c r="F12" s="268" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="227"/>
+      <c r="G12" s="268"/>
       <c r="I12" s="55" t="s">
         <v>183</v>
       </c>
@@ -10966,17 +12188,17 @@
       <c r="A13" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="228" t="s">
+      <c r="B13" s="269" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="228"/>
+      <c r="C13" s="269"/>
       <c r="E13" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="228" t="s">
+      <c r="F13" s="269" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="228"/>
+      <c r="G13" s="269"/>
       <c r="I13" s="56" t="s">
         <v>184</v>
       </c>
@@ -10991,17 +12213,17 @@
       <c r="A14" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="270" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="229"/>
+      <c r="C14" s="270"/>
       <c r="E14" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="229" t="s">
+      <c r="F14" s="270" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="229"/>
+      <c r="G14" s="270"/>
       <c r="I14" s="57" t="s">
         <v>185</v>
       </c>
@@ -11016,17 +12238,17 @@
       <c r="A15" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="225" t="s">
+      <c r="B15" s="266" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="225"/>
+      <c r="C15" s="266"/>
       <c r="E15" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="225" t="s">
+      <c r="F15" s="266" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="225"/>
+      <c r="G15" s="266"/>
       <c r="I15" s="49" t="s">
         <v>186</v>
       </c>
@@ -11493,16 +12715,16 @@
       <c r="T5" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="V5" s="224" t="s">
+      <c r="V5" s="265" t="s">
         <v>274</v>
       </c>
-      <c r="W5" s="224"/>
-      <c r="X5" s="224"/>
-      <c r="Y5" s="224"/>
-      <c r="Z5" s="224"/>
-      <c r="AA5" s="224"/>
-      <c r="AB5" s="224"/>
-      <c r="AC5" s="224"/>
+      <c r="W5" s="265"/>
+      <c r="X5" s="265"/>
+      <c r="Y5" s="265"/>
+      <c r="Z5" s="265"/>
+      <c r="AA5" s="265"/>
+      <c r="AB5" s="265"/>
+      <c r="AC5" s="265"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
@@ -11726,10 +12948,10 @@
       <c r="F9" s="97">
         <v>16</v>
       </c>
-      <c r="H9" s="224" t="s">
+      <c r="H9" s="265" t="s">
         <v>275</v>
       </c>
-      <c r="I9" s="224"/>
+      <c r="I9" s="265"/>
       <c r="K9" s="70">
         <v>192</v>
       </c>
@@ -12107,10 +13329,10 @@
       <c r="F15" s="96">
         <v>16</v>
       </c>
-      <c r="H15" s="224" t="s">
+      <c r="H15" s="265" t="s">
         <v>275</v>
       </c>
-      <c r="I15" s="224"/>
+      <c r="I15" s="265"/>
       <c r="K15" s="72">
         <v>172</v>
       </c>
@@ -12576,24 +13798,24 @@
       <c r="A1" s="120" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="230" t="s">
+      <c r="B1" s="271" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="233" t="s">
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="274" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="245" t="s">
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="286" t="s">
         <v>350</v>
       </c>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="247"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="288"/>
     </row>
     <row r="2" spans="1:13" s="105" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
@@ -12778,18 +14000,18 @@
       <c r="E6" s="172" t="s">
         <v>401</v>
       </c>
-      <c r="F6" s="239" t="s">
+      <c r="F6" s="280" t="s">
         <v>343</v>
       </c>
-      <c r="G6" s="240"/>
-      <c r="H6" s="240"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="239" t="s">
+      <c r="G6" s="281"/>
+      <c r="H6" s="281"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="280" t="s">
         <v>343</v>
       </c>
-      <c r="K6" s="240"/>
-      <c r="L6" s="240"/>
-      <c r="M6" s="241"/>
+      <c r="K6" s="281"/>
+      <c r="L6" s="281"/>
+      <c r="M6" s="282"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
@@ -12807,44 +14029,44 @@
       <c r="E7" s="175" t="s">
         <v>403</v>
       </c>
-      <c r="F7" s="242" t="s">
+      <c r="F7" s="283" t="s">
         <v>344</v>
       </c>
-      <c r="G7" s="243"/>
-      <c r="H7" s="243"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="242" t="s">
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="283" t="s">
         <v>344</v>
       </c>
-      <c r="K7" s="243"/>
-      <c r="L7" s="243"/>
-      <c r="M7" s="244"/>
+      <c r="K7" s="284"/>
+      <c r="L7" s="284"/>
+      <c r="M7" s="285"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="B8" s="236">
+      <c r="B8" s="277">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="236">
+      <c r="C8" s="278"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="279"/>
+      <c r="F8" s="277">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="G8" s="237"/>
-      <c r="H8" s="237"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="236">
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="277">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="K8" s="237"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="238"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="279"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13417,14 +14639,14 @@
       <c r="A1" s="192" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="289" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
     </row>
     <row r="3" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
@@ -14347,14 +15569,14 @@
       <c r="A1" s="100" t="s">
         <v>548</v>
       </c>
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="290" t="s">
         <v>549</v>
       </c>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
       <c r="H1" s="199"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -14734,7 +15956,7 @@
       <c r="I16" s="202">
         <v>255255255128</v>
       </c>
-      <c r="J16" s="250" t="s">
+      <c r="J16" s="291" t="s">
         <v>621</v>
       </c>
       <c r="K16" s="196" t="s">
@@ -14790,7 +16012,7 @@
       <c r="I17" s="202">
         <v>255255255192</v>
       </c>
-      <c r="J17" s="250"/>
+      <c r="J17" s="291"/>
       <c r="K17" s="196" t="s">
         <v>603</v>
       </c>
@@ -14844,7 +16066,7 @@
       <c r="I18" s="207" t="s">
         <v>358</v>
       </c>
-      <c r="J18" s="250"/>
+      <c r="J18" s="291"/>
       <c r="K18" s="196" t="s">
         <v>339</v>
       </c>
@@ -14898,7 +16120,7 @@
       <c r="I19" s="208">
         <v>255255255128</v>
       </c>
-      <c r="J19" s="250"/>
+      <c r="J19" s="291"/>
       <c r="K19" s="196" t="s">
         <v>563</v>
       </c>
@@ -15173,7 +16395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B524246-8F8C-4BD5-B50E-82E92E0102AE}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="G3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -15195,16 +16417,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="292" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="E1" s="257" t="s">
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="E1" s="292" t="s">
         <v>666</v>
       </c>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
       <c r="I1" s="12" t="s">
         <v>643</v>
       </c>
@@ -15217,10 +16439,10 @@
       <c r="L1" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="M1" s="261" t="s">
+      <c r="M1" s="220" t="s">
         <v>424</v>
       </c>
-      <c r="N1" s="251" t="s">
+      <c r="N1" s="219" t="s">
         <v>625</v>
       </c>
     </row>
@@ -15246,7 +16468,7 @@
       <c r="I2" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="J2" s="262" t="s">
+      <c r="J2" s="221" t="s">
         <v>634</v>
       </c>
       <c r="K2" s="55">
@@ -15255,10 +16477,10 @@
       <c r="L2" s="69" t="s">
         <v>339</v>
       </c>
-      <c r="M2" s="263" t="s">
+      <c r="M2" s="222" t="s">
         <v>646</v>
       </c>
-      <c r="N2" s="252" t="s">
+      <c r="N2" s="293" t="s">
         <v>627</v>
       </c>
     </row>
@@ -15284,7 +16506,7 @@
       <c r="I3" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="264" t="s">
+      <c r="J3" s="223" t="s">
         <v>635</v>
       </c>
       <c r="K3" s="56">
@@ -15293,10 +16515,10 @@
       <c r="L3" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="M3" s="265" t="s">
+      <c r="M3" s="224" t="s">
         <v>341</v>
       </c>
-      <c r="N3" s="252"/>
+      <c r="N3" s="293"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -15320,19 +16542,19 @@
       <c r="I4" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="J4" s="266" t="s">
+      <c r="J4" s="225" t="s">
         <v>636</v>
       </c>
       <c r="K4" s="57">
         <v>24</v>
       </c>
-      <c r="L4" s="267" t="s">
+      <c r="L4" s="226" t="s">
         <v>626</v>
       </c>
-      <c r="M4" s="268" t="s">
+      <c r="M4" s="227" t="s">
         <v>645</v>
       </c>
-      <c r="N4" s="253"/>
+      <c r="N4" s="294"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -15353,22 +16575,22 @@
       <c r="G5" s="188" t="s">
         <v>654</v>
       </c>
-      <c r="I5" s="269" t="s">
+      <c r="I5" s="228" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="270" t="s">
+      <c r="J5" s="229" t="s">
         <v>637</v>
       </c>
-      <c r="K5" s="269">
+      <c r="K5" s="228">
         <v>24</v>
       </c>
-      <c r="L5" s="271" t="s">
+      <c r="L5" s="230" t="s">
         <v>628</v>
       </c>
-      <c r="M5" s="272" t="s">
+      <c r="M5" s="231" t="s">
         <v>647</v>
       </c>
-      <c r="N5" s="258" t="s">
+      <c r="N5" s="295" t="s">
         <v>631</v>
       </c>
     </row>
@@ -15394,19 +16616,19 @@
       <c r="I6" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="266" t="s">
+      <c r="J6" s="225" t="s">
         <v>638</v>
       </c>
       <c r="K6" s="57">
         <v>26</v>
       </c>
-      <c r="L6" s="267" t="s">
+      <c r="L6" s="226" t="s">
         <v>629</v>
       </c>
-      <c r="M6" s="268" t="s">
+      <c r="M6" s="227" t="s">
         <v>648</v>
       </c>
-      <c r="N6" s="259"/>
+      <c r="N6" s="296"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -15430,19 +16652,19 @@
       <c r="I7" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="J7" s="264" t="s">
+      <c r="J7" s="223" t="s">
         <v>639</v>
       </c>
       <c r="K7" s="56">
         <v>27</v>
       </c>
-      <c r="L7" s="273">
+      <c r="L7" s="232">
         <v>192168100224</v>
       </c>
-      <c r="M7" s="265" t="s">
+      <c r="M7" s="224" t="s">
         <v>645</v>
       </c>
-      <c r="N7" s="260"/>
+      <c r="N7" s="297"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -15464,22 +16686,22 @@
       <c r="G8" s="188" t="s">
         <v>655</v>
       </c>
-      <c r="I8" s="274" t="s">
+      <c r="I8" s="233" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="275" t="s">
+      <c r="J8" s="234" t="s">
         <v>640</v>
       </c>
-      <c r="K8" s="274">
+      <c r="K8" s="233">
         <v>6</v>
       </c>
-      <c r="L8" s="276" t="s">
+      <c r="L8" s="235" t="s">
         <v>632</v>
       </c>
-      <c r="M8" s="277" t="s">
+      <c r="M8" s="236" t="s">
         <v>649</v>
       </c>
-      <c r="N8" s="254" t="s">
+      <c r="N8" s="298" t="s">
         <v>630</v>
       </c>
     </row>
@@ -15496,7 +16718,7 @@
       <c r="I9" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="264" t="s">
+      <c r="J9" s="223" t="s">
         <v>641</v>
       </c>
       <c r="K9" s="56">
@@ -15505,17 +16727,17 @@
       <c r="L9" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="M9" s="265" t="s">
+      <c r="M9" s="224" t="s">
         <v>341</v>
       </c>
-      <c r="N9" s="255"/>
+      <c r="N9" s="299"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="248" t="s">
+      <c r="A10" s="289" t="s">
         <v>678</v>
       </c>
-      <c r="B10" s="248"/>
-      <c r="C10" s="248"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
       <c r="E10" t="s">
         <v>659</v>
       </c>
@@ -15525,27 +16747,27 @@
       <c r="G10" s="188" t="s">
         <v>658</v>
       </c>
-      <c r="I10" s="279" t="s">
+      <c r="I10" s="238" t="s">
         <v>205</v>
       </c>
-      <c r="J10" s="278" t="s">
+      <c r="J10" s="237" t="s">
         <v>642</v>
       </c>
-      <c r="K10" s="279">
+      <c r="K10" s="238">
         <v>20</v>
       </c>
-      <c r="L10" s="280" t="s">
+      <c r="L10" s="239" t="s">
         <v>633</v>
       </c>
-      <c r="M10" s="281" t="s">
+      <c r="M10" s="240" t="s">
         <v>650</v>
       </c>
-      <c r="N10" s="256"/>
+      <c r="N10" s="300"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="248"/>
-      <c r="B11" s="248"/>
-      <c r="C11" s="248"/>
+      <c r="A11" s="289"/>
+      <c r="B11" s="289"/>
+      <c r="C11" s="289"/>
       <c r="E11" t="s">
         <v>205</v>
       </c>
@@ -15557,9 +16779,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="248"/>
-      <c r="B12" s="248"/>
-      <c r="C12" s="248"/>
+      <c r="A12" s="289"/>
+      <c r="B12" s="289"/>
+      <c r="C12" s="289"/>
       <c r="E12" t="s">
         <v>659</v>
       </c>
@@ -15571,9 +16793,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="248"/>
-      <c r="B13" s="248"/>
-      <c r="C13" s="248"/>
+      <c r="A13" s="289"/>
+      <c r="B13" s="289"/>
+      <c r="C13" s="289"/>
       <c r="E13" t="s">
         <v>652</v>
       </c>

--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94F498B-4AB1-48F3-A6FA-4BB4759D6C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF82295-86FE-4DA8-8917-15C3F9AA4A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" firstSheet="1" activeTab="9" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="10" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
   <sheets>
     <sheet name="modelos" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="vlsm" sheetId="8" r:id="rId8"/>
     <sheet name="routing" sheetId="9" r:id="rId9"/>
     <sheet name="ipv6" sheetId="10" r:id="rId10"/>
+    <sheet name="transporte" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modelos!$C$1:$C$14</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="776">
   <si>
     <t>OSI de ISO</t>
   </si>
@@ -3526,6 +3527,69 @@
   </si>
   <si>
     <t>FE80::2E0:B0FF:F3BA:3BD7/64</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>Transport Control Protocol</t>
+  </si>
+  <si>
+    <t>User Datagram Protocol</t>
+  </si>
+  <si>
+    <t>Datagram</t>
+  </si>
+  <si>
+    <t>Confiable</t>
+  </si>
+  <si>
+    <t>Esfuerzo Max.</t>
+  </si>
+  <si>
+    <t>Funcion</t>
+  </si>
+  <si>
+    <t>identifica cada segmento para que puedan ser  reordenados al recibirse.</t>
+  </si>
+  <si>
+    <t>Reenvia los datagramas directamente a la capa de aplicación, como los recibe.</t>
+  </si>
+  <si>
+    <t>tftp - dhcp - dns</t>
+  </si>
+  <si>
+    <t>Puertos</t>
+  </si>
+  <si>
+    <t>Conocidos</t>
+  </si>
+  <si>
+    <t>Registrados</t>
+  </si>
+  <si>
+    <t>Dinamicos</t>
+  </si>
+  <si>
+    <t>http - https - ftp - sftp - pop3 - imap - smtp - ssh</t>
+  </si>
+  <si>
+    <t>WEBSOCKET
+ip:port
+31.13.94.35:443
+https://facebook.com</t>
+  </si>
+  <si>
+    <t>Cabecera</t>
+  </si>
+  <si>
+    <t>20B</t>
+  </si>
+  <si>
+    <t>8B</t>
   </si>
 </sst>
 </file>
@@ -3761,7 +3825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -3991,12 +4055,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4657,6 +4774,9 @@
     <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -4690,6 +4810,42 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4708,42 +4864,6 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4780,17 +4900,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10237,6 +10381,30 @@
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{46F0F7B6-6466-4004-803C-643CF3606774}" name="Tabla15" displayName="Tabla15" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{46F0F7B6-6466-4004-803C-643CF3606774}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{75393568-62DA-4C5D-96AD-E15CD91F7AD5}" name="Protocolos"/>
+    <tableColumn id="2" xr3:uid="{6BF45044-738D-4C96-9218-65FB2E08D23A}" name="TCP"/>
+    <tableColumn id="3" xr3:uid="{F0D2A917-DB56-49FF-A2FF-C80FA7607726}" name="UDP"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D61A4807-FC9B-4EBA-9B1C-7252EA5B0D89}" name="Tabla21" displayName="Tabla21" ref="E1:G4" totalsRowShown="0">
+  <autoFilter ref="E1:G4" xr:uid="{D61A4807-FC9B-4EBA-9B1C-7252EA5B0D89}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E7FCCE8F-1C63-46E0-8E3E-348AC722D9EB}" name="Puertos"/>
+    <tableColumn id="2" xr3:uid="{3DD61FE2-D062-44B6-929A-13B844E457C3}" name="INI"/>
+    <tableColumn id="3" xr3:uid="{012F97BF-F6C4-420A-B4E2-DBA36C31DCEF}" name="FIN"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{52135C1B-9F95-4015-B02C-B87CD34D509E}" name="Tabla8" displayName="Tabla8" ref="I6:J9" totalsRowShown="0">
   <autoFilter ref="I6:J9" xr:uid="{52135C1B-9F95-4015-B02C-B87CD34D509E}"/>
@@ -10641,8 +10809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B8B09C-E1B7-4EAF-8A56-2848F2F39911}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10672,13 +10840,13 @@
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="260" t="s">
+      <c r="B2" s="261" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="263" t="s">
+      <c r="C2" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="260" t="s">
+      <c r="D2" s="261" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10686,17 +10854,17 @@
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="261"/>
+      <c r="B3" s="262"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="262"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="264"/>
-      <c r="D4" s="261"/>
+      <c r="B4" s="262"/>
+      <c r="C4" s="265"/>
+      <c r="D4" s="262"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -10736,7 +10904,7 @@
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="262" t="s">
+      <c r="D7" s="263" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10750,7 +10918,7 @@
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="262"/>
+      <c r="D8" s="263"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -10778,7 +10946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C472EF-3BB2-44C9-8C98-743821E0C5E8}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -10803,20 +10971,20 @@
       <c r="A1" s="220" t="s">
         <v>693</v>
       </c>
-      <c r="B1" s="303" t="s">
+      <c r="B1" s="302" t="s">
         <v>686</v>
       </c>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
       <c r="E1" s="220" t="s">
         <v>685</v>
       </c>
-      <c r="F1" s="303" t="s">
+      <c r="F1" s="302" t="s">
         <v>684</v>
       </c>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302"/>
+      <c r="I1" s="302"/>
       <c r="J1" s="220" t="s">
         <v>694</v>
       </c>
@@ -10990,17 +11158,17 @@
       <c r="A5" s="254" t="s">
         <v>679</v>
       </c>
-      <c r="B5" s="302" t="s">
+      <c r="B5" s="303" t="s">
         <v>695</v>
       </c>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
+      <c r="C5" s="303"/>
+      <c r="D5" s="303"/>
+      <c r="E5" s="303"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="303"/>
+      <c r="H5" s="303"/>
+      <c r="I5" s="303"/>
+      <c r="J5" s="303"/>
       <c r="L5" s="145" t="s">
         <v>704</v>
       </c>
@@ -11028,33 +11196,33 @@
       <c r="A7" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="B7" s="303" t="s">
+      <c r="B7" s="302" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="301"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="302"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="304"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="221" t="s">
         <v>736</v>
       </c>
-      <c r="B8" s="304" t="s">
+      <c r="B8" s="305" t="s">
         <v>732</v>
       </c>
-      <c r="C8" s="304"/>
-      <c r="D8" s="304"/>
-      <c r="E8" s="304"/>
-      <c r="F8" s="304"/>
-      <c r="G8" s="304"/>
-      <c r="H8" s="304"/>
-      <c r="I8" s="304"/>
-      <c r="J8" s="301"/>
+      <c r="C8" s="305"/>
+      <c r="D8" s="305"/>
+      <c r="E8" s="305"/>
+      <c r="F8" s="305"/>
+      <c r="G8" s="305"/>
+      <c r="H8" s="305"/>
+      <c r="I8" s="305"/>
+      <c r="J8" s="304"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="249" t="s">
@@ -11084,7 +11252,7 @@
       <c r="I9" s="139" t="s">
         <v>725</v>
       </c>
-      <c r="J9" s="301"/>
+      <c r="J9" s="304"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="250" t="s">
@@ -11114,55 +11282,55 @@
       <c r="I10" s="142" t="s">
         <v>725</v>
       </c>
-      <c r="J10" s="301"/>
+      <c r="J10" s="304"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="254" t="s">
         <v>737</v>
       </c>
-      <c r="B11" s="302" t="s">
+      <c r="B11" s="303" t="s">
         <v>734</v>
       </c>
-      <c r="C11" s="302"/>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="301"/>
+      <c r="C11" s="303"/>
+      <c r="D11" s="303"/>
+      <c r="E11" s="303"/>
+      <c r="F11" s="303"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="303"/>
+      <c r="I11" s="303"/>
+      <c r="J11" s="304"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="B12" s="303" t="s">
+      <c r="B12" s="302" t="s">
         <v>719</v>
       </c>
-      <c r="C12" s="303"/>
-      <c r="D12" s="303"/>
-      <c r="E12" s="303"/>
-      <c r="F12" s="303"/>
-      <c r="G12" s="303"/>
-      <c r="H12" s="303"/>
-      <c r="I12" s="303"/>
-      <c r="J12" s="265"/>
+      <c r="C12" s="302"/>
+      <c r="D12" s="302"/>
+      <c r="E12" s="302"/>
+      <c r="F12" s="302"/>
+      <c r="G12" s="302"/>
+      <c r="H12" s="302"/>
+      <c r="I12" s="302"/>
+      <c r="J12" s="266"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="221" t="s">
         <v>736</v>
       </c>
-      <c r="B13" s="304" t="s">
+      <c r="B13" s="305" t="s">
         <v>735</v>
       </c>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
-      <c r="H13" s="304"/>
-      <c r="I13" s="304"/>
-      <c r="J13" s="265"/>
+      <c r="C13" s="305"/>
+      <c r="D13" s="305"/>
+      <c r="E13" s="305"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="305"/>
+      <c r="H13" s="305"/>
+      <c r="I13" s="305"/>
+      <c r="J13" s="266"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="249" t="s">
@@ -11192,7 +11360,7 @@
       <c r="I14" s="139" t="s">
         <v>730</v>
       </c>
-      <c r="J14" s="265"/>
+      <c r="J14" s="266"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="250" t="s">
@@ -11222,55 +11390,55 @@
       <c r="I15" s="142" t="s">
         <v>730</v>
       </c>
-      <c r="J15" s="265"/>
+      <c r="J15" s="266"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="254" t="s">
         <v>737</v>
       </c>
-      <c r="B16" s="302" t="s">
+      <c r="B16" s="303" t="s">
         <v>740</v>
       </c>
-      <c r="C16" s="302"/>
-      <c r="D16" s="302"/>
-      <c r="E16" s="302"/>
-      <c r="F16" s="302"/>
-      <c r="G16" s="302"/>
-      <c r="H16" s="302"/>
-      <c r="I16" s="302"/>
-      <c r="J16" s="265"/>
+      <c r="C16" s="303"/>
+      <c r="D16" s="303"/>
+      <c r="E16" s="303"/>
+      <c r="F16" s="303"/>
+      <c r="G16" s="303"/>
+      <c r="H16" s="303"/>
+      <c r="I16" s="303"/>
+      <c r="J16" s="266"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="B17" s="303" t="s">
+      <c r="B17" s="302" t="s">
         <v>719</v>
       </c>
-      <c r="C17" s="303"/>
-      <c r="D17" s="303"/>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="303"/>
-      <c r="I17" s="303"/>
-      <c r="J17" s="265"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="266"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="221" t="s">
         <v>736</v>
       </c>
-      <c r="B18" s="304" t="s">
+      <c r="B18" s="305" t="s">
         <v>741</v>
       </c>
-      <c r="C18" s="304"/>
-      <c r="D18" s="304"/>
-      <c r="E18" s="304"/>
-      <c r="F18" s="304"/>
-      <c r="G18" s="304"/>
-      <c r="H18" s="304"/>
-      <c r="I18" s="304"/>
-      <c r="J18" s="265"/>
+      <c r="C18" s="305"/>
+      <c r="D18" s="305"/>
+      <c r="E18" s="305"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="305"/>
+      <c r="H18" s="305"/>
+      <c r="I18" s="305"/>
+      <c r="J18" s="266"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="249" t="s">
@@ -11300,7 +11468,7 @@
       <c r="I19" s="139" t="s">
         <v>746</v>
       </c>
-      <c r="J19" s="265"/>
+      <c r="J19" s="266"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="250" t="s">
@@ -11330,55 +11498,55 @@
       <c r="I20" s="142" t="s">
         <v>746</v>
       </c>
-      <c r="J20" s="265"/>
+      <c r="J20" s="266"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="254" t="s">
         <v>737</v>
       </c>
-      <c r="B21" s="302" t="s">
+      <c r="B21" s="303" t="s">
         <v>747</v>
       </c>
-      <c r="C21" s="302"/>
-      <c r="D21" s="302"/>
-      <c r="E21" s="302"/>
-      <c r="F21" s="302"/>
-      <c r="G21" s="302"/>
-      <c r="H21" s="302"/>
-      <c r="I21" s="302"/>
-      <c r="J21" s="265"/>
+      <c r="C21" s="303"/>
+      <c r="D21" s="303"/>
+      <c r="E21" s="303"/>
+      <c r="F21" s="303"/>
+      <c r="G21" s="303"/>
+      <c r="H21" s="303"/>
+      <c r="I21" s="303"/>
+      <c r="J21" s="266"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="B22" s="303" t="s">
+      <c r="B22" s="302" t="s">
         <v>719</v>
       </c>
-      <c r="C22" s="303"/>
-      <c r="D22" s="303"/>
-      <c r="E22" s="303"/>
-      <c r="F22" s="303"/>
-      <c r="G22" s="303"/>
-      <c r="H22" s="303"/>
-      <c r="I22" s="303"/>
-      <c r="J22" s="265"/>
+      <c r="C22" s="302"/>
+      <c r="D22" s="302"/>
+      <c r="E22" s="302"/>
+      <c r="F22" s="302"/>
+      <c r="G22" s="302"/>
+      <c r="H22" s="302"/>
+      <c r="I22" s="302"/>
+      <c r="J22" s="266"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="221" t="s">
         <v>736</v>
       </c>
-      <c r="B23" s="304" t="s">
+      <c r="B23" s="305" t="s">
         <v>748</v>
       </c>
-      <c r="C23" s="304"/>
-      <c r="D23" s="304"/>
-      <c r="E23" s="304"/>
-      <c r="F23" s="304"/>
-      <c r="G23" s="304"/>
-      <c r="H23" s="304"/>
-      <c r="I23" s="304"/>
-      <c r="J23" s="265"/>
+      <c r="C23" s="305"/>
+      <c r="D23" s="305"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="305"/>
+      <c r="G23" s="305"/>
+      <c r="H23" s="305"/>
+      <c r="I23" s="305"/>
+      <c r="J23" s="266"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="249" t="s">
@@ -11408,7 +11576,7 @@
       <c r="I24" s="139" t="s">
         <v>754</v>
       </c>
-      <c r="J24" s="265"/>
+      <c r="J24" s="266"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="250" t="s">
@@ -11438,31 +11606,26 @@
       <c r="I25" s="142" t="s">
         <v>754</v>
       </c>
-      <c r="J25" s="265"/>
+      <c r="J25" s="266"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="254" t="s">
         <v>737</v>
       </c>
-      <c r="B26" s="302" t="s">
+      <c r="B26" s="303" t="s">
         <v>755</v>
       </c>
-      <c r="C26" s="302"/>
-      <c r="D26" s="302"/>
-      <c r="E26" s="302"/>
-      <c r="F26" s="302"/>
-      <c r="G26" s="302"/>
-      <c r="H26" s="302"/>
-      <c r="I26" s="302"/>
-      <c r="J26" s="265"/>
+      <c r="C26" s="303"/>
+      <c r="D26" s="303"/>
+      <c r="E26" s="303"/>
+      <c r="F26" s="303"/>
+      <c r="G26" s="303"/>
+      <c r="H26" s="303"/>
+      <c r="I26" s="303"/>
+      <c r="J26" s="266"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="J7:J11"/>
     <mergeCell ref="J12:J16"/>
     <mergeCell ref="J17:J21"/>
     <mergeCell ref="J22:J26"/>
@@ -11470,17 +11633,173 @@
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B11:I11"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B11:I11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E77F6C1-0806-4014-AD32-965CFE63ECC4}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F1" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>760</v>
+      </c>
+      <c r="E3" t="s">
+        <v>769</v>
+      </c>
+      <c r="F3">
+        <v>1024</v>
+      </c>
+      <c r="G3">
+        <v>49151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" t="s">
+        <v>775</v>
+      </c>
+      <c r="E4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F4">
+        <v>49152</v>
+      </c>
+      <c r="G4">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F5" s="307"/>
+      <c r="G5" s="307"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="103" t="s">
+        <v>763</v>
+      </c>
+      <c r="B6" s="306" t="s">
+        <v>764</v>
+      </c>
+      <c r="C6" s="306" t="s">
+        <v>765</v>
+      </c>
+      <c r="E6" s="308" t="s">
+        <v>772</v>
+      </c>
+      <c r="F6" s="309"/>
+      <c r="G6" s="310"/>
+    </row>
+    <row r="7" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="260" t="s">
+        <v>771</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>766</v>
+      </c>
+      <c r="E7" s="311"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="313"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E6:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -11525,16 +11844,16 @@
       <c r="J1" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="265" t="s">
+      <c r="A3" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="F3" s="265" t="s">
+      <c r="B3" s="266"/>
+      <c r="C3" s="266"/>
+      <c r="F3" s="266" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
@@ -11694,11 +12013,11 @@
         <v>76</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="265" t="s">
+      <c r="F10" s="266" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="265"/>
-      <c r="H10" s="265"/>
+      <c r="G10" s="266"/>
+      <c r="H10" s="266"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
@@ -12138,17 +12457,17 @@
       <c r="A11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="267" t="s">
+      <c r="B11" s="268" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="267"/>
+      <c r="C11" s="268"/>
       <c r="E11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="267" t="s">
+      <c r="F11" s="268" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="267"/>
+      <c r="G11" s="268"/>
       <c r="I11" s="12" t="s">
         <v>182</v>
       </c>
@@ -12163,17 +12482,17 @@
       <c r="A12" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="268" t="s">
+      <c r="B12" s="269" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="268"/>
+      <c r="C12" s="269"/>
       <c r="E12" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="268" t="s">
+      <c r="F12" s="269" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="268"/>
+      <c r="G12" s="269"/>
       <c r="I12" s="55" t="s">
         <v>183</v>
       </c>
@@ -12188,17 +12507,17 @@
       <c r="A13" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="269" t="s">
+      <c r="B13" s="270" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="269"/>
+      <c r="C13" s="270"/>
       <c r="E13" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="269" t="s">
+      <c r="F13" s="270" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="269"/>
+      <c r="G13" s="270"/>
       <c r="I13" s="56" t="s">
         <v>184</v>
       </c>
@@ -12213,17 +12532,17 @@
       <c r="A14" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="270" t="s">
+      <c r="B14" s="271" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="270"/>
+      <c r="C14" s="271"/>
       <c r="E14" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="270" t="s">
+      <c r="F14" s="271" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="270"/>
+      <c r="G14" s="271"/>
       <c r="I14" s="57" t="s">
         <v>185</v>
       </c>
@@ -12238,17 +12557,17 @@
       <c r="A15" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="266" t="s">
+      <c r="B15" s="267" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="266"/>
+      <c r="C15" s="267"/>
       <c r="E15" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="266" t="s">
+      <c r="F15" s="267" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="266"/>
+      <c r="G15" s="267"/>
       <c r="I15" s="49" t="s">
         <v>186</v>
       </c>
@@ -12715,16 +13034,16 @@
       <c r="T5" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="V5" s="265" t="s">
+      <c r="V5" s="266" t="s">
         <v>274</v>
       </c>
-      <c r="W5" s="265"/>
-      <c r="X5" s="265"/>
-      <c r="Y5" s="265"/>
-      <c r="Z5" s="265"/>
-      <c r="AA5" s="265"/>
-      <c r="AB5" s="265"/>
-      <c r="AC5" s="265"/>
+      <c r="W5" s="266"/>
+      <c r="X5" s="266"/>
+      <c r="Y5" s="266"/>
+      <c r="Z5" s="266"/>
+      <c r="AA5" s="266"/>
+      <c r="AB5" s="266"/>
+      <c r="AC5" s="266"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
@@ -12948,10 +13267,10 @@
       <c r="F9" s="97">
         <v>16</v>
       </c>
-      <c r="H9" s="265" t="s">
+      <c r="H9" s="266" t="s">
         <v>275</v>
       </c>
-      <c r="I9" s="265"/>
+      <c r="I9" s="266"/>
       <c r="K9" s="70">
         <v>192</v>
       </c>
@@ -13329,10 +13648,10 @@
       <c r="F15" s="96">
         <v>16</v>
       </c>
-      <c r="H15" s="265" t="s">
+      <c r="H15" s="266" t="s">
         <v>275</v>
       </c>
-      <c r="I15" s="265"/>
+      <c r="I15" s="266"/>
       <c r="K15" s="72">
         <v>172</v>
       </c>
@@ -13798,24 +14117,24 @@
       <c r="A1" s="120" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="271" t="s">
+      <c r="B1" s="284" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="274" t="s">
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="287" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="286" t="s">
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="272" t="s">
         <v>350</v>
       </c>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="288"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="274"/>
     </row>
     <row r="2" spans="1:13" s="105" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
@@ -14000,18 +14319,18 @@
       <c r="E6" s="172" t="s">
         <v>401</v>
       </c>
-      <c r="F6" s="280" t="s">
+      <c r="F6" s="278" t="s">
         <v>343</v>
       </c>
-      <c r="G6" s="281"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="282"/>
-      <c r="J6" s="280" t="s">
+      <c r="G6" s="279"/>
+      <c r="H6" s="279"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="278" t="s">
         <v>343</v>
       </c>
-      <c r="K6" s="281"/>
-      <c r="L6" s="281"/>
-      <c r="M6" s="282"/>
+      <c r="K6" s="279"/>
+      <c r="L6" s="279"/>
+      <c r="M6" s="280"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
@@ -14029,44 +14348,44 @@
       <c r="E7" s="175" t="s">
         <v>403</v>
       </c>
-      <c r="F7" s="283" t="s">
+      <c r="F7" s="281" t="s">
         <v>344</v>
       </c>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="283" t="s">
+      <c r="G7" s="282"/>
+      <c r="H7" s="282"/>
+      <c r="I7" s="283"/>
+      <c r="J7" s="281" t="s">
         <v>344</v>
       </c>
-      <c r="K7" s="284"/>
-      <c r="L7" s="284"/>
-      <c r="M7" s="285"/>
+      <c r="K7" s="282"/>
+      <c r="L7" s="282"/>
+      <c r="M7" s="283"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="B8" s="277">
+      <c r="B8" s="275">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="C8" s="278"/>
-      <c r="D8" s="278"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="277">
+      <c r="C8" s="276"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="277"/>
+      <c r="F8" s="275">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="279"/>
-      <c r="J8" s="277">
+      <c r="G8" s="276"/>
+      <c r="H8" s="276"/>
+      <c r="I8" s="277"/>
+      <c r="J8" s="275">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="279"/>
+      <c r="K8" s="276"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="277"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14598,16 +14917,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14639,14 +14958,14 @@
       <c r="A1" s="192" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="289" t="s">
+      <c r="B1" s="290" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
     </row>
     <row r="3" spans="1:8" s="99" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
@@ -15540,7 +15859,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12:C12"/>
     </sheetView>
@@ -15569,14 +15888,14 @@
       <c r="A1" s="100" t="s">
         <v>548</v>
       </c>
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="291" t="s">
         <v>549</v>
       </c>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
       <c r="H1" s="199"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -15956,7 +16275,7 @@
       <c r="I16" s="202">
         <v>255255255128</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="292" t="s">
         <v>621</v>
       </c>
       <c r="K16" s="196" t="s">
@@ -16012,7 +16331,7 @@
       <c r="I17" s="202">
         <v>255255255192</v>
       </c>
-      <c r="J17" s="291"/>
+      <c r="J17" s="292"/>
       <c r="K17" s="196" t="s">
         <v>603</v>
       </c>
@@ -16066,7 +16385,7 @@
       <c r="I18" s="207" t="s">
         <v>358</v>
       </c>
-      <c r="J18" s="291"/>
+      <c r="J18" s="292"/>
       <c r="K18" s="196" t="s">
         <v>339</v>
       </c>
@@ -16120,7 +16439,7 @@
       <c r="I19" s="208">
         <v>255255255128</v>
       </c>
-      <c r="J19" s="291"/>
+      <c r="J19" s="292"/>
       <c r="K19" s="196" t="s">
         <v>563</v>
       </c>
@@ -16417,16 +16736,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="293" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="E1" s="292" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="293"/>
+      <c r="E1" s="293" t="s">
         <v>666</v>
       </c>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
       <c r="I1" s="12" t="s">
         <v>643</v>
       </c>
@@ -16480,7 +16799,7 @@
       <c r="M2" s="222" t="s">
         <v>646</v>
       </c>
-      <c r="N2" s="293" t="s">
+      <c r="N2" s="294" t="s">
         <v>627</v>
       </c>
     </row>
@@ -16518,7 +16837,7 @@
       <c r="M3" s="224" t="s">
         <v>341</v>
       </c>
-      <c r="N3" s="293"/>
+      <c r="N3" s="294"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -16554,7 +16873,7 @@
       <c r="M4" s="227" t="s">
         <v>645</v>
       </c>
-      <c r="N4" s="294"/>
+      <c r="N4" s="295"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -16590,7 +16909,7 @@
       <c r="M5" s="231" t="s">
         <v>647</v>
       </c>
-      <c r="N5" s="295" t="s">
+      <c r="N5" s="296" t="s">
         <v>631</v>
       </c>
     </row>
@@ -16628,7 +16947,7 @@
       <c r="M6" s="227" t="s">
         <v>648</v>
       </c>
-      <c r="N6" s="296"/>
+      <c r="N6" s="297"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -16664,7 +16983,7 @@
       <c r="M7" s="224" t="s">
         <v>645</v>
       </c>
-      <c r="N7" s="297"/>
+      <c r="N7" s="298"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -16701,7 +17020,7 @@
       <c r="M8" s="236" t="s">
         <v>649</v>
       </c>
-      <c r="N8" s="298" t="s">
+      <c r="N8" s="299" t="s">
         <v>630</v>
       </c>
     </row>
@@ -16730,14 +17049,14 @@
       <c r="M9" s="224" t="s">
         <v>341</v>
       </c>
-      <c r="N9" s="299"/>
+      <c r="N9" s="300"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="289" t="s">
+      <c r="A10" s="290" t="s">
         <v>678</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
       <c r="E10" t="s">
         <v>659</v>
       </c>
@@ -16762,12 +17081,12 @@
       <c r="M10" s="240" t="s">
         <v>650</v>
       </c>
-      <c r="N10" s="300"/>
+      <c r="N10" s="301"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="289"/>
-      <c r="B11" s="289"/>
-      <c r="C11" s="289"/>
+      <c r="A11" s="290"/>
+      <c r="B11" s="290"/>
+      <c r="C11" s="290"/>
       <c r="E11" t="s">
         <v>205</v>
       </c>
@@ -16779,9 +17098,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="289"/>
-      <c r="B12" s="289"/>
-      <c r="C12" s="289"/>
+      <c r="A12" s="290"/>
+      <c r="B12" s="290"/>
+      <c r="C12" s="290"/>
       <c r="E12" t="s">
         <v>659</v>
       </c>
@@ -16793,9 +17112,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="289"/>
-      <c r="B13" s="289"/>
-      <c r="C13" s="289"/>
+      <c r="A13" s="290"/>
+      <c r="B13" s="290"/>
+      <c r="C13" s="290"/>
       <c r="E13" t="s">
         <v>652</v>
       </c>

--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna-s10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF82295-86FE-4DA8-8917-15C3F9AA4A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA277B5-AB0B-4A50-9A48-57545768B230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="10" xr2:uid="{F2A32163-0D52-4F0A-8C5D-6317EB95D18F}"/>
   </bookViews>
@@ -11657,7 +11657,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna2-mj14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna2-mj14\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1EA3BBD-85BC-4DF4-80AF-E5E95B665420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E4E998-D895-4EF1-8D21-E325E834FDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{0A8DE5AC-929E-4116-BBBB-758591308C37}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" activeTab="1" xr2:uid="{0A8DE5AC-929E-4116-BBBB-758591308C37}"/>
   </bookViews>
   <sheets>
-    <sheet name="AND" sheetId="1" r:id="rId1"/>
-    <sheet name="BIN" sheetId="2" r:id="rId2"/>
+    <sheet name="UNIDADES" sheetId="3" r:id="rId1"/>
+    <sheet name="ENLACE" sheetId="4" r:id="rId2"/>
+    <sheet name="AND" sheetId="1" r:id="rId3"/>
+    <sheet name="BIN" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="162">
   <si>
     <t>AND</t>
   </si>
@@ -336,6 +338,323 @@
   <si>
     <t>10100111</t>
   </si>
+  <si>
+    <t>ALMACENAMIENTO</t>
+  </si>
+  <si>
+    <t>ANCHO DE BANDA</t>
+  </si>
+  <si>
+    <t>FRECUENCIA</t>
+  </si>
+  <si>
+    <t>Binary Digit</t>
+  </si>
+  <si>
+    <t>1 | 0</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>bps</t>
+  </si>
+  <si>
+    <t>bits por segundo</t>
+  </si>
+  <si>
+    <t>10^0</t>
+  </si>
+  <si>
+    <t>Hertz</t>
+  </si>
+  <si>
+    <t>ciclo por segundo</t>
+  </si>
+  <si>
+    <t>8 bits</t>
+  </si>
+  <si>
+    <t>KyloByte</t>
+  </si>
+  <si>
+    <t>MegaByte</t>
+  </si>
+  <si>
+    <t>10^3</t>
+  </si>
+  <si>
+    <t>10^6</t>
+  </si>
+  <si>
+    <t>10^9</t>
+  </si>
+  <si>
+    <t>10^12</t>
+  </si>
+  <si>
+    <t>10^15</t>
+  </si>
+  <si>
+    <t>10^18</t>
+  </si>
+  <si>
+    <t>10^21</t>
+  </si>
+  <si>
+    <t>10^24</t>
+  </si>
+  <si>
+    <t>10^27</t>
+  </si>
+  <si>
+    <t>10^30</t>
+  </si>
+  <si>
+    <t>10^33</t>
+  </si>
+  <si>
+    <t>GigaByte</t>
+  </si>
+  <si>
+    <t>TeraByte</t>
+  </si>
+  <si>
+    <t>PetaByte</t>
+  </si>
+  <si>
+    <t>ExaByte</t>
+  </si>
+  <si>
+    <t>ZettaByte</t>
+  </si>
+  <si>
+    <t>YottaByte</t>
+  </si>
+  <si>
+    <t>BrontoByte</t>
+  </si>
+  <si>
+    <t>GeopByte</t>
+  </si>
+  <si>
+    <t>SaganByte</t>
+  </si>
+  <si>
+    <t>1000B</t>
+  </si>
+  <si>
+    <t>1000KB</t>
+  </si>
+  <si>
+    <t>1000MB</t>
+  </si>
+  <si>
+    <t>1000GB</t>
+  </si>
+  <si>
+    <t>1000TB</t>
+  </si>
+  <si>
+    <t>1000PB</t>
+  </si>
+  <si>
+    <t>1000XB</t>
+  </si>
+  <si>
+    <t>1000ZB</t>
+  </si>
+  <si>
+    <t>1000YB</t>
+  </si>
+  <si>
+    <t>1000BB</t>
+  </si>
+  <si>
+    <t>1000GeB</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Equiv</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>KiB</t>
+  </si>
+  <si>
+    <t>MiB</t>
+  </si>
+  <si>
+    <t>GiB</t>
+  </si>
+  <si>
+    <t>TiB</t>
+  </si>
+  <si>
+    <t>PiB</t>
+  </si>
+  <si>
+    <t>EiB</t>
+  </si>
+  <si>
+    <t>ZiB</t>
+  </si>
+  <si>
+    <t>YiB</t>
+  </si>
+  <si>
+    <t>BiB</t>
+  </si>
+  <si>
+    <t>SiB</t>
+  </si>
+  <si>
+    <t>GeiB</t>
+  </si>
+  <si>
+    <t>sufijo bi</t>
+  </si>
+  <si>
+    <t>Kbps</t>
+  </si>
+  <si>
+    <t>Mbps</t>
+  </si>
+  <si>
+    <t>Gbps</t>
+  </si>
+  <si>
+    <t>Tbps</t>
+  </si>
+  <si>
+    <t>1000bps</t>
+  </si>
+  <si>
+    <t>1000Kbps</t>
+  </si>
+  <si>
+    <t>1000Gbps</t>
+  </si>
+  <si>
+    <t>1000Mbps</t>
+  </si>
+  <si>
+    <t>Khz</t>
+  </si>
+  <si>
+    <t>Mhz</t>
+  </si>
+  <si>
+    <t>Ghz</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>HALF</t>
+  </si>
+  <si>
+    <t>FULL</t>
+  </si>
+  <si>
+    <t>Simplex</t>
+  </si>
+  <si>
+    <t>Full Full</t>
+  </si>
+  <si>
+    <t>Duplex</t>
+  </si>
+  <si>
+    <t>uno envia el resto recibe datos</t>
+  </si>
+  <si>
+    <t>El host envia o recibe datos</t>
+  </si>
+  <si>
+    <t>El host envia y recibe datos</t>
+  </si>
+  <si>
+    <t>Varios envian y reciben datos</t>
+  </si>
+  <si>
+    <t>Colision</t>
+  </si>
+  <si>
+    <t>Funcionamiento</t>
+  </si>
+  <si>
+    <t>Limitado a su configuracion Base (cantidad de puertos fisicos)</t>
+  </si>
+  <si>
+    <t>Permiten la incorporacion de mas interfaces de ser necesario</t>
+  </si>
+  <si>
+    <t>Utilizan un conector para funcionar como uno de mayor capacidad</t>
+  </si>
+  <si>
+    <t>Reenvia las tramas apenas identifique la direccion de destino</t>
+  </si>
+  <si>
+    <t>Almacena las tramas en un buffer y las reenvia al verificarlas</t>
+  </si>
+  <si>
+    <t>Reenvia las tramas tras leer los primeros 64Bytes</t>
+  </si>
+  <si>
+    <t>Fija</t>
+  </si>
+  <si>
+    <t>Expandible</t>
+  </si>
+  <si>
+    <t>Apilable</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Store-N-Forward (Almacen y Envio)</t>
+  </si>
+  <si>
+    <t>Fragment-Free  
+(Libre de Fragmentos)</t>
+  </si>
+  <si>
+    <t>Cut-Through 
+(Metodo de Corte)</t>
+  </si>
+  <si>
+    <t>Runt Frames</t>
+  </si>
+  <si>
+    <t>Giant Frames</t>
+  </si>
+  <si>
+    <t>CRC Frames</t>
+  </si>
+  <si>
+    <t>Throttle Frames</t>
+  </si>
+  <si>
+    <t>Tramas menores a 64 Bytes</t>
+  </si>
+  <si>
+    <t>Tramas mayores a 1500Bytes</t>
+  </si>
+  <si>
+    <t>Tramas descartadas por desbordamiento</t>
+  </si>
+  <si>
+    <t>Tramas que no superan la verificacion</t>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,8 +709,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -482,11 +807,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -507,9 +861,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -521,221 +872,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="28">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+      <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -744,6 +989,218 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -771,32 +1228,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13D155E4-D398-407B-AC95-045F9D5206EB}" name="Tabla2" displayName="Tabla2" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{13D155E4-D398-407B-AC95-045F9D5206EB}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E7414CB7-1FED-4FD4-8297-2BDCED5D1DE8}" name="AND"/>
-    <tableColumn id="2" xr3:uid="{923BA942-2940-46F1-A600-E4BB020F3A58}" name="DECIMAL"/>
-    <tableColumn id="3" xr3:uid="{0DC99166-0D88-49DF-9B1B-28434A4B74F0}" name="BYTE 1" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{ABF9CAD8-A787-4B66-8B8A-C0C4366DE6D0}" name="BYTE 2" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{61208B89-8C49-40A6-AE92-9D58A6E5E454}" name="BYTE 3" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{38B4EA60-9A9E-4313-BBBE-9937D44CFF29}" name="BYTE 4" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40C91C-7D68-452F-89D9-0BC004F4C381}" name="Tabla4" displayName="Tabla4" ref="A4:D16" totalsRowShown="0">
+  <autoFilter ref="A4:D16" xr:uid="{BD40C91C-7D68-452F-89D9-0BC004F4C381}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A3BB5F92-8FE1-4452-AF0C-3ED0E5F42C03}" name="Unidad"/>
+    <tableColumn id="2" xr3:uid="{941302C2-204B-41B1-A39A-A99F78D2D1CB}" name="Equiv"/>
+    <tableColumn id="3" xr3:uid="{78BF88C5-C612-405B-BE2C-3695F993B504}" name="Exp"/>
+    <tableColumn id="4" xr3:uid="{F9112DAA-1C09-4EE7-AE40-4C536DD30812}" name="Real"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C9AF53D7-A713-40F6-9C94-063C8F914C37}" name="Tabla6" displayName="Tabla6" ref="K1:L3" totalsRowShown="0">
-  <autoFilter ref="K1:L3" xr:uid="{C9AF53D7-A713-40F6-9C94-063C8F914C37}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8B32B56C-53AE-4DA3-B7C1-071C1812C674}" name="Porcion"/>
-    <tableColumn id="2" xr3:uid="{AFE0F479-AF1D-4714-A072-E70A82D15203}" name="Bit"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C83D29F0-F075-4AAA-B25A-08ED3DC4158B}" name="Tabla7" displayName="Tabla7" ref="H1:I5" totalsRowShown="0">
   <autoFilter ref="H1:I5" xr:uid="{C83D29F0-F075-4AAA-B25A-08ED3DC4158B}"/>
   <tableColumns count="2">
@@ -807,30 +1251,124 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04BE53F9-C997-49DA-B179-51E46754BDD7}" name="Tabla1" displayName="Tabla1" ref="A1:I3" totalsRowShown="0" headerRowDxfId="0">
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04BE53F9-C997-49DA-B179-51E46754BDD7}" name="Tabla1" displayName="Tabla1" ref="A1:I3" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:I3" xr:uid="{04BE53F9-C997-49DA-B179-51E46754BDD7}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{45E42E80-691C-4658-9C7A-825EAB495BDB}" name="EXP" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{7A68EA22-0E6C-4EA3-BCBD-6C63BB692668}" name="2^7" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{BB76D7D6-83F7-4051-BB82-13E817C5F251}" name="2^6" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{444E06F8-A657-4F80-B21B-8E02642777CF}" name="2^5" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{C84D46EF-0237-4529-9A12-0578060BDE3B}" name="2^4" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{51640218-50B5-44F3-A633-6D2B82581E6A}" name="2^3" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{86B4A6AB-87FF-4178-BD3A-A013F68C2BBD}" name="2^2" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{909C26AC-DCCD-4C35-ACD6-66F843B16D02}" name="2^1" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{51FD7346-8278-4121-8115-2A10C868B914}" name="2^0" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{45E42E80-691C-4658-9C7A-825EAB495BDB}" name="EXP" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7A68EA22-0E6C-4EA3-BCBD-6C63BB692668}" name="2^7" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{BB76D7D6-83F7-4051-BB82-13E817C5F251}" name="2^6" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{444E06F8-A657-4F80-B21B-8E02642777CF}" name="2^5" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{C84D46EF-0237-4529-9A12-0578060BDE3B}" name="2^4" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{51640218-50B5-44F3-A633-6D2B82581E6A}" name="2^3" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{86B4A6AB-87FF-4178-BD3A-A013F68C2BBD}" name="2^2" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{909C26AC-DCCD-4C35-ACD6-66F843B16D02}" name="2^1" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{51FD7346-8278-4121-8115-2A10C868B914}" name="2^0" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C0921313-5194-4281-912E-0CD6F3BE319F}" name="Tabla3" displayName="Tabla3" ref="K1:L10" totalsRowShown="0">
+  <autoFilter ref="K1:L10" xr:uid="{C0921313-5194-4281-912E-0CD6F3BE319F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3728F07D-C07B-43B6-846F-B73B5EC9C8A3}" name="DEC" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{6DDB2D9E-8B4C-46A8-A2AE-67B9AE9D2651}" name="BIN" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3EF010CC-D4C0-436D-B264-B8CC57A5128B}" name="Tabla5" displayName="Tabla5" ref="F12:H16" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="F12:H16" xr:uid="{3EF010CC-D4C0-436D-B264-B8CC57A5128B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1F9AE69C-28EF-4CF1-A461-0D1C91B52766}" name="Unidad"/>
+    <tableColumn id="2" xr3:uid="{3044743A-E847-41C4-AF9B-80138B0E36D5}" name="Equiv"/>
+    <tableColumn id="3" xr3:uid="{1B1C1B56-D99B-4E1F-98A2-9FE8100CAF40}" name="Exp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AD251824-3B13-4795-B35F-417484E7AF69}" name="Tabla8" displayName="Tabla8" ref="F4:H9" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="F4:H9" xr:uid="{AD251824-3B13-4795-B35F-417484E7AF69}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F28365EC-BD0A-44CD-B5EA-CB6F0BCCDAD4}" name="Unidad"/>
+    <tableColumn id="2" xr3:uid="{5A1ED304-F3CA-4229-BAC6-0FA062A26E26}" name="Equiv"/>
+    <tableColumn id="3" xr3:uid="{9D70656F-A425-41E9-BC24-7094EDE7A56D}" name="Exp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E3EEB79C-8679-433C-8C8C-3BFCF027EE3C}" name="Tabla9" displayName="Tabla9" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{E3EEB79C-8679-433C-8C8C-3BFCF027EE3C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{47B91FB0-7916-4C4D-9F1A-1F50E740BEB5}" name="Duplex"/>
+    <tableColumn id="2" xr3:uid="{B5310B13-F8D3-4239-9B35-D5E08F031862}" name="Descripcion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C0921313-5194-4281-912E-0CD6F3BE319F}" name="Tabla3" displayName="Tabla3" ref="K1:L10" totalsRowShown="0">
-  <autoFilter ref="K1:L10" xr:uid="{C0921313-5194-4281-912E-0CD6F3BE319F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4EA0A95F-0A9A-42FB-B81F-D3BDDE76DDCF}" name="Tabla10" displayName="Tabla10" ref="A7:B10" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A7:B10" xr:uid="{4EA0A95F-0A9A-42FB-B81F-D3BDDE76DDCF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3728F07D-C07B-43B6-846F-B73B5EC9C8A3}" name="DEC" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6DDB2D9E-8B4C-46A8-A2AE-67B9AE9D2651}" name="BIN" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{AB57D7D5-2286-4A13-8513-64A4C83A1BB2}" name="Config" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{715E714A-BC19-407F-8767-A697EFF0C87F}" name="Descripcion" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E4A4F5A5-4AD8-4B75-87E2-1FCE48A09B58}" name="Tabla11" displayName="Tabla11" ref="D7:E10" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="D7:E10" xr:uid="{E4A4F5A5-4AD8-4B75-87E2-1FCE48A09B58}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0D3F5B5C-61F7-4E33-9A0A-85CA0329F28C}" name="Funcionamiento" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{158DBA94-D8E6-4A42-A591-57ED0B2D657F}" name="Descripcion" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C510F25F-478A-459D-9915-9CDDA944B643}" name="Tabla12" displayName="Tabla12" ref="D1:E5" totalsRowShown="0">
+  <autoFilter ref="D1:E5" xr:uid="{C510F25F-478A-459D-9915-9CDDA944B643}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3E24E882-2923-4716-AFD9-8025B0C1D532}" name="Colision"/>
+    <tableColumn id="2" xr3:uid="{107BC76E-6748-4D59-8FEB-63D73021E814}" name="Descripcion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{13D155E4-D398-407B-AC95-045F9D5206EB}" name="Tabla2" displayName="Tabla2" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{13D155E4-D398-407B-AC95-045F9D5206EB}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E7414CB7-1FED-4FD4-8297-2BDCED5D1DE8}" name="AND"/>
+    <tableColumn id="2" xr3:uid="{923BA942-2940-46F1-A600-E4BB020F3A58}" name="DECIMAL"/>
+    <tableColumn id="3" xr3:uid="{0DC99166-0D88-49DF-9B1B-28434A4B74F0}" name="BYTE 1" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{ABF9CAD8-A787-4B66-8B8A-C0C4366DE6D0}" name="BYTE 2" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{61208B89-8C49-40A6-AE92-9D58A6E5E454}" name="BYTE 3" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{38B4EA60-9A9E-4313-BBBE-9937D44CFF29}" name="BYTE 4" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C9AF53D7-A713-40F6-9C94-063C8F914C37}" name="Tabla6" displayName="Tabla6" ref="K1:L3" totalsRowShown="0">
+  <autoFilter ref="K1:L3" xr:uid="{C9AF53D7-A713-40F6-9C94-063C8F914C37}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8B32B56C-53AE-4DA3-B7C1-071C1812C674}" name="Porcion"/>
+    <tableColumn id="2" xr3:uid="{AFE0F479-AF1D-4714-A072-E70A82D15203}" name="Bit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1132,14 +1670,517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C0D167-B099-4BC2-A3E5-D097A8CFF4F1}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="E4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="F3" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91814D92-A16C-42E0-8C0D-DAD67E9661CC}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCDC4A6-1EF1-4C78-A9DD-CA43A0BDED74}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,12 +2345,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1318,16 +2359,16 @@
       <c r="B7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1335,19 +2376,19 @@
       <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>255255255248</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1358,16 +2399,16 @@
       <c r="B9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1378,16 +2419,16 @@
       <c r="B10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1405,13 +2446,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE4E250-59DA-4DBD-983A-B016C4E5B6E6}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:I4"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="B2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,16 +2573,16 @@
       <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="27">
         <v>200</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="K4" s="3">
         <v>192</v>
       </c>

--- a/docs/protocols_suite.xlsx
+++ b/docs/protocols_suite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\networks\CISCO\saves\ccna2-mj14\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E4E998-D895-4EF1-8D21-E325E834FDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE69E4B-01C6-422B-9131-6AEAFC376285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" activeTab="1" xr2:uid="{0A8DE5AC-929E-4116-BBBB-758591308C37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{0A8DE5AC-929E-4116-BBBB-758591308C37}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDADES" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="173">
   <si>
     <t>AND</t>
   </si>
@@ -654,6 +654,39 @@
   </si>
   <si>
     <t>Tramas que no superan la verificacion</t>
+  </si>
+  <si>
+    <t>°°</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>B0</t>
   </si>
 </sst>
 </file>
@@ -716,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -836,11 +869,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -872,9 +938,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,11 +947,270 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -908,41 +1230,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -971,248 +1269,41 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1252,36 +1343,36 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04BE53F9-C997-49DA-B179-51E46754BDD7}" name="Tabla1" displayName="Tabla1" ref="A1:I3" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04BE53F9-C997-49DA-B179-51E46754BDD7}" name="Tabla1" displayName="Tabla1" ref="A1:I3" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:I3" xr:uid="{04BE53F9-C997-49DA-B179-51E46754BDD7}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{45E42E80-691C-4658-9C7A-825EAB495BDB}" name="EXP" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{7A68EA22-0E6C-4EA3-BCBD-6C63BB692668}" name="2^7" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{BB76D7D6-83F7-4051-BB82-13E817C5F251}" name="2^6" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{444E06F8-A657-4F80-B21B-8E02642777CF}" name="2^5" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{C84D46EF-0237-4529-9A12-0578060BDE3B}" name="2^4" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{51640218-50B5-44F3-A633-6D2B82581E6A}" name="2^3" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{86B4A6AB-87FF-4178-BD3A-A013F68C2BBD}" name="2^2" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{909C26AC-DCCD-4C35-ACD6-66F843B16D02}" name="2^1" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{51FD7346-8278-4121-8115-2A10C868B914}" name="2^0" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{45E42E80-691C-4658-9C7A-825EAB495BDB}" name="EXP" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7A68EA22-0E6C-4EA3-BCBD-6C63BB692668}" name="2^7" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BB76D7D6-83F7-4051-BB82-13E817C5F251}" name="2^6" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{444E06F8-A657-4F80-B21B-8E02642777CF}" name="2^5" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{C84D46EF-0237-4529-9A12-0578060BDE3B}" name="2^4" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{51640218-50B5-44F3-A633-6D2B82581E6A}" name="2^3" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{86B4A6AB-87FF-4178-BD3A-A013F68C2BBD}" name="2^2" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{909C26AC-DCCD-4C35-ACD6-66F843B16D02}" name="2^1" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{51FD7346-8278-4121-8115-2A10C868B914}" name="2^0" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C0921313-5194-4281-912E-0CD6F3BE319F}" name="Tabla3" displayName="Tabla3" ref="K1:L10" totalsRowShown="0">
-  <autoFilter ref="K1:L10" xr:uid="{C0921313-5194-4281-912E-0CD6F3BE319F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C0921313-5194-4281-912E-0CD6F3BE319F}" name="Tabla3" displayName="Tabla3" ref="M1:N11" totalsRowShown="0">
+  <autoFilter ref="M1:N11" xr:uid="{C0921313-5194-4281-912E-0CD6F3BE319F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3728F07D-C07B-43B6-846F-B73B5EC9C8A3}" name="DEC" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{6DDB2D9E-8B4C-46A8-A2AE-67B9AE9D2651}" name="BIN" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{3728F07D-C07B-43B6-846F-B73B5EC9C8A3}" name="DEC" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6DDB2D9E-8B4C-46A8-A2AE-67B9AE9D2651}" name="BIN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3EF010CC-D4C0-436D-B264-B8CC57A5128B}" name="Tabla5" displayName="Tabla5" ref="F12:H16" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3EF010CC-D4C0-436D-B264-B8CC57A5128B}" name="Tabla5" displayName="Tabla5" ref="F12:H16" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="F12:H16" xr:uid="{3EF010CC-D4C0-436D-B264-B8CC57A5128B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1F9AE69C-28EF-4CF1-A461-0D1C91B52766}" name="Unidad"/>
@@ -1293,7 +1384,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AD251824-3B13-4795-B35F-417484E7AF69}" name="Tabla8" displayName="Tabla8" ref="F4:H9" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AD251824-3B13-4795-B35F-417484E7AF69}" name="Tabla8" displayName="Tabla8" ref="F4:H9" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="F4:H9" xr:uid="{AD251824-3B13-4795-B35F-417484E7AF69}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F28365EC-BD0A-44CD-B5EA-CB6F0BCCDAD4}" name="Unidad"/>
@@ -1316,22 +1407,22 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4EA0A95F-0A9A-42FB-B81F-D3BDDE76DDCF}" name="Tabla10" displayName="Tabla10" ref="A7:B10" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4EA0A95F-0A9A-42FB-B81F-D3BDDE76DDCF}" name="Tabla10" displayName="Tabla10" ref="A7:B10" totalsRowShown="0" dataDxfId="21">
   <autoFilter ref="A7:B10" xr:uid="{4EA0A95F-0A9A-42FB-B81F-D3BDDE76DDCF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AB57D7D5-2286-4A13-8513-64A4C83A1BB2}" name="Config" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{715E714A-BC19-407F-8767-A697EFF0C87F}" name="Descripcion" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{AB57D7D5-2286-4A13-8513-64A4C83A1BB2}" name="Config" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{715E714A-BC19-407F-8767-A697EFF0C87F}" name="Descripcion" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E4A4F5A5-4AD8-4B75-87E2-1FCE48A09B58}" name="Tabla11" displayName="Tabla11" ref="D7:E10" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E4A4F5A5-4AD8-4B75-87E2-1FCE48A09B58}" name="Tabla11" displayName="Tabla11" ref="D7:E10" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="D7:E10" xr:uid="{E4A4F5A5-4AD8-4B75-87E2-1FCE48A09B58}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0D3F5B5C-61F7-4E33-9A0A-85CA0329F28C}" name="Funcionamiento" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{158DBA94-D8E6-4A42-A591-57ED0B2D657F}" name="Descripcion" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0D3F5B5C-61F7-4E33-9A0A-85CA0329F28C}" name="Funcionamiento" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{158DBA94-D8E6-4A42-A591-57ED0B2D657F}" name="Descripcion" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1354,10 +1445,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7414CB7-1FED-4FD4-8297-2BDCED5D1DE8}" name="AND"/>
     <tableColumn id="2" xr3:uid="{923BA942-2940-46F1-A600-E4BB020F3A58}" name="DECIMAL"/>
-    <tableColumn id="3" xr3:uid="{0DC99166-0D88-49DF-9B1B-28434A4B74F0}" name="BYTE 1" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{ABF9CAD8-A787-4B66-8B8A-C0C4366DE6D0}" name="BYTE 2" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{61208B89-8C49-40A6-AE92-9D58A6E5E454}" name="BYTE 3" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{38B4EA60-9A9E-4313-BBBE-9937D44CFF29}" name="BYTE 4" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{0DC99166-0D88-49DF-9B1B-28434A4B74F0}" name="BYTE 1" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{ABF9CAD8-A787-4B66-8B8A-C0C4366DE6D0}" name="BYTE 2" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{61208B89-8C49-40A6-AE92-9D58A6E5E454}" name="BYTE 3" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{38B4EA60-9A9E-4313-BBBE-9937D44CFF29}" name="BYTE 4" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1698,17 +1789,17 @@
       <c r="D1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1723,13 +1814,13 @@
       <c r="D4" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="30" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1826,16 +1917,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>109</v>
       </c>
       <c r="F9" t="s">
@@ -1875,11 +1966,11 @@
       <c r="D11" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1894,27 +1985,27 @@
       <c r="D12" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>113</v>
       </c>
       <c r="F13" t="s">
@@ -2016,7 +2107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91814D92-A16C-42E0-8C0D-DAD67E9661CC}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2119,45 +2210,45 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="31" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:8" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2448,23 +2539,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE4E250-59DA-4DBD-983A-B016C4E5B6E6}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="B2:I3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
@@ -2492,14 +2585,16 @@
       <c r="I1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="36"/>
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -2527,14 +2622,16 @@
       <c r="I2" s="15">
         <v>1</v>
       </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="36"/>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -2562,43 +2659,71 @@
       <c r="I3" s="15">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="J3" s="39"/>
+      <c r="K3" s="36"/>
+      <c r="M3" s="3">
         <v>128</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="33">
         <v>200</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="K4" s="3">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="37"/>
+      <c r="M4" s="3">
         <v>192</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K5" s="3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="47">
+        <v>8</v>
+      </c>
+      <c r="C5" s="47">
+        <v>4</v>
+      </c>
+      <c r="D5" s="47">
+        <v>2</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
         <v>224</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>64</v>
       </c>
@@ -2611,7 +2736,7 @@
       <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="42">
         <v>0</v>
       </c>
       <c r="F6" s="10">
@@ -2626,14 +2751,20 @@
       <c r="I6" s="11">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="J6" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="34">
+        <v>40</v>
+      </c>
+      <c r="M6" s="3">
         <v>240</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>63</v>
       </c>
@@ -2646,7 +2777,7 @@
       <c r="D7" s="13">
         <v>1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="43">
         <v>1</v>
       </c>
       <c r="F7" s="13">
@@ -2661,14 +2792,20 @@
       <c r="I7" s="14">
         <v>1</v>
       </c>
-      <c r="K7" s="3">
+      <c r="J7" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="M7" s="3">
         <v>248</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>128</v>
       </c>
@@ -2681,7 +2818,7 @@
       <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="42">
         <v>0</v>
       </c>
       <c r="F8" s="10">
@@ -2696,14 +2833,20 @@
       <c r="I8" s="11">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="J8" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" s="34">
+        <v>80</v>
+      </c>
+      <c r="M8" s="3">
         <v>252</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>127</v>
       </c>
@@ -2716,7 +2859,7 @@
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="44">
         <v>1</v>
       </c>
       <c r="F9" s="7">
@@ -2731,19 +2874,402 @@
       <c r="I9" s="8">
         <v>1</v>
       </c>
-      <c r="K9" s="3">
+      <c r="J9" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="M9" s="3">
         <v>254</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K10" s="3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>237</v>
+      </c>
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34">
+        <v>1</v>
+      </c>
+      <c r="E10" s="45">
+        <v>0</v>
+      </c>
+      <c r="F10" s="34">
+        <v>1</v>
+      </c>
+      <c r="G10" s="34">
+        <v>1</v>
+      </c>
+      <c r="H10" s="34">
+        <v>0</v>
+      </c>
+      <c r="I10" s="34">
+        <v>1</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10" s="3">
         <v>255</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>246</v>
+      </c>
+      <c r="B11" s="35">
+        <v>1</v>
+      </c>
+      <c r="C11" s="35">
+        <v>1</v>
+      </c>
+      <c r="D11" s="35">
+        <v>1</v>
+      </c>
+      <c r="E11" s="46">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0</v>
+      </c>
+      <c r="G11" s="35">
+        <v>1</v>
+      </c>
+      <c r="H11" s="35">
+        <v>1</v>
+      </c>
+      <c r="I11" s="35">
+        <v>0</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12" s="34">
+        <v>0</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0</v>
+      </c>
+      <c r="E12" s="45">
+        <v>1</v>
+      </c>
+      <c r="F12" s="34">
+        <v>1</v>
+      </c>
+      <c r="G12" s="34">
+        <v>0</v>
+      </c>
+      <c r="H12" s="34">
+        <v>0</v>
+      </c>
+      <c r="I12" s="34">
+        <v>0</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" s="35">
+        <v>0</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0</v>
+      </c>
+      <c r="E13" s="46">
+        <v>1</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+      <c r="H13" s="35">
+        <v>1</v>
+      </c>
+      <c r="I13" s="35">
+        <v>0</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14" s="34">
+        <v>0</v>
+      </c>
+      <c r="C14" s="34">
+        <v>0</v>
+      </c>
+      <c r="D14" s="34">
+        <v>1</v>
+      </c>
+      <c r="E14" s="45">
+        <v>0</v>
+      </c>
+      <c r="F14" s="34">
+        <v>0</v>
+      </c>
+      <c r="G14" s="34">
+        <v>0</v>
+      </c>
+      <c r="H14" s="34">
+        <v>0</v>
+      </c>
+      <c r="I14" s="34">
+        <v>0</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15" s="35">
+        <v>0</v>
+      </c>
+      <c r="C15" s="35">
+        <v>0</v>
+      </c>
+      <c r="D15" s="35">
+        <v>1</v>
+      </c>
+      <c r="E15" s="46">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35">
+        <v>1</v>
+      </c>
+      <c r="G15" s="35">
+        <v>1</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>196</v>
+      </c>
+      <c r="B16" s="34">
+        <v>1</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1</v>
+      </c>
+      <c r="D16" s="34">
+        <v>0</v>
+      </c>
+      <c r="E16" s="45">
+        <v>0</v>
+      </c>
+      <c r="F16" s="34">
+        <v>0</v>
+      </c>
+      <c r="G16" s="34">
+        <v>1</v>
+      </c>
+      <c r="H16" s="34">
+        <v>0</v>
+      </c>
+      <c r="I16" s="34">
+        <v>0</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17" s="35">
+        <v>0</v>
+      </c>
+      <c r="C17" s="35">
+        <v>1</v>
+      </c>
+      <c r="D17" s="35">
+        <v>1</v>
+      </c>
+      <c r="E17" s="46">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="35">
+        <v>1</v>
+      </c>
+      <c r="H17" s="35">
+        <v>0</v>
+      </c>
+      <c r="I17" s="35">
+        <v>1</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>168</v>
+      </c>
+      <c r="B18" s="34">
+        <v>1</v>
+      </c>
+      <c r="C18" s="34">
+        <v>0</v>
+      </c>
+      <c r="D18" s="34">
+        <v>1</v>
+      </c>
+      <c r="E18" s="45">
+        <v>0</v>
+      </c>
+      <c r="F18" s="34">
+        <v>1</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0</v>
+      </c>
+      <c r="I18" s="34">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>175</v>
+      </c>
+      <c r="B19" s="35">
+        <v>1</v>
+      </c>
+      <c r="C19" s="35">
+        <v>0</v>
+      </c>
+      <c r="D19" s="35">
+        <v>1</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
+        <v>1</v>
+      </c>
+      <c r="G19" s="35">
+        <v>1</v>
+      </c>
+      <c r="H19" s="35">
+        <v>1</v>
+      </c>
+      <c r="I19" s="35">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>176</v>
+      </c>
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="34">
+        <v>1</v>
+      </c>
+      <c r="D20" s="34">
+        <v>0</v>
+      </c>
+      <c r="E20" s="45">
+        <v>1</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0</v>
+      </c>
+      <c r="H20" s="34">
+        <v>0</v>
+      </c>
+      <c r="I20" s="34">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
